--- a/ENPHASE.xlsx
+++ b/ENPHASE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802E57EC-B3BA-4791-9899-2B569C8233C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6BD802-229E-4BA3-BF37-4FF0378CB0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9D3A19D8-55D8-46DD-A2B2-6A867578918F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Shares</t>
   </si>
@@ -157,6 +157,132 @@
   </si>
   <si>
     <t>GROSS MARGIN</t>
+  </si>
+  <si>
+    <t>Q111</t>
+  </si>
+  <si>
+    <t>Q211</t>
+  </si>
+  <si>
+    <t>Q311</t>
+  </si>
+  <si>
+    <t>Q411</t>
+  </si>
+  <si>
+    <t>Q112</t>
+  </si>
+  <si>
+    <t>Q212</t>
+  </si>
+  <si>
+    <t>Q312</t>
+  </si>
+  <si>
+    <t>Q412</t>
+  </si>
+  <si>
+    <t>Q113</t>
+  </si>
+  <si>
+    <t>Q213</t>
+  </si>
+  <si>
+    <t>Q313</t>
+  </si>
+  <si>
+    <t>Q413</t>
+  </si>
+  <si>
+    <t>Q114</t>
+  </si>
+  <si>
+    <t>Q214</t>
+  </si>
+  <si>
+    <t>Q314</t>
+  </si>
+  <si>
+    <t>Q414</t>
+  </si>
+  <si>
+    <t>Q115</t>
+  </si>
+  <si>
+    <t>Q215</t>
+  </si>
+  <si>
+    <t>Q315</t>
+  </si>
+  <si>
+    <t>Q415</t>
+  </si>
+  <si>
+    <t>Q116</t>
+  </si>
+  <si>
+    <t>Q216</t>
+  </si>
+  <si>
+    <t>Q316</t>
+  </si>
+  <si>
+    <t>Q416</t>
+  </si>
+  <si>
+    <t>Q117</t>
+  </si>
+  <si>
+    <t>Q217</t>
+  </si>
+  <si>
+    <t>Q317</t>
+  </si>
+  <si>
+    <t>Q417</t>
+  </si>
+  <si>
+    <t>Q118</t>
+  </si>
+  <si>
+    <t>Q218</t>
+  </si>
+  <si>
+    <t>Q318</t>
+  </si>
+  <si>
+    <t>Q418</t>
+  </si>
+  <si>
+    <t>Q119</t>
+  </si>
+  <si>
+    <t>Q219</t>
+  </si>
+  <si>
+    <t>Q319</t>
+  </si>
+  <si>
+    <t>Q419</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in millions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to do </t>
   </si>
 </sst>
 </file>
@@ -180,12 +306,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -215,8 +347,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -236,9 +370,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,7 +410,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -382,7 +516,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,7 +658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -606,369 +740,1320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DABA9C-280B-48F5-96D3-D249F6D12B9C}">
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:CA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="3"/>
+    <col min="51" max="51" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AN1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AO1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AP1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AQ1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AR1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AS1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AT1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AU1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AV1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AW1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AX1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AY1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AZ1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="BA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF1">
+        <f>2011</f>
+        <v>2011</v>
+      </c>
+      <c r="BG1">
+        <f>BF1+1</f>
+        <v>2012</v>
+      </c>
+      <c r="BH1">
+        <f t="shared" ref="BH1:CA1" si="0">BG1+1</f>
+        <v>2013</v>
+      </c>
+      <c r="BI1">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="BJ1">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="BK1">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="BL1">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="BM1">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="BN1">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="BO1">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="BP1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="BQ1">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="BR1">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="BS1">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="BT1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="BU1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="BV1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="BW1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="BX1">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="BY1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="BZ1">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="CA1">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY2"/>
+    </row>
+    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="C3">
+        <v>18.068999999999999</v>
+      </c>
+      <c r="D3">
+        <v>29.591999999999999</v>
+      </c>
+      <c r="E3">
+        <v>44.728000000000002</v>
+      </c>
+      <c r="F3">
+        <f>149.523-SUM(C3:E3)</f>
+        <v>57.133999999999986</v>
+      </c>
+      <c r="G3">
+        <v>42.6</v>
+      </c>
+      <c r="H3">
+        <v>55.697000000000003</v>
+      </c>
+      <c r="I3">
+        <v>60.813000000000002</v>
+      </c>
+      <c r="J3">
+        <f>216.678-SUM(G3:I3)</f>
+        <v>57.567999999999984</v>
+      </c>
+      <c r="K3">
+        <v>45.576999999999998</v>
+      </c>
+      <c r="L3">
+        <v>58.167000000000002</v>
+      </c>
+      <c r="M3">
+        <v>62.045999999999999</v>
+      </c>
+      <c r="N3">
+        <f>232.846-SUM(K3:M3)</f>
+        <v>67.056000000000012</v>
+      </c>
+      <c r="O3">
+        <v>57.58</v>
+      </c>
+      <c r="P3">
+        <v>82.004000000000005</v>
+      </c>
+      <c r="Q3">
+        <v>99.113</v>
+      </c>
+      <c r="R3">
+        <f>343.904-SUM(O3:Q3)</f>
+        <v>105.20699999999999</v>
+      </c>
+      <c r="S3">
+        <v>86.653000000000006</v>
+      </c>
+      <c r="T3">
+        <v>102.093</v>
+      </c>
+      <c r="U3">
+        <v>102.874</v>
+      </c>
+      <c r="V3">
+        <f>357.249-SUM(S3:U3)</f>
+        <v>65.629000000000019</v>
+      </c>
+      <c r="W3">
+        <v>64.120999999999995</v>
+      </c>
+      <c r="X3">
+        <v>79.185000000000002</v>
+      </c>
+      <c r="Y3">
+        <v>88.683999999999997</v>
+      </c>
+      <c r="Z3">
+        <f>322.591-SUM(W3:Y3)</f>
+        <v>90.601000000000028</v>
+      </c>
+      <c r="AA3">
+        <v>54.750999999999998</v>
+      </c>
+      <c r="AB3">
+        <v>79.185000000000002</v>
+      </c>
+      <c r="AC3">
+        <v>88.683999999999997</v>
+      </c>
+      <c r="AD3">
+        <f>322.591-SUM(AA3:AC3)</f>
+        <v>99.971000000000004</v>
+      </c>
+      <c r="AE3">
+        <v>69.971999999999994</v>
+      </c>
+      <c r="AM3">
         <v>205.54499999999999</v>
       </c>
-      <c r="D3">
+      <c r="AN3">
         <v>125.538</v>
       </c>
-      <c r="E3">
+      <c r="AO3">
         <v>178.50299999999999</v>
       </c>
-      <c r="F3">
+      <c r="AP3">
         <v>264.839</v>
       </c>
-      <c r="G3">
+      <c r="AQ3">
         <v>301.75400000000002</v>
       </c>
-      <c r="H3">
+      <c r="AR3">
         <v>316.05700000000002</v>
       </c>
-      <c r="I3">
+      <c r="AS3">
         <v>351.51900000000001</v>
       </c>
-      <c r="J3">
+      <c r="AT3">
         <v>412.71899999999999</v>
       </c>
-      <c r="K3">
+      <c r="AU3">
         <v>441.29199999999997</v>
       </c>
-      <c r="L3">
+      <c r="AV3">
         <v>530.19600000000003</v>
       </c>
-      <c r="M3">
+      <c r="AW3">
         <v>634.71299999999997</v>
       </c>
-      <c r="N3">
+      <c r="AX3">
         <v>724.65200000000004</v>
       </c>
-      <c r="O3" s="3">
+      <c r="AY3">
         <v>726.01599999999996</v>
       </c>
-      <c r="P3">
+      <c r="AZ3">
         <v>711.11800000000005</v>
       </c>
-      <c r="Q3">
+      <c r="BA3">
         <v>768.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="BF3">
+        <f>SUM(C3:F3)</f>
+        <v>149.523</v>
+      </c>
+      <c r="BG3">
+        <f>SUM(G3:J3)</f>
+        <v>216.678</v>
+      </c>
+      <c r="BH3">
+        <f>SUM(K3:N3)</f>
+        <v>232.846</v>
+      </c>
+      <c r="BI3">
+        <f>SUM(O3:R3)</f>
+        <v>343.904</v>
+      </c>
+      <c r="BJ3">
+        <f>SUM(S3:V4)</f>
+        <v>606.28100000000006</v>
+      </c>
+      <c r="BK3">
+        <f>SUM(W3:Z3)</f>
+        <v>322.59100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="C4">
+        <v>15.420999999999999</v>
+      </c>
+      <c r="D4">
+        <v>24.785</v>
+      </c>
+      <c r="E4">
+        <v>36.185000000000002</v>
+      </c>
+      <c r="F4">
+        <f>120.454-SUM(C4:E4)</f>
+        <v>44.062999999999988</v>
+      </c>
+      <c r="G4">
+        <v>33.292999999999999</v>
+      </c>
+      <c r="H4">
+        <v>42.095999999999997</v>
+      </c>
+      <c r="I4">
+        <v>44.488999999999997</v>
+      </c>
+      <c r="J4">
+        <f>161.39-SUM(G4:I4)</f>
+        <v>41.512</v>
+      </c>
+      <c r="K4">
+        <v>33.375999999999998</v>
+      </c>
+      <c r="L4">
+        <v>41.883000000000003</v>
+      </c>
+      <c r="M4">
+        <v>44.610999999999997</v>
+      </c>
+      <c r="N4">
+        <f>165.43-SUM(K4:M4)</f>
+        <v>45.56</v>
+      </c>
+      <c r="O4">
+        <v>38.924999999999997</v>
+      </c>
+      <c r="P4">
+        <v>55.171999999999997</v>
+      </c>
+      <c r="Q4">
+        <v>66.591999999999999</v>
+      </c>
+      <c r="R4">
+        <f>230.861-SUM(O4:Q4)</f>
+        <v>70.171999999999997</v>
+      </c>
+      <c r="S4">
+        <v>58.628999999999998</v>
+      </c>
+      <c r="T4">
+        <v>69.066000000000003</v>
+      </c>
+      <c r="U4">
+        <v>71.408000000000001</v>
+      </c>
+      <c r="V4">
+        <f>249.032-SUM(S4:U4)</f>
+        <v>49.929000000000002</v>
+      </c>
+      <c r="W4">
+        <v>52.360999999999997</v>
+      </c>
+      <c r="X4">
+        <v>65.049000000000007</v>
+      </c>
+      <c r="Y4">
+        <v>72.805000000000007</v>
+      </c>
+      <c r="Z4">
+        <f>264.583-SUM(W4:Y4)</f>
+        <v>74.368000000000023</v>
+      </c>
+      <c r="AA4">
+        <v>47.703000000000003</v>
+      </c>
+      <c r="AB4">
+        <v>65.049000000000007</v>
+      </c>
+      <c r="AC4">
+        <v>72.805000000000007</v>
+      </c>
+      <c r="AD4">
+        <f>264.583-SUM(AA4:AC4)</f>
+        <v>79.02600000000001</v>
+      </c>
+      <c r="AE4">
+        <v>51.656999999999996</v>
+      </c>
+      <c r="AM4">
         <v>124.87</v>
       </c>
-      <c r="D4">
+      <c r="AN4">
         <v>77.150999999999996</v>
       </c>
-      <c r="E4">
+      <c r="AO4">
         <v>83.522000000000006</v>
       </c>
-      <c r="F4">
+      <c r="AP4">
         <v>142.90100000000001</v>
       </c>
-      <c r="G4">
+      <c r="AQ4">
         <v>178.80500000000001</v>
       </c>
-      <c r="H4">
+      <c r="AR4">
         <v>188.256</v>
       </c>
-      <c r="I4">
+      <c r="AS4">
         <v>211.161</v>
       </c>
-      <c r="J4">
+      <c r="AT4">
         <v>249.405</v>
       </c>
-      <c r="K4">
+      <c r="AU4">
         <v>264.31900000000002</v>
       </c>
-      <c r="L4">
+      <c r="AV4">
         <v>311.19099999999997</v>
       </c>
-      <c r="M4">
+      <c r="AW4">
         <v>366.79700000000003</v>
       </c>
-      <c r="N4">
+      <c r="AX4">
         <v>413.95100000000002</v>
       </c>
-      <c r="O4" s="3">
+      <c r="AY4">
         <v>399.64499999999998</v>
       </c>
-      <c r="P4">
+      <c r="AZ4">
         <v>387.77600000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="BF4">
+        <f t="shared" ref="BF4:BG14" si="1">SUM(C4:F4)</f>
+        <v>120.45399999999999</v>
+      </c>
+      <c r="BG4">
+        <f t="shared" ref="BG4:BG14" si="2">SUM(G4:J4)</f>
+        <v>161.38999999999999</v>
+      </c>
+      <c r="BH4">
+        <f t="shared" ref="BH4:BH14" si="3">SUM(K4:N4)</f>
+        <v>165.43</v>
+      </c>
+      <c r="BI4">
+        <f t="shared" ref="BI4:BI14" si="4">SUM(O4:R4)</f>
+        <v>230.86099999999999</v>
+      </c>
+      <c r="BJ4">
+        <f t="shared" ref="BJ4:BJ14" si="5">SUM(S4:V5)</f>
+        <v>357.24900000000002</v>
+      </c>
+      <c r="BK4">
+        <f t="shared" ref="BK4:BK14" si="6">SUM(W4:Z4)</f>
+        <v>264.58300000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:P5" si="0">C3-C4</f>
+        <f>C3-C4</f>
+        <v>2.6479999999999997</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:K5" si="7">D3-D4</f>
+        <v>4.8069999999999986</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="7"/>
+        <v>8.5429999999999993</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="7"/>
+        <v>13.070999999999998</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="7"/>
+        <v>9.3070000000000022</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="7"/>
+        <v>13.601000000000006</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="7"/>
+        <v>16.324000000000005</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="7"/>
+        <v>16.055999999999983</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="7"/>
+        <v>12.201000000000001</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5" si="8">L3-L4</f>
+        <v>16.283999999999999</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5" si="9">M3-M4</f>
+        <v>17.435000000000002</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5" si="10">N3-N4</f>
+        <v>21.496000000000009</v>
+      </c>
+      <c r="O5">
+        <f>O3-O4</f>
+        <v>18.655000000000001</v>
+      </c>
+      <c r="P5">
+        <f>P3-P4</f>
+        <v>26.832000000000008</v>
+      </c>
+      <c r="Q5">
+        <f>Q3-Q4</f>
+        <v>32.521000000000001</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:S5" si="11">R3-R4</f>
+        <v>35.034999999999997</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="11"/>
+        <v>28.024000000000008</v>
+      </c>
+      <c r="T5">
+        <f>T3-T4</f>
+        <v>33.027000000000001</v>
+      </c>
+      <c r="U5">
+        <f>U3-U4</f>
+        <v>31.465999999999994</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5" si="12">V3-V4</f>
+        <v>15.700000000000017</v>
+      </c>
+      <c r="W5">
+        <f>W3-W4</f>
+        <v>11.759999999999998</v>
+      </c>
+      <c r="X5">
+        <f>X3-X4</f>
+        <v>14.135999999999996</v>
+      </c>
+      <c r="Y5">
+        <f>Y3-Y4</f>
+        <v>15.878999999999991</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5" si="13">Z3-Z4</f>
+        <v>16.233000000000004</v>
+      </c>
+      <c r="AA5">
+        <f>AA3-AA4</f>
+        <v>7.0479999999999947</v>
+      </c>
+      <c r="AB5">
+        <f>AB3-AB4</f>
+        <v>14.135999999999996</v>
+      </c>
+      <c r="AC5">
+        <f>AC3-AC4</f>
+        <v>15.878999999999991</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ref="AD5" si="14">AD3-AD4</f>
+        <v>20.944999999999993</v>
+      </c>
+      <c r="AE5">
+        <f>AE3-AE4</f>
+        <v>18.314999999999998</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" ref="AM5:AZ5" si="15">AM3-AM4</f>
         <v>80.674999999999983</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="AN5">
+        <f t="shared" si="15"/>
         <v>48.387</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="AO5">
+        <f t="shared" si="15"/>
         <v>94.98099999999998</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
+      <c r="AP5">
+        <f t="shared" si="15"/>
         <v>121.93799999999999</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
+      <c r="AQ5">
+        <f t="shared" si="15"/>
         <v>122.94900000000001</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
+      <c r="AR5">
+        <f t="shared" si="15"/>
         <v>127.80100000000002</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
+      <c r="AS5">
+        <f t="shared" si="15"/>
         <v>140.358</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
+      <c r="AT5">
+        <f t="shared" si="15"/>
         <v>163.31399999999999</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
+      <c r="AU5">
+        <f t="shared" si="15"/>
         <v>176.97299999999996</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
+      <c r="AV5">
+        <f t="shared" si="15"/>
         <v>219.00500000000005</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
+      <c r="AW5">
+        <f t="shared" si="15"/>
         <v>267.91599999999994</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
+      <c r="AX5">
+        <f t="shared" si="15"/>
         <v>310.70100000000002</v>
       </c>
-      <c r="O5" s="3">
-        <f t="shared" si="0"/>
+      <c r="AY5">
+        <f t="shared" si="15"/>
         <v>326.37099999999998</v>
       </c>
-      <c r="P5" s="3">
-        <f t="shared" si="0"/>
+      <c r="AZ5">
+        <f t="shared" si="15"/>
         <v>323.34200000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="BF5">
+        <f t="shared" si="1"/>
+        <v>29.068999999999996</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" si="2"/>
+        <v>55.287999999999997</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" si="3"/>
+        <v>67.416000000000011</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" si="4"/>
+        <v>113.04300000000001</v>
+      </c>
+      <c r="BJ5">
+        <f t="shared" si="5"/>
+        <v>159.03600000000003</v>
+      </c>
+      <c r="BK5">
+        <f t="shared" si="6"/>
+        <v>58.007999999999988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="C6">
+        <v>5.3449999999999998</v>
+      </c>
+      <c r="D6">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="E6">
+        <v>6.431</v>
+      </c>
+      <c r="F6">
+        <f>25.099-SUM(C6:E6)</f>
+        <v>7.18</v>
+      </c>
+      <c r="G6">
+        <v>7.8419999999999996</v>
+      </c>
+      <c r="H6">
+        <v>8.6549999999999994</v>
+      </c>
+      <c r="I6">
+        <v>10.571</v>
+      </c>
+      <c r="J6">
+        <f>35.601-SUM(G6:I6)</f>
+        <v>8.5330000000000013</v>
+      </c>
+      <c r="K6">
+        <v>9.0259999999999998</v>
+      </c>
+      <c r="L6">
+        <v>8.484</v>
+      </c>
+      <c r="M6">
+        <v>8.2929999999999993</v>
+      </c>
+      <c r="N6">
+        <f>34.524-SUM(K6:M6)</f>
+        <v>8.7210000000000036</v>
+      </c>
+      <c r="O6">
+        <v>9.0860000000000003</v>
+      </c>
+      <c r="P6">
+        <v>11.148</v>
+      </c>
+      <c r="Q6">
+        <v>12.112</v>
+      </c>
+      <c r="R6">
+        <f>45.386-SUM(O6:Q6)</f>
+        <v>13.04</v>
+      </c>
+      <c r="S6">
+        <v>13.43</v>
+      </c>
+      <c r="T6">
+        <v>12.786</v>
+      </c>
+      <c r="U6">
+        <v>12.058999999999999</v>
+      </c>
+      <c r="V6">
+        <f>50.819-SUM(S6:U6)</f>
+        <v>12.544000000000004</v>
+      </c>
+      <c r="W6">
+        <v>13.066000000000001</v>
+      </c>
+      <c r="X6">
+        <v>13.090999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>13.169</v>
+      </c>
+      <c r="Z6">
+        <f>50.703-SUM(W6:Y6)</f>
+        <v>11.377000000000002</v>
+      </c>
+      <c r="AA6">
+        <v>9.6050000000000004</v>
+      </c>
+      <c r="AB6">
+        <v>13.090999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>13.169</v>
+      </c>
+      <c r="AD6">
+        <f>50.703-SUM(AA6:AC6)</f>
+        <v>14.838000000000008</v>
+      </c>
+      <c r="AE6">
+        <v>7.62</v>
+      </c>
+      <c r="AM6">
         <v>11.875999999999999</v>
       </c>
-      <c r="D6">
+      <c r="AN6">
         <v>13.192</v>
       </c>
-      <c r="E6">
+      <c r="AO6">
         <v>15.052</v>
       </c>
-      <c r="F6">
+      <c r="AP6">
         <v>15.801</v>
       </c>
-      <c r="G6">
+      <c r="AQ6">
         <v>21.818000000000001</v>
       </c>
-      <c r="H6">
+      <c r="AR6">
         <v>22.707999999999998</v>
       </c>
-      <c r="I6">
+      <c r="AS6">
         <v>29.411000000000001</v>
       </c>
-      <c r="J6">
+      <c r="AT6">
         <v>31.588999999999999</v>
       </c>
-      <c r="K6">
+      <c r="AU6">
         <v>35.719000000000001</v>
       </c>
-      <c r="L6">
+      <c r="AV6">
         <v>39.256</v>
       </c>
-      <c r="M6">
+      <c r="AW6">
         <v>44.188000000000002</v>
       </c>
-      <c r="N6">
+      <c r="AX6">
         <v>49.683</v>
       </c>
-      <c r="O6" s="3">
+      <c r="AY6">
         <v>57.128999999999998</v>
       </c>
-      <c r="P6">
+      <c r="AZ6">
         <v>60.042999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="BF6">
+        <f t="shared" si="1"/>
+        <v>25.099</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" si="2"/>
+        <v>35.600999999999999</v>
+      </c>
+      <c r="BH6">
+        <f t="shared" si="3"/>
+        <v>34.524000000000001</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" si="4"/>
+        <v>45.386000000000003</v>
+      </c>
+      <c r="BJ6">
+        <f t="shared" si="5"/>
+        <v>96.695999999999998</v>
+      </c>
+      <c r="BK6">
+        <f t="shared" si="6"/>
+        <v>50.703000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="C7">
+        <v>3.01</v>
+      </c>
+      <c r="D7">
+        <v>4.2649999999999997</v>
+      </c>
+      <c r="E7">
+        <v>4.5670000000000002</v>
+      </c>
+      <c r="F7">
+        <f>17.454-SUM(C7:E7)</f>
+        <v>5.6120000000000019</v>
+      </c>
+      <c r="G7">
+        <v>5.0490000000000004</v>
+      </c>
+      <c r="H7">
+        <v>6.36</v>
+      </c>
+      <c r="I7">
+        <v>7.0389999999999997</v>
+      </c>
+      <c r="J7">
+        <f>25.973-SUM(G7:I7)</f>
+        <v>7.5249999999999986</v>
+      </c>
+      <c r="K7">
+        <v>6.85</v>
+      </c>
+      <c r="L7">
+        <v>7.3650000000000002</v>
+      </c>
+      <c r="M7">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="N7">
+        <f>31.08-SUM(K7:M7)</f>
+        <v>8.3149999999999977</v>
+      </c>
+      <c r="O7">
+        <v>8.8279999999999994</v>
+      </c>
+      <c r="P7">
+        <v>10.493</v>
+      </c>
+      <c r="Q7">
+        <v>9.8840000000000003</v>
+      </c>
+      <c r="R7">
+        <f>41.003-SUM(O7:Q7)</f>
+        <v>11.798000000000002</v>
+      </c>
+      <c r="S7">
+        <v>11.936999999999999</v>
+      </c>
+      <c r="T7">
+        <v>12.507999999999999</v>
+      </c>
+      <c r="U7">
+        <v>10.51</v>
+      </c>
+      <c r="V7">
+        <f>45.877-SUM(S7:U7)</f>
+        <v>10.922000000000004</v>
+      </c>
+      <c r="W7">
+        <v>10.215</v>
+      </c>
+      <c r="X7">
+        <v>9.9870000000000001</v>
+      </c>
+      <c r="Y7">
+        <v>11.016</v>
+      </c>
+      <c r="Z7">
+        <f>38.81-SUM(W7:Y7)</f>
+        <v>7.5920000000000059</v>
+      </c>
+      <c r="AA7">
+        <v>6.4580000000000002</v>
+      </c>
+      <c r="AB7">
+        <v>9.9870000000000001</v>
+      </c>
+      <c r="AC7">
+        <v>11.016</v>
+      </c>
+      <c r="AD7">
+        <f>38.81-SUM(AA7:AC7)</f>
+        <v>11.349000000000004</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>6.227</f>
+        <v>6.2270000000000003</v>
+      </c>
+      <c r="AM7">
         <v>11.772</v>
       </c>
-      <c r="D7">
+      <c r="AN7">
         <v>12.371</v>
       </c>
-      <c r="E7">
+      <c r="AO7">
         <v>14.645</v>
       </c>
-      <c r="F7">
+      <c r="AP7">
         <v>14.138999999999999</v>
       </c>
-      <c r="G7">
+      <c r="AQ7">
         <v>19.622</v>
       </c>
-      <c r="H7">
+      <c r="AR7">
         <v>25.585999999999999</v>
       </c>
-      <c r="I7">
+      <c r="AS7">
         <v>39.295999999999999</v>
       </c>
-      <c r="J7">
+      <c r="AT7">
         <v>44.47</v>
       </c>
-      <c r="K7">
+      <c r="AU7">
         <v>41.344000000000001</v>
       </c>
-      <c r="L7">
+      <c r="AV7">
         <v>53.588000000000001</v>
       </c>
-      <c r="M7">
+      <c r="AW7">
         <v>55.256999999999998</v>
       </c>
-      <c r="N7">
+      <c r="AX7">
         <v>64.912999999999997</v>
       </c>
-      <c r="O7" s="3">
+      <c r="AY7">
         <v>64.620999999999995</v>
       </c>
-      <c r="P7" s="3">
+      <c r="AZ7">
         <v>58.405000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="BF7">
+        <f t="shared" si="1"/>
+        <v>17.454000000000001</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="2"/>
+        <v>25.972999999999999</v>
+      </c>
+      <c r="BH7">
+        <f t="shared" si="3"/>
+        <v>31.08</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="4"/>
+        <v>41.003</v>
+      </c>
+      <c r="BJ7">
+        <f t="shared" si="5"/>
+        <v>76.706999999999994</v>
+      </c>
+      <c r="BK7">
+        <f t="shared" si="6"/>
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="C8">
+        <v>3.25</v>
+      </c>
+      <c r="D8">
+        <v>3.8889999999999998</v>
+      </c>
+      <c r="E8">
+        <v>3.98</v>
+      </c>
+      <c r="F8">
+        <f>15.228-SUM(C8:E8)</f>
+        <v>4.109</v>
+      </c>
+      <c r="G8">
+        <v>5.6959999999999997</v>
+      </c>
+      <c r="H8">
+        <v>6.0910000000000002</v>
+      </c>
+      <c r="I8">
+        <v>6.9109999999999996</v>
+      </c>
+      <c r="J8">
+        <f>24.875-SUM(G8:I8)</f>
+        <v>6.1769999999999996</v>
+      </c>
+      <c r="K8">
+        <v>6.0359999999999996</v>
+      </c>
+      <c r="L8">
+        <v>5.9260000000000002</v>
+      </c>
+      <c r="M8">
+        <v>5.9370000000000003</v>
+      </c>
+      <c r="N8">
+        <f>23.97-SUM(K8:M8)</f>
+        <v>6.070999999999998</v>
+      </c>
+      <c r="O8">
+        <v>6.5259999999999998</v>
+      </c>
+      <c r="P8">
+        <v>7.6790000000000003</v>
+      </c>
+      <c r="Q8">
+        <v>8.6319999999999997</v>
+      </c>
+      <c r="R8">
+        <f>31.083-SUM(O8:Q8)</f>
+        <v>8.2459999999999987</v>
+      </c>
+      <c r="S8">
+        <v>8.2050000000000001</v>
+      </c>
+      <c r="T8">
+        <v>8.1020000000000003</v>
+      </c>
+      <c r="U8">
+        <v>7.1180000000000003</v>
+      </c>
+      <c r="V8">
+        <f>30.83-SUM(S8:U8)</f>
+        <v>7.404999999999994</v>
+      </c>
+      <c r="W8">
+        <v>7.5670000000000002</v>
+      </c>
+      <c r="X8">
+        <v>6.8460000000000001</v>
+      </c>
+      <c r="Y8">
+        <v>6.7080000000000002</v>
+      </c>
+      <c r="Z8">
+        <f>27.418-SUM(W8:Y8)</f>
+        <v>6.296999999999997</v>
+      </c>
+      <c r="AA8">
+        <v>5.8330000000000002</v>
+      </c>
+      <c r="AB8">
+        <v>6.8460000000000001</v>
+      </c>
+      <c r="AC8">
+        <v>6.7080000000000002</v>
+      </c>
+      <c r="AD8">
+        <f>27.418-SUM(AA8:AC8)</f>
+        <v>8.0309999999999988</v>
+      </c>
+      <c r="AE8">
+        <v>6.9429999999999996</v>
+      </c>
+      <c r="AM8">
         <v>12.315</v>
       </c>
-      <c r="D8">
+      <c r="AN8">
         <v>11.97</v>
       </c>
-      <c r="E8">
+      <c r="AO8">
         <v>13.525</v>
       </c>
-      <c r="F8">
+      <c r="AP8">
         <v>12.884</v>
       </c>
-      <c r="G8">
+      <c r="AQ8">
         <v>20.123000000000001</v>
       </c>
-      <c r="H8">
+      <c r="AR8">
         <v>20.106999999999999</v>
       </c>
-      <c r="I8">
+      <c r="AS8">
         <v>34.299999999999997</v>
       </c>
-      <c r="J8">
+      <c r="AT8">
         <v>29.56</v>
       </c>
-      <c r="K8">
+      <c r="AU8">
         <v>38.085999999999999</v>
       </c>
-      <c r="L8">
+      <c r="AV8">
         <v>32.125</v>
       </c>
-      <c r="M8">
+      <c r="AW8">
         <v>32.436</v>
       </c>
-      <c r="N8">
+      <c r="AX8">
         <v>37.354999999999997</v>
       </c>
-      <c r="O8" s="3">
+      <c r="AY8">
         <v>36.265000000000001</v>
       </c>
-      <c r="P8" s="3">
+      <c r="AZ8">
         <v>34.396999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="BF8">
+        <f t="shared" si="1"/>
+        <v>15.228</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="2"/>
+        <v>24.875</v>
+      </c>
+      <c r="BH8">
+        <f t="shared" si="3"/>
+        <v>23.97</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" si="4"/>
+        <v>31.082999999999998</v>
+      </c>
+      <c r="BJ8">
+        <f t="shared" si="5"/>
+        <v>30.83</v>
+      </c>
+      <c r="BK8">
+        <f t="shared" si="6"/>
+        <v>27.417999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1003,766 +2088,4872 @@
         <v>0</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>2.7170000000000001</v>
+      </c>
+      <c r="Z9">
+        <f>3.777-SUM(W9:Y9)</f>
+        <v>1.06</v>
+      </c>
+      <c r="AA9">
+        <v>7.2469999999999999</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
         <v>0.59399999999999997</v>
       </c>
-      <c r="N9">
+      <c r="AX9">
         <v>1.79</v>
       </c>
-      <c r="O9" s="3">
+      <c r="AY9">
         <v>0.69299999999999995</v>
       </c>
-      <c r="P9">
+      <c r="AZ9">
         <v>0.17699999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="BF9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <f t="shared" si="5"/>
+        <v>-19.30899999999998</v>
+      </c>
+      <c r="BK9">
+        <f t="shared" si="6"/>
+        <v>3.7770000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:P10" si="1">C5-SUM(C6:C9)</f>
+        <f>C5-C6-C7-C8-C9</f>
+        <v>-8.9570000000000007</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:K10" si="16">D5-D6-D7-D8-D9</f>
+        <v>-9.49</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="16"/>
+        <v>-6.4350000000000005</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="16"/>
+        <v>-3.8300000000000036</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="16"/>
+        <v>-9.2799999999999976</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="16"/>
+        <v>-7.5049999999999937</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="16"/>
+        <v>-8.1969999999999938</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="16"/>
+        <v>-6.1790000000000163</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="16"/>
+        <v>-9.7109999999999985</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10" si="17">L5-L6-L7-L8-L9</f>
+        <v>-5.4910000000000014</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10" si="18">M5-M6-M7-M8-M9</f>
+        <v>-5.344999999999998</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:S10" si="19">N5-N6-N7-N8-N9</f>
+        <v>-1.61099999999999</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="19"/>
+        <v>-5.7849999999999984</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="19"/>
+        <v>-2.4879999999999924</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="19"/>
+        <v>1.8929999999999989</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="19"/>
+        <v>1.950999999999997</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="19"/>
+        <v>-5.5479999999999912</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ref="T10" si="20">T5-T6-T7-T8-T9</f>
+        <v>-0.36899999999999977</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10" si="21">U5-U6-U7-U8-U9</f>
+        <v>1.7789999999999964</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ref="V10:AA10" si="22">V5-V6-V7-V8-V9</f>
+        <v>-15.170999999999985</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="22"/>
+        <v>-19.088000000000001</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="22"/>
+        <v>-15.788000000000004</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="22"/>
+        <v>-17.731000000000009</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="22"/>
+        <v>-10.093000000000002</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="22"/>
+        <v>-22.095000000000006</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" ref="AB10" si="23">AB5-AB6-AB7-AB8-AB9</f>
+        <v>-15.788000000000004</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" ref="AC10" si="24">AC5-AC6-AC7-AC8-AC9</f>
+        <v>-15.01400000000001</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" ref="AD10" si="25">AD5-AD6-AD7-AD8-AD9</f>
+        <v>-13.273000000000017</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" ref="AE10" si="26">AE5-AE6-AE7-AE8-AE9</f>
+        <v>-2.4750000000000032</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" ref="AM10:AZ10" si="27">AM5-SUM(AM6:AM9)</f>
         <v>44.711999999999982</v>
       </c>
-      <c r="D10">
+      <c r="AN10">
+        <f t="shared" si="27"/>
+        <v>10.853999999999999</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="27"/>
+        <v>51.758999999999979</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="27"/>
+        <v>79.11399999999999</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="27"/>
+        <v>61.38600000000001</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="27"/>
+        <v>59.40000000000002</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="27"/>
+        <v>37.351000000000013</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="27"/>
+        <v>57.694999999999993</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="27"/>
+        <v>61.823999999999955</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="27"/>
+        <v>94.036000000000058</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="27"/>
+        <v>135.44099999999995</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="27"/>
+        <v>156.96000000000004</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="27"/>
+        <v>167.66299999999998</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="27"/>
+        <v>170.32000000000005</v>
+      </c>
+      <c r="BF10">
         <f t="shared" si="1"/>
-        <v>10.853999999999999</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>51.758999999999979</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>79.11399999999999</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>61.38600000000001</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>59.40000000000002</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>37.351000000000013</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>57.694999999999993</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>61.823999999999955</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>94.036000000000058</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>135.44099999999995</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>156.96000000000004</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" si="1"/>
-        <v>167.66299999999998</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="1"/>
-        <v>170.32000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>-28.71200000000001</v>
+      </c>
+      <c r="BG10">
+        <f t="shared" si="2"/>
+        <v>-31.161000000000001</v>
+      </c>
+      <c r="BH10">
+        <f t="shared" si="3"/>
+        <v>-22.157999999999987</v>
+      </c>
+      <c r="BI10">
+        <f t="shared" si="4"/>
+        <v>-4.4289999999999949</v>
+      </c>
+      <c r="BJ10">
+        <f t="shared" si="5"/>
+        <v>-20.702999999999982</v>
+      </c>
+      <c r="BK10">
+        <f t="shared" si="6"/>
+        <v>-62.700000000000017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="C11">
+        <f>0.004-0.28-0.056</f>
+        <v>-0.33200000000000002</v>
+      </c>
+      <c r="D11">
+        <f>-0.46-0.338</f>
+        <v>-0.79800000000000004</v>
+      </c>
+      <c r="E11">
+        <f>-0.886+0.145</f>
+        <v>-0.74099999999999999</v>
+      </c>
+      <c r="F11">
+        <f>-3.578-(C11+D11+E11)</f>
+        <v>-1.7069999999999999</v>
+      </c>
+      <c r="G11">
+        <f>-1.479+0.64</f>
+        <v>-0.83900000000000008</v>
+      </c>
+      <c r="H11">
+        <f>0.014-3.405-0.338</f>
+        <v>-3.7290000000000001</v>
+      </c>
+      <c r="I11">
+        <f>0.003-0.527-0.056</f>
+        <v>-0.58000000000000007</v>
+      </c>
+      <c r="J11">
+        <f>-6.406-(G11+H11+I11)</f>
+        <v>-1.2579999999999991</v>
+      </c>
+      <c r="K11">
+        <v>-0.51300000000000001</v>
+      </c>
+      <c r="L11">
+        <f>-0.781</f>
+        <v>-0.78100000000000003</v>
+      </c>
+      <c r="M11">
+        <v>-0.81499999999999995</v>
+      </c>
+      <c r="N11">
+        <f>-2.892-(K11+L11+M11)</f>
+        <v>-0.78299999999999992</v>
+      </c>
+      <c r="O11">
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="P11">
+        <v>-0.42799999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>-0.95299999999999996</v>
+      </c>
+      <c r="R11">
+        <f>-2.857-(O11+P11+Q11)</f>
+        <v>-1.1340000000000003</v>
+      </c>
+      <c r="S11">
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="T11">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="U11">
+        <v>-0.84399999999999997</v>
+      </c>
+      <c r="V11">
+        <f>-1.394-(S11+T11+U11)</f>
+        <v>6.2999999999999945E-2</v>
+      </c>
+      <c r="W11">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="X11">
+        <v>-0.59099999999999997</v>
+      </c>
+      <c r="Y11">
+        <f>-0.881</f>
+        <v>-0.88100000000000001</v>
+      </c>
+      <c r="Z11">
+        <f>-3.287-(W11+X11+Y11)</f>
+        <v>-2.3439999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>-1.079</v>
+      </c>
+      <c r="AB11">
+        <v>-0.59099999999999997</v>
+      </c>
+      <c r="AC11">
+        <f>-0.881</f>
+        <v>-0.88100000000000001</v>
+      </c>
+      <c r="AD11">
+        <f>-3.287-(AA11+AB11+AC11)</f>
+        <v>-0.73599999999999977</v>
+      </c>
+      <c r="AE11">
+        <v>-2.4180000000000001</v>
+      </c>
+      <c r="AM11">
         <f>1.091-3.155-0.924</f>
         <v>-2.988</v>
       </c>
-      <c r="D11">
+      <c r="AN11">
         <f>0.282-5.952+0.653</f>
         <v>-5.0169999999999995</v>
       </c>
-      <c r="E11">
+      <c r="AO11">
         <f>0.11-5.993-1.031</f>
         <v>-6.9139999999999997</v>
       </c>
-      <c r="F11">
+      <c r="AP11">
         <f>0.673-5.901-2.534</f>
         <v>-7.7619999999999996</v>
       </c>
-      <c r="G11">
+      <c r="AQ11">
         <f>0.073-7.329+0.573-56.369</f>
         <v>-63.052</v>
       </c>
-      <c r="H11">
+      <c r="AR11">
         <f>0.098-12.506-0.633-0.013</f>
         <v>-13.054</v>
       </c>
-      <c r="I11">
+      <c r="AS11">
         <f>0.11-12.628+0.874</f>
         <v>-11.644</v>
       </c>
-      <c r="J11">
+      <c r="AT11">
         <f>0.414-12.689+5.236-0.115</f>
         <v>-7.1540000000000008</v>
       </c>
-      <c r="K11">
+      <c r="AU11">
         <f>0.46-2.736-2.141</f>
         <v>-4.4169999999999998</v>
       </c>
-      <c r="L11">
+      <c r="AV11">
         <f>0.796-2.168-0.456</f>
         <v>-1.8280000000000001</v>
       </c>
-      <c r="M11">
+      <c r="AW11">
         <f>3.68-2.255-2.611</f>
         <v>-1.1859999999999999</v>
       </c>
-      <c r="N11">
+      <c r="AX11">
         <f>8.72-2.279+4.777</f>
         <v>11.218</v>
       </c>
-      <c r="O11" s="3">
+      <c r="AY11">
         <f>13.04-2.156+0.426</f>
         <v>11.309999999999999</v>
       </c>
-      <c r="P11">
+      <c r="AZ11">
         <f>16.526-2.219-0.033</f>
         <v>14.274000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="BF11">
+        <f t="shared" si="1"/>
+        <v>-3.5779999999999998</v>
+      </c>
+      <c r="BG11">
+        <f t="shared" si="2"/>
+        <v>-6.4059999999999997</v>
+      </c>
+      <c r="BH11">
+        <f t="shared" si="3"/>
+        <v>-2.8919999999999999</v>
+      </c>
+      <c r="BI11">
+        <f t="shared" si="4"/>
+        <v>-2.8570000000000002</v>
+      </c>
+      <c r="BJ11">
+        <f t="shared" si="5"/>
+        <v>-22.09699999999998</v>
+      </c>
+      <c r="BK11">
+        <f t="shared" si="6"/>
+        <v>-3.2869999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:P12" si="2">C10+C11</f>
+        <f>C10+C11</f>
+        <v>-9.2890000000000015</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:K12" si="28">D10+D11</f>
+        <v>-10.288</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="28"/>
+        <v>-7.1760000000000002</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="28"/>
+        <v>-5.5370000000000035</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="28"/>
+        <v>-10.118999999999998</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="28"/>
+        <v>-11.233999999999995</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="28"/>
+        <v>-8.7769999999999939</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="28"/>
+        <v>-7.4370000000000154</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="28"/>
+        <v>-10.223999999999998</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12" si="29">L10+L11</f>
+        <v>-6.2720000000000011</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12" si="30">M10+M11</f>
+        <v>-6.1599999999999984</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:S12" si="31">N10+N11</f>
+        <v>-2.3939999999999899</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="31"/>
+        <v>-6.126999999999998</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="31"/>
+        <v>-2.9159999999999924</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="31"/>
+        <v>0.93999999999999895</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="31"/>
+        <v>0.81699999999999662</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="31"/>
+        <v>-6.1529999999999916</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ref="T12" si="32">T10+T11</f>
+        <v>-0.37699999999999978</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12" si="33">U10+U11</f>
+        <v>0.93499999999999639</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ref="V12:W12" si="34">V10+V11</f>
+        <v>-15.107999999999985</v>
+      </c>
+      <c r="W12">
+        <f>W10+W11</f>
+        <v>-18.559000000000001</v>
+      </c>
+      <c r="X12">
+        <f>X10+X11</f>
+        <v>-16.379000000000005</v>
+      </c>
+      <c r="Y12">
+        <f>Y10+Y11</f>
+        <v>-18.612000000000009</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ref="Z12:AA12" si="35">Z10+Z11</f>
+        <v>-12.437000000000001</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="35"/>
+        <v>-23.174000000000007</v>
+      </c>
+      <c r="AB12">
+        <f>AB10+AB11</f>
+        <v>-16.379000000000005</v>
+      </c>
+      <c r="AC12">
+        <f>AC10+AC11</f>
+        <v>-15.89500000000001</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" ref="AD12" si="36">AD10+AD11</f>
+        <v>-14.009000000000018</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" ref="AE12" si="37">AE10+AE11</f>
+        <v>-4.8930000000000033</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" ref="AM12:AZ12" si="38">AM10+AM11</f>
         <v>41.723999999999982</v>
       </c>
-      <c r="D12">
+      <c r="AN12">
+        <f t="shared" si="38"/>
+        <v>5.8369999999999997</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="38"/>
+        <v>44.844999999999978</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="38"/>
+        <v>71.35199999999999</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="38"/>
+        <v>-1.6659999999999897</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="38"/>
+        <v>46.346000000000018</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="38"/>
+        <v>25.707000000000015</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="38"/>
+        <v>50.54099999999999</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="38"/>
+        <v>57.406999999999954</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="38"/>
+        <v>92.208000000000055</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="38"/>
+        <v>134.25499999999994</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="38"/>
+        <v>168.17800000000003</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="38"/>
+        <v>178.97299999999998</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="38"/>
+        <v>184.59400000000005</v>
+      </c>
+      <c r="BF12">
+        <f t="shared" si="1"/>
+        <v>-32.290000000000006</v>
+      </c>
+      <c r="BG12">
         <f t="shared" si="2"/>
-        <v>5.8369999999999997</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>44.844999999999978</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>71.35199999999999</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>-1.6659999999999897</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>46.346000000000018</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
-        <v>25.707000000000015</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>50.54099999999999</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
-        <v>57.406999999999954</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>92.208000000000055</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>134.25499999999994</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
-        <v>168.17800000000003</v>
-      </c>
-      <c r="O12" s="3">
-        <f t="shared" si="2"/>
-        <v>178.97299999999998</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" si="2"/>
-        <v>184.59400000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>-37.567000000000007</v>
+      </c>
+      <c r="BH12">
+        <f t="shared" si="3"/>
+        <v>-25.04999999999999</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" si="4"/>
+        <v>-7.2859999999999943</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="5"/>
+        <v>-19.32399999999998</v>
+      </c>
+      <c r="BK12">
+        <f t="shared" si="6"/>
+        <v>-65.987000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.151</v>
+      </c>
+      <c r="I13">
+        <v>0.13</v>
+      </c>
+      <c r="J13">
+        <f>0.651-SUM(G13:I13)</f>
+        <v>0.30500000000000005</v>
+      </c>
+      <c r="K13">
+        <v>0.182</v>
+      </c>
+      <c r="L13">
+        <v>0.124</v>
+      </c>
+      <c r="M13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N13">
+        <f>0.863-SUM(K13:M13)</f>
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="O13">
+        <v>0.109</v>
+      </c>
+      <c r="P13">
+        <v>0.115</v>
+      </c>
+      <c r="Q13">
+        <v>0.127</v>
+      </c>
+      <c r="R13">
+        <f>0.766-SUM(O13:Q13)</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="S13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="T13">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="U13">
+        <v>0.311</v>
+      </c>
+      <c r="V13">
+        <f>1.379-SUM(S13:U13)</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="W13">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="X13">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="Y13">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="Z13">
+        <f>1.475-SUM(W13:Y13)</f>
+        <v>0.75100000000000011</v>
+      </c>
+      <c r="AA13">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="AC13">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AD13">
+        <f>1.475-SUM(AA13:AC13)</f>
+        <v>0.85600000000000009</v>
+      </c>
+      <c r="AE13">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AM13">
         <v>11.868</v>
       </c>
-      <c r="D13">
+      <c r="AN13">
         <v>6.5609999999999999</v>
       </c>
-      <c r="E13">
+      <c r="AO13">
         <v>-5.4829999999999997</v>
       </c>
-      <c r="F13">
+      <c r="AP13">
         <v>1.639</v>
       </c>
-      <c r="G13">
+      <c r="AQ13">
         <v>33.363999999999997</v>
       </c>
-      <c r="H13">
+      <c r="AR13">
         <v>-6.9950000000000001</v>
       </c>
-      <c r="I13">
+      <c r="AS13">
         <v>-3.8980000000000001</v>
       </c>
-      <c r="J13">
+      <c r="AT13">
         <v>2.0499999999999998</v>
       </c>
-      <c r="K13">
+      <c r="AU13">
         <v>-5.5860000000000003</v>
       </c>
-      <c r="L13">
+      <c r="AV13">
         <v>-15.231999999999999</v>
       </c>
-      <c r="M13">
+      <c r="AW13">
         <v>-19.443000000000001</v>
       </c>
-      <c r="N13">
+      <c r="AX13">
         <v>-14.425000000000001</v>
       </c>
-      <c r="O13" s="3">
+      <c r="AY13">
         <v>-32.1</v>
       </c>
-      <c r="P13">
+      <c r="AZ13">
         <v>27.402999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="BF13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="2"/>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="3"/>
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="4"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="5"/>
+        <v>-20.702999999999982</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" si="6"/>
+        <v>1.4750000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:P14" si="3">C12+C13</f>
+        <f>C12-C13</f>
+        <v>-9.2890000000000015</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:K14" si="39">D12-D13</f>
+        <v>-10.288</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="39"/>
+        <v>-7.1760000000000002</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="39"/>
+        <v>-5.5370000000000035</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="39"/>
+        <v>-10.183999999999997</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="39"/>
+        <v>-11.384999999999994</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="39"/>
+        <v>-8.9069999999999947</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="39"/>
+        <v>-7.7420000000000151</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="39"/>
+        <v>-10.405999999999999</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14" si="40">L12-L13</f>
+        <v>-6.3960000000000008</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14" si="41">M12-M13</f>
+        <v>-6.3009999999999984</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:S14" si="42">N12-N13</f>
+        <v>-2.8099999999999898</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="42"/>
+        <v>-6.235999999999998</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="42"/>
+        <v>-3.0309999999999926</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="42"/>
+        <v>0.81299999999999895</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="42"/>
+        <v>0.40199999999999658</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="42"/>
+        <v>-6.3199999999999914</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ref="T14" si="43">T12-T13</f>
+        <v>-0.60299999999999976</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ref="U14" si="44">U12-U13</f>
+        <v>0.62399999999999634</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ref="V14:AA14" si="45">V12-V13</f>
+        <v>-15.782999999999985</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="45"/>
+        <v>-18.795000000000002</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="45"/>
+        <v>-16.723000000000006</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="45"/>
+        <v>-18.756000000000007</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="45"/>
+        <v>-13.188000000000001</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="45"/>
+        <v>-23.305000000000007</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" ref="AB14" si="46">AB12-AB13</f>
+        <v>-16.723000000000006</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" ref="AC14" si="47">AC12-AC13</f>
+        <v>-16.039000000000009</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" ref="AD14" si="48">AD12-AD13</f>
+        <v>-14.865000000000018</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" ref="AE14" si="49">AE12-AE13</f>
+        <v>-5.1280000000000037</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" ref="AM14:AY14" si="50">AM12+AM13</f>
         <v>53.591999999999985</v>
       </c>
-      <c r="D14">
+      <c r="AN14">
+        <f t="shared" si="50"/>
+        <v>12.398</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="50"/>
+        <v>39.361999999999981</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="50"/>
+        <v>72.990999999999985</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="50"/>
+        <v>31.698000000000008</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="50"/>
+        <v>39.35100000000002</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="50"/>
+        <v>21.809000000000015</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="50"/>
+        <v>52.590999999999987</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="50"/>
+        <v>51.820999999999955</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="50"/>
+        <v>76.976000000000056</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="50"/>
+        <v>114.81199999999994</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="50"/>
+        <v>153.75300000000001</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="50"/>
+        <v>146.87299999999999</v>
+      </c>
+      <c r="AZ14">
+        <f>AZ12-AZ13</f>
+        <v>157.19100000000006</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="1"/>
+        <v>-32.290000000000006</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="2"/>
+        <v>-38.218000000000004</v>
+      </c>
+      <c r="BH14">
         <f t="shared" si="3"/>
-        <v>12.398</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>39.361999999999981</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>72.990999999999985</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>31.698000000000008</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>39.35100000000002</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>21.809000000000015</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>52.590999999999987</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>51.820999999999955</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="3"/>
-        <v>76.976000000000056</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
-        <v>114.81199999999994</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="3"/>
-        <v>153.75300000000001</v>
-      </c>
-      <c r="O14" s="3">
-        <f t="shared" si="3"/>
-        <v>146.87299999999999</v>
-      </c>
-      <c r="P14" s="3">
-        <f>P12-P13</f>
-        <v>157.19100000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>-25.91299999999999</v>
+      </c>
+      <c r="BI14">
+        <f t="shared" si="4"/>
+        <v>-8.051999999999996</v>
+      </c>
+      <c r="BJ14">
+        <f t="shared" si="5"/>
+        <v>-22.081999999999979</v>
+      </c>
+      <c r="BK14">
+        <f t="shared" si="6"/>
+        <v>-67.462000000000018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="AM15">
         <v>138.10400000000001</v>
       </c>
-      <c r="D15">
+      <c r="AN15">
         <v>125.60299999999999</v>
       </c>
-      <c r="E15">
+      <c r="AO15">
         <v>141.82</v>
       </c>
-      <c r="F15">
+      <c r="AP15">
         <v>145.99</v>
       </c>
-      <c r="G15">
+      <c r="AQ15">
         <v>146.44200000000001</v>
       </c>
-      <c r="H15">
+      <c r="AR15">
         <v>141.53299999999999</v>
       </c>
-      <c r="I15">
+      <c r="AS15">
         <v>141.22</v>
       </c>
-      <c r="J15">
+      <c r="AT15">
         <v>141.47999999999999</v>
       </c>
-      <c r="K15">
+      <c r="AU15">
         <v>144.61699999999999</v>
       </c>
-      <c r="L15">
+      <c r="AV15">
         <v>143.72499999999999</v>
       </c>
-      <c r="M15">
+      <c r="AW15">
         <v>145.96199999999999</v>
       </c>
-      <c r="N15">
+      <c r="AX15">
         <v>146.31100000000001</v>
       </c>
-      <c r="O15" s="3">
+      <c r="AY15">
         <v>145.98599999999999</v>
       </c>
-      <c r="P15" s="3">
+      <c r="AZ15">
         <v>145.09800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="C16">
-        <f t="shared" ref="C16:P16" si="4">C14/C15</f>
+      <c r="AM16">
+        <f t="shared" ref="AM16:AZ16" si="51">AM14/AM15</f>
         <v>0.38805537855529154</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="4"/>
+      <c r="AN16">
+        <f t="shared" si="51"/>
         <v>9.8707833411622342E-2</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="4"/>
+      <c r="AO16">
+        <f t="shared" si="51"/>
         <v>0.27754900578197705</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="4"/>
+      <c r="AP16">
+        <f t="shared" si="51"/>
         <v>0.49997260086307266</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
+      <c r="AQ16">
+        <f t="shared" si="51"/>
         <v>0.21645429589871762</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="4"/>
+      <c r="AR16">
+        <f t="shared" si="51"/>
         <v>0.27803409805487078</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
+      <c r="AS16">
+        <f t="shared" si="51"/>
         <v>0.15443279988670172</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
+      <c r="AT16">
+        <f t="shared" si="51"/>
         <v>0.37172038450664396</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="4"/>
+      <c r="AU16">
+        <f t="shared" si="51"/>
         <v>0.35833269947516516</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="4"/>
+      <c r="AV16">
+        <f t="shared" si="51"/>
         <v>0.53557836145416637</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="4"/>
+      <c r="AW16">
+        <f t="shared" si="51"/>
         <v>0.7865882901029031</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="4"/>
+      <c r="AX16">
+        <f t="shared" si="51"/>
         <v>1.0508642549090637</v>
       </c>
-      <c r="O16" s="3">
-        <f t="shared" si="4"/>
+      <c r="AY16">
+        <f t="shared" si="51"/>
         <v>1.0060759250887072</v>
       </c>
-      <c r="P16" s="3">
-        <f t="shared" si="4"/>
+      <c r="AZ16">
+        <f t="shared" si="51"/>
         <v>1.0833436711739655</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY17"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:N19" si="5">G3/C3-1</f>
+      <c r="AQ18">
+        <f t="shared" ref="AQ18:AX19" si="52">AQ3/AM3-1</f>
         <v>0.46806781969884947</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" si="5"/>
+      <c r="AR18">
+        <f t="shared" si="52"/>
         <v>1.5176201628192261</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" si="5"/>
+      <c r="AS18">
+        <f t="shared" si="52"/>
         <v>0.96926102082317955</v>
       </c>
-      <c r="J18" s="5">
-        <f t="shared" si="5"/>
+      <c r="AT18">
+        <f t="shared" si="52"/>
         <v>0.55837697620063498</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="5"/>
+      <c r="AU18">
+        <f t="shared" si="52"/>
         <v>0.46242303333178669</v>
       </c>
-      <c r="L18" s="5">
-        <f t="shared" si="5"/>
+      <c r="AV18">
+        <f t="shared" si="52"/>
         <v>0.67753285008716779</v>
       </c>
-      <c r="M18" s="5">
-        <f t="shared" si="5"/>
+      <c r="AW18">
+        <f t="shared" si="52"/>
         <v>0.80562928319664073</v>
       </c>
-      <c r="N18" s="5">
-        <f t="shared" si="5"/>
+      <c r="AX18">
+        <f t="shared" si="52"/>
         <v>0.75579995105628783</v>
       </c>
-      <c r="O18" s="5">
-        <f t="shared" ref="O18:P18" si="6">O3/K3-1</f>
+      <c r="AY18">
+        <f t="shared" ref="AY18:AZ18" si="53">AY3/AU3-1</f>
         <v>0.64520544220153542</v>
       </c>
-      <c r="P18" s="5">
-        <f t="shared" si="6"/>
+      <c r="AZ18">
+        <f t="shared" si="53"/>
         <v>0.34123607118876786</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5">
-        <f t="shared" si="5"/>
+      <c r="AQ19">
+        <f t="shared" si="52"/>
         <v>0.43192920637462962</v>
       </c>
-      <c r="H19" s="5">
-        <f t="shared" si="5"/>
+      <c r="AR19">
+        <f t="shared" si="52"/>
         <v>1.4400979896566475</v>
       </c>
-      <c r="I19" s="5">
-        <f t="shared" si="5"/>
+      <c r="AS19">
+        <f t="shared" si="52"/>
         <v>1.5282081367783338</v>
       </c>
-      <c r="J19" s="5">
-        <f t="shared" si="5"/>
+      <c r="AT19">
+        <f t="shared" si="52"/>
         <v>0.74529919314770354</v>
       </c>
-      <c r="K19" s="5">
-        <f t="shared" si="5"/>
+      <c r="AU19">
+        <f t="shared" si="52"/>
         <v>0.47825284527837586</v>
       </c>
-      <c r="L19" s="5">
-        <f t="shared" si="5"/>
+      <c r="AV19">
+        <f t="shared" si="52"/>
         <v>0.65302035526092106</v>
       </c>
-      <c r="M19" s="5">
-        <f t="shared" si="5"/>
+      <c r="AW19">
+        <f t="shared" si="52"/>
         <v>0.73704898158277343</v>
       </c>
-      <c r="N19" s="5">
-        <f t="shared" si="5"/>
+      <c r="AX19">
+        <f t="shared" si="52"/>
         <v>0.65975421503177567</v>
       </c>
-      <c r="O19" s="5">
-        <f t="shared" ref="O19:P19" si="7">O4/K4-1</f>
+      <c r="AY19">
+        <f t="shared" ref="AY19:AZ19" si="54">AY4/AU4-1</f>
         <v>0.51197984253875028</v>
       </c>
-      <c r="P19" s="5">
-        <f t="shared" si="7"/>
+      <c r="AZ19">
+        <f t="shared" si="54"/>
         <v>0.24610287572584055</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY20"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="4">
-        <f>D3/C3-1</f>
+      <c r="AN21">
+        <f>AN3/AM3-1</f>
         <v>-0.38924323140918049</v>
       </c>
-      <c r="E21" s="4">
-        <f t="shared" ref="E21:N21" si="8">E3/D3-1</f>
+      <c r="AO21">
+        <f t="shared" ref="AO21:AX21" si="55">AO3/AN3-1</f>
         <v>0.42190412464751703</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="8"/>
+      <c r="AP21">
+        <f t="shared" si="55"/>
         <v>0.48366694117185727</v>
       </c>
-      <c r="G21" s="4">
-        <f t="shared" si="8"/>
+      <c r="AQ21">
+        <f t="shared" si="55"/>
         <v>0.13938657070899696</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" si="8"/>
+      <c r="AR21">
+        <f t="shared" si="55"/>
         <v>4.7399537371501266E-2</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" si="8"/>
+      <c r="AS21">
+        <f t="shared" si="55"/>
         <v>0.1122012801488339</v>
       </c>
-      <c r="J21" s="4">
-        <f t="shared" si="8"/>
+      <c r="AT21">
+        <f t="shared" si="55"/>
         <v>0.1741015421641503</v>
       </c>
-      <c r="K21" s="4">
-        <f t="shared" si="8"/>
+      <c r="AU21">
+        <f t="shared" si="55"/>
         <v>6.923112335511572E-2</v>
       </c>
-      <c r="L21" s="4">
-        <f t="shared" si="8"/>
+      <c r="AV21">
+        <f t="shared" si="55"/>
         <v>0.20146297689511727</v>
       </c>
-      <c r="M21" s="4">
-        <f t="shared" si="8"/>
+      <c r="AW21">
+        <f t="shared" si="55"/>
         <v>0.19712898626168429</v>
       </c>
-      <c r="N21" s="4">
-        <f t="shared" si="8"/>
+      <c r="AX21">
+        <f t="shared" si="55"/>
         <v>0.14170026452900775</v>
       </c>
-      <c r="O21" s="4">
-        <f t="shared" ref="O21:P21" si="9">O3/N3-1</f>
+      <c r="AY21">
+        <f t="shared" ref="AY21:AZ21" si="56">AY3/AX3-1</f>
         <v>1.8822828060915953E-3</v>
       </c>
-      <c r="P21" s="4">
-        <f t="shared" si="9"/>
+      <c r="AZ21">
+        <f t="shared" si="56"/>
         <v>-2.0520208921015359E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="4">
-        <f>D4/C4-1</f>
+      <c r="AN22">
+        <f>AN4/AM4-1</f>
         <v>-0.38214943541282942</v>
       </c>
-      <c r="E22" s="4">
-        <f t="shared" ref="E22:N22" si="10">E4/D4-1</f>
+      <c r="AO22">
+        <f t="shared" ref="AO22:AX22" si="57">AO4/AN4-1</f>
         <v>8.2578320436546671E-2</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="10"/>
+      <c r="AP22">
+        <f t="shared" si="57"/>
         <v>0.71093843538229451</v>
       </c>
-      <c r="G22" s="4">
-        <f t="shared" si="10"/>
+      <c r="AQ22">
+        <f t="shared" si="57"/>
         <v>0.25125086598414281</v>
       </c>
-      <c r="H22" s="4">
-        <f t="shared" si="10"/>
+      <c r="AR22">
+        <f t="shared" si="57"/>
         <v>5.2856463745420967E-2</v>
       </c>
-      <c r="I22" s="4">
-        <f t="shared" si="10"/>
+      <c r="AS22">
+        <f t="shared" si="57"/>
         <v>0.12166942886282506</v>
       </c>
-      <c r="J22" s="4">
-        <f t="shared" si="10"/>
+      <c r="AT22">
+        <f t="shared" si="57"/>
         <v>0.18111298961455957</v>
       </c>
-      <c r="K22" s="4">
-        <f t="shared" si="10"/>
+      <c r="AU22">
+        <f t="shared" si="57"/>
         <v>5.97983200016039E-2</v>
       </c>
-      <c r="L22" s="4">
-        <f t="shared" si="10"/>
+      <c r="AV22">
+        <f t="shared" si="57"/>
         <v>0.17733117937038179</v>
       </c>
-      <c r="M22" s="4">
-        <f t="shared" si="10"/>
+      <c r="AW22">
+        <f t="shared" si="57"/>
         <v>0.17868768698323545</v>
       </c>
-      <c r="N22" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX22">
+        <f t="shared" si="57"/>
         <v>0.1285561223237921</v>
       </c>
-      <c r="O22" s="4">
-        <f t="shared" ref="O22:P22" si="11">O4/N4-1</f>
+      <c r="AY22">
+        <f t="shared" ref="AY22:AZ22" si="58">AY4/AX4-1</f>
         <v>-3.4559645948433637E-2</v>
       </c>
-      <c r="P22" s="4">
-        <f t="shared" si="11"/>
+      <c r="AZ22">
+        <f t="shared" si="58"/>
         <v>-2.9698857736240813E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY23"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="4">
-        <f>-C13/C14</f>
+      <c r="AM24">
+        <f>-AM13/AM14</f>
         <v>-0.22145096283027324</v>
       </c>
-      <c r="D24" s="4">
-        <f t="shared" ref="D24:P24" si="12">-D13/D14</f>
+      <c r="AN24">
+        <f t="shared" ref="AN24:AZ24" si="59">-AN13/AN14</f>
         <v>-0.52919825778351348</v>
       </c>
-      <c r="E24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AO24">
+        <f t="shared" si="59"/>
         <v>0.1392967837000153</v>
       </c>
-      <c r="F24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AP24">
+        <f t="shared" si="59"/>
         <v>-2.2454823197380503E-2</v>
       </c>
-      <c r="G24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AQ24">
+        <f t="shared" si="59"/>
         <v>-1.0525585210423367</v>
       </c>
-      <c r="H24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AR24">
+        <f t="shared" si="59"/>
         <v>0.17775914208025201</v>
       </c>
-      <c r="I24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AS24">
+        <f t="shared" si="59"/>
         <v>0.17873355036911354</v>
       </c>
-      <c r="J24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AT24">
+        <f t="shared" si="59"/>
         <v>-3.8980053621342062E-2</v>
       </c>
-      <c r="K24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AU24">
+        <f t="shared" si="59"/>
         <v>0.10779413751181963</v>
       </c>
-      <c r="L24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AV24">
+        <f t="shared" si="59"/>
         <v>0.19787985865724367</v>
       </c>
-      <c r="M24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AW24">
+        <f t="shared" si="59"/>
         <v>0.16934640978294963</v>
       </c>
-      <c r="N24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AX24">
+        <f t="shared" si="59"/>
         <v>9.3819307590746193E-2</v>
       </c>
-      <c r="O24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AY24">
+        <f t="shared" si="59"/>
         <v>0.2185561675733457</v>
       </c>
-      <c r="P24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AZ24">
+        <f t="shared" si="59"/>
         <v>-0.17432931910860028</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="C25">
-        <f>C5/C3</f>
+      <c r="AM25">
+        <f>AM5/AM3</f>
         <v>0.39249312802549313</v>
       </c>
-      <c r="D25">
-        <f t="shared" ref="D25:P25" si="13">D5/D3</f>
+      <c r="AN25">
+        <f t="shared" ref="AN25:AZ25" si="60">AN5/AN3</f>
         <v>0.38543707881278977</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="13"/>
+      <c r="AO25">
+        <f t="shared" si="60"/>
         <v>0.53209749976190868</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="13"/>
+      <c r="AP25">
+        <f t="shared" si="60"/>
         <v>0.46042312499292021</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="13"/>
+      <c r="AQ25">
+        <f t="shared" si="60"/>
         <v>0.40744778859600866</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="13"/>
+      <c r="AR25">
+        <f t="shared" si="60"/>
         <v>0.40436060584008582</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="13"/>
+      <c r="AS25">
+        <f t="shared" si="60"/>
         <v>0.39928993880842856</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="13"/>
+      <c r="AT25">
+        <f t="shared" si="60"/>
         <v>0.39570264514112508</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="13"/>
+      <c r="AU25">
+        <f t="shared" si="60"/>
         <v>0.40103378262012446</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="13"/>
+      <c r="AV25">
+        <f t="shared" si="60"/>
         <v>0.41306422530535886</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="13"/>
+      <c r="AW25">
+        <f t="shared" si="60"/>
         <v>0.42210573912933869</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="13"/>
+      <c r="AX25">
+        <f t="shared" si="60"/>
         <v>0.4287589077239834</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="13"/>
+      <c r="AY25">
+        <f t="shared" si="60"/>
         <v>0.44953692480606489</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="13"/>
+      <c r="AZ25">
+        <f t="shared" si="60"/>
         <v>0.45469528263944947</v>
       </c>
     </row>
-    <row r="1048576" spans="16:16" x14ac:dyDescent="0.3">
-      <c r="P1048576" s="3"/>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY26"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY27"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY28"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY29"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY30"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY31"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY32"/>
+    </row>
+    <row r="33" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY33"/>
+    </row>
+    <row r="34" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY34"/>
+    </row>
+    <row r="35" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY35"/>
+    </row>
+    <row r="36" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY36"/>
+    </row>
+    <row r="37" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY37"/>
+    </row>
+    <row r="38" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY38"/>
+    </row>
+    <row r="39" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY39"/>
+    </row>
+    <row r="40" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY40"/>
+    </row>
+    <row r="41" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY41"/>
+    </row>
+    <row r="42" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY42"/>
+    </row>
+    <row r="43" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY43"/>
+    </row>
+    <row r="44" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY44"/>
+    </row>
+    <row r="45" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY45"/>
+    </row>
+    <row r="46" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY46"/>
+    </row>
+    <row r="47" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY47"/>
+    </row>
+    <row r="48" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY48"/>
+    </row>
+    <row r="49" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY49"/>
+    </row>
+    <row r="50" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY50"/>
+    </row>
+    <row r="51" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY51"/>
+    </row>
+    <row r="52" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY52"/>
+    </row>
+    <row r="53" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY53"/>
+    </row>
+    <row r="54" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY54"/>
+    </row>
+    <row r="55" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY55"/>
+    </row>
+    <row r="56" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY56"/>
+    </row>
+    <row r="57" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY57"/>
+    </row>
+    <row r="58" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY58"/>
+    </row>
+    <row r="59" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY59"/>
+    </row>
+    <row r="60" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY60"/>
+    </row>
+    <row r="61" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY61"/>
+    </row>
+    <row r="62" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY62"/>
+    </row>
+    <row r="63" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY63"/>
+    </row>
+    <row r="64" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY64"/>
+    </row>
+    <row r="65" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY65"/>
+    </row>
+    <row r="66" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY66"/>
+    </row>
+    <row r="67" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY67"/>
+    </row>
+    <row r="68" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY68"/>
+    </row>
+    <row r="69" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY69"/>
+    </row>
+    <row r="70" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY70"/>
+    </row>
+    <row r="71" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY71"/>
+    </row>
+    <row r="72" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY72"/>
+    </row>
+    <row r="73" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY73"/>
+    </row>
+    <row r="74" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY74"/>
+    </row>
+    <row r="75" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY75"/>
+    </row>
+    <row r="76" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY76"/>
+    </row>
+    <row r="77" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY77"/>
+    </row>
+    <row r="78" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY78"/>
+    </row>
+    <row r="79" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY79"/>
+    </row>
+    <row r="80" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY80"/>
+    </row>
+    <row r="81" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY81"/>
+    </row>
+    <row r="82" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY82"/>
+    </row>
+    <row r="83" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY83"/>
+    </row>
+    <row r="84" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY84"/>
+    </row>
+    <row r="85" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY85"/>
+    </row>
+    <row r="86" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY86"/>
+    </row>
+    <row r="87" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY87"/>
+    </row>
+    <row r="88" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY88"/>
+    </row>
+    <row r="89" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY89"/>
+    </row>
+    <row r="90" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY90"/>
+    </row>
+    <row r="91" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY91"/>
+    </row>
+    <row r="92" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY92"/>
+    </row>
+    <row r="93" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY93"/>
+    </row>
+    <row r="94" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY94"/>
+    </row>
+    <row r="95" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY95"/>
+    </row>
+    <row r="96" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY96"/>
+    </row>
+    <row r="97" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY97"/>
+    </row>
+    <row r="98" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY98"/>
+    </row>
+    <row r="99" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY99"/>
+    </row>
+    <row r="100" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY100"/>
+    </row>
+    <row r="101" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY101"/>
+    </row>
+    <row r="102" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY102"/>
+    </row>
+    <row r="103" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY103"/>
+    </row>
+    <row r="104" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY104"/>
+    </row>
+    <row r="105" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY105"/>
+    </row>
+    <row r="106" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY106"/>
+    </row>
+    <row r="107" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY107"/>
+    </row>
+    <row r="108" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY108"/>
+    </row>
+    <row r="109" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY109"/>
+    </row>
+    <row r="110" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY110"/>
+    </row>
+    <row r="111" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY111"/>
+    </row>
+    <row r="112" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY112"/>
+    </row>
+    <row r="113" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY113"/>
+    </row>
+    <row r="114" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY114"/>
+    </row>
+    <row r="115" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY115"/>
+    </row>
+    <row r="116" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY116"/>
+    </row>
+    <row r="117" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY117"/>
+    </row>
+    <row r="118" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY118"/>
+    </row>
+    <row r="119" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY119"/>
+    </row>
+    <row r="120" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY120"/>
+    </row>
+    <row r="121" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY121"/>
+    </row>
+    <row r="122" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY122"/>
+    </row>
+    <row r="123" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY123"/>
+    </row>
+    <row r="124" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY124"/>
+    </row>
+    <row r="125" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY125"/>
+    </row>
+    <row r="126" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY126"/>
+    </row>
+    <row r="127" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY127"/>
+    </row>
+    <row r="128" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY128"/>
+    </row>
+    <row r="129" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY129"/>
+    </row>
+    <row r="130" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY130"/>
+    </row>
+    <row r="131" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY131"/>
+    </row>
+    <row r="132" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY132"/>
+    </row>
+    <row r="133" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY133"/>
+    </row>
+    <row r="134" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY134"/>
+    </row>
+    <row r="135" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY135"/>
+    </row>
+    <row r="136" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY136"/>
+    </row>
+    <row r="137" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY137"/>
+    </row>
+    <row r="138" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY138"/>
+    </row>
+    <row r="139" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY139"/>
+    </row>
+    <row r="140" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY140"/>
+    </row>
+    <row r="141" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY141"/>
+    </row>
+    <row r="142" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY142"/>
+    </row>
+    <row r="143" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY143"/>
+    </row>
+    <row r="144" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY144"/>
+    </row>
+    <row r="145" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY145"/>
+    </row>
+    <row r="146" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY146"/>
+    </row>
+    <row r="147" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY147"/>
+    </row>
+    <row r="148" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY148"/>
+    </row>
+    <row r="149" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY149"/>
+    </row>
+    <row r="150" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY150"/>
+    </row>
+    <row r="151" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY151"/>
+    </row>
+    <row r="152" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY152"/>
+    </row>
+    <row r="153" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY153"/>
+    </row>
+    <row r="154" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY154"/>
+    </row>
+    <row r="155" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY155"/>
+    </row>
+    <row r="156" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY156"/>
+    </row>
+    <row r="157" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY157"/>
+    </row>
+    <row r="158" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY158"/>
+    </row>
+    <row r="159" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY159"/>
+    </row>
+    <row r="160" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY160"/>
+    </row>
+    <row r="161" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY161"/>
+    </row>
+    <row r="162" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY162"/>
+    </row>
+    <row r="163" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY163"/>
+    </row>
+    <row r="164" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY164"/>
+    </row>
+    <row r="165" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY165"/>
+    </row>
+    <row r="166" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY166"/>
+    </row>
+    <row r="167" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY167"/>
+    </row>
+    <row r="168" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY168"/>
+    </row>
+    <row r="169" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY169"/>
+    </row>
+    <row r="170" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY170"/>
+    </row>
+    <row r="171" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY171"/>
+    </row>
+    <row r="172" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY172"/>
+    </row>
+    <row r="173" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY173"/>
+    </row>
+    <row r="174" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY174"/>
+    </row>
+    <row r="175" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY175"/>
+    </row>
+    <row r="176" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY176"/>
+    </row>
+    <row r="177" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY177"/>
+    </row>
+    <row r="178" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY178"/>
+    </row>
+    <row r="179" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY179"/>
+    </row>
+    <row r="180" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY180"/>
+    </row>
+    <row r="181" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY181"/>
+    </row>
+    <row r="182" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY182"/>
+    </row>
+    <row r="183" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY183"/>
+    </row>
+    <row r="184" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY184"/>
+    </row>
+    <row r="185" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY185"/>
+    </row>
+    <row r="186" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY186"/>
+    </row>
+    <row r="187" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY187"/>
+    </row>
+    <row r="188" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY188"/>
+    </row>
+    <row r="189" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY189"/>
+    </row>
+    <row r="190" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY190"/>
+    </row>
+    <row r="191" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY191"/>
+    </row>
+    <row r="192" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY192"/>
+    </row>
+    <row r="193" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY193"/>
+    </row>
+    <row r="194" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY194"/>
+    </row>
+    <row r="195" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY195"/>
+    </row>
+    <row r="196" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY196"/>
+    </row>
+    <row r="197" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY197"/>
+    </row>
+    <row r="198" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY198"/>
+    </row>
+    <row r="199" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY199"/>
+    </row>
+    <row r="200" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY200"/>
+    </row>
+    <row r="201" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY201"/>
+    </row>
+    <row r="202" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY202"/>
+    </row>
+    <row r="203" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY203"/>
+    </row>
+    <row r="204" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY204"/>
+    </row>
+    <row r="205" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY205"/>
+    </row>
+    <row r="206" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY206"/>
+    </row>
+    <row r="207" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY207"/>
+    </row>
+    <row r="208" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY208"/>
+    </row>
+    <row r="209" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY209"/>
+    </row>
+    <row r="210" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY210"/>
+    </row>
+    <row r="211" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY211"/>
+    </row>
+    <row r="212" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY212"/>
+    </row>
+    <row r="213" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY213"/>
+    </row>
+    <row r="214" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY214"/>
+    </row>
+    <row r="215" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY215"/>
+    </row>
+    <row r="216" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY216"/>
+    </row>
+    <row r="217" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY217"/>
+    </row>
+    <row r="218" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY218"/>
+    </row>
+    <row r="219" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY219"/>
+    </row>
+    <row r="220" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY220"/>
+    </row>
+    <row r="221" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY221"/>
+    </row>
+    <row r="222" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY222"/>
+    </row>
+    <row r="223" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY223"/>
+    </row>
+    <row r="224" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY224"/>
+    </row>
+    <row r="225" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY225"/>
+    </row>
+    <row r="226" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY226"/>
+    </row>
+    <row r="227" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY227"/>
+    </row>
+    <row r="228" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY228"/>
+    </row>
+    <row r="229" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY229"/>
+    </row>
+    <row r="230" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY230"/>
+    </row>
+    <row r="231" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY231"/>
+    </row>
+    <row r="232" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY232"/>
+    </row>
+    <row r="233" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY233"/>
+    </row>
+    <row r="234" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY234"/>
+    </row>
+    <row r="235" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY235"/>
+    </row>
+    <row r="236" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY236"/>
+    </row>
+    <row r="237" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY237"/>
+    </row>
+    <row r="238" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY238"/>
+    </row>
+    <row r="239" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY239"/>
+    </row>
+    <row r="240" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY240"/>
+    </row>
+    <row r="241" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY241"/>
+    </row>
+    <row r="242" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY242"/>
+    </row>
+    <row r="243" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY243"/>
+    </row>
+    <row r="244" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY244"/>
+    </row>
+    <row r="245" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY245"/>
+    </row>
+    <row r="246" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY246"/>
+    </row>
+    <row r="247" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY247"/>
+    </row>
+    <row r="248" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY248"/>
+    </row>
+    <row r="249" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY249"/>
+    </row>
+    <row r="250" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY250"/>
+    </row>
+    <row r="251" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY251"/>
+    </row>
+    <row r="252" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY252"/>
+    </row>
+    <row r="253" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY253"/>
+    </row>
+    <row r="254" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY254"/>
+    </row>
+    <row r="255" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY255"/>
+    </row>
+    <row r="256" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY256"/>
+    </row>
+    <row r="257" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY257"/>
+    </row>
+    <row r="258" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY258"/>
+    </row>
+    <row r="259" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY259"/>
+    </row>
+    <row r="260" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY260"/>
+    </row>
+    <row r="261" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY261"/>
+    </row>
+    <row r="262" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY262"/>
+    </row>
+    <row r="263" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY263"/>
+    </row>
+    <row r="264" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY264"/>
+    </row>
+    <row r="265" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY265"/>
+    </row>
+    <row r="266" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY266"/>
+    </row>
+    <row r="267" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY267"/>
+    </row>
+    <row r="268" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY268"/>
+    </row>
+    <row r="269" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY269"/>
+    </row>
+    <row r="270" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY270"/>
+    </row>
+    <row r="271" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY271"/>
+    </row>
+    <row r="272" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY272"/>
+    </row>
+    <row r="273" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY273"/>
+    </row>
+    <row r="274" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY274"/>
+    </row>
+    <row r="275" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY275"/>
+    </row>
+    <row r="276" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY276"/>
+    </row>
+    <row r="277" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY277"/>
+    </row>
+    <row r="278" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY278"/>
+    </row>
+    <row r="279" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY279"/>
+    </row>
+    <row r="280" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY280"/>
+    </row>
+    <row r="281" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY281"/>
+    </row>
+    <row r="282" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY282"/>
+    </row>
+    <row r="283" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY283"/>
+    </row>
+    <row r="284" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY284"/>
+    </row>
+    <row r="285" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY285"/>
+    </row>
+    <row r="286" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY286"/>
+    </row>
+    <row r="287" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY287"/>
+    </row>
+    <row r="288" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY288"/>
+    </row>
+    <row r="289" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY289"/>
+    </row>
+    <row r="290" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY290"/>
+    </row>
+    <row r="291" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY291"/>
+    </row>
+    <row r="292" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY292"/>
+    </row>
+    <row r="293" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY293"/>
+    </row>
+    <row r="294" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY294"/>
+    </row>
+    <row r="295" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY295"/>
+    </row>
+    <row r="296" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY296"/>
+    </row>
+    <row r="297" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY297"/>
+    </row>
+    <row r="298" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY298"/>
+    </row>
+    <row r="299" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY299"/>
+    </row>
+    <row r="300" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY300"/>
+    </row>
+    <row r="301" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY301"/>
+    </row>
+    <row r="302" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY302"/>
+    </row>
+    <row r="303" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY303"/>
+    </row>
+    <row r="304" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY304"/>
+    </row>
+    <row r="305" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY305"/>
+    </row>
+    <row r="306" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY306"/>
+    </row>
+    <row r="307" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY307"/>
+    </row>
+    <row r="308" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY308"/>
+    </row>
+    <row r="309" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY309"/>
+    </row>
+    <row r="310" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY310"/>
+    </row>
+    <row r="311" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY311"/>
+    </row>
+    <row r="312" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY312"/>
+    </row>
+    <row r="313" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY313"/>
+    </row>
+    <row r="314" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY314"/>
+    </row>
+    <row r="315" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY315"/>
+    </row>
+    <row r="316" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY316"/>
+    </row>
+    <row r="317" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY317"/>
+    </row>
+    <row r="318" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY318"/>
+    </row>
+    <row r="319" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY319"/>
+    </row>
+    <row r="320" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY320"/>
+    </row>
+    <row r="321" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY321"/>
+    </row>
+    <row r="322" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY322"/>
+    </row>
+    <row r="323" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY323"/>
+    </row>
+    <row r="324" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY324"/>
+    </row>
+    <row r="325" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY325"/>
+    </row>
+    <row r="326" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY326"/>
+    </row>
+    <row r="327" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY327"/>
+    </row>
+    <row r="328" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY328"/>
+    </row>
+    <row r="329" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY329"/>
+    </row>
+    <row r="330" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY330"/>
+    </row>
+    <row r="331" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY331"/>
+    </row>
+    <row r="332" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY332"/>
+    </row>
+    <row r="333" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY333"/>
+    </row>
+    <row r="334" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY334"/>
+    </row>
+    <row r="335" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY335"/>
+    </row>
+    <row r="336" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY336"/>
+    </row>
+    <row r="337" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY337"/>
+    </row>
+    <row r="338" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY338"/>
+    </row>
+    <row r="339" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY339"/>
+    </row>
+    <row r="340" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY340"/>
+    </row>
+    <row r="341" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY341"/>
+    </row>
+    <row r="342" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY342"/>
+    </row>
+    <row r="343" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY343"/>
+    </row>
+    <row r="344" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY344"/>
+    </row>
+    <row r="345" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY345"/>
+    </row>
+    <row r="346" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY346"/>
+    </row>
+    <row r="347" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY347"/>
+    </row>
+    <row r="348" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY348"/>
+    </row>
+    <row r="349" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY349"/>
+    </row>
+    <row r="350" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY350"/>
+    </row>
+    <row r="351" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY351"/>
+    </row>
+    <row r="352" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY352"/>
+    </row>
+    <row r="353" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY353"/>
+    </row>
+    <row r="354" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY354"/>
+    </row>
+    <row r="355" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY355"/>
+    </row>
+    <row r="356" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY356"/>
+    </row>
+    <row r="357" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY357"/>
+    </row>
+    <row r="358" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY358"/>
+    </row>
+    <row r="359" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY359"/>
+    </row>
+    <row r="360" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY360"/>
+    </row>
+    <row r="361" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY361"/>
+    </row>
+    <row r="362" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY362"/>
+    </row>
+    <row r="363" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY363"/>
+    </row>
+    <row r="364" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY364"/>
+    </row>
+    <row r="365" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY365"/>
+    </row>
+    <row r="366" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY366"/>
+    </row>
+    <row r="367" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY367"/>
+    </row>
+    <row r="368" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY368"/>
+    </row>
+    <row r="369" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY369"/>
+    </row>
+    <row r="370" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY370"/>
+    </row>
+    <row r="371" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY371"/>
+    </row>
+    <row r="372" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY372"/>
+    </row>
+    <row r="373" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY373"/>
+    </row>
+    <row r="374" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY374"/>
+    </row>
+    <row r="375" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY375"/>
+    </row>
+    <row r="376" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY376"/>
+    </row>
+    <row r="377" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY377"/>
+    </row>
+    <row r="378" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY378"/>
+    </row>
+    <row r="379" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY379"/>
+    </row>
+    <row r="380" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY380"/>
+    </row>
+    <row r="381" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY381"/>
+    </row>
+    <row r="382" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY382"/>
+    </row>
+    <row r="383" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY383"/>
+    </row>
+    <row r="384" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY384"/>
+    </row>
+    <row r="385" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY385"/>
+    </row>
+    <row r="386" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY386"/>
+    </row>
+    <row r="387" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY387"/>
+    </row>
+    <row r="388" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY388"/>
+    </row>
+    <row r="389" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY389"/>
+    </row>
+    <row r="390" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY390"/>
+    </row>
+    <row r="391" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY391"/>
+    </row>
+    <row r="392" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY392"/>
+    </row>
+    <row r="393" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY393"/>
+    </row>
+    <row r="394" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY394"/>
+    </row>
+    <row r="395" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY395"/>
+    </row>
+    <row r="396" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY396"/>
+    </row>
+    <row r="397" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY397"/>
+    </row>
+    <row r="398" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY398"/>
+    </row>
+    <row r="399" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY399"/>
+    </row>
+    <row r="400" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY400"/>
+    </row>
+    <row r="401" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY401"/>
+    </row>
+    <row r="402" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY402"/>
+    </row>
+    <row r="403" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY403"/>
+    </row>
+    <row r="404" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY404"/>
+    </row>
+    <row r="405" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY405"/>
+    </row>
+    <row r="406" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY406"/>
+    </row>
+    <row r="407" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY407"/>
+    </row>
+    <row r="408" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY408"/>
+    </row>
+    <row r="409" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY409"/>
+    </row>
+    <row r="410" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY410"/>
+    </row>
+    <row r="411" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY411"/>
+    </row>
+    <row r="412" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY412"/>
+    </row>
+    <row r="413" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY413"/>
+    </row>
+    <row r="414" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY414"/>
+    </row>
+    <row r="415" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY415"/>
+    </row>
+    <row r="416" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY416"/>
+    </row>
+    <row r="417" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY417"/>
+    </row>
+    <row r="418" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY418"/>
+    </row>
+    <row r="419" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY419"/>
+    </row>
+    <row r="420" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY420"/>
+    </row>
+    <row r="421" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY421"/>
+    </row>
+    <row r="422" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY422"/>
+    </row>
+    <row r="423" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY423"/>
+    </row>
+    <row r="424" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY424"/>
+    </row>
+    <row r="425" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY425"/>
+    </row>
+    <row r="426" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY426"/>
+    </row>
+    <row r="427" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY427"/>
+    </row>
+    <row r="428" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY428"/>
+    </row>
+    <row r="429" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY429"/>
+    </row>
+    <row r="430" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY430"/>
+    </row>
+    <row r="431" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY431"/>
+    </row>
+    <row r="432" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY432"/>
+    </row>
+    <row r="433" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY433"/>
+    </row>
+    <row r="434" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY434"/>
+    </row>
+    <row r="435" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY435"/>
+    </row>
+    <row r="436" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY436"/>
+    </row>
+    <row r="437" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY437"/>
+    </row>
+    <row r="438" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY438"/>
+    </row>
+    <row r="439" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY439"/>
+    </row>
+    <row r="440" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY440"/>
+    </row>
+    <row r="441" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY441"/>
+    </row>
+    <row r="442" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY442"/>
+    </row>
+    <row r="443" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY443"/>
+    </row>
+    <row r="444" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY444"/>
+    </row>
+    <row r="445" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY445"/>
+    </row>
+    <row r="446" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY446"/>
+    </row>
+    <row r="447" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY447"/>
+    </row>
+    <row r="448" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY448"/>
+    </row>
+    <row r="449" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY449"/>
+    </row>
+    <row r="450" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY450"/>
+    </row>
+    <row r="451" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY451"/>
+    </row>
+    <row r="452" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY452"/>
+    </row>
+    <row r="453" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY453"/>
+    </row>
+    <row r="454" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY454"/>
+    </row>
+    <row r="455" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY455"/>
+    </row>
+    <row r="456" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY456"/>
+    </row>
+    <row r="457" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY457"/>
+    </row>
+    <row r="458" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY458"/>
+    </row>
+    <row r="459" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY459"/>
+    </row>
+    <row r="460" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY460"/>
+    </row>
+    <row r="461" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY461"/>
+    </row>
+    <row r="462" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY462"/>
+    </row>
+    <row r="463" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY463"/>
+    </row>
+    <row r="464" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY464"/>
+    </row>
+    <row r="465" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY465"/>
+    </row>
+    <row r="466" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY466"/>
+    </row>
+    <row r="467" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY467"/>
+    </row>
+    <row r="468" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY468"/>
+    </row>
+    <row r="469" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY469"/>
+    </row>
+    <row r="470" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY470"/>
+    </row>
+    <row r="471" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY471"/>
+    </row>
+    <row r="472" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY472"/>
+    </row>
+    <row r="473" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY473"/>
+    </row>
+    <row r="474" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY474"/>
+    </row>
+    <row r="475" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY475"/>
+    </row>
+    <row r="476" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY476"/>
+    </row>
+    <row r="477" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY477"/>
+    </row>
+    <row r="478" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY478"/>
+    </row>
+    <row r="479" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY479"/>
+    </row>
+    <row r="480" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY480"/>
+    </row>
+    <row r="481" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY481"/>
+    </row>
+    <row r="482" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY482"/>
+    </row>
+    <row r="483" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY483"/>
+    </row>
+    <row r="484" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY484"/>
+    </row>
+    <row r="485" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY485"/>
+    </row>
+    <row r="486" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY486"/>
+    </row>
+    <row r="487" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY487"/>
+    </row>
+    <row r="488" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY488"/>
+    </row>
+    <row r="489" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY489"/>
+    </row>
+    <row r="490" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY490"/>
+    </row>
+    <row r="491" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY491"/>
+    </row>
+    <row r="492" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY492"/>
+    </row>
+    <row r="493" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY493"/>
+    </row>
+    <row r="494" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY494"/>
+    </row>
+    <row r="495" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY495"/>
+    </row>
+    <row r="496" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY496"/>
+    </row>
+    <row r="497" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY497"/>
+    </row>
+    <row r="498" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY498"/>
+    </row>
+    <row r="499" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY499"/>
+    </row>
+    <row r="500" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY500"/>
+    </row>
+    <row r="501" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY501"/>
+    </row>
+    <row r="502" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY502"/>
+    </row>
+    <row r="503" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY503"/>
+    </row>
+    <row r="504" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY504"/>
+    </row>
+    <row r="505" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY505"/>
+    </row>
+    <row r="506" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY506"/>
+    </row>
+    <row r="507" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY507"/>
+    </row>
+    <row r="508" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY508"/>
+    </row>
+    <row r="509" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY509"/>
+    </row>
+    <row r="510" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY510"/>
+    </row>
+    <row r="511" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY511"/>
+    </row>
+    <row r="512" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY512"/>
+    </row>
+    <row r="513" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY513"/>
+    </row>
+    <row r="514" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY514"/>
+    </row>
+    <row r="515" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY515"/>
+    </row>
+    <row r="516" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY516"/>
+    </row>
+    <row r="517" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY517"/>
+    </row>
+    <row r="518" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY518"/>
+    </row>
+    <row r="519" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY519"/>
+    </row>
+    <row r="520" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY520"/>
+    </row>
+    <row r="521" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY521"/>
+    </row>
+    <row r="522" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY522"/>
+    </row>
+    <row r="523" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY523"/>
+    </row>
+    <row r="524" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY524"/>
+    </row>
+    <row r="525" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY525"/>
+    </row>
+    <row r="526" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY526"/>
+    </row>
+    <row r="527" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY527"/>
+    </row>
+    <row r="528" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY528"/>
+    </row>
+    <row r="529" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY529"/>
+    </row>
+    <row r="530" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY530"/>
+    </row>
+    <row r="531" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY531"/>
+    </row>
+    <row r="532" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY532"/>
+    </row>
+    <row r="533" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY533"/>
+    </row>
+    <row r="534" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY534"/>
+    </row>
+    <row r="535" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY535"/>
+    </row>
+    <row r="536" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY536"/>
+    </row>
+    <row r="537" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY537"/>
+    </row>
+    <row r="538" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY538"/>
+    </row>
+    <row r="539" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY539"/>
+    </row>
+    <row r="540" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY540"/>
+    </row>
+    <row r="541" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY541"/>
+    </row>
+    <row r="542" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY542"/>
+    </row>
+    <row r="543" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY543"/>
+    </row>
+    <row r="544" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY544"/>
+    </row>
+    <row r="545" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY545"/>
+    </row>
+    <row r="546" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY546"/>
+    </row>
+    <row r="547" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY547"/>
+    </row>
+    <row r="548" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY548"/>
+    </row>
+    <row r="549" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY549"/>
+    </row>
+    <row r="550" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY550"/>
+    </row>
+    <row r="551" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY551"/>
+    </row>
+    <row r="552" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY552"/>
+    </row>
+    <row r="553" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY553"/>
+    </row>
+    <row r="554" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY554"/>
+    </row>
+    <row r="555" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY555"/>
+    </row>
+    <row r="556" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY556"/>
+    </row>
+    <row r="557" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY557"/>
+    </row>
+    <row r="558" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY558"/>
+    </row>
+    <row r="559" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY559"/>
+    </row>
+    <row r="560" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY560"/>
+    </row>
+    <row r="561" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY561"/>
+    </row>
+    <row r="562" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY562"/>
+    </row>
+    <row r="563" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY563"/>
+    </row>
+    <row r="564" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY564"/>
+    </row>
+    <row r="565" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY565"/>
+    </row>
+    <row r="566" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY566"/>
+    </row>
+    <row r="567" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY567"/>
+    </row>
+    <row r="568" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY568"/>
+    </row>
+    <row r="569" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY569"/>
+    </row>
+    <row r="570" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY570"/>
+    </row>
+    <row r="571" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY571"/>
+    </row>
+    <row r="572" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY572"/>
+    </row>
+    <row r="573" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY573"/>
+    </row>
+    <row r="574" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY574"/>
+    </row>
+    <row r="575" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY575"/>
+    </row>
+    <row r="576" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY576"/>
+    </row>
+    <row r="577" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY577"/>
+    </row>
+    <row r="578" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY578"/>
+    </row>
+    <row r="579" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY579"/>
+    </row>
+    <row r="580" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY580"/>
+    </row>
+    <row r="581" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY581"/>
+    </row>
+    <row r="582" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY582"/>
+    </row>
+    <row r="583" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY583"/>
+    </row>
+    <row r="584" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY584"/>
+    </row>
+    <row r="585" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY585"/>
+    </row>
+    <row r="586" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY586"/>
+    </row>
+    <row r="587" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY587"/>
+    </row>
+    <row r="588" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY588"/>
+    </row>
+    <row r="589" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY589"/>
+    </row>
+    <row r="590" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY590"/>
+    </row>
+    <row r="591" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY591"/>
+    </row>
+    <row r="592" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY592"/>
+    </row>
+    <row r="593" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY593"/>
+    </row>
+    <row r="594" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY594"/>
+    </row>
+    <row r="595" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY595"/>
+    </row>
+    <row r="596" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY596"/>
+    </row>
+    <row r="597" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY597"/>
+    </row>
+    <row r="598" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY598"/>
+    </row>
+    <row r="599" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY599"/>
+    </row>
+    <row r="600" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY600"/>
+    </row>
+    <row r="601" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY601"/>
+    </row>
+    <row r="602" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY602"/>
+    </row>
+    <row r="603" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY603"/>
+    </row>
+    <row r="604" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY604"/>
+    </row>
+    <row r="605" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY605"/>
+    </row>
+    <row r="606" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY606"/>
+    </row>
+    <row r="607" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY607"/>
+    </row>
+    <row r="608" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY608"/>
+    </row>
+    <row r="609" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY609"/>
+    </row>
+    <row r="610" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY610"/>
+    </row>
+    <row r="611" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY611"/>
+    </row>
+    <row r="612" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY612"/>
+    </row>
+    <row r="613" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY613"/>
+    </row>
+    <row r="614" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY614"/>
+    </row>
+    <row r="615" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY615"/>
+    </row>
+    <row r="616" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY616"/>
+    </row>
+    <row r="617" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY617"/>
+    </row>
+    <row r="618" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY618"/>
+    </row>
+    <row r="619" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY619"/>
+    </row>
+    <row r="620" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY620"/>
+    </row>
+    <row r="621" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY621"/>
+    </row>
+    <row r="622" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY622"/>
+    </row>
+    <row r="623" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY623"/>
+    </row>
+    <row r="624" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY624"/>
+    </row>
+    <row r="625" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY625"/>
+    </row>
+    <row r="626" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY626"/>
+    </row>
+    <row r="627" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY627"/>
+    </row>
+    <row r="628" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY628"/>
+    </row>
+    <row r="629" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY629"/>
+    </row>
+    <row r="630" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY630"/>
+    </row>
+    <row r="631" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY631"/>
+    </row>
+    <row r="632" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY632"/>
+    </row>
+    <row r="633" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY633"/>
+    </row>
+    <row r="634" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY634"/>
+    </row>
+    <row r="635" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY635"/>
+    </row>
+    <row r="636" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY636"/>
+    </row>
+    <row r="637" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY637"/>
+    </row>
+    <row r="638" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY638"/>
+    </row>
+    <row r="639" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY639"/>
+    </row>
+    <row r="640" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY640"/>
+    </row>
+    <row r="641" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY641"/>
+    </row>
+    <row r="642" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY642"/>
+    </row>
+    <row r="643" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY643"/>
+    </row>
+    <row r="644" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY644"/>
+    </row>
+    <row r="645" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY645"/>
+    </row>
+    <row r="646" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY646"/>
+    </row>
+    <row r="647" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY647"/>
+    </row>
+    <row r="648" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY648"/>
+    </row>
+    <row r="649" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY649"/>
+    </row>
+    <row r="650" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY650"/>
+    </row>
+    <row r="651" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY651"/>
+    </row>
+    <row r="652" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY652"/>
+    </row>
+    <row r="653" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY653"/>
+    </row>
+    <row r="654" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY654"/>
+    </row>
+    <row r="655" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY655"/>
+    </row>
+    <row r="656" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY656"/>
+    </row>
+    <row r="657" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY657"/>
+    </row>
+    <row r="658" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY658"/>
+    </row>
+    <row r="659" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY659"/>
+    </row>
+    <row r="660" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY660"/>
+    </row>
+    <row r="661" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY661"/>
+    </row>
+    <row r="662" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY662"/>
+    </row>
+    <row r="663" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY663"/>
+    </row>
+    <row r="664" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY664"/>
+    </row>
+    <row r="665" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY665"/>
+    </row>
+    <row r="666" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY666"/>
+    </row>
+    <row r="667" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY667"/>
+    </row>
+    <row r="668" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY668"/>
+    </row>
+    <row r="669" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY669"/>
+    </row>
+    <row r="670" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY670"/>
+    </row>
+    <row r="671" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY671"/>
+    </row>
+    <row r="672" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY672"/>
+    </row>
+    <row r="673" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY673"/>
+    </row>
+    <row r="674" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY674"/>
+    </row>
+    <row r="675" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY675"/>
+    </row>
+    <row r="676" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY676"/>
+    </row>
+    <row r="677" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY677"/>
+    </row>
+    <row r="678" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY678"/>
+    </row>
+    <row r="679" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY679"/>
+    </row>
+    <row r="680" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY680"/>
+    </row>
+    <row r="681" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY681"/>
+    </row>
+    <row r="682" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY682"/>
+    </row>
+    <row r="683" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY683"/>
+    </row>
+    <row r="684" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY684"/>
+    </row>
+    <row r="685" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY685"/>
+    </row>
+    <row r="686" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY686"/>
+    </row>
+    <row r="687" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY687"/>
+    </row>
+    <row r="688" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY688"/>
+    </row>
+    <row r="689" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY689"/>
+    </row>
+    <row r="690" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY690"/>
+    </row>
+    <row r="691" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY691"/>
+    </row>
+    <row r="692" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY692"/>
+    </row>
+    <row r="693" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY693"/>
+    </row>
+    <row r="694" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY694"/>
+    </row>
+    <row r="695" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY695"/>
+    </row>
+    <row r="696" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY696"/>
+    </row>
+    <row r="697" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY697"/>
+    </row>
+    <row r="698" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY698"/>
+    </row>
+    <row r="699" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY699"/>
+    </row>
+    <row r="700" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY700"/>
+    </row>
+    <row r="701" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY701"/>
+    </row>
+    <row r="702" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY702"/>
+    </row>
+    <row r="703" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY703"/>
+    </row>
+    <row r="704" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY704"/>
+    </row>
+    <row r="705" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY705"/>
+    </row>
+    <row r="706" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY706"/>
+    </row>
+    <row r="707" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY707"/>
+    </row>
+    <row r="708" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY708"/>
+    </row>
+    <row r="709" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY709"/>
+    </row>
+    <row r="710" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY710"/>
+    </row>
+    <row r="711" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY711"/>
+    </row>
+    <row r="712" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY712"/>
+    </row>
+    <row r="713" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY713"/>
+    </row>
+    <row r="714" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY714"/>
+    </row>
+    <row r="715" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY715"/>
+    </row>
+    <row r="716" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY716"/>
+    </row>
+    <row r="717" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY717"/>
+    </row>
+    <row r="718" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY718"/>
+    </row>
+    <row r="719" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY719"/>
+    </row>
+    <row r="720" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY720"/>
+    </row>
+    <row r="721" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY721"/>
+    </row>
+    <row r="722" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY722"/>
+    </row>
+    <row r="723" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY723"/>
+    </row>
+    <row r="724" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY724"/>
+    </row>
+    <row r="725" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY725"/>
+    </row>
+    <row r="726" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY726"/>
+    </row>
+    <row r="727" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY727"/>
+    </row>
+    <row r="728" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY728"/>
+    </row>
+    <row r="729" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY729"/>
+    </row>
+    <row r="730" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY730"/>
+    </row>
+    <row r="731" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY731"/>
+    </row>
+    <row r="732" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY732"/>
+    </row>
+    <row r="733" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY733"/>
+    </row>
+    <row r="734" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY734"/>
+    </row>
+    <row r="735" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY735"/>
+    </row>
+    <row r="736" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY736"/>
+    </row>
+    <row r="737" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY737"/>
+    </row>
+    <row r="738" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY738"/>
+    </row>
+    <row r="739" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY739"/>
+    </row>
+    <row r="740" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY740"/>
+    </row>
+    <row r="741" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY741"/>
+    </row>
+    <row r="742" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY742"/>
+    </row>
+    <row r="743" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY743"/>
+    </row>
+    <row r="744" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY744"/>
+    </row>
+    <row r="745" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY745"/>
+    </row>
+    <row r="746" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY746"/>
+    </row>
+    <row r="747" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY747"/>
+    </row>
+    <row r="748" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY748"/>
+    </row>
+    <row r="749" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY749"/>
+    </row>
+    <row r="750" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY750"/>
+    </row>
+    <row r="751" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY751"/>
+    </row>
+    <row r="752" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY752"/>
+    </row>
+    <row r="753" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY753"/>
+    </row>
+    <row r="754" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY754"/>
+    </row>
+    <row r="755" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY755"/>
+    </row>
+    <row r="756" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY756"/>
+    </row>
+    <row r="757" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY757"/>
+    </row>
+    <row r="758" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY758"/>
+    </row>
+    <row r="759" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY759"/>
+    </row>
+    <row r="760" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY760"/>
+    </row>
+    <row r="761" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY761"/>
+    </row>
+    <row r="762" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY762"/>
+    </row>
+    <row r="763" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY763"/>
+    </row>
+    <row r="764" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY764"/>
+    </row>
+    <row r="765" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY765"/>
+    </row>
+    <row r="766" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY766"/>
+    </row>
+    <row r="767" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY767"/>
+    </row>
+    <row r="768" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY768"/>
+    </row>
+    <row r="769" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY769"/>
+    </row>
+    <row r="770" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY770"/>
+    </row>
+    <row r="771" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY771"/>
+    </row>
+    <row r="772" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY772"/>
+    </row>
+    <row r="773" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY773"/>
+    </row>
+    <row r="774" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY774"/>
+    </row>
+    <row r="775" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY775"/>
+    </row>
+    <row r="776" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY776"/>
+    </row>
+    <row r="777" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY777"/>
+    </row>
+    <row r="778" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY778"/>
+    </row>
+    <row r="779" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY779"/>
+    </row>
+    <row r="780" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY780"/>
+    </row>
+    <row r="781" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY781"/>
+    </row>
+    <row r="782" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY782"/>
+    </row>
+    <row r="783" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY783"/>
+    </row>
+    <row r="784" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY784"/>
+    </row>
+    <row r="785" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY785"/>
+    </row>
+    <row r="786" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY786"/>
+    </row>
+    <row r="787" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY787"/>
+    </row>
+    <row r="788" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY788"/>
+    </row>
+    <row r="789" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY789"/>
+    </row>
+    <row r="790" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY790"/>
+    </row>
+    <row r="791" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY791"/>
+    </row>
+    <row r="792" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY792"/>
+    </row>
+    <row r="793" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY793"/>
+    </row>
+    <row r="794" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY794"/>
+    </row>
+    <row r="795" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY795"/>
+    </row>
+    <row r="796" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY796"/>
+    </row>
+    <row r="797" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY797"/>
+    </row>
+    <row r="798" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY798"/>
+    </row>
+    <row r="799" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY799"/>
+    </row>
+    <row r="800" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY800"/>
+    </row>
+    <row r="801" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY801"/>
+    </row>
+    <row r="802" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY802"/>
+    </row>
+    <row r="803" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY803"/>
+    </row>
+    <row r="804" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY804"/>
+    </row>
+    <row r="805" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY805"/>
+    </row>
+    <row r="806" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY806"/>
+    </row>
+    <row r="807" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY807"/>
+    </row>
+    <row r="808" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY808"/>
+    </row>
+    <row r="809" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY809"/>
+    </row>
+    <row r="810" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY810"/>
+    </row>
+    <row r="811" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY811"/>
+    </row>
+    <row r="812" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY812"/>
+    </row>
+    <row r="813" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY813"/>
+    </row>
+    <row r="814" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY814"/>
+    </row>
+    <row r="815" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY815"/>
+    </row>
+    <row r="816" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY816"/>
+    </row>
+    <row r="817" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY817"/>
+    </row>
+    <row r="818" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY818"/>
+    </row>
+    <row r="819" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY819"/>
+    </row>
+    <row r="820" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY820"/>
+    </row>
+    <row r="821" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY821"/>
+    </row>
+    <row r="822" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY822"/>
+    </row>
+    <row r="823" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY823"/>
+    </row>
+    <row r="824" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY824"/>
+    </row>
+    <row r="825" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY825"/>
+    </row>
+    <row r="826" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY826"/>
+    </row>
+    <row r="827" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY827"/>
+    </row>
+    <row r="828" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY828"/>
+    </row>
+    <row r="829" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY829"/>
+    </row>
+    <row r="830" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY830"/>
+    </row>
+    <row r="831" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY831"/>
+    </row>
+    <row r="832" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY832"/>
+    </row>
+    <row r="833" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY833"/>
+    </row>
+    <row r="834" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY834"/>
+    </row>
+    <row r="835" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY835"/>
+    </row>
+    <row r="836" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY836"/>
+    </row>
+    <row r="837" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY837"/>
+    </row>
+    <row r="838" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY838"/>
+    </row>
+    <row r="839" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY839"/>
+    </row>
+    <row r="840" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY840"/>
+    </row>
+    <row r="841" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY841"/>
+    </row>
+    <row r="842" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY842"/>
+    </row>
+    <row r="843" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY843"/>
+    </row>
+    <row r="844" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY844"/>
+    </row>
+    <row r="845" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY845"/>
+    </row>
+    <row r="846" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY846"/>
+    </row>
+    <row r="847" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY847"/>
+    </row>
+    <row r="848" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY848"/>
+    </row>
+    <row r="849" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY849"/>
+    </row>
+    <row r="850" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY850"/>
+    </row>
+    <row r="851" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY851"/>
+    </row>
+    <row r="852" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY852"/>
+    </row>
+    <row r="853" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY853"/>
+    </row>
+    <row r="854" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY854"/>
+    </row>
+    <row r="855" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY855"/>
+    </row>
+    <row r="856" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY856"/>
+    </row>
+    <row r="857" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY857"/>
+    </row>
+    <row r="858" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY858"/>
+    </row>
+    <row r="859" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY859"/>
+    </row>
+    <row r="860" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY860"/>
+    </row>
+    <row r="861" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY861"/>
+    </row>
+    <row r="862" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY862"/>
+    </row>
+    <row r="863" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY863"/>
+    </row>
+    <row r="864" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY864"/>
+    </row>
+    <row r="865" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY865"/>
+    </row>
+    <row r="866" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY866"/>
+    </row>
+    <row r="867" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY867"/>
+    </row>
+    <row r="868" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY868"/>
+    </row>
+    <row r="869" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY869"/>
+    </row>
+    <row r="870" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY870"/>
+    </row>
+    <row r="871" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY871"/>
+    </row>
+    <row r="872" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY872"/>
+    </row>
+    <row r="873" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY873"/>
+    </row>
+    <row r="874" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY874"/>
+    </row>
+    <row r="875" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY875"/>
+    </row>
+    <row r="876" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY876"/>
+    </row>
+    <row r="877" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY877"/>
+    </row>
+    <row r="878" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY878"/>
+    </row>
+    <row r="879" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY879"/>
+    </row>
+    <row r="880" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY880"/>
+    </row>
+    <row r="881" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY881"/>
+    </row>
+    <row r="882" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY882"/>
+    </row>
+    <row r="883" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY883"/>
+    </row>
+    <row r="884" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY884"/>
+    </row>
+    <row r="885" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY885"/>
+    </row>
+    <row r="886" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY886"/>
+    </row>
+    <row r="887" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY887"/>
+    </row>
+    <row r="888" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY888"/>
+    </row>
+    <row r="889" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY889"/>
+    </row>
+    <row r="890" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY890"/>
+    </row>
+    <row r="891" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY891"/>
+    </row>
+    <row r="892" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY892"/>
+    </row>
+    <row r="893" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY893"/>
+    </row>
+    <row r="894" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY894"/>
+    </row>
+    <row r="895" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY895"/>
+    </row>
+    <row r="896" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY896"/>
+    </row>
+    <row r="897" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY897"/>
+    </row>
+    <row r="898" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY898"/>
+    </row>
+    <row r="899" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY899"/>
+    </row>
+    <row r="900" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY900"/>
+    </row>
+    <row r="901" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY901"/>
+    </row>
+    <row r="902" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY902"/>
+    </row>
+    <row r="903" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY903"/>
+    </row>
+    <row r="904" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY904"/>
+    </row>
+    <row r="905" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY905"/>
+    </row>
+    <row r="906" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY906"/>
+    </row>
+    <row r="907" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY907"/>
+    </row>
+    <row r="908" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY908"/>
+    </row>
+    <row r="909" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY909"/>
+    </row>
+    <row r="910" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY910"/>
+    </row>
+    <row r="911" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY911"/>
+    </row>
+    <row r="912" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY912"/>
+    </row>
+    <row r="913" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY913"/>
+    </row>
+    <row r="914" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY914"/>
+    </row>
+    <row r="915" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY915"/>
+    </row>
+    <row r="916" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY916"/>
+    </row>
+    <row r="917" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY917"/>
+    </row>
+    <row r="918" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY918"/>
+    </row>
+    <row r="919" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY919"/>
+    </row>
+    <row r="920" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY920"/>
+    </row>
+    <row r="921" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY921"/>
+    </row>
+    <row r="922" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY922"/>
+    </row>
+    <row r="923" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY923"/>
+    </row>
+    <row r="924" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY924"/>
+    </row>
+    <row r="925" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY925"/>
+    </row>
+    <row r="926" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY926"/>
+    </row>
+    <row r="927" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY927"/>
+    </row>
+    <row r="928" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY928"/>
+    </row>
+    <row r="929" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY929"/>
+    </row>
+    <row r="930" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY930"/>
+    </row>
+    <row r="931" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY931"/>
+    </row>
+    <row r="932" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY932"/>
+    </row>
+    <row r="933" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY933"/>
+    </row>
+    <row r="934" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY934"/>
+    </row>
+    <row r="935" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY935"/>
+    </row>
+    <row r="936" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY936"/>
+    </row>
+    <row r="937" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY937"/>
+    </row>
+    <row r="938" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY938"/>
+    </row>
+    <row r="939" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY939"/>
+    </row>
+    <row r="940" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY940"/>
+    </row>
+    <row r="941" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY941"/>
+    </row>
+    <row r="942" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY942"/>
+    </row>
+    <row r="943" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY943"/>
+    </row>
+    <row r="944" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY944"/>
+    </row>
+    <row r="945" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY945"/>
+    </row>
+    <row r="946" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY946"/>
+    </row>
+    <row r="947" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY947"/>
+    </row>
+    <row r="948" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY948"/>
+    </row>
+    <row r="949" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY949"/>
+    </row>
+    <row r="950" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY950"/>
+    </row>
+    <row r="951" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY951"/>
+    </row>
+    <row r="952" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY952"/>
+    </row>
+    <row r="953" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY953"/>
+    </row>
+    <row r="954" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY954"/>
+    </row>
+    <row r="955" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY955"/>
+    </row>
+    <row r="956" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY956"/>
+    </row>
+    <row r="957" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY957"/>
+    </row>
+    <row r="958" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY958"/>
+    </row>
+    <row r="959" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY959"/>
+    </row>
+    <row r="960" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY960"/>
+    </row>
+    <row r="961" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY961"/>
+    </row>
+    <row r="962" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY962"/>
+    </row>
+    <row r="963" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY963"/>
+    </row>
+    <row r="964" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY964"/>
+    </row>
+    <row r="965" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY965"/>
+    </row>
+    <row r="966" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY966"/>
+    </row>
+    <row r="967" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY967"/>
+    </row>
+    <row r="968" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY968"/>
+    </row>
+    <row r="969" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY969"/>
+    </row>
+    <row r="970" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY970"/>
+    </row>
+    <row r="971" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY971"/>
+    </row>
+    <row r="972" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY972"/>
+    </row>
+    <row r="973" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY973"/>
+    </row>
+    <row r="974" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY974"/>
+    </row>
+    <row r="975" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY975"/>
+    </row>
+    <row r="976" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY976"/>
+    </row>
+    <row r="977" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY977"/>
+    </row>
+    <row r="978" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY978"/>
+    </row>
+    <row r="979" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY979"/>
+    </row>
+    <row r="980" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY980"/>
+    </row>
+    <row r="981" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY981"/>
+    </row>
+    <row r="982" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY982"/>
+    </row>
+    <row r="983" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY983"/>
+    </row>
+    <row r="984" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY984"/>
+    </row>
+    <row r="985" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY985"/>
+    </row>
+    <row r="986" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY986"/>
+    </row>
+    <row r="987" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY987"/>
+    </row>
+    <row r="988" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY988"/>
+    </row>
+    <row r="989" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY989"/>
+    </row>
+    <row r="990" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY990"/>
+    </row>
+    <row r="991" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY991"/>
+    </row>
+    <row r="992" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY992"/>
+    </row>
+    <row r="993" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY993"/>
+    </row>
+    <row r="994" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY994"/>
+    </row>
+    <row r="995" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY995"/>
+    </row>
+    <row r="996" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY996"/>
+    </row>
+    <row r="997" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY997"/>
+    </row>
+    <row r="998" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY998"/>
+    </row>
+    <row r="999" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY999"/>
+    </row>
+    <row r="1000" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1000"/>
+    </row>
+    <row r="1001" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1001"/>
+    </row>
+    <row r="1002" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1002"/>
+    </row>
+    <row r="1003" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1003"/>
+    </row>
+    <row r="1004" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1004"/>
+    </row>
+    <row r="1005" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1005"/>
+    </row>
+    <row r="1006" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1006"/>
+    </row>
+    <row r="1007" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1007"/>
+    </row>
+    <row r="1008" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1008"/>
+    </row>
+    <row r="1009" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1009"/>
+    </row>
+    <row r="1010" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1010"/>
+    </row>
+    <row r="1011" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1011"/>
+    </row>
+    <row r="1012" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1012"/>
+    </row>
+    <row r="1013" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1013"/>
+    </row>
+    <row r="1014" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1014"/>
+    </row>
+    <row r="1015" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1015"/>
+    </row>
+    <row r="1016" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1016"/>
+    </row>
+    <row r="1017" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1017"/>
+    </row>
+    <row r="1018" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1018"/>
+    </row>
+    <row r="1019" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1019"/>
+    </row>
+    <row r="1020" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1020"/>
+    </row>
+    <row r="1021" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1021"/>
+    </row>
+    <row r="1022" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1022"/>
+    </row>
+    <row r="1023" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1023"/>
+    </row>
+    <row r="1024" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1024"/>
+    </row>
+    <row r="1025" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1025"/>
+    </row>
+    <row r="1026" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1026"/>
+    </row>
+    <row r="1027" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1027"/>
+    </row>
+    <row r="1028" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1028"/>
+    </row>
+    <row r="1029" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1029"/>
+    </row>
+    <row r="1030" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1030"/>
+    </row>
+    <row r="1031" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1031"/>
+    </row>
+    <row r="1032" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1032"/>
+    </row>
+    <row r="1033" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1033"/>
+    </row>
+    <row r="1034" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1034"/>
+    </row>
+    <row r="1035" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1035"/>
+    </row>
+    <row r="1036" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1036"/>
+    </row>
+    <row r="1037" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1037"/>
+    </row>
+    <row r="1038" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1038"/>
+    </row>
+    <row r="1039" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1039"/>
+    </row>
+    <row r="1040" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1040"/>
+    </row>
+    <row r="1041" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1041"/>
+    </row>
+    <row r="1042" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1042"/>
+    </row>
+    <row r="1043" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1043"/>
+    </row>
+    <row r="1044" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1044"/>
+    </row>
+    <row r="1045" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1045"/>
+    </row>
+    <row r="1046" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1046"/>
+    </row>
+    <row r="1047" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1047"/>
+    </row>
+    <row r="1048" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1048"/>
+    </row>
+    <row r="1049" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1049"/>
+    </row>
+    <row r="1050" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1050"/>
+    </row>
+    <row r="1051" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1051"/>
+    </row>
+    <row r="1052" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1052"/>
+    </row>
+    <row r="1053" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1053"/>
+    </row>
+    <row r="1054" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1054"/>
+    </row>
+    <row r="1055" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1055"/>
+    </row>
+    <row r="1056" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1056"/>
+    </row>
+    <row r="1057" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1057"/>
+    </row>
+    <row r="1058" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1058"/>
+    </row>
+    <row r="1059" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1059"/>
+    </row>
+    <row r="1060" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1060"/>
+    </row>
+    <row r="1061" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1061"/>
+    </row>
+    <row r="1062" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1062"/>
+    </row>
+    <row r="1063" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1063"/>
+    </row>
+    <row r="1064" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1064"/>
+    </row>
+    <row r="1065" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1065"/>
+    </row>
+    <row r="1066" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1066"/>
+    </row>
+    <row r="1067" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1067"/>
+    </row>
+    <row r="1068" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1068"/>
+    </row>
+    <row r="1069" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1069"/>
+    </row>
+    <row r="1070" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1070"/>
+    </row>
+    <row r="1071" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1071"/>
+    </row>
+    <row r="1072" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1072"/>
+    </row>
+    <row r="1073" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1073"/>
+    </row>
+    <row r="1074" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1074"/>
+    </row>
+    <row r="1075" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1075"/>
+    </row>
+    <row r="1076" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1076"/>
+    </row>
+    <row r="1077" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1077"/>
+    </row>
+    <row r="1078" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1078"/>
+    </row>
+    <row r="1079" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1079"/>
+    </row>
+    <row r="1080" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1080"/>
+    </row>
+    <row r="1081" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1081"/>
+    </row>
+    <row r="1082" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1082"/>
+    </row>
+    <row r="1083" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1083"/>
+    </row>
+    <row r="1084" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1084"/>
+    </row>
+    <row r="1085" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1085"/>
+    </row>
+    <row r="1086" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1086"/>
+    </row>
+    <row r="1087" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1087"/>
+    </row>
+    <row r="1088" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1088"/>
+    </row>
+    <row r="1089" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1089"/>
+    </row>
+    <row r="1090" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1090"/>
+    </row>
+    <row r="1091" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1091"/>
+    </row>
+    <row r="1092" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1092"/>
+    </row>
+    <row r="1093" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1093"/>
+    </row>
+    <row r="1094" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1094"/>
+    </row>
+    <row r="1095" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1095"/>
+    </row>
+    <row r="1096" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1096"/>
+    </row>
+    <row r="1097" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1097"/>
+    </row>
+    <row r="1098" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1098"/>
+    </row>
+    <row r="1099" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1099"/>
+    </row>
+    <row r="1100" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1100"/>
+    </row>
+    <row r="1101" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1101"/>
+    </row>
+    <row r="1102" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1102"/>
+    </row>
+    <row r="1103" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1103"/>
+    </row>
+    <row r="1104" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1104"/>
+    </row>
+    <row r="1105" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1105"/>
+    </row>
+    <row r="1106" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1106"/>
+    </row>
+    <row r="1107" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1107"/>
+    </row>
+    <row r="1108" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1108"/>
+    </row>
+    <row r="1109" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1109"/>
+    </row>
+    <row r="1110" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1110"/>
+    </row>
+    <row r="1111" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1111"/>
+    </row>
+    <row r="1112" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1112"/>
+    </row>
+    <row r="1113" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1113"/>
+    </row>
+    <row r="1114" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1114"/>
+    </row>
+    <row r="1115" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1115"/>
+    </row>
+    <row r="1116" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1116"/>
+    </row>
+    <row r="1117" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1117"/>
+    </row>
+    <row r="1118" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1118"/>
+    </row>
+    <row r="1119" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1119"/>
+    </row>
+    <row r="1120" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1120"/>
+    </row>
+    <row r="1121" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1121"/>
+    </row>
+    <row r="1122" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1122"/>
+    </row>
+    <row r="1123" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1123"/>
+    </row>
+    <row r="1124" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1124"/>
+    </row>
+    <row r="1125" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1125"/>
+    </row>
+    <row r="1126" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1126"/>
+    </row>
+    <row r="1127" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1127"/>
+    </row>
+    <row r="1128" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1128"/>
+    </row>
+    <row r="1129" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1129"/>
+    </row>
+    <row r="1130" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1130"/>
+    </row>
+    <row r="1131" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1131"/>
+    </row>
+    <row r="1132" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1132"/>
+    </row>
+    <row r="1133" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1133"/>
+    </row>
+    <row r="1134" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1134"/>
+    </row>
+    <row r="1135" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1135"/>
+    </row>
+    <row r="1136" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1136"/>
+    </row>
+    <row r="1137" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1137"/>
+    </row>
+    <row r="1138" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1138"/>
+    </row>
+    <row r="1139" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1139"/>
+    </row>
+    <row r="1140" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1140"/>
+    </row>
+    <row r="1141" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1141"/>
+    </row>
+    <row r="1142" spans="51:51" x14ac:dyDescent="0.3">
+      <c r="AY1142"/>
+    </row>
+    <row r="1048576" spans="52:52" x14ac:dyDescent="0.3">
+      <c r="AZ1048576" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/ENPHASE.xlsx
+++ b/ENPHASE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\logi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6BD802-229E-4BA3-BF37-4FF0378CB0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877B3A9E-3553-4AD8-A036-2E9A1DF05C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9D3A19D8-55D8-46DD-A2B2-6A867578918F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D3A19D8-55D8-46DD-A2B2-6A867578918F}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>Shares</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>COGS</t>
-  </si>
-  <si>
-    <t>Gross Margin</t>
   </si>
   <si>
     <t>R&amp;D</t>
@@ -279,17 +276,21 @@
     <t>Q224</t>
   </si>
   <si>
-    <t xml:space="preserve">in millions </t>
+    <t>mlns</t>
   </si>
   <si>
-    <t xml:space="preserve">to do </t>
+    <t>Gross Profit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +306,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -315,7 +323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,23 +346,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74092BC0-095C-4BC8-B1B5-A4B81FD8BCF8}">
-  <dimension ref="T2:V7"/>
+  <dimension ref="T2:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,18 +697,19 @@
         <v>5</v>
       </c>
       <c r="U2">
-        <v>166.04</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="20:22" x14ac:dyDescent="0.3">
       <c r="T3" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="1">
-        <v>137.04372599999999</v>
+      <c r="U3" s="8">
+        <f>Sheet2!BD15</f>
+        <v>135.89099999999999</v>
       </c>
       <c r="V3" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="20:22" x14ac:dyDescent="0.3">
@@ -702,7 +718,7 @@
       </c>
       <c r="U4" s="1">
         <f>U3*U2</f>
-        <v>22754.740265039996</v>
+        <v>14676.227999999999</v>
       </c>
     </row>
     <row r="5" spans="20:22" x14ac:dyDescent="0.3">
@@ -710,8 +726,8 @@
         <v>2</v>
       </c>
       <c r="U5" s="1">
-        <f>286.045+1492.352</f>
-        <v>1778.3970000000002</v>
+        <f>252.102+1394.302</f>
+        <v>1646.404</v>
       </c>
     </row>
     <row r="6" spans="20:22" x14ac:dyDescent="0.3">
@@ -719,8 +735,8 @@
         <v>3</v>
       </c>
       <c r="U6" s="1">
-        <f>92115+1200.276</f>
-        <v>93315.275999999998</v>
+        <f>98.592+1200.432</f>
+        <v>1299.0240000000001</v>
       </c>
     </row>
     <row r="7" spans="20:22" x14ac:dyDescent="0.3">
@@ -729,8 +745,11 @@
       </c>
       <c r="U7" s="1">
         <f>U4+U6-U5</f>
-        <v>114291.61926504</v>
-      </c>
+        <v>14328.847999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="U8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -740,130 +759,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DABA9C-280B-48F5-96D3-D249F6D12B9C}">
-  <dimension ref="A1:CA1048576"/>
+  <dimension ref="A1:CB1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF13" sqref="AF13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BS18" sqref="BS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.88671875" style="3"/>
+    <col min="3" max="42" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="50" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="56" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="68" width="9" bestFit="1" customWidth="1"/>
+    <col min="69" max="71" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>55</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>56</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>74</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>75</v>
       </c>
       <c r="AM1" t="s">
         <v>8</v>
@@ -905,2721 +930,4670 @@
         <v>6</v>
       </c>
       <c r="AZ1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BA1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB1" t="s">
         <v>76</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>77</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>78</v>
       </c>
-      <c r="BD1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF1">
+      <c r="BG1">
         <f>2011</f>
         <v>2011</v>
       </c>
-      <c r="BG1">
-        <f>BF1+1</f>
+      <c r="BH1">
+        <f>BG1+1</f>
         <v>2012</v>
       </c>
-      <c r="BH1">
-        <f t="shared" ref="BH1:CA1" si="0">BG1+1</f>
+      <c r="BI1">
+        <f t="shared" ref="BI1:CB1" si="0">BH1+1</f>
         <v>2013</v>
       </c>
-      <c r="BI1">
+      <c r="BJ1">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="BJ1">
+      <c r="BK1">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="BK1">
+      <c r="BL1">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="BL1">
+      <c r="BM1">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="BM1">
+      <c r="BN1">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="BN1">
+      <c r="BO1">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="BO1">
+      <c r="BP1">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="BP1">
+      <c r="BQ1">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="BQ1">
+      <c r="BR1">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="BR1">
+      <c r="BS1">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="BS1">
+      <c r="BT1">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="BT1">
+      <c r="BU1">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="BU1">
+      <c r="BV1">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="BV1">
+      <c r="BW1">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="BW1">
+      <c r="BX1">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="BX1">
+      <c r="BY1">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="BY1">
+      <c r="BZ1">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="BZ1">
+      <c r="CA1">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="CA1">
+      <c r="CB1">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AY2"/>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
         <v>18.068999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>29.591999999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>44.728000000000002</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <f>149.523-SUM(C3:E3)</f>
         <v>57.133999999999986</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>42.6</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>55.697000000000003</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>60.813000000000002</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <f>216.678-SUM(G3:I3)</f>
         <v>57.567999999999984</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>45.576999999999998</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>58.167000000000002</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>62.045999999999999</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <f>232.846-SUM(K3:M3)</f>
         <v>67.056000000000012</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>57.58</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>82.004000000000005</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <v>99.113</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="4">
         <f>343.904-SUM(O3:Q3)</f>
         <v>105.20699999999999</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <v>86.653000000000006</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="4">
         <v>102.093</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="4">
         <v>102.874</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="4">
         <f>357.249-SUM(S3:U3)</f>
         <v>65.629000000000019</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="4">
         <v>64.120999999999995</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="4">
         <v>79.185000000000002</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="4">
         <v>88.683999999999997</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="4">
         <f>322.591-SUM(W3:Y3)</f>
         <v>90.601000000000028</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="4">
         <v>54.750999999999998</v>
       </c>
-      <c r="AB3">
-        <v>79.185000000000002</v>
-      </c>
-      <c r="AC3">
-        <v>88.683999999999997</v>
-      </c>
-      <c r="AD3">
-        <f>322.591-SUM(AA3:AC3)</f>
-        <v>99.971000000000004</v>
-      </c>
-      <c r="AE3">
+      <c r="AB3" s="4">
+        <v>74.706999999999994</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>77.037999999999997</v>
+      </c>
+      <c r="AD3" s="4">
+        <f>286.166-SUM(AA3:AC3)</f>
+        <v>79.670000000000016</v>
+      </c>
+      <c r="AE3" s="4">
         <v>69.971999999999994</v>
       </c>
-      <c r="AM3">
+      <c r="AF3" s="4">
+        <v>75.896000000000001</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>78.001999999999995</v>
+      </c>
+      <c r="AH3" s="4">
+        <f>316.159-SUM(AE3:AG3)</f>
+        <v>92.288999999999987</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>100.15</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>134.09399999999999</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>180.05699999999999</v>
+      </c>
+      <c r="AL3" s="4">
+        <f>624.333-SUM(AI3:AK3)</f>
+        <v>210.03199999999998</v>
+      </c>
+      <c r="AM3" s="4">
         <v>205.54499999999999</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="4">
         <v>125.538</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="4">
         <v>178.50299999999999</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="4">
         <v>264.839</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="4">
         <v>301.75400000000002</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="4">
         <v>316.05700000000002</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="4">
         <v>351.51900000000001</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="4">
         <v>412.71899999999999</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="4">
         <v>441.29199999999997</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="4">
         <v>530.19600000000003</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="4">
         <v>634.71299999999997</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="4">
         <v>724.65200000000004</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="4">
         <v>726.01599999999996</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="4">
         <v>711.11800000000005</v>
       </c>
-      <c r="BA3">
-        <v>768.12</v>
-      </c>
-      <c r="BF3">
+      <c r="BA3" s="4">
+        <v>551.08199999999999</v>
+      </c>
+      <c r="BB3" s="4">
+        <f>302.57</f>
+        <v>302.57</v>
+      </c>
+      <c r="BC3" s="4">
+        <v>263.339</v>
+      </c>
+      <c r="BD3" s="4">
+        <v>303.45800000000003</v>
+      </c>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4">
         <f>SUM(C3:F3)</f>
         <v>149.523</v>
       </c>
-      <c r="BG3">
+      <c r="BH3" s="4">
         <f>SUM(G3:J3)</f>
         <v>216.678</v>
       </c>
-      <c r="BH3">
+      <c r="BI3" s="4">
         <f>SUM(K3:N3)</f>
         <v>232.846</v>
       </c>
-      <c r="BI3">
+      <c r="BJ3" s="4">
         <f>SUM(O3:R3)</f>
         <v>343.904</v>
       </c>
-      <c r="BJ3">
-        <f>SUM(S3:V4)</f>
-        <v>606.28100000000006</v>
-      </c>
-      <c r="BK3">
+      <c r="BK3" s="4">
+        <f>SUM(S3:V3)</f>
+        <v>357.24900000000002</v>
+      </c>
+      <c r="BL3" s="4">
         <f>SUM(W3:Z3)</f>
         <v>322.59100000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="BM3" s="4">
+        <f>SUM(AA3:AD3)</f>
+        <v>286.166</v>
+      </c>
+      <c r="BN3" s="4">
+        <f>SUM(AE3:AH3)</f>
+        <v>316.15899999999999</v>
+      </c>
+      <c r="BO3" s="4">
+        <f>SUM(AI3:AL3)</f>
+        <v>624.33299999999997</v>
+      </c>
+      <c r="BP3" s="4">
+        <f>SUM(AM3:AP3)</f>
+        <v>774.42499999999995</v>
+      </c>
+      <c r="BQ3" s="4">
+        <f>SUM(AQ3:AT3)</f>
+        <v>1382.049</v>
+      </c>
+      <c r="BR3" s="4">
+        <f>SUM(AU3:AX3)</f>
+        <v>2330.8530000000001</v>
+      </c>
+      <c r="BS3" s="4">
+        <f>SUM(AY3:BB3)</f>
+        <v>2290.7860000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>15.420999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>24.785</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>36.185000000000002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <f>120.454-SUM(C4:E4)</f>
         <v>44.062999999999988</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>33.292999999999999</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>42.095999999999997</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>44.488999999999997</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <f>161.39-SUM(G4:I4)</f>
         <v>41.512</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>33.375999999999998</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>41.883000000000003</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>44.610999999999997</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <f>165.43-SUM(K4:M4)</f>
         <v>45.56</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>38.924999999999997</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <v>55.171999999999997</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <v>66.591999999999999</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <f>230.861-SUM(O4:Q4)</f>
         <v>70.171999999999997</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <v>58.628999999999998</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="4">
         <v>69.066000000000003</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="4">
         <v>71.408000000000001</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="4">
         <f>249.032-SUM(S4:U4)</f>
         <v>49.929000000000002</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="4">
         <v>52.360999999999997</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="4">
         <v>65.049000000000007</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="4">
         <v>72.805000000000007</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="4">
         <f>264.583-SUM(W4:Y4)</f>
         <v>74.368000000000023</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="4">
         <v>47.703000000000003</v>
       </c>
-      <c r="AB4">
-        <v>65.049000000000007</v>
-      </c>
-      <c r="AC4">
-        <v>72.805000000000007</v>
-      </c>
-      <c r="AD4">
-        <f>264.583-SUM(AA4:AC4)</f>
-        <v>79.02600000000001</v>
-      </c>
-      <c r="AE4">
+      <c r="AB4" s="4">
+        <v>61.156999999999996</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>60.576999999999998</v>
+      </c>
+      <c r="AD4" s="4">
+        <f>230.123-SUM(AA4:AC4)</f>
+        <v>60.685999999999979</v>
+      </c>
+      <c r="AE4" s="4">
         <v>51.656999999999996</v>
       </c>
-      <c r="AM4">
+      <c r="AF4" s="4">
+        <v>53.195</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>52.738</v>
+      </c>
+      <c r="AH4" s="4">
+        <f>221.714-SUM(AE4:AG4)</f>
+        <v>64.123999999999995</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>66.811000000000007</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>88.775000000000006</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>115.351</v>
+      </c>
+      <c r="AL4" s="4">
+        <f>403.088-SUM(AI4:AK4)</f>
+        <v>132.15100000000001</v>
+      </c>
+      <c r="AM4" s="4">
         <v>124.87</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="4">
         <v>77.150999999999996</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="4">
         <v>83.522000000000006</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="4">
         <v>142.90100000000001</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="4">
         <v>178.80500000000001</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="4">
         <v>188.256</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="4">
         <v>211.161</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="4">
         <v>249.405</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="4">
         <v>264.31900000000002</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="4">
         <v>311.19099999999997</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="4">
         <v>366.79700000000003</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="4">
         <v>413.95100000000002</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="4">
         <v>399.64499999999998</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="4">
         <v>387.77600000000001</v>
       </c>
-      <c r="BF4">
-        <f t="shared" ref="BF4:BG14" si="1">SUM(C4:F4)</f>
+      <c r="BA4" s="4">
+        <v>289.06900000000002</v>
+      </c>
+      <c r="BB4" s="4">
+        <v>155.90799999999999</v>
+      </c>
+      <c r="BC4" s="4">
+        <v>147.83099999999999</v>
+      </c>
+      <c r="BD4" s="4">
+        <v>166.292</v>
+      </c>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4">
+        <f t="shared" ref="BG4:BG14" si="1">SUM(C4:F4)</f>
         <v>120.45399999999999</v>
       </c>
-      <c r="BG4">
-        <f t="shared" ref="BG4:BG14" si="2">SUM(G4:J4)</f>
+      <c r="BH4" s="4">
+        <f t="shared" ref="BH4:BH14" si="2">SUM(G4:J4)</f>
         <v>161.38999999999999</v>
       </c>
-      <c r="BH4">
-        <f t="shared" ref="BH4:BH14" si="3">SUM(K4:N4)</f>
+      <c r="BI4" s="4">
+        <f t="shared" ref="BI4:BI14" si="3">SUM(K4:N4)</f>
         <v>165.43</v>
       </c>
-      <c r="BI4">
-        <f t="shared" ref="BI4:BI14" si="4">SUM(O4:R4)</f>
+      <c r="BJ4" s="4">
+        <f t="shared" ref="BJ4:BJ14" si="4">SUM(O4:R4)</f>
         <v>230.86099999999999</v>
       </c>
-      <c r="BJ4">
-        <f t="shared" ref="BJ4:BJ14" si="5">SUM(S4:V5)</f>
-        <v>357.24900000000002</v>
-      </c>
-      <c r="BK4">
-        <f t="shared" ref="BK4:BK14" si="6">SUM(W4:Z4)</f>
+      <c r="BK4" s="4">
+        <f t="shared" ref="BK4:BK14" si="5">SUM(S4:V4)</f>
+        <v>249.03200000000001</v>
+      </c>
+      <c r="BL4" s="4">
+        <f t="shared" ref="BL4:BL14" si="6">SUM(W4:Z4)</f>
         <v>264.58300000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="BM4" s="4">
+        <f t="shared" ref="BM4:BM14" si="7">SUM(AA4:AD4)</f>
+        <v>230.12299999999999</v>
+      </c>
+      <c r="BN4" s="4">
+        <f t="shared" ref="BN4:BN14" si="8">SUM(AE4:AH4)</f>
+        <v>221.714</v>
+      </c>
+      <c r="BO4" s="4">
+        <f t="shared" ref="BO4:BO14" si="9">SUM(AI4:AL4)</f>
+        <v>403.08800000000002</v>
+      </c>
+      <c r="BP4" s="4">
+        <f t="shared" ref="BP4:BP14" si="10">SUM(AM4:AP4)</f>
+        <v>428.44400000000002</v>
+      </c>
+      <c r="BQ4" s="4">
+        <f t="shared" ref="BQ4:BQ14" si="11">SUM(AQ4:AT4)</f>
+        <v>827.62699999999995</v>
+      </c>
+      <c r="BR4" s="4">
+        <f t="shared" ref="BR4:BR14" si="12">SUM(AU4:AX4)</f>
+        <v>1356.258</v>
+      </c>
+      <c r="BS4" s="4">
+        <f t="shared" ref="BS4:BS14" si="13">SUM(AY4:BB4)</f>
+        <v>1232.3979999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
         <f>C3-C4</f>
         <v>2.6479999999999997</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:K5" si="7">D3-D4</f>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:K5" si="14">D3-D4</f>
         <v>4.8069999999999986</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="7"/>
+      <c r="E5" s="4">
+        <f t="shared" si="14"/>
         <v>8.5429999999999993</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="7"/>
+      <c r="F5" s="4">
+        <f t="shared" si="14"/>
         <v>13.070999999999998</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="7"/>
+      <c r="G5" s="4">
+        <f t="shared" si="14"/>
         <v>9.3070000000000022</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="7"/>
+      <c r="H5" s="4">
+        <f t="shared" si="14"/>
         <v>13.601000000000006</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="7"/>
+      <c r="I5" s="4">
+        <f t="shared" si="14"/>
         <v>16.324000000000005</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="7"/>
+      <c r="J5" s="4">
+        <f t="shared" si="14"/>
         <v>16.055999999999983</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="7"/>
+      <c r="K5" s="4">
+        <f t="shared" si="14"/>
         <v>12.201000000000001</v>
       </c>
-      <c r="L5">
-        <f t="shared" ref="L5" si="8">L3-L4</f>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:AL5" si="15">L3-L4</f>
         <v>16.283999999999999</v>
       </c>
-      <c r="M5">
-        <f t="shared" ref="M5" si="9">M3-M4</f>
+      <c r="M5" s="4">
+        <f t="shared" si="15"/>
         <v>17.435000000000002</v>
       </c>
-      <c r="N5">
-        <f t="shared" ref="N5" si="10">N3-N4</f>
+      <c r="N5" s="4">
+        <f t="shared" si="15"/>
         <v>21.496000000000009</v>
       </c>
-      <c r="O5">
-        <f>O3-O4</f>
+      <c r="O5" s="4">
+        <f t="shared" si="15"/>
         <v>18.655000000000001</v>
       </c>
-      <c r="P5">
-        <f>P3-P4</f>
+      <c r="P5" s="4">
+        <f t="shared" si="15"/>
         <v>26.832000000000008</v>
       </c>
-      <c r="Q5">
-        <f>Q3-Q4</f>
+      <c r="Q5" s="4">
+        <f t="shared" si="15"/>
         <v>32.521000000000001</v>
       </c>
-      <c r="R5">
-        <f t="shared" ref="R5:S5" si="11">R3-R4</f>
+      <c r="R5" s="4">
+        <f t="shared" si="15"/>
         <v>35.034999999999997</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="11"/>
+      <c r="S5" s="4">
+        <f t="shared" si="15"/>
         <v>28.024000000000008</v>
       </c>
-      <c r="T5">
-        <f>T3-T4</f>
+      <c r="T5" s="4">
+        <f t="shared" si="15"/>
         <v>33.027000000000001</v>
       </c>
-      <c r="U5">
-        <f>U3-U4</f>
+      <c r="U5" s="4">
+        <f t="shared" si="15"/>
         <v>31.465999999999994</v>
       </c>
-      <c r="V5">
-        <f t="shared" ref="V5" si="12">V3-V4</f>
+      <c r="V5" s="4">
+        <f t="shared" si="15"/>
         <v>15.700000000000017</v>
       </c>
-      <c r="W5">
-        <f>W3-W4</f>
+      <c r="W5" s="4">
+        <f t="shared" si="15"/>
         <v>11.759999999999998</v>
       </c>
-      <c r="X5">
-        <f>X3-X4</f>
+      <c r="X5" s="4">
+        <f t="shared" si="15"/>
         <v>14.135999999999996</v>
       </c>
-      <c r="Y5">
-        <f>Y3-Y4</f>
+      <c r="Y5" s="4">
+        <f t="shared" si="15"/>
         <v>15.878999999999991</v>
       </c>
-      <c r="Z5">
-        <f t="shared" ref="Z5" si="13">Z3-Z4</f>
+      <c r="Z5" s="4">
+        <f t="shared" si="15"/>
         <v>16.233000000000004</v>
       </c>
-      <c r="AA5">
-        <f>AA3-AA4</f>
+      <c r="AA5" s="4">
+        <f t="shared" si="15"/>
         <v>7.0479999999999947</v>
       </c>
-      <c r="AB5">
-        <f>AB3-AB4</f>
-        <v>14.135999999999996</v>
-      </c>
-      <c r="AC5">
-        <f>AC3-AC4</f>
-        <v>15.878999999999991</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" ref="AD5" si="14">AD3-AD4</f>
-        <v>20.944999999999993</v>
-      </c>
-      <c r="AE5">
-        <f>AE3-AE4</f>
+      <c r="AB5" s="4">
+        <f t="shared" si="15"/>
+        <v>13.549999999999997</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" si="15"/>
+        <v>16.460999999999999</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="15"/>
+        <v>18.984000000000037</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" si="15"/>
         <v>18.314999999999998</v>
       </c>
-      <c r="AM5">
-        <f t="shared" ref="AM5:AZ5" si="15">AM3-AM4</f>
+      <c r="AF5" s="4">
+        <f t="shared" si="15"/>
+        <v>22.701000000000001</v>
+      </c>
+      <c r="AG5" s="4">
+        <f t="shared" si="15"/>
+        <v>25.263999999999996</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="15"/>
+        <v>28.164999999999992</v>
+      </c>
+      <c r="AI5" s="4">
+        <f t="shared" si="15"/>
+        <v>33.338999999999999</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f t="shared" si="15"/>
+        <v>45.318999999999988</v>
+      </c>
+      <c r="AK5" s="4">
+        <f t="shared" si="15"/>
+        <v>64.705999999999989</v>
+      </c>
+      <c r="AL5" s="4">
+        <f t="shared" si="15"/>
+        <v>77.880999999999972</v>
+      </c>
+      <c r="AM5" s="4">
+        <f t="shared" ref="AM5:AZ5" si="16">AM3-AM4</f>
         <v>80.674999999999983</v>
       </c>
-      <c r="AN5">
-        <f t="shared" si="15"/>
+      <c r="AN5" s="4">
+        <f t="shared" si="16"/>
         <v>48.387</v>
       </c>
-      <c r="AO5">
-        <f t="shared" si="15"/>
+      <c r="AO5" s="4">
+        <f t="shared" si="16"/>
         <v>94.98099999999998</v>
       </c>
-      <c r="AP5">
-        <f t="shared" si="15"/>
+      <c r="AP5" s="4">
+        <f t="shared" si="16"/>
         <v>121.93799999999999</v>
       </c>
-      <c r="AQ5">
-        <f t="shared" si="15"/>
+      <c r="AQ5" s="4">
+        <f t="shared" si="16"/>
         <v>122.94900000000001</v>
       </c>
-      <c r="AR5">
-        <f t="shared" si="15"/>
+      <c r="AR5" s="4">
+        <f t="shared" si="16"/>
         <v>127.80100000000002</v>
       </c>
-      <c r="AS5">
-        <f t="shared" si="15"/>
+      <c r="AS5" s="4">
+        <f t="shared" si="16"/>
         <v>140.358</v>
       </c>
-      <c r="AT5">
-        <f t="shared" si="15"/>
+      <c r="AT5" s="4">
+        <f t="shared" si="16"/>
         <v>163.31399999999999</v>
       </c>
-      <c r="AU5">
-        <f t="shared" si="15"/>
+      <c r="AU5" s="4">
+        <f t="shared" si="16"/>
         <v>176.97299999999996</v>
       </c>
-      <c r="AV5">
-        <f t="shared" si="15"/>
+      <c r="AV5" s="4">
+        <f t="shared" si="16"/>
         <v>219.00500000000005</v>
       </c>
-      <c r="AW5">
-        <f t="shared" si="15"/>
+      <c r="AW5" s="4">
+        <f t="shared" si="16"/>
         <v>267.91599999999994</v>
       </c>
-      <c r="AX5">
-        <f t="shared" si="15"/>
+      <c r="AX5" s="4">
+        <f t="shared" si="16"/>
         <v>310.70100000000002</v>
       </c>
-      <c r="AY5">
-        <f t="shared" si="15"/>
+      <c r="AY5" s="4">
+        <f t="shared" si="16"/>
         <v>326.37099999999998</v>
       </c>
-      <c r="AZ5">
-        <f t="shared" si="15"/>
+      <c r="AZ5" s="4">
+        <f t="shared" si="16"/>
         <v>323.34200000000004</v>
       </c>
-      <c r="BF5">
+      <c r="BA5" s="4">
+        <f>BA3-BA4</f>
+        <v>262.01299999999998</v>
+      </c>
+      <c r="BB5" s="4">
+        <f>BB3-BB4</f>
+        <v>146.66200000000001</v>
+      </c>
+      <c r="BC5" s="4">
+        <f>BC3-BC4</f>
+        <v>115.50800000000001</v>
+      </c>
+      <c r="BD5" s="4">
+        <f>BD3-BD4</f>
+        <v>137.16600000000003</v>
+      </c>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4">
         <f t="shared" si="1"/>
         <v>29.068999999999996</v>
       </c>
-      <c r="BG5">
+      <c r="BH5" s="4">
         <f t="shared" si="2"/>
         <v>55.287999999999997</v>
       </c>
-      <c r="BH5">
+      <c r="BI5" s="4">
         <f t="shared" si="3"/>
         <v>67.416000000000011</v>
       </c>
-      <c r="BI5">
+      <c r="BJ5" s="4">
         <f t="shared" si="4"/>
         <v>113.04300000000001</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5" s="4">
         <f t="shared" si="5"/>
-        <v>159.03600000000003</v>
-      </c>
-      <c r="BK5">
+        <v>108.21700000000001</v>
+      </c>
+      <c r="BL5" s="4">
         <f t="shared" si="6"/>
         <v>58.007999999999988</v>
       </c>
-    </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="BM5" s="4">
+        <f t="shared" si="7"/>
+        <v>56.043000000000028</v>
+      </c>
+      <c r="BN5" s="4">
+        <f t="shared" si="8"/>
+        <v>94.444999999999993</v>
+      </c>
+      <c r="BO5" s="4">
+        <f t="shared" si="9"/>
+        <v>221.24499999999995</v>
+      </c>
+      <c r="BP5" s="4">
+        <f t="shared" si="10"/>
+        <v>345.98099999999994</v>
+      </c>
+      <c r="BQ5" s="4">
+        <f t="shared" si="11"/>
+        <v>554.42200000000003</v>
+      </c>
+      <c r="BR5" s="4">
+        <f t="shared" si="12"/>
+        <v>974.59500000000003</v>
+      </c>
+      <c r="BS5" s="4">
+        <f t="shared" si="13"/>
+        <v>1058.3879999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
         <v>5.3449999999999998</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>6.1429999999999998</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>6.431</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f>25.099-SUM(C6:E6)</f>
         <v>7.18</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>7.8419999999999996</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>8.6549999999999994</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>10.571</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <f>35.601-SUM(G6:I6)</f>
         <v>8.5330000000000013</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>9.0259999999999998</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>8.484</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>8.2929999999999993</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <f>34.524-SUM(K6:M6)</f>
         <v>8.7210000000000036</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <v>9.0860000000000003</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>11.148</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>12.112</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
         <f>45.386-SUM(O6:Q6)</f>
         <v>13.04</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <v>13.43</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <v>12.786</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="4">
         <v>12.058999999999999</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="4">
         <f>50.819-SUM(S6:U6)</f>
         <v>12.544000000000004</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="4">
         <v>13.066000000000001</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="4">
         <v>13.090999999999999</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="4">
         <v>13.169</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="4">
         <f>50.703-SUM(W6:Y6)</f>
         <v>11.377000000000002</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="4">
         <v>9.6050000000000004</v>
       </c>
-      <c r="AB6">
-        <v>13.090999999999999</v>
-      </c>
-      <c r="AC6">
-        <v>13.169</v>
-      </c>
-      <c r="AD6">
-        <f>50.703-SUM(AA6:AC6)</f>
-        <v>14.838000000000008</v>
-      </c>
-      <c r="AE6">
+      <c r="AB6" s="4">
+        <v>7.9470000000000001</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>7.3970000000000002</v>
+      </c>
+      <c r="AD6" s="4">
+        <f>33.157-SUM(AA6:AC6)</f>
+        <v>8.2079999999999984</v>
+      </c>
+      <c r="AE6" s="4">
         <v>7.62</v>
       </c>
-      <c r="AM6">
+      <c r="AF6" s="4">
+        <v>9.4619999999999997</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>8.1649999999999991</v>
+      </c>
+      <c r="AH6" s="4">
+        <f>32.587-SUM(AE6:AG6)</f>
+        <v>7.3400000000000034</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>8.5239999999999991</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>9.6039999999999992</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>11.085000000000001</v>
+      </c>
+      <c r="AL6" s="4">
+        <f>40.381-SUM(AI6:AK6)</f>
+        <v>11.167999999999999</v>
+      </c>
+      <c r="AM6" s="4">
         <v>11.875999999999999</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="4">
         <v>13.192</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="4">
         <v>15.052</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="4">
         <v>15.801</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="4">
         <v>21.818000000000001</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="4">
         <v>22.707999999999998</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="4">
         <v>29.411000000000001</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="4">
         <v>31.588999999999999</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="4">
         <v>35.719000000000001</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" s="4">
         <v>39.256</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="4">
         <v>44.188000000000002</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" s="4">
         <v>49.683</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" s="4">
         <v>57.128999999999998</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" s="4">
         <v>60.042999999999999</v>
       </c>
-      <c r="BF6">
+      <c r="BA6" s="4">
+        <v>54.872999999999998</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>55.290999999999997</v>
+      </c>
+      <c r="BC6" s="4">
+        <v>54.210999999999999</v>
+      </c>
+      <c r="BD6" s="4">
+        <v>48.871000000000002</v>
+      </c>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4">
         <f t="shared" si="1"/>
         <v>25.099</v>
       </c>
-      <c r="BG6">
+      <c r="BH6" s="4">
         <f t="shared" si="2"/>
         <v>35.600999999999999</v>
       </c>
-      <c r="BH6">
+      <c r="BI6" s="4">
         <f t="shared" si="3"/>
         <v>34.524000000000001</v>
       </c>
-      <c r="BI6">
+      <c r="BJ6" s="4">
         <f t="shared" si="4"/>
         <v>45.386000000000003</v>
       </c>
-      <c r="BJ6">
+      <c r="BK6" s="4">
         <f t="shared" si="5"/>
-        <v>96.695999999999998</v>
-      </c>
-      <c r="BK6">
+        <v>50.819000000000003</v>
+      </c>
+      <c r="BL6" s="4">
         <f t="shared" si="6"/>
         <v>50.703000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:79" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="BM6" s="4">
+        <f t="shared" si="7"/>
+        <v>33.156999999999996</v>
+      </c>
+      <c r="BN6" s="4">
+        <f t="shared" si="8"/>
+        <v>32.587000000000003</v>
+      </c>
+      <c r="BO6" s="4">
+        <f t="shared" si="9"/>
+        <v>40.381</v>
+      </c>
+      <c r="BP6" s="4">
+        <f t="shared" si="10"/>
+        <v>55.920999999999999</v>
+      </c>
+      <c r="BQ6" s="4">
+        <f t="shared" si="11"/>
+        <v>105.526</v>
+      </c>
+      <c r="BR6" s="4">
+        <f t="shared" si="12"/>
+        <v>168.846</v>
+      </c>
+      <c r="BS6" s="4">
+        <f t="shared" si="13"/>
+        <v>227.33599999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
         <v>3.01</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>4.2649999999999997</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>4.5670000000000002</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <f>17.454-SUM(C7:E7)</f>
         <v>5.6120000000000019</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>5.0490000000000004</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>6.36</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>7.0389999999999997</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <f>25.973-SUM(G7:I7)</f>
         <v>7.5249999999999986</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>6.85</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>7.3650000000000002</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>8.5500000000000007</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <f>31.08-SUM(K7:M7)</f>
         <v>8.3149999999999977</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>8.8279999999999994</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <v>10.493</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <v>9.8840000000000003</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="4">
         <f>41.003-SUM(O7:Q7)</f>
         <v>11.798000000000002</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <v>11.936999999999999</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="4">
         <v>12.507999999999999</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="4">
         <v>10.51</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="4">
         <f>45.877-SUM(S7:U7)</f>
         <v>10.922000000000004</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="4">
         <v>10.215</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="4">
         <v>9.9870000000000001</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="4">
         <v>11.016</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="4">
         <f>38.81-SUM(W7:Y7)</f>
         <v>7.5920000000000059</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="4">
         <v>6.4580000000000002</v>
       </c>
-      <c r="AB7">
-        <v>9.9870000000000001</v>
-      </c>
-      <c r="AC7">
-        <v>11.016</v>
-      </c>
-      <c r="AD7">
-        <f>38.81-SUM(AA7:AC7)</f>
-        <v>11.349000000000004</v>
-      </c>
-      <c r="AE7" s="4">
+      <c r="AB7" s="4">
+        <v>6.274</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>5.4530000000000003</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>23.126-SUM(AA7:AC7)</f>
+        <v>4.9410000000000025</v>
+      </c>
+      <c r="AE7" s="5">
         <f>6.227</f>
         <v>6.2270000000000003</v>
       </c>
-      <c r="AM7">
+      <c r="AF7" s="5">
+        <v>6.8280000000000003</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>7.375</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>27.047-SUM(AE7:AG7)</f>
+        <v>6.6170000000000009</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>7.4329999999999998</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>9.0540000000000003</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>9.5510000000000002</v>
+      </c>
+      <c r="AL7" s="4">
+        <f>36.728-SUM(AI7:AK7)</f>
+        <v>10.689999999999998</v>
+      </c>
+      <c r="AM7" s="4">
         <v>11.772</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="4">
         <v>12.371</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" s="4">
         <v>14.645</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="4">
         <v>14.138999999999999</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="4">
         <v>19.622</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="4">
         <v>25.585999999999999</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="4">
         <v>39.295999999999999</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="4">
         <v>44.47</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" s="4">
         <v>41.344000000000001</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" s="4">
         <v>53.588000000000001</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="4">
         <v>55.256999999999998</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" s="4">
         <v>64.912999999999997</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" s="4">
         <v>64.620999999999995</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" s="4">
         <v>58.405000000000001</v>
       </c>
-      <c r="BF7">
+      <c r="BA7" s="4">
+        <v>55.356999999999999</v>
+      </c>
+      <c r="BB7" s="4">
+        <v>53.408999999999999</v>
+      </c>
+      <c r="BC7" s="4">
+        <v>53.307000000000002</v>
+      </c>
+      <c r="BD7" s="4">
+        <v>51.774999999999999</v>
+      </c>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4">
         <f t="shared" si="1"/>
         <v>17.454000000000001</v>
       </c>
-      <c r="BG7">
+      <c r="BH7" s="4">
         <f t="shared" si="2"/>
         <v>25.972999999999999</v>
       </c>
-      <c r="BH7">
+      <c r="BI7" s="4">
         <f t="shared" si="3"/>
         <v>31.08</v>
       </c>
-      <c r="BI7">
+      <c r="BJ7" s="4">
         <f t="shared" si="4"/>
         <v>41.003</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7" s="4">
         <f t="shared" si="5"/>
-        <v>76.706999999999994</v>
-      </c>
-      <c r="BK7">
+        <v>45.877000000000002</v>
+      </c>
+      <c r="BL7" s="4">
         <f t="shared" si="6"/>
         <v>38.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="BM7" s="4">
+        <f t="shared" si="7"/>
+        <v>23.126000000000001</v>
+      </c>
+      <c r="BN7" s="4">
+        <f t="shared" si="8"/>
+        <v>27.047000000000001</v>
+      </c>
+      <c r="BO7" s="4">
+        <f t="shared" si="9"/>
+        <v>36.728000000000002</v>
+      </c>
+      <c r="BP7" s="4">
+        <f t="shared" si="10"/>
+        <v>52.926999999999992</v>
+      </c>
+      <c r="BQ7" s="4">
+        <f t="shared" si="11"/>
+        <v>128.97399999999999</v>
+      </c>
+      <c r="BR7" s="4">
+        <f t="shared" si="12"/>
+        <v>215.10199999999998</v>
+      </c>
+      <c r="BS7" s="4">
+        <f t="shared" si="13"/>
+        <v>231.79199999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
         <v>3.25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>3.8889999999999998</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>3.98</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <f>15.228-SUM(C8:E8)</f>
         <v>4.109</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>5.6959999999999997</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>6.0910000000000002</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>6.9109999999999996</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <f>24.875-SUM(G8:I8)</f>
         <v>6.1769999999999996</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>6.0359999999999996</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>5.9260000000000002</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>5.9370000000000003</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <f>23.97-SUM(K8:M8)</f>
         <v>6.070999999999998</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>6.5259999999999998</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>7.6790000000000003</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>8.6319999999999997</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <f>31.083-SUM(O8:Q8)</f>
         <v>8.2459999999999987</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>8.2050000000000001</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <v>8.1020000000000003</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="4">
         <v>7.1180000000000003</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="4">
         <f>30.83-SUM(S8:U8)</f>
         <v>7.404999999999994</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="4">
         <v>7.5670000000000002</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="4">
         <v>6.8460000000000001</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="4">
         <v>6.7080000000000002</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="4">
         <f>27.418-SUM(W8:Y8)</f>
         <v>6.296999999999997</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="4">
         <v>5.8330000000000002</v>
       </c>
-      <c r="AB8">
-        <v>6.8460000000000001</v>
-      </c>
-      <c r="AC8">
-        <v>6.7080000000000002</v>
-      </c>
-      <c r="AD8">
-        <f>27.418-SUM(AA8:AC8)</f>
-        <v>8.0309999999999988</v>
-      </c>
-      <c r="AE8">
+      <c r="AB8" s="4">
+        <v>4.9640000000000004</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>5.4409999999999998</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>22.221-SUM(AA8:AC8)</f>
+        <v>5.9830000000000005</v>
+      </c>
+      <c r="AE8" s="4">
         <v>6.9429999999999996</v>
       </c>
-      <c r="AM8">
+      <c r="AF8" s="4">
+        <v>6.9690000000000003</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>7.51</v>
+      </c>
+      <c r="AH8" s="4">
+        <f>29.086-SUM(AE8:AG8)</f>
+        <v>7.6640000000000015</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>8.5830000000000002</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>9.8949999999999996</v>
+      </c>
+      <c r="AL8" s="4">
+        <f>38.808-SUM(AI8:AK8)</f>
+        <v>10.45</v>
+      </c>
+      <c r="AM8" s="4">
         <v>12.315</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="4">
         <v>11.97</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" s="4">
         <v>13.525</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" s="4">
         <v>12.884</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" s="4">
         <v>20.123000000000001</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="4">
         <v>20.106999999999999</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="4">
         <v>34.299999999999997</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="4">
         <v>29.56</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" s="4">
         <v>38.085999999999999</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" s="4">
         <v>32.125</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="4">
         <v>32.436</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" s="4">
         <v>37.354999999999997</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" s="4">
         <v>36.265000000000001</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" s="4">
         <v>34.396999999999998</v>
       </c>
-      <c r="BF8">
+      <c r="BA8" s="4">
+        <v>33.893999999999998</v>
+      </c>
+      <c r="BB8" s="4">
+        <v>33.378999999999998</v>
+      </c>
+      <c r="BC8" s="4">
+        <v>35.182000000000002</v>
+      </c>
+      <c r="BD8" s="4">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4">
         <f t="shared" si="1"/>
         <v>15.228</v>
       </c>
-      <c r="BG8">
+      <c r="BH8" s="4">
         <f t="shared" si="2"/>
         <v>24.875</v>
       </c>
-      <c r="BH8">
+      <c r="BI8" s="4">
         <f t="shared" si="3"/>
         <v>23.97</v>
       </c>
-      <c r="BI8">
+      <c r="BJ8" s="4">
         <f t="shared" si="4"/>
         <v>31.082999999999998</v>
       </c>
-      <c r="BJ8">
+      <c r="BK8" s="4">
         <f t="shared" si="5"/>
         <v>30.83</v>
       </c>
-      <c r="BK8">
+      <c r="BL8" s="4">
         <f t="shared" si="6"/>
         <v>27.417999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="BM8" s="4">
+        <f t="shared" si="7"/>
+        <v>22.221</v>
+      </c>
+      <c r="BN8" s="4">
+        <f t="shared" si="8"/>
+        <v>29.085999999999999</v>
+      </c>
+      <c r="BO8" s="4">
+        <f t="shared" si="9"/>
+        <v>38.808</v>
+      </c>
+      <c r="BP8" s="4">
+        <f t="shared" si="10"/>
+        <v>50.694000000000003</v>
+      </c>
+      <c r="BQ8" s="4">
+        <f t="shared" si="11"/>
+        <v>104.09</v>
+      </c>
+      <c r="BR8" s="4">
+        <f t="shared" si="12"/>
+        <v>140.00199999999998</v>
+      </c>
+      <c r="BS8" s="4">
+        <f t="shared" si="13"/>
+        <v>137.935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="4">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
         <v>0</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="4">
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="4">
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="4">
         <v>0</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="4">
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="4">
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="4">
         <v>0</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="4">
         <v>0</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="4">
         <v>2.7170000000000001</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="4">
         <f>3.777-SUM(W9:Y9)</f>
         <v>1.06</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="4">
         <v>7.2469999999999999</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="4">
+        <v>3.609</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>4.0709999999999997</v>
+      </c>
+      <c r="AD9" s="4">
+        <f>16.917-SUM(AA9:AC9)</f>
+        <v>1.990000000000002</v>
+      </c>
+      <c r="AE9" s="4">
         <v>0</v>
       </c>
-      <c r="AM9">
+      <c r="AF9" s="4">
         <v>0</v>
       </c>
-      <c r="AN9">
+      <c r="AG9" s="4">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="AH9" s="4">
+        <f>4.129-SUM(AE9:AG9)</f>
+        <v>1.5409999999999995</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AL9" s="4">
+        <f>2.599-SUM(AI9:AK9)</f>
+        <v>1.1310000000000002</v>
+      </c>
+      <c r="AM9" s="4">
         <v>0</v>
       </c>
-      <c r="AO9">
+      <c r="AN9" s="4">
         <v>0</v>
       </c>
-      <c r="AP9">
+      <c r="AO9" s="4">
         <v>0</v>
       </c>
-      <c r="AQ9">
+      <c r="AP9" s="4">
         <v>0</v>
       </c>
-      <c r="AR9">
+      <c r="AQ9" s="4">
         <v>0</v>
       </c>
-      <c r="AS9">
+      <c r="AR9" s="4">
         <v>0</v>
       </c>
-      <c r="AT9">
+      <c r="AS9" s="4">
         <v>0</v>
       </c>
-      <c r="AU9">
+      <c r="AT9" s="4">
         <v>0</v>
       </c>
-      <c r="AV9">
+      <c r="AU9" s="4">
         <v>0</v>
       </c>
-      <c r="AW9">
+      <c r="AV9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="4">
         <v>0.59399999999999997</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" s="4">
         <v>1.79</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" s="4">
         <v>0.69299999999999995</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" s="4">
         <v>0.17699999999999999</v>
       </c>
-      <c r="BF9">
+      <c r="BA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="4">
+        <v>14.814</v>
+      </c>
+      <c r="BC9" s="4">
+        <v>1.907</v>
+      </c>
+      <c r="BD9" s="4">
+        <v>1.171</v>
+      </c>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG9">
+      <c r="BH9" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BH9">
+      <c r="BI9" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BI9">
+      <c r="BJ9" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BJ9">
+      <c r="BK9" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BL9" s="4">
+        <f t="shared" si="6"/>
+        <v>3.7770000000000001</v>
+      </c>
+      <c r="BM9" s="4">
+        <f t="shared" si="7"/>
+        <v>16.917000000000002</v>
+      </c>
+      <c r="BN9" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1289999999999996</v>
+      </c>
+      <c r="BO9" s="4">
+        <f t="shared" si="9"/>
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="BP9" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BR9" s="4">
+        <f t="shared" si="12"/>
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="BS9" s="4">
+        <f t="shared" si="13"/>
+        <v>15.683999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <f>C5-C6-C7-C8-C9</f>
+        <v>-8.9570000000000007</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:K10" si="17">D5-D6-D7-D8-D9</f>
+        <v>-9.49</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="17"/>
+        <v>-6.4350000000000005</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="17"/>
+        <v>-3.8300000000000036</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="17"/>
+        <v>-9.2799999999999976</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="17"/>
+        <v>-7.5049999999999937</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="17"/>
+        <v>-8.1969999999999938</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="17"/>
+        <v>-6.1790000000000163</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="17"/>
+        <v>-9.7109999999999985</v>
+      </c>
+      <c r="L10" s="4">
+        <f>L5-L6-L7-L8-L9</f>
+        <v>-5.4910000000000014</v>
+      </c>
+      <c r="M10" s="4">
+        <f>M5-M6-M7-M8-M9</f>
+        <v>-5.344999999999998</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:S10" si="18">N5-N6-N7-N8-N9</f>
+        <v>-1.61099999999999</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="18"/>
+        <v>-5.7849999999999984</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="18"/>
+        <v>-2.4879999999999924</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="18"/>
+        <v>1.8929999999999989</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="18"/>
+        <v>1.950999999999997</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="18"/>
+        <v>-5.5479999999999912</v>
+      </c>
+      <c r="T10" s="4">
+        <f>T5-T6-T7-T8-T9</f>
+        <v>-0.36899999999999977</v>
+      </c>
+      <c r="U10" s="4">
+        <f>U5-U6-U7-U8-U9</f>
+        <v>1.7789999999999964</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" ref="V10:AA10" si="19">V5-V6-V7-V8-V9</f>
+        <v>-15.170999999999985</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="19"/>
+        <v>-19.088000000000001</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="19"/>
+        <v>-15.788000000000004</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="19"/>
+        <v>-17.731000000000009</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="19"/>
+        <v>-10.093000000000002</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="19"/>
+        <v>-22.095000000000006</v>
+      </c>
+      <c r="AB10" s="4">
+        <f t="shared" ref="AB10:AL10" si="20">AB5-AB6-AB7-AB8-AB9</f>
+        <v>-9.2440000000000033</v>
+      </c>
+      <c r="AC10" s="4">
+        <f t="shared" si="20"/>
+        <v>-5.9010000000000016</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="20"/>
+        <v>-2.1379999999999661</v>
+      </c>
+      <c r="AE10" s="4">
+        <f t="shared" si="20"/>
+        <v>-2.4750000000000032</v>
+      </c>
+      <c r="AF10" s="4">
+        <f t="shared" si="20"/>
+        <v>-0.55799999999999983</v>
+      </c>
+      <c r="AG10" s="4">
+        <f t="shared" si="20"/>
+        <v>-0.37400000000000322</v>
+      </c>
+      <c r="AH10" s="4">
+        <f t="shared" si="20"/>
+        <v>5.0029999999999868</v>
+      </c>
+      <c r="AI10" s="4">
+        <f t="shared" si="20"/>
+        <v>7.1339999999999968</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f t="shared" si="20"/>
+        <v>17.446999999999989</v>
+      </c>
+      <c r="AK10" s="4">
+        <f t="shared" si="20"/>
+        <v>33.705999999999982</v>
+      </c>
+      <c r="AL10" s="4">
+        <f t="shared" si="20"/>
+        <v>44.441999999999965</v>
+      </c>
+      <c r="AM10" s="4">
+        <f t="shared" ref="AM10:AZ10" si="21">AM5-SUM(AM6:AM9)</f>
+        <v>44.711999999999982</v>
+      </c>
+      <c r="AN10" s="4">
+        <f t="shared" si="21"/>
+        <v>10.853999999999999</v>
+      </c>
+      <c r="AO10" s="4">
+        <f t="shared" si="21"/>
+        <v>51.758999999999979</v>
+      </c>
+      <c r="AP10" s="4">
+        <f t="shared" si="21"/>
+        <v>79.11399999999999</v>
+      </c>
+      <c r="AQ10" s="4">
+        <f t="shared" si="21"/>
+        <v>61.38600000000001</v>
+      </c>
+      <c r="AR10" s="4">
+        <f t="shared" si="21"/>
+        <v>59.40000000000002</v>
+      </c>
+      <c r="AS10" s="4">
+        <f t="shared" si="21"/>
+        <v>37.351000000000013</v>
+      </c>
+      <c r="AT10" s="4">
+        <f t="shared" si="21"/>
+        <v>57.694999999999993</v>
+      </c>
+      <c r="AU10" s="4">
+        <f t="shared" si="21"/>
+        <v>61.823999999999955</v>
+      </c>
+      <c r="AV10" s="4">
+        <f t="shared" si="21"/>
+        <v>94.036000000000058</v>
+      </c>
+      <c r="AW10" s="4">
+        <f t="shared" si="21"/>
+        <v>135.44099999999995</v>
+      </c>
+      <c r="AX10" s="4">
+        <f t="shared" si="21"/>
+        <v>156.96000000000004</v>
+      </c>
+      <c r="AY10" s="4">
+        <f t="shared" si="21"/>
+        <v>167.66299999999998</v>
+      </c>
+      <c r="AZ10" s="4">
+        <f t="shared" si="21"/>
+        <v>170.32000000000005</v>
+      </c>
+      <c r="BA10" s="4">
+        <f>BA5-SUM(BA6:BA9)</f>
+        <v>117.88899999999998</v>
+      </c>
+      <c r="BB10" s="4">
+        <f>BB5-SUM(BB6:BB9)</f>
+        <v>-10.230999999999966</v>
+      </c>
+      <c r="BC10" s="4">
+        <f>BC5-SUM(BC6:BC9)</f>
+        <v>-29.09899999999999</v>
+      </c>
+      <c r="BD10" s="4">
+        <f>BD5-SUM(BD6:BD9)</f>
+        <v>1.799000000000035</v>
+      </c>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4">
+        <f t="shared" si="1"/>
+        <v>-28.71200000000001</v>
+      </c>
+      <c r="BH10" s="4">
+        <f t="shared" si="2"/>
+        <v>-31.161000000000001</v>
+      </c>
+      <c r="BI10" s="4">
+        <f t="shared" si="3"/>
+        <v>-22.157999999999987</v>
+      </c>
+      <c r="BJ10" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.4289999999999949</v>
+      </c>
+      <c r="BK10" s="4">
         <f t="shared" si="5"/>
         <v>-19.30899999999998</v>
       </c>
-      <c r="BK9">
+      <c r="BL10" s="4">
         <f t="shared" si="6"/>
-        <v>3.7770000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+        <v>-62.700000000000017</v>
+      </c>
+      <c r="BM10" s="4">
+        <f t="shared" si="7"/>
+        <v>-39.377999999999972</v>
+      </c>
+      <c r="BN10" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5959999999999805</v>
+      </c>
+      <c r="BO10" s="4">
+        <f t="shared" si="9"/>
+        <v>102.72899999999993</v>
+      </c>
+      <c r="BP10" s="4">
+        <f t="shared" si="10"/>
+        <v>186.43899999999996</v>
+      </c>
+      <c r="BQ10" s="4">
+        <f t="shared" si="11"/>
+        <v>215.83200000000005</v>
+      </c>
+      <c r="BR10" s="4">
+        <f t="shared" si="12"/>
+        <v>448.26099999999997</v>
+      </c>
+      <c r="BS10" s="4">
+        <f t="shared" si="13"/>
+        <v>445.64100000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="C10">
-        <f>C5-C6-C7-C8-C9</f>
-        <v>-8.9570000000000007</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:K10" si="16">D5-D6-D7-D8-D9</f>
-        <v>-9.49</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="16"/>
-        <v>-6.4350000000000005</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="16"/>
-        <v>-3.8300000000000036</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="16"/>
-        <v>-9.2799999999999976</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="16"/>
-        <v>-7.5049999999999937</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="16"/>
-        <v>-8.1969999999999938</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="16"/>
-        <v>-6.1790000000000163</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="16"/>
-        <v>-9.7109999999999985</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ref="L10" si="17">L5-L6-L7-L8-L9</f>
-        <v>-5.4910000000000014</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ref="M10" si="18">M5-M6-M7-M8-M9</f>
-        <v>-5.344999999999998</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ref="N10:S10" si="19">N5-N6-N7-N8-N9</f>
-        <v>-1.61099999999999</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="19"/>
-        <v>-5.7849999999999984</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="19"/>
-        <v>-2.4879999999999924</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="19"/>
-        <v>1.8929999999999989</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="19"/>
-        <v>1.950999999999997</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="19"/>
-        <v>-5.5479999999999912</v>
-      </c>
-      <c r="T10">
-        <f t="shared" ref="T10" si="20">T5-T6-T7-T8-T9</f>
-        <v>-0.36899999999999977</v>
-      </c>
-      <c r="U10">
-        <f t="shared" ref="U10" si="21">U5-U6-U7-U8-U9</f>
-        <v>1.7789999999999964</v>
-      </c>
-      <c r="V10">
-        <f t="shared" ref="V10:AA10" si="22">V5-V6-V7-V8-V9</f>
-        <v>-15.170999999999985</v>
-      </c>
-      <c r="W10">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
+        <f>0.004-0.28-0.056</f>
+        <v>-0.33200000000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <f>-0.46-0.338</f>
+        <v>-0.79800000000000004</v>
+      </c>
+      <c r="E11" s="4">
+        <f>-0.886+0.145</f>
+        <v>-0.74099999999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <f>-3.578-(C11+D11+E11)</f>
+        <v>-1.7069999999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <f>-1.479+0.64</f>
+        <v>-0.83900000000000008</v>
+      </c>
+      <c r="H11" s="4">
+        <f>0.014-3.405-0.338</f>
+        <v>-3.7290000000000001</v>
+      </c>
+      <c r="I11" s="4">
+        <f>0.003-0.527-0.056</f>
+        <v>-0.58000000000000007</v>
+      </c>
+      <c r="J11" s="4">
+        <f>-6.406-(G11+H11+I11)</f>
+        <v>-1.2579999999999991</v>
+      </c>
+      <c r="K11" s="4">
+        <v>-0.51300000000000001</v>
+      </c>
+      <c r="L11" s="4">
+        <f>-0.781</f>
+        <v>-0.78100000000000003</v>
+      </c>
+      <c r="M11" s="4">
+        <v>-0.81499999999999995</v>
+      </c>
+      <c r="N11" s="4">
+        <f>-2.892-(K11+L11+M11)</f>
+        <v>-0.78299999999999992</v>
+      </c>
+      <c r="O11" s="4">
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="P11" s="4">
+        <v>-0.42799999999999999</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>-0.95299999999999996</v>
+      </c>
+      <c r="R11" s="4">
+        <f>-2.857-(O11+P11+Q11)</f>
+        <v>-1.1340000000000003</v>
+      </c>
+      <c r="S11" s="4">
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="T11" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="U11" s="4">
+        <v>-0.84399999999999997</v>
+      </c>
+      <c r="V11" s="4">
+        <f>-1.394-(S11+T11+U11)</f>
+        <v>6.2999999999999945E-2</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="X11" s="4">
+        <v>-0.59099999999999997</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>-0.881</f>
+        <v>-0.88100000000000001</v>
+      </c>
+      <c r="Z11" s="4">
+        <f>-3.287-(W11+X11+Y11)</f>
+        <v>-2.3439999999999999</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>-1.079</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>-1.992</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>-1.137</v>
+      </c>
+      <c r="AD11" s="4">
+        <f>-5.963-(AA11+AB11+AC11)</f>
+        <v>-1.7549999999999999</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>-2.4180000000000001</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>-2.8410000000000002</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>-2.8479999999999999</v>
+      </c>
+      <c r="AH11" s="4">
+        <f>-11.825-(AE11+AF11+AG11)</f>
+        <v>-3.718</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>-4.0209999999999999</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>-6.2380000000000004</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>-2.335</v>
+      </c>
+      <c r="AL11" s="4">
+        <f>-12.615-(AI11+AJ11+AK11)</f>
+        <v>-2.0999999999999019E-2</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>12.356</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>-64.709000000000003</v>
+      </c>
+      <c r="AO11" s="4">
+        <f>0.11-5.993-1.031</f>
+        <v>-6.9139999999999997</v>
+      </c>
+      <c r="AP11" s="4">
+        <f>0.673-5.901-2.534</f>
+        <v>-7.7619999999999996</v>
+      </c>
+      <c r="AQ11" s="4">
+        <f>0.073-7.329+0.573-56.369</f>
+        <v>-63.052</v>
+      </c>
+      <c r="AR11" s="4">
+        <f>0.098-12.506-0.633-0.013</f>
+        <v>-13.054</v>
+      </c>
+      <c r="AS11" s="4">
+        <f>0.11-12.628+0.874</f>
+        <v>-11.644</v>
+      </c>
+      <c r="AT11" s="4">
+        <f>0.414-12.689+5.236-0.115</f>
+        <v>-7.1540000000000008</v>
+      </c>
+      <c r="AU11" s="4">
+        <f>0.46-2.736-2.141</f>
+        <v>-4.4169999999999998</v>
+      </c>
+      <c r="AV11" s="4">
+        <f>0.796-2.168-0.456</f>
+        <v>-1.8280000000000001</v>
+      </c>
+      <c r="AW11" s="4">
+        <f>3.68-2.255-2.611</f>
+        <v>-1.1859999999999999</v>
+      </c>
+      <c r="AX11" s="4">
+        <f>8.72-2.279+4.777</f>
+        <v>11.218</v>
+      </c>
+      <c r="AY11" s="4">
+        <f>13.04-2.156+0.426</f>
+        <v>11.309999999999999</v>
+      </c>
+      <c r="AZ11" s="4">
+        <f>16.526-2.219-0.033</f>
+        <v>14.274000000000001</v>
+      </c>
+      <c r="BA11" s="4">
+        <v>19.356000000000002</v>
+      </c>
+      <c r="BB11" s="4">
+        <v>22.457999999999998</v>
+      </c>
+      <c r="BC11" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BD11" s="4">
+        <v>9.4169999999999998</v>
+      </c>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.5779999999999998</v>
+      </c>
+      <c r="BH11" s="4">
+        <f t="shared" si="2"/>
+        <v>-6.4059999999999997</v>
+      </c>
+      <c r="BI11" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.8919999999999999</v>
+      </c>
+      <c r="BJ11" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.8570000000000002</v>
+      </c>
+      <c r="BK11" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.3939999999999999</v>
+      </c>
+      <c r="BL11" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.2869999999999999</v>
+      </c>
+      <c r="BM11" s="4">
+        <f t="shared" si="7"/>
+        <v>-5.9630000000000001</v>
+      </c>
+      <c r="BN11" s="4">
+        <f t="shared" si="8"/>
+        <v>-11.824999999999999</v>
+      </c>
+      <c r="BO11" s="4">
+        <f t="shared" si="9"/>
+        <v>-12.615</v>
+      </c>
+      <c r="BP11" s="4">
+        <f t="shared" si="10"/>
+        <v>-67.028999999999996</v>
+      </c>
+      <c r="BQ11" s="4">
+        <f t="shared" si="11"/>
+        <v>-94.903999999999996</v>
+      </c>
+      <c r="BR11" s="4">
+        <f t="shared" si="12"/>
+        <v>3.7869999999999999</v>
+      </c>
+      <c r="BS11" s="4">
+        <f t="shared" si="13"/>
+        <v>67.397999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <f>C10+C11</f>
+        <v>-9.2890000000000015</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:K12" si="22">D10+D11</f>
+        <v>-10.288</v>
+      </c>
+      <c r="E12" s="4">
         <f t="shared" si="22"/>
-        <v>-19.088000000000001</v>
-      </c>
-      <c r="X10">
+        <v>-7.1760000000000002</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" si="22"/>
-        <v>-15.788000000000004</v>
-      </c>
-      <c r="Y10">
+        <v>-5.5370000000000035</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="22"/>
-        <v>-17.731000000000009</v>
-      </c>
-      <c r="Z10">
+        <v>-10.118999999999998</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" si="22"/>
-        <v>-10.093000000000002</v>
-      </c>
-      <c r="AA10">
+        <v>-11.233999999999995</v>
+      </c>
+      <c r="I12" s="4">
         <f t="shared" si="22"/>
-        <v>-22.095000000000006</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" ref="AB10" si="23">AB5-AB6-AB7-AB8-AB9</f>
-        <v>-15.788000000000004</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" ref="AC10" si="24">AC5-AC6-AC7-AC8-AC9</f>
-        <v>-15.01400000000001</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" ref="AD10" si="25">AD5-AD6-AD7-AD8-AD9</f>
-        <v>-13.273000000000017</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" ref="AE10" si="26">AE5-AE6-AE7-AE8-AE9</f>
-        <v>-2.4750000000000032</v>
-      </c>
-      <c r="AM10">
-        <f t="shared" ref="AM10:AZ10" si="27">AM5-SUM(AM6:AM9)</f>
-        <v>44.711999999999982</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="27"/>
-        <v>10.853999999999999</v>
-      </c>
-      <c r="AO10">
-        <f t="shared" si="27"/>
-        <v>51.758999999999979</v>
-      </c>
-      <c r="AP10">
-        <f t="shared" si="27"/>
-        <v>79.11399999999999</v>
-      </c>
-      <c r="AQ10">
-        <f t="shared" si="27"/>
-        <v>61.38600000000001</v>
-      </c>
-      <c r="AR10">
-        <f t="shared" si="27"/>
-        <v>59.40000000000002</v>
-      </c>
-      <c r="AS10">
-        <f t="shared" si="27"/>
-        <v>37.351000000000013</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="27"/>
-        <v>57.694999999999993</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="27"/>
-        <v>61.823999999999955</v>
-      </c>
-      <c r="AV10">
-        <f t="shared" si="27"/>
-        <v>94.036000000000058</v>
-      </c>
-      <c r="AW10">
-        <f t="shared" si="27"/>
-        <v>135.44099999999995</v>
-      </c>
-      <c r="AX10">
-        <f t="shared" si="27"/>
-        <v>156.96000000000004</v>
-      </c>
-      <c r="AY10">
-        <f t="shared" si="27"/>
-        <v>167.66299999999998</v>
-      </c>
-      <c r="AZ10">
-        <f t="shared" si="27"/>
-        <v>170.32000000000005</v>
-      </c>
-      <c r="BF10">
+        <v>-8.7769999999999939</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="22"/>
+        <v>-7.4370000000000154</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="22"/>
+        <v>-10.223999999999998</v>
+      </c>
+      <c r="L12" s="4">
+        <f>L10+L11</f>
+        <v>-6.2720000000000011</v>
+      </c>
+      <c r="M12" s="4">
+        <f>M10+M11</f>
+        <v>-6.1599999999999984</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" ref="N12:S12" si="23">N10+N11</f>
+        <v>-2.3939999999999899</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="23"/>
+        <v>-6.126999999999998</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="23"/>
+        <v>-2.9159999999999924</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="23"/>
+        <v>0.93999999999999895</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="23"/>
+        <v>0.81699999999999662</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="23"/>
+        <v>-6.1529999999999916</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" ref="T12:AL12" si="24">T10+T11</f>
+        <v>-0.37699999999999978</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="24"/>
+        <v>0.93499999999999639</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="24"/>
+        <v>-15.107999999999985</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="24"/>
+        <v>-18.559000000000001</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="24"/>
+        <v>-16.379000000000005</v>
+      </c>
+      <c r="Y12" s="4">
+        <f t="shared" si="24"/>
+        <v>-18.612000000000009</v>
+      </c>
+      <c r="Z12" s="4">
+        <f t="shared" si="24"/>
+        <v>-12.437000000000001</v>
+      </c>
+      <c r="AA12" s="4">
+        <f t="shared" si="24"/>
+        <v>-23.174000000000007</v>
+      </c>
+      <c r="AB12" s="4">
+        <f t="shared" si="24"/>
+        <v>-11.236000000000004</v>
+      </c>
+      <c r="AC12" s="4">
+        <f t="shared" si="24"/>
+        <v>-7.038000000000002</v>
+      </c>
+      <c r="AD12" s="4">
+        <f t="shared" si="24"/>
+        <v>-3.892999999999966</v>
+      </c>
+      <c r="AE12" s="4">
+        <f t="shared" si="24"/>
+        <v>-4.8930000000000033</v>
+      </c>
+      <c r="AF12" s="4">
+        <f t="shared" si="24"/>
+        <v>-3.399</v>
+      </c>
+      <c r="AG12" s="4">
+        <f t="shared" si="24"/>
+        <v>-3.2220000000000031</v>
+      </c>
+      <c r="AH12" s="4">
+        <f t="shared" si="24"/>
+        <v>1.2849999999999868</v>
+      </c>
+      <c r="AI12" s="4">
+        <f t="shared" si="24"/>
+        <v>3.1129999999999969</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f t="shared" si="24"/>
+        <v>11.208999999999989</v>
+      </c>
+      <c r="AK12" s="4">
+        <f t="shared" si="24"/>
+        <v>31.370999999999981</v>
+      </c>
+      <c r="AL12" s="4">
+        <f t="shared" si="24"/>
+        <v>44.420999999999964</v>
+      </c>
+      <c r="AM12" s="4">
+        <f t="shared" ref="AM12:AZ12" si="25">AM10+AM11</f>
+        <v>57.067999999999984</v>
+      </c>
+      <c r="AN12" s="4">
+        <f t="shared" si="25"/>
+        <v>-53.855000000000004</v>
+      </c>
+      <c r="AO12" s="4">
+        <f t="shared" si="25"/>
+        <v>44.844999999999978</v>
+      </c>
+      <c r="AP12" s="4">
+        <f t="shared" si="25"/>
+        <v>71.35199999999999</v>
+      </c>
+      <c r="AQ12" s="4">
+        <f t="shared" si="25"/>
+        <v>-1.6659999999999897</v>
+      </c>
+      <c r="AR12" s="4">
+        <f t="shared" si="25"/>
+        <v>46.346000000000018</v>
+      </c>
+      <c r="AS12" s="4">
+        <f t="shared" si="25"/>
+        <v>25.707000000000015</v>
+      </c>
+      <c r="AT12" s="4">
+        <f t="shared" si="25"/>
+        <v>50.54099999999999</v>
+      </c>
+      <c r="AU12" s="4">
+        <f t="shared" si="25"/>
+        <v>57.406999999999954</v>
+      </c>
+      <c r="AV12" s="4">
+        <f t="shared" si="25"/>
+        <v>92.208000000000055</v>
+      </c>
+      <c r="AW12" s="4">
+        <f t="shared" si="25"/>
+        <v>134.25499999999994</v>
+      </c>
+      <c r="AX12" s="4">
+        <f t="shared" si="25"/>
+        <v>168.17800000000003</v>
+      </c>
+      <c r="AY12" s="4">
+        <f t="shared" si="25"/>
+        <v>178.97299999999998</v>
+      </c>
+      <c r="AZ12" s="4">
+        <f t="shared" si="25"/>
+        <v>184.59400000000005</v>
+      </c>
+      <c r="BA12" s="4">
+        <f>BA10+BA11</f>
+        <v>137.24499999999998</v>
+      </c>
+      <c r="BB12" s="4">
+        <f>BB10+BB11</f>
+        <v>12.227000000000032</v>
+      </c>
+      <c r="BC12" s="4">
+        <f>BC10+BC11</f>
+        <v>-11.498999999999988</v>
+      </c>
+      <c r="BD12" s="4">
+        <f>BD10+BD11</f>
+        <v>11.216000000000035</v>
+      </c>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4">
         <f t="shared" si="1"/>
-        <v>-28.71200000000001</v>
-      </c>
-      <c r="BG10">
+        <v>-32.290000000000006</v>
+      </c>
+      <c r="BH12" s="4">
         <f t="shared" si="2"/>
-        <v>-31.161000000000001</v>
-      </c>
-      <c r="BH10">
+        <v>-37.567000000000007</v>
+      </c>
+      <c r="BI12" s="4">
         <f t="shared" si="3"/>
-        <v>-22.157999999999987</v>
-      </c>
-      <c r="BI10">
+        <v>-25.04999999999999</v>
+      </c>
+      <c r="BJ12" s="4">
         <f t="shared" si="4"/>
-        <v>-4.4289999999999949</v>
-      </c>
-      <c r="BJ10">
+        <v>-7.2859999999999943</v>
+      </c>
+      <c r="BK12" s="4">
         <f t="shared" si="5"/>
         <v>-20.702999999999982</v>
       </c>
-      <c r="BK10">
+      <c r="BL12" s="4">
         <f t="shared" si="6"/>
-        <v>-62.700000000000017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <f>0.004-0.28-0.056</f>
-        <v>-0.33200000000000002</v>
-      </c>
-      <c r="D11">
-        <f>-0.46-0.338</f>
-        <v>-0.79800000000000004</v>
-      </c>
-      <c r="E11">
-        <f>-0.886+0.145</f>
-        <v>-0.74099999999999999</v>
-      </c>
-      <c r="F11">
-        <f>-3.578-(C11+D11+E11)</f>
-        <v>-1.7069999999999999</v>
-      </c>
-      <c r="G11">
-        <f>-1.479+0.64</f>
-        <v>-0.83900000000000008</v>
-      </c>
-      <c r="H11">
-        <f>0.014-3.405-0.338</f>
-        <v>-3.7290000000000001</v>
-      </c>
-      <c r="I11">
-        <f>0.003-0.527-0.056</f>
-        <v>-0.58000000000000007</v>
-      </c>
-      <c r="J11">
-        <f>-6.406-(G11+H11+I11)</f>
-        <v>-1.2579999999999991</v>
-      </c>
-      <c r="K11">
-        <v>-0.51300000000000001</v>
-      </c>
-      <c r="L11">
-        <f>-0.781</f>
-        <v>-0.78100000000000003</v>
-      </c>
-      <c r="M11">
-        <v>-0.81499999999999995</v>
-      </c>
-      <c r="N11">
-        <f>-2.892-(K11+L11+M11)</f>
-        <v>-0.78299999999999992</v>
-      </c>
-      <c r="O11">
-        <v>-0.34200000000000003</v>
-      </c>
-      <c r="P11">
-        <v>-0.42799999999999999</v>
-      </c>
-      <c r="Q11">
-        <v>-0.95299999999999996</v>
-      </c>
-      <c r="R11">
-        <f>-2.857-(O11+P11+Q11)</f>
-        <v>-1.1340000000000003</v>
-      </c>
-      <c r="S11">
-        <v>-0.60499999999999998</v>
-      </c>
-      <c r="T11">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="U11">
-        <v>-0.84399999999999997</v>
-      </c>
-      <c r="V11">
-        <f>-1.394-(S11+T11+U11)</f>
-        <v>6.2999999999999945E-2</v>
-      </c>
-      <c r="W11">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="X11">
+        <v>-65.987000000000009</v>
+      </c>
+      <c r="BM12" s="4">
+        <f t="shared" si="7"/>
+        <v>-45.34099999999998</v>
+      </c>
+      <c r="BN12" s="4">
+        <f t="shared" si="8"/>
+        <v>-10.229000000000021</v>
+      </c>
+      <c r="BO12" s="4">
+        <f t="shared" si="9"/>
+        <v>90.113999999999933</v>
+      </c>
+      <c r="BP12" s="4">
+        <f t="shared" si="10"/>
+        <v>119.40999999999994</v>
+      </c>
+      <c r="BQ12" s="4">
+        <f t="shared" si="11"/>
+        <v>120.92800000000003</v>
+      </c>
+      <c r="BR12" s="4">
+        <f t="shared" si="12"/>
+        <v>452.048</v>
+      </c>
+      <c r="BS12" s="4">
+        <f t="shared" si="13"/>
+        <v>513.03899999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-0.151</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-0.13</v>
+      </c>
+      <c r="J13" s="4">
+        <f>-0.651-SUM(G13:I13)</f>
+        <v>-0.30500000000000005</v>
+      </c>
+      <c r="K13" s="4">
+        <v>-0.182</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-0.124</v>
+      </c>
+      <c r="M13" s="4">
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="N13" s="4">
+        <f>-0.863-SUM(K13:M13)</f>
+        <v>-0.41600000000000004</v>
+      </c>
+      <c r="O13" s="4">
+        <v>-0.109</v>
+      </c>
+      <c r="P13" s="4">
+        <v>-0.115</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>-0.127</v>
+      </c>
+      <c r="R13" s="4">
+        <f>-0.766-SUM(O13:Q13)</f>
+        <v>-0.41500000000000004</v>
+      </c>
+      <c r="S13" s="4">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="T13" s="4">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="U13" s="4">
+        <v>-0.311</v>
+      </c>
+      <c r="V13" s="4">
+        <f>-1.379-SUM(S13:U13)</f>
+        <v>-0.67500000000000004</v>
+      </c>
+      <c r="W13" s="4">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="X13" s="4">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="Z13" s="4">
+        <f>-1.475-SUM(W13:Y13)</f>
+        <v>-0.75100000000000011</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>-0.85399999999999998</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>0.184</v>
+      </c>
+      <c r="AD13" s="4">
+        <f>0.149-SUM(AA13:AC13)</f>
+        <v>0.95</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>-0.23499999999999999</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>-0.33900000000000002</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>-0.248</v>
+      </c>
+      <c r="AH13" s="4">
+        <f>-1.398-SUM(AE13:AG13)</f>
+        <v>-0.57599999999999985</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>-0.34799999999999998</v>
+      </c>
+      <c r="AJ13" s="4">
         <v>-0.59099999999999997</v>
       </c>
-      <c r="Y11">
-        <f>-0.881</f>
-        <v>-0.88100000000000001</v>
-      </c>
-      <c r="Z11">
-        <f>-3.287-(W11+X11+Y11)</f>
-        <v>-2.3439999999999999</v>
-      </c>
-      <c r="AA11">
-        <v>-1.079</v>
-      </c>
-      <c r="AB11">
-        <v>-0.59099999999999997</v>
-      </c>
-      <c r="AC11">
-        <f>-0.881</f>
-        <v>-0.88100000000000001</v>
-      </c>
-      <c r="AD11">
-        <f>-3.287-(AA11+AB11+AC11)</f>
-        <v>-0.73599999999999977</v>
-      </c>
-      <c r="AE11">
-        <v>-2.4180000000000001</v>
-      </c>
-      <c r="AM11">
-        <f>1.091-3.155-0.924</f>
-        <v>-2.988</v>
-      </c>
-      <c r="AN11">
-        <f>0.282-5.952+0.653</f>
-        <v>-5.0169999999999995</v>
-      </c>
-      <c r="AO11">
-        <f>0.11-5.993-1.031</f>
-        <v>-6.9139999999999997</v>
-      </c>
-      <c r="AP11">
-        <f>0.673-5.901-2.534</f>
-        <v>-7.7619999999999996</v>
-      </c>
-      <c r="AQ11">
-        <f>0.073-7.329+0.573-56.369</f>
-        <v>-63.052</v>
-      </c>
-      <c r="AR11">
-        <f>0.098-12.506-0.633-0.013</f>
-        <v>-13.054</v>
-      </c>
-      <c r="AS11">
-        <f>0.11-12.628+0.874</f>
-        <v>-11.644</v>
-      </c>
-      <c r="AT11">
-        <f>0.414-12.689+5.236-0.115</f>
-        <v>-7.1540000000000008</v>
-      </c>
-      <c r="AU11">
-        <f>0.46-2.736-2.141</f>
-        <v>-4.4169999999999998</v>
-      </c>
-      <c r="AV11">
-        <f>0.796-2.168-0.456</f>
-        <v>-1.8280000000000001</v>
-      </c>
-      <c r="AW11">
-        <f>3.68-2.255-2.611</f>
-        <v>-1.1859999999999999</v>
-      </c>
-      <c r="AX11">
-        <f>8.72-2.279+4.777</f>
-        <v>11.218</v>
-      </c>
-      <c r="AY11">
-        <f>13.04-2.156+0.426</f>
-        <v>11.309999999999999</v>
-      </c>
-      <c r="AZ11">
-        <f>16.526-2.219-0.033</f>
-        <v>14.274000000000001</v>
-      </c>
-      <c r="BF11">
+      <c r="AK13" s="4">
+        <v>-0.27200000000000002</v>
+      </c>
+      <c r="AL13" s="4">
+        <f>71.034-SUM(AI13:AK13)</f>
+        <v>72.245000000000005</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>11.868</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>6.5609999999999999</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>-5.4829999999999997</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>1.639</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>33.363999999999997</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>-6.9950000000000001</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>-3.8980000000000001</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>-5.5860000000000003</v>
+      </c>
+      <c r="AV13" s="4">
+        <v>-15.231999999999999</v>
+      </c>
+      <c r="AW13" s="4">
+        <v>-19.443000000000001</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>-14.425000000000001</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>-32.1</v>
+      </c>
+      <c r="AZ13" s="4">
+        <v>-27.402999999999999</v>
+      </c>
+      <c r="BA13" s="4">
+        <v>-23.391999999999999</v>
+      </c>
+      <c r="BB13" s="4">
+        <v>8.6920000000000002</v>
+      </c>
+      <c r="BC13" s="4">
+        <v>-4.5979999999999999</v>
+      </c>
+      <c r="BD13" s="4">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4">
         <f t="shared" si="1"/>
-        <v>-3.5779999999999998</v>
-      </c>
-      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="4">
         <f t="shared" si="2"/>
-        <v>-6.4059999999999997</v>
-      </c>
-      <c r="BH11">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="BI13" s="4">
         <f t="shared" si="3"/>
-        <v>-2.8919999999999999</v>
-      </c>
-      <c r="BI11">
+        <v>-0.86299999999999999</v>
+      </c>
+      <c r="BJ13" s="4">
         <f t="shared" si="4"/>
-        <v>-2.8570000000000002</v>
-      </c>
-      <c r="BJ11">
+        <v>-0.76600000000000001</v>
+      </c>
+      <c r="BK13" s="4">
         <f t="shared" si="5"/>
-        <v>-22.09699999999998</v>
-      </c>
-      <c r="BK11">
+        <v>-1.379</v>
+      </c>
+      <c r="BL13" s="4">
         <f t="shared" si="6"/>
-        <v>-3.2869999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <f>C10+C11</f>
+        <v>-1.4750000000000001</v>
+      </c>
+      <c r="BM13" s="4">
+        <f t="shared" si="7"/>
+        <v>0.14900000000000002</v>
+      </c>
+      <c r="BN13" s="4">
+        <f t="shared" si="8"/>
+        <v>-1.3979999999999999</v>
+      </c>
+      <c r="BO13" s="4">
+        <f t="shared" si="9"/>
+        <v>71.034000000000006</v>
+      </c>
+      <c r="BP13" s="4">
+        <f t="shared" si="10"/>
+        <v>14.585000000000001</v>
+      </c>
+      <c r="BQ13" s="4">
+        <f t="shared" si="11"/>
+        <v>24.520999999999997</v>
+      </c>
+      <c r="BR13" s="4">
+        <f t="shared" si="12"/>
+        <v>-54.685999999999993</v>
+      </c>
+      <c r="BS13" s="4">
+        <f t="shared" si="13"/>
+        <v>-74.203000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <f>C12+C13</f>
         <v>-9.2890000000000015</v>
       </c>
-      <c r="D12">
-        <f t="shared" ref="D12:K12" si="28">D10+D11</f>
+      <c r="D14" s="4">
+        <f t="shared" ref="D14:BD14" si="26">D12+D13</f>
         <v>-10.288</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="28"/>
+      <c r="E14" s="4">
+        <f t="shared" si="26"/>
         <v>-7.1760000000000002</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="28"/>
+      <c r="F14" s="4">
+        <f t="shared" si="26"/>
         <v>-5.5370000000000035</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="28"/>
-        <v>-10.118999999999998</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="28"/>
-        <v>-11.233999999999995</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="28"/>
-        <v>-8.7769999999999939</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="28"/>
-        <v>-7.4370000000000154</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="28"/>
-        <v>-10.223999999999998</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ref="L12" si="29">L10+L11</f>
-        <v>-6.2720000000000011</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ref="M12" si="30">M10+M11</f>
-        <v>-6.1599999999999984</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ref="N12:S12" si="31">N10+N11</f>
-        <v>-2.3939999999999899</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="31"/>
-        <v>-6.126999999999998</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="31"/>
-        <v>-2.9159999999999924</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="31"/>
-        <v>0.93999999999999895</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="31"/>
-        <v>0.81699999999999662</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="31"/>
-        <v>-6.1529999999999916</v>
-      </c>
-      <c r="T12">
-        <f t="shared" ref="T12" si="32">T10+T11</f>
-        <v>-0.37699999999999978</v>
-      </c>
-      <c r="U12">
-        <f t="shared" ref="U12" si="33">U10+U11</f>
-        <v>0.93499999999999639</v>
-      </c>
-      <c r="V12">
-        <f t="shared" ref="V12:W12" si="34">V10+V11</f>
-        <v>-15.107999999999985</v>
-      </c>
-      <c r="W12">
-        <f>W10+W11</f>
-        <v>-18.559000000000001</v>
-      </c>
-      <c r="X12">
-        <f>X10+X11</f>
-        <v>-16.379000000000005</v>
-      </c>
-      <c r="Y12">
-        <f>Y10+Y11</f>
-        <v>-18.612000000000009</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" ref="Z12:AA12" si="35">Z10+Z11</f>
-        <v>-12.437000000000001</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="35"/>
-        <v>-23.174000000000007</v>
-      </c>
-      <c r="AB12">
-        <f>AB10+AB11</f>
-        <v>-16.379000000000005</v>
-      </c>
-      <c r="AC12">
-        <f>AC10+AC11</f>
-        <v>-15.89500000000001</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" ref="AD12" si="36">AD10+AD11</f>
-        <v>-14.009000000000018</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" ref="AE12" si="37">AE10+AE11</f>
-        <v>-4.8930000000000033</v>
-      </c>
-      <c r="AM12">
-        <f t="shared" ref="AM12:AZ12" si="38">AM10+AM11</f>
-        <v>41.723999999999982</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="38"/>
-        <v>5.8369999999999997</v>
-      </c>
-      <c r="AO12">
-        <f t="shared" si="38"/>
-        <v>44.844999999999978</v>
-      </c>
-      <c r="AP12">
-        <f t="shared" si="38"/>
-        <v>71.35199999999999</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="38"/>
-        <v>-1.6659999999999897</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="38"/>
-        <v>46.346000000000018</v>
-      </c>
-      <c r="AS12">
-        <f t="shared" si="38"/>
-        <v>25.707000000000015</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="38"/>
-        <v>50.54099999999999</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="38"/>
-        <v>57.406999999999954</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="38"/>
-        <v>92.208000000000055</v>
-      </c>
-      <c r="AW12">
-        <f t="shared" si="38"/>
-        <v>134.25499999999994</v>
-      </c>
-      <c r="AX12">
-        <f t="shared" si="38"/>
-        <v>168.17800000000003</v>
-      </c>
-      <c r="AY12">
-        <f t="shared" si="38"/>
-        <v>178.97299999999998</v>
-      </c>
-      <c r="AZ12">
-        <f t="shared" si="38"/>
-        <v>184.59400000000005</v>
-      </c>
-      <c r="BF12">
+      <c r="G14" s="4">
+        <f t="shared" si="26"/>
+        <v>-10.183999999999997</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="26"/>
+        <v>-11.384999999999994</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="26"/>
+        <v>-8.9069999999999947</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="26"/>
+        <v>-7.7420000000000151</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="26"/>
+        <v>-10.405999999999999</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="26"/>
+        <v>-6.3960000000000008</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="26"/>
+        <v>-6.3009999999999984</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="26"/>
+        <v>-2.8099999999999898</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="26"/>
+        <v>-6.235999999999998</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="26"/>
+        <v>-3.0309999999999926</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="26"/>
+        <v>0.81299999999999895</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="26"/>
+        <v>0.40199999999999658</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="26"/>
+        <v>-6.3199999999999914</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="26"/>
+        <v>-0.60299999999999976</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="26"/>
+        <v>0.62399999999999634</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="26"/>
+        <v>-15.782999999999985</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="26"/>
+        <v>-18.795000000000002</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="26"/>
+        <v>-16.723000000000006</v>
+      </c>
+      <c r="Y14" s="4">
+        <f t="shared" si="26"/>
+        <v>-18.756000000000007</v>
+      </c>
+      <c r="Z14" s="4">
+        <f t="shared" si="26"/>
+        <v>-13.188000000000001</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="26"/>
+        <v>-23.305000000000007</v>
+      </c>
+      <c r="AB14" s="4">
+        <f t="shared" si="26"/>
+        <v>-12.090000000000003</v>
+      </c>
+      <c r="AC14" s="4">
+        <f t="shared" si="26"/>
+        <v>-6.8540000000000019</v>
+      </c>
+      <c r="AD14" s="4">
+        <f t="shared" si="26"/>
+        <v>-2.9429999999999659</v>
+      </c>
+      <c r="AE14" s="4">
+        <f t="shared" si="26"/>
+        <v>-5.1280000000000037</v>
+      </c>
+      <c r="AF14" s="4">
+        <f t="shared" si="26"/>
+        <v>-3.738</v>
+      </c>
+      <c r="AG14" s="4">
+        <f t="shared" si="26"/>
+        <v>-3.4700000000000033</v>
+      </c>
+      <c r="AH14" s="4">
+        <f t="shared" si="26"/>
+        <v>0.70899999999998697</v>
+      </c>
+      <c r="AI14" s="4">
+        <f t="shared" si="26"/>
+        <v>2.764999999999997</v>
+      </c>
+      <c r="AJ14" s="4">
+        <f t="shared" si="26"/>
+        <v>10.61799999999999</v>
+      </c>
+      <c r="AK14" s="4">
+        <f t="shared" si="26"/>
+        <v>31.098999999999982</v>
+      </c>
+      <c r="AL14" s="4">
+        <f t="shared" si="26"/>
+        <v>116.66599999999997</v>
+      </c>
+      <c r="AM14" s="4">
+        <f t="shared" si="26"/>
+        <v>68.935999999999979</v>
+      </c>
+      <c r="AN14" s="4">
+        <f t="shared" si="26"/>
+        <v>-47.294000000000004</v>
+      </c>
+      <c r="AO14" s="4">
+        <f t="shared" si="26"/>
+        <v>39.361999999999981</v>
+      </c>
+      <c r="AP14" s="4">
+        <f t="shared" si="26"/>
+        <v>72.990999999999985</v>
+      </c>
+      <c r="AQ14" s="4">
+        <f t="shared" si="26"/>
+        <v>31.698000000000008</v>
+      </c>
+      <c r="AR14" s="4">
+        <f t="shared" si="26"/>
+        <v>39.35100000000002</v>
+      </c>
+      <c r="AS14" s="4">
+        <f t="shared" si="26"/>
+        <v>21.809000000000015</v>
+      </c>
+      <c r="AT14" s="4">
+        <f t="shared" si="26"/>
+        <v>52.590999999999987</v>
+      </c>
+      <c r="AU14" s="4">
+        <f t="shared" si="26"/>
+        <v>51.820999999999955</v>
+      </c>
+      <c r="AV14" s="4">
+        <f t="shared" si="26"/>
+        <v>76.976000000000056</v>
+      </c>
+      <c r="AW14" s="4">
+        <f t="shared" si="26"/>
+        <v>114.81199999999994</v>
+      </c>
+      <c r="AX14" s="4">
+        <f t="shared" si="26"/>
+        <v>153.75300000000001</v>
+      </c>
+      <c r="AY14" s="4">
+        <f t="shared" si="26"/>
+        <v>146.87299999999999</v>
+      </c>
+      <c r="AZ14" s="4">
+        <f t="shared" si="26"/>
+        <v>157.19100000000006</v>
+      </c>
+      <c r="BA14" s="4">
+        <f t="shared" si="26"/>
+        <v>113.85299999999998</v>
+      </c>
+      <c r="BB14" s="4">
+        <f t="shared" si="26"/>
+        <v>20.919000000000032</v>
+      </c>
+      <c r="BC14" s="4">
+        <f t="shared" si="26"/>
+        <v>-16.096999999999987</v>
+      </c>
+      <c r="BD14" s="4">
+        <f t="shared" si="26"/>
+        <v>10.833000000000034</v>
+      </c>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4">
         <f t="shared" si="1"/>
         <v>-32.290000000000006</v>
       </c>
-      <c r="BG12">
-        <f t="shared" si="2"/>
-        <v>-37.567000000000007</v>
-      </c>
-      <c r="BH12">
-        <f t="shared" si="3"/>
-        <v>-25.04999999999999</v>
-      </c>
-      <c r="BI12">
-        <f t="shared" si="4"/>
-        <v>-7.2859999999999943</v>
-      </c>
-      <c r="BJ12">
-        <f t="shared" si="5"/>
-        <v>-19.32399999999998</v>
-      </c>
-      <c r="BK12">
-        <f t="shared" si="6"/>
-        <v>-65.987000000000009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H13">
-        <v>0.151</v>
-      </c>
-      <c r="I13">
-        <v>0.13</v>
-      </c>
-      <c r="J13">
-        <f>0.651-SUM(G13:I13)</f>
-        <v>0.30500000000000005</v>
-      </c>
-      <c r="K13">
-        <v>0.182</v>
-      </c>
-      <c r="L13">
-        <v>0.124</v>
-      </c>
-      <c r="M13">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="N13">
-        <f>0.863-SUM(K13:M13)</f>
-        <v>0.41600000000000004</v>
-      </c>
-      <c r="O13">
-        <v>0.109</v>
-      </c>
-      <c r="P13">
-        <v>0.115</v>
-      </c>
-      <c r="Q13">
-        <v>0.127</v>
-      </c>
-      <c r="R13">
-        <f>0.766-SUM(O13:Q13)</f>
-        <v>0.41500000000000004</v>
-      </c>
-      <c r="S13">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="T13">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="U13">
-        <v>0.311</v>
-      </c>
-      <c r="V13">
-        <f>1.379-SUM(S13:U13)</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="W13">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="X13">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="Y13">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="Z13">
-        <f>1.475-SUM(W13:Y13)</f>
-        <v>0.75100000000000011</v>
-      </c>
-      <c r="AA13">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="AB13">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="AC13">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="AD13">
-        <f>1.475-SUM(AA13:AC13)</f>
-        <v>0.85600000000000009</v>
-      </c>
-      <c r="AE13">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="AM13">
-        <v>11.868</v>
-      </c>
-      <c r="AN13">
-        <v>6.5609999999999999</v>
-      </c>
-      <c r="AO13">
-        <v>-5.4829999999999997</v>
-      </c>
-      <c r="AP13">
-        <v>1.639</v>
-      </c>
-      <c r="AQ13">
-        <v>33.363999999999997</v>
-      </c>
-      <c r="AR13">
-        <v>-6.9950000000000001</v>
-      </c>
-      <c r="AS13">
-        <v>-3.8980000000000001</v>
-      </c>
-      <c r="AT13">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="AU13">
-        <v>-5.5860000000000003</v>
-      </c>
-      <c r="AV13">
-        <v>-15.231999999999999</v>
-      </c>
-      <c r="AW13">
-        <v>-19.443000000000001</v>
-      </c>
-      <c r="AX13">
-        <v>-14.425000000000001</v>
-      </c>
-      <c r="AY13">
-        <v>-32.1</v>
-      </c>
-      <c r="AZ13">
-        <v>27.402999999999999</v>
-      </c>
-      <c r="BF13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <f t="shared" si="2"/>
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="BH13">
-        <f t="shared" si="3"/>
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="BI13">
-        <f t="shared" si="4"/>
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="BJ13">
-        <f t="shared" si="5"/>
-        <v>-20.702999999999982</v>
-      </c>
-      <c r="BK13">
-        <f t="shared" si="6"/>
-        <v>1.4750000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <f>C12-C13</f>
-        <v>-9.2890000000000015</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:K14" si="39">D12-D13</f>
-        <v>-10.288</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="39"/>
-        <v>-7.1760000000000002</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="39"/>
-        <v>-5.5370000000000035</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="39"/>
-        <v>-10.183999999999997</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="39"/>
-        <v>-11.384999999999994</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="39"/>
-        <v>-8.9069999999999947</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="39"/>
-        <v>-7.7420000000000151</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="39"/>
-        <v>-10.405999999999999</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ref="L14" si="40">L12-L13</f>
-        <v>-6.3960000000000008</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ref="M14" si="41">M12-M13</f>
-        <v>-6.3009999999999984</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ref="N14:S14" si="42">N12-N13</f>
-        <v>-2.8099999999999898</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="42"/>
-        <v>-6.235999999999998</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="42"/>
-        <v>-3.0309999999999926</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="42"/>
-        <v>0.81299999999999895</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="42"/>
-        <v>0.40199999999999658</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="42"/>
-        <v>-6.3199999999999914</v>
-      </c>
-      <c r="T14">
-        <f t="shared" ref="T14" si="43">T12-T13</f>
-        <v>-0.60299999999999976</v>
-      </c>
-      <c r="U14">
-        <f t="shared" ref="U14" si="44">U12-U13</f>
-        <v>0.62399999999999634</v>
-      </c>
-      <c r="V14">
-        <f t="shared" ref="V14:AA14" si="45">V12-V13</f>
-        <v>-15.782999999999985</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="45"/>
-        <v>-18.795000000000002</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="45"/>
-        <v>-16.723000000000006</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="45"/>
-        <v>-18.756000000000007</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="45"/>
-        <v>-13.188000000000001</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="45"/>
-        <v>-23.305000000000007</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" ref="AB14" si="46">AB12-AB13</f>
-        <v>-16.723000000000006</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" ref="AC14" si="47">AC12-AC13</f>
-        <v>-16.039000000000009</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" ref="AD14" si="48">AD12-AD13</f>
-        <v>-14.865000000000018</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" ref="AE14" si="49">AE12-AE13</f>
-        <v>-5.1280000000000037</v>
-      </c>
-      <c r="AM14">
-        <f t="shared" ref="AM14:AY14" si="50">AM12+AM13</f>
-        <v>53.591999999999985</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="50"/>
-        <v>12.398</v>
-      </c>
-      <c r="AO14">
-        <f t="shared" si="50"/>
-        <v>39.361999999999981</v>
-      </c>
-      <c r="AP14">
-        <f t="shared" si="50"/>
-        <v>72.990999999999985</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="50"/>
-        <v>31.698000000000008</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="50"/>
-        <v>39.35100000000002</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="50"/>
-        <v>21.809000000000015</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="50"/>
-        <v>52.590999999999987</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="50"/>
-        <v>51.820999999999955</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="50"/>
-        <v>76.976000000000056</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="50"/>
-        <v>114.81199999999994</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="50"/>
-        <v>153.75300000000001</v>
-      </c>
-      <c r="AY14">
-        <f t="shared" si="50"/>
-        <v>146.87299999999999</v>
-      </c>
-      <c r="AZ14">
-        <f>AZ12-AZ13</f>
-        <v>157.19100000000006</v>
-      </c>
-      <c r="BF14">
-        <f t="shared" si="1"/>
-        <v>-32.290000000000006</v>
-      </c>
-      <c r="BG14">
+      <c r="BH14" s="4">
         <f t="shared" si="2"/>
         <v>-38.218000000000004</v>
       </c>
-      <c r="BH14">
+      <c r="BI14" s="4">
         <f t="shared" si="3"/>
         <v>-25.91299999999999</v>
       </c>
-      <c r="BI14">
+      <c r="BJ14" s="4">
         <f t="shared" si="4"/>
         <v>-8.051999999999996</v>
       </c>
-      <c r="BJ14">
+      <c r="BK14" s="4">
         <f t="shared" si="5"/>
         <v>-22.081999999999979</v>
       </c>
-      <c r="BK14">
+      <c r="BL14" s="4">
         <f t="shared" si="6"/>
         <v>-67.462000000000018</v>
       </c>
-    </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="BM14" s="4">
+        <f t="shared" si="7"/>
+        <v>-45.191999999999979</v>
+      </c>
+      <c r="BN14" s="4">
+        <f t="shared" si="8"/>
+        <v>-11.627000000000018</v>
+      </c>
+      <c r="BO14" s="4">
+        <f t="shared" si="9"/>
+        <v>161.14799999999994</v>
+      </c>
+      <c r="BP14" s="4">
+        <f t="shared" si="10"/>
+        <v>133.99499999999995</v>
+      </c>
+      <c r="BQ14" s="4">
+        <f t="shared" si="11"/>
+        <v>145.44900000000004</v>
+      </c>
+      <c r="BR14" s="4">
+        <f t="shared" si="12"/>
+        <v>397.36199999999997</v>
+      </c>
+      <c r="BS14" s="4">
+        <f t="shared" si="13"/>
+        <v>438.83600000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="AM15">
+      <c r="AC15" s="9"/>
+      <c r="AM15" s="4">
         <v>138.10400000000001</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" s="4">
         <v>125.60299999999999</v>
       </c>
-      <c r="AO15">
+      <c r="AO15" s="4">
         <v>141.82</v>
       </c>
-      <c r="AP15">
+      <c r="AP15" s="4">
         <v>145.99</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" s="4">
         <v>146.44200000000001</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" s="4">
         <v>141.53299999999999</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" s="4">
         <v>141.22</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" s="4">
         <v>141.47999999999999</v>
       </c>
-      <c r="AU15">
+      <c r="AU15" s="4">
         <v>144.61699999999999</v>
       </c>
-      <c r="AV15">
+      <c r="AV15" s="4">
         <v>143.72499999999999</v>
       </c>
-      <c r="AW15">
+      <c r="AW15" s="4">
         <v>145.96199999999999</v>
       </c>
-      <c r="AX15">
+      <c r="AX15" s="4">
         <v>146.31100000000001</v>
       </c>
-      <c r="AY15">
+      <c r="AY15" s="4">
         <v>145.98599999999999</v>
       </c>
-      <c r="AZ15">
+      <c r="AZ15" s="4">
         <v>145.09800000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="BA15" s="4">
+        <v>143.863</v>
+      </c>
+      <c r="BB15" s="4">
+        <v>139.20500000000001</v>
+      </c>
+      <c r="BC15" s="4">
+        <v>135.89099999999999</v>
+      </c>
+      <c r="BD15" s="4">
+        <v>135.89099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM16" s="6">
+        <f t="shared" ref="AM16:AZ16" si="27">AM14/AM15</f>
+        <v>0.49916005329317015</v>
+      </c>
+      <c r="AN16" s="6">
+        <f t="shared" si="27"/>
+        <v>-0.37653559230273165</v>
+      </c>
+      <c r="AO16" s="6">
+        <f t="shared" si="27"/>
+        <v>0.27754900578197705</v>
+      </c>
+      <c r="AP16" s="6">
+        <f t="shared" si="27"/>
+        <v>0.49997260086307266</v>
+      </c>
+      <c r="AQ16" s="6">
+        <f t="shared" si="27"/>
+        <v>0.21645429589871762</v>
+      </c>
+      <c r="AR16" s="6">
+        <f t="shared" si="27"/>
+        <v>0.27803409805487078</v>
+      </c>
+      <c r="AS16" s="6">
+        <f t="shared" si="27"/>
+        <v>0.15443279988670172</v>
+      </c>
+      <c r="AT16" s="6">
+        <f t="shared" si="27"/>
+        <v>0.37172038450664396</v>
+      </c>
+      <c r="AU16" s="6">
+        <f t="shared" si="27"/>
+        <v>0.35833269947516516</v>
+      </c>
+      <c r="AV16" s="6">
+        <f t="shared" si="27"/>
+        <v>0.53557836145416637</v>
+      </c>
+      <c r="AW16" s="6">
+        <f t="shared" si="27"/>
+        <v>0.7865882901029031</v>
+      </c>
+      <c r="AX16" s="6">
+        <f t="shared" si="27"/>
+        <v>1.0508642549090637</v>
+      </c>
+      <c r="AY16" s="6">
+        <f t="shared" si="27"/>
+        <v>1.0060759250887072</v>
+      </c>
+      <c r="AZ16" s="6">
+        <f t="shared" si="27"/>
+        <v>1.0833436711739655</v>
+      </c>
+      <c r="BA16" s="6">
+        <f>BA14/BA15</f>
+        <v>0.79139876132153497</v>
+      </c>
+      <c r="BB16" s="6">
+        <f>BB14/BB15</f>
+        <v>0.15027477461298108</v>
+      </c>
+      <c r="BC16" s="6">
+        <f>BC14/BC15</f>
+        <v>-0.11845523250252031</v>
+      </c>
+      <c r="BD16" s="6">
+        <f>BD14/BD15</f>
+        <v>7.9718303640417945E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="AY17"/>
+    </row>
+    <row r="18" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="7">
+        <f>G3/C3-1</f>
+        <v>1.357629088494106</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:BD18" si="28">H3/D3-1</f>
+        <v>0.88216409840497456</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.35961813629046691</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="28"/>
+        <v>7.5961774074981836E-3</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="28"/>
+        <v>6.9882629107981042E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="28"/>
+        <v>4.4347092302996494E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="28"/>
+        <v>2.0275270090276631E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.16481378543635405</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.2633565175417425</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.40980280915295619</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.5974115978467589</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.56894237652111634</v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.50491490100729441</v>
+      </c>
+      <c r="T18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.24497585483634943</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="28"/>
+        <v>3.7946586219769207E-2</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" si="28"/>
+        <v>-0.37619169827102739</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="28"/>
+        <v>-0.26002561942460167</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" si="28"/>
+        <v>-0.22438365020128703</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" si="28"/>
+        <v>-0.13793572720026437</v>
+      </c>
+      <c r="Z18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.38050252175105514</v>
+      </c>
+      <c r="AA18" s="7">
+        <f t="shared" si="28"/>
+        <v>-0.1461299730197595</v>
+      </c>
+      <c r="AB18" s="7">
+        <f t="shared" si="28"/>
+        <v>-5.6551114478752385E-2</v>
+      </c>
+      <c r="AC18" s="7">
+        <f t="shared" si="28"/>
+        <v>-0.13132019304496867</v>
+      </c>
+      <c r="AD18" s="7">
+        <f t="shared" si="28"/>
+        <v>-0.12064988245162866</v>
+      </c>
+      <c r="AE18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.27800405472046164</v>
+      </c>
+      <c r="AF18" s="7">
+        <f t="shared" si="28"/>
+        <v>1.5915509925442217E-2</v>
+      </c>
+      <c r="AG18" s="7">
+        <f t="shared" si="28"/>
+        <v>1.2513305122147544E-2</v>
+      </c>
+      <c r="AH18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.15839086230701604</v>
+      </c>
+      <c r="AI18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.43128680043445966</v>
+      </c>
+      <c r="AJ18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.76681248023611248</v>
+      </c>
+      <c r="AK18" s="7">
+        <f t="shared" si="28"/>
+        <v>1.3083638881054331</v>
+      </c>
+      <c r="AL18" s="7">
+        <f t="shared" si="28"/>
+        <v>1.2758075176889987</v>
+      </c>
+      <c r="AM18" s="7">
+        <f t="shared" si="28"/>
+        <v>1.0523714428357462</v>
+      </c>
+      <c r="AN18" s="7">
+        <f t="shared" si="28"/>
+        <v>-6.3805986845049012E-2</v>
+      </c>
+      <c r="AO18" s="7">
+        <f t="shared" si="28"/>
+        <v>-8.6306003099019257E-3</v>
+      </c>
+      <c r="AP18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.26094595109316687</v>
+      </c>
+      <c r="AQ18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.46806781969884947</v>
+      </c>
+      <c r="AR18" s="7">
+        <f t="shared" si="28"/>
+        <v>1.5176201628192261</v>
+      </c>
+      <c r="AS18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.96926102082317955</v>
+      </c>
+      <c r="AT18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.55837697620063498</v>
+      </c>
+      <c r="AU18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.46242303333178669</v>
+      </c>
+      <c r="AV18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.67753285008716779</v>
+      </c>
+      <c r="AW18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.80562928319664073</v>
+      </c>
+      <c r="AX18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.75579995105628783</v>
+      </c>
+      <c r="AY18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.64520544220153542</v>
+      </c>
+      <c r="AZ18" s="7">
+        <f t="shared" si="28"/>
+        <v>0.34123607118876786</v>
+      </c>
+      <c r="BA18" s="7">
+        <f t="shared" si="28"/>
+        <v>-0.13176191444006968</v>
+      </c>
+      <c r="BB18" s="7">
+        <f t="shared" si="28"/>
+        <v>-0.58246165055778509</v>
+      </c>
+      <c r="BC18" s="7">
+        <f t="shared" si="28"/>
+        <v>-0.63728209846614947</v>
+      </c>
+      <c r="BD18" s="7">
+        <f t="shared" si="28"/>
+        <v>-0.57326632148251067</v>
+      </c>
+      <c r="BH18" s="7">
+        <f>BH3/BG3-1</f>
+        <v>0.44912822776429051</v>
+      </c>
+      <c r="BI18" s="7">
+        <f t="shared" ref="BI18:BS18" si="29">BI3/BH3-1</f>
+        <v>7.4617635385226144E-2</v>
+      </c>
+      <c r="BJ18" s="7">
+        <f t="shared" si="29"/>
+        <v>0.47695902012488944</v>
+      </c>
+      <c r="BK18" s="7">
+        <f t="shared" si="29"/>
+        <v>3.8804433795477822E-2</v>
+      </c>
+      <c r="BL18" s="7">
+        <f t="shared" si="29"/>
+        <v>-9.701356756771895E-2</v>
+      </c>
+      <c r="BM18" s="7">
+        <f t="shared" si="29"/>
+        <v>-0.11291387546459764</v>
+      </c>
+      <c r="BN18" s="7">
+        <f t="shared" si="29"/>
+        <v>0.10480979571297766</v>
+      </c>
+      <c r="BO18" s="7">
+        <f t="shared" si="29"/>
+        <v>0.97474372072280091</v>
+      </c>
+      <c r="BP18" s="7">
+        <f t="shared" si="29"/>
+        <v>0.24040375889148891</v>
+      </c>
+      <c r="BQ18" s="7">
+        <f t="shared" si="29"/>
+        <v>0.78461310004196672</v>
+      </c>
+      <c r="BR18" s="7">
+        <f t="shared" si="29"/>
+        <v>0.68651979777851579</v>
+      </c>
+      <c r="BS18" s="7">
+        <f t="shared" si="29"/>
+        <v>-1.7189844232991081E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="7">
+        <f>G4/C4-1</f>
+        <v>1.1589391090071981</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" ref="H19:AZ19" si="30">H4/D4-1</f>
+        <v>0.69844664111357657</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.22948735663949127</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="30"/>
+        <v>-5.7894378503506094E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="30"/>
+        <v>2.4930165500254287E-3</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="30"/>
+        <v>-5.0598631698972607E-3</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="30"/>
+        <v>2.7422508934793477E-3</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="30"/>
+        <v>9.7513971863557591E-2</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.1662571907957815</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.31728863739464686</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.49272600928022237</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.54021071115013153</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.50620423892100197</v>
+      </c>
+      <c r="T19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.25183063872979061</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" si="30"/>
+        <v>7.2320999519461804E-2</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" si="30"/>
+        <v>-0.28847688536738292</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" si="30"/>
+        <v>-0.10690954988145795</v>
+      </c>
+      <c r="X19" s="7">
+        <f t="shared" si="30"/>
+        <v>-5.8161758318130419E-2</v>
+      </c>
+      <c r="Y19" s="7">
+        <f t="shared" si="30"/>
+        <v>1.9563634326686064E-2</v>
+      </c>
+      <c r="Z19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.4894750545775004</v>
+      </c>
+      <c r="AA19" s="7">
+        <f t="shared" si="30"/>
+        <v>-8.895933996676908E-2</v>
+      </c>
+      <c r="AB19" s="7">
+        <f t="shared" si="30"/>
+        <v>-5.9831819090224392E-2</v>
+      </c>
+      <c r="AC19" s="7">
+        <f t="shared" si="30"/>
+        <v>-0.16795549756198069</v>
+      </c>
+      <c r="AD19" s="7">
+        <f t="shared" si="30"/>
+        <v>-0.1839769793459558</v>
+      </c>
+      <c r="AE19" s="7">
+        <f t="shared" si="30"/>
+        <v>8.2887868687503863E-2</v>
+      </c>
+      <c r="AF19" s="7">
+        <f t="shared" si="30"/>
+        <v>-0.13018951223899144</v>
+      </c>
+      <c r="AG19" s="7">
+        <f t="shared" si="30"/>
+        <v>-0.12940554996120635</v>
+      </c>
+      <c r="AH19" s="7">
+        <f t="shared" si="30"/>
+        <v>5.6652275648420014E-2</v>
+      </c>
+      <c r="AI19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.29335811216292096</v>
+      </c>
+      <c r="AJ19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.66885985524955371</v>
+      </c>
+      <c r="AK19" s="7">
+        <f t="shared" si="30"/>
+        <v>1.1872463878038606</v>
+      </c>
+      <c r="AL19" s="7">
+        <f t="shared" si="30"/>
+        <v>1.0608664462603707</v>
+      </c>
+      <c r="AM19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.86900360719043257</v>
+      </c>
+      <c r="AN19" s="7">
+        <f t="shared" si="30"/>
+        <v>-0.13093776401013812</v>
+      </c>
+      <c r="AO19" s="7">
+        <f t="shared" si="30"/>
+        <v>-0.27593172144151323</v>
+      </c>
+      <c r="AP19" s="7">
+        <f t="shared" si="30"/>
+        <v>8.1346338658050188E-2</v>
+      </c>
+      <c r="AQ19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.43192920637462962</v>
+      </c>
+      <c r="AR19" s="7">
+        <f t="shared" si="30"/>
+        <v>1.4400979896566475</v>
+      </c>
+      <c r="AS19" s="7">
+        <f t="shared" si="30"/>
+        <v>1.5282081367783338</v>
+      </c>
+      <c r="AT19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.74529919314770354</v>
+      </c>
+      <c r="AU19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.47825284527837586</v>
+      </c>
+      <c r="AV19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.65302035526092106</v>
+      </c>
+      <c r="AW19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.73704898158277343</v>
+      </c>
+      <c r="AX19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.65975421503177567</v>
+      </c>
+      <c r="AY19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.51197984253875028</v>
+      </c>
+      <c r="AZ19" s="7">
+        <f t="shared" si="30"/>
+        <v>0.24610287572584055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="AY20"/>
+    </row>
+    <row r="21" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7">
+        <f>D3/C3-1</f>
+        <v>0.6377220654159057</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" ref="E21:BD21" si="31">E3/D3-1</f>
+        <v>0.51148959178156272</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.27736540869254123</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="31"/>
+        <v>-0.25438442958658569</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.30744131455399071</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="31"/>
+        <v>9.1854139361186471E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="31"/>
+        <v>-5.3360301251377473E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="31"/>
+        <v>-0.20829280155642005</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.27623582069903696</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="31"/>
+        <v>6.6687296920934447E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="31"/>
+        <v>8.0746542887535355E-2</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="31"/>
+        <v>-0.14131472202338358</v>
+      </c>
+      <c r="P21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.42417506078499501</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.20863616408955643</v>
+      </c>
+      <c r="R21" s="7">
+        <f t="shared" si="31"/>
+        <v>6.148537527872211E-2</v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" si="31"/>
+        <v>-0.17635708650565063</v>
+      </c>
+      <c r="T21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.17818194407579657</v>
+      </c>
+      <c r="U21" s="7">
+        <f t="shared" si="31"/>
+        <v>7.6498878473547638E-3</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="31"/>
+        <v>-0.36204483154149714</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" si="31"/>
+        <v>-2.2977647076749985E-2</v>
+      </c>
+      <c r="X21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.23493083389217273</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.11995958830586595</v>
+      </c>
+      <c r="Z21" s="7">
+        <f t="shared" si="31"/>
+        <v>2.1616075052997452E-2</v>
+      </c>
+      <c r="AA21" s="7">
+        <f t="shared" si="31"/>
+        <v>-0.39569099678811515</v>
+      </c>
+      <c r="AB21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.36448649339738082</v>
+      </c>
+      <c r="AC21" s="7">
+        <f t="shared" si="31"/>
+        <v>3.1201895404714408E-2</v>
+      </c>
+      <c r="AD21" s="7">
+        <f t="shared" si="31"/>
+        <v>3.4164957553415531E-2</v>
+      </c>
+      <c r="AE21" s="7">
+        <f t="shared" si="31"/>
+        <v>-0.12172712438810118</v>
+      </c>
+      <c r="AF21" s="7">
+        <f t="shared" si="31"/>
+        <v>8.4662436403132757E-2</v>
+      </c>
+      <c r="AG21" s="7">
+        <f t="shared" si="31"/>
+        <v>2.7748497944555695E-2</v>
+      </c>
+      <c r="AH21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.18316197020589198</v>
+      </c>
+      <c r="AI21" s="7">
+        <f t="shared" si="31"/>
+        <v>8.5178081894917268E-2</v>
+      </c>
+      <c r="AJ21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.33893160259610577</v>
+      </c>
+      <c r="AK21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.34276701418407973</v>
+      </c>
+      <c r="AL21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.16647506067523055</v>
+      </c>
+      <c r="AM21" s="7">
+        <f t="shared" si="31"/>
+        <v>-2.1363411289708201E-2</v>
+      </c>
+      <c r="AN21" s="7">
+        <f t="shared" si="31"/>
+        <v>-0.38924323140918049</v>
+      </c>
+      <c r="AO21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.42190412464751703</v>
+      </c>
+      <c r="AP21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.48366694117185727</v>
+      </c>
+      <c r="AQ21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.13938657070899696</v>
+      </c>
+      <c r="AR21" s="7">
+        <f t="shared" si="31"/>
+        <v>4.7399537371501266E-2</v>
+      </c>
+      <c r="AS21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.1122012801488339</v>
+      </c>
+      <c r="AT21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.1741015421641503</v>
+      </c>
+      <c r="AU21" s="7">
+        <f t="shared" si="31"/>
+        <v>6.923112335511572E-2</v>
+      </c>
+      <c r="AV21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.20146297689511727</v>
+      </c>
+      <c r="AW21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.19712898626168429</v>
+      </c>
+      <c r="AX21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.14170026452900775</v>
+      </c>
+      <c r="AY21" s="7">
+        <f t="shared" si="31"/>
+        <v>1.8822828060915953E-3</v>
+      </c>
+      <c r="AZ21" s="7">
+        <f t="shared" si="31"/>
+        <v>-2.0520208921015359E-2</v>
+      </c>
+      <c r="BA21" s="7">
+        <f t="shared" si="31"/>
+        <v>-0.22504844484319064</v>
+      </c>
+      <c r="BB21" s="7">
+        <f t="shared" si="31"/>
+        <v>-0.4509528527514961</v>
+      </c>
+      <c r="BC21" s="7">
+        <f t="shared" si="31"/>
+        <v>-0.12965925240440224</v>
+      </c>
+      <c r="BD21" s="7">
+        <f t="shared" si="31"/>
+        <v>0.15234735455059845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="AM16">
-        <f t="shared" ref="AM16:AZ16" si="51">AM14/AM15</f>
-        <v>0.38805537855529154</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="51"/>
-        <v>9.8707833411622342E-2</v>
-      </c>
-      <c r="AO16">
-        <f t="shared" si="51"/>
-        <v>0.27754900578197705</v>
-      </c>
-      <c r="AP16">
-        <f t="shared" si="51"/>
-        <v>0.49997260086307266</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="51"/>
-        <v>0.21645429589871762</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="51"/>
-        <v>0.27803409805487078</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="51"/>
-        <v>0.15443279988670172</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="51"/>
-        <v>0.37172038450664396</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="51"/>
-        <v>0.35833269947516516</v>
-      </c>
-      <c r="AV16">
-        <f t="shared" si="51"/>
-        <v>0.53557836145416637</v>
-      </c>
-      <c r="AW16">
-        <f t="shared" si="51"/>
-        <v>0.7865882901029031</v>
-      </c>
-      <c r="AX16">
-        <f t="shared" si="51"/>
-        <v>1.0508642549090637</v>
-      </c>
-      <c r="AY16">
-        <f t="shared" si="51"/>
-        <v>1.0060759250887072</v>
-      </c>
-      <c r="AZ16">
-        <f t="shared" si="51"/>
-        <v>1.0833436711739655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="AY17"/>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ18">
-        <f t="shared" ref="AQ18:AX19" si="52">AQ3/AM3-1</f>
-        <v>0.46806781969884947</v>
-      </c>
-      <c r="AR18">
-        <f t="shared" si="52"/>
-        <v>1.5176201628192261</v>
-      </c>
-      <c r="AS18">
-        <f t="shared" si="52"/>
-        <v>0.96926102082317955</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="52"/>
-        <v>0.55837697620063498</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="52"/>
-        <v>0.46242303333178669</v>
-      </c>
-      <c r="AV18">
-        <f t="shared" si="52"/>
-        <v>0.67753285008716779</v>
-      </c>
-      <c r="AW18">
-        <f t="shared" si="52"/>
-        <v>0.80562928319664073</v>
-      </c>
-      <c r="AX18">
-        <f t="shared" si="52"/>
-        <v>0.75579995105628783</v>
-      </c>
-      <c r="AY18">
-        <f t="shared" ref="AY18:AZ18" si="53">AY3/AU3-1</f>
-        <v>0.64520544220153542</v>
-      </c>
-      <c r="AZ18">
-        <f t="shared" si="53"/>
-        <v>0.34123607118876786</v>
-      </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ19">
-        <f t="shared" si="52"/>
-        <v>0.43192920637462962</v>
-      </c>
-      <c r="AR19">
-        <f t="shared" si="52"/>
-        <v>1.4400979896566475</v>
-      </c>
-      <c r="AS19">
-        <f t="shared" si="52"/>
-        <v>1.5282081367783338</v>
-      </c>
-      <c r="AT19">
-        <f t="shared" si="52"/>
-        <v>0.74529919314770354</v>
-      </c>
-      <c r="AU19">
-        <f t="shared" si="52"/>
-        <v>0.47825284527837586</v>
-      </c>
-      <c r="AV19">
-        <f t="shared" si="52"/>
-        <v>0.65302035526092106</v>
-      </c>
-      <c r="AW19">
-        <f t="shared" si="52"/>
-        <v>0.73704898158277343</v>
-      </c>
-      <c r="AX19">
-        <f t="shared" si="52"/>
-        <v>0.65975421503177567</v>
-      </c>
-      <c r="AY19">
-        <f t="shared" ref="AY19:AZ19" si="54">AY4/AU4-1</f>
-        <v>0.51197984253875028</v>
-      </c>
-      <c r="AZ19">
-        <f t="shared" si="54"/>
-        <v>0.24610287572584055</v>
-      </c>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="AY20"/>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN21">
-        <f>AN3/AM3-1</f>
-        <v>-0.38924323140918049</v>
-      </c>
-      <c r="AO21">
-        <f t="shared" ref="AO21:AX21" si="55">AO3/AN3-1</f>
-        <v>0.42190412464751703</v>
-      </c>
-      <c r="AP21">
-        <f t="shared" si="55"/>
-        <v>0.48366694117185727</v>
-      </c>
-      <c r="AQ21">
-        <f t="shared" si="55"/>
-        <v>0.13938657070899696</v>
-      </c>
-      <c r="AR21">
-        <f t="shared" si="55"/>
-        <v>4.7399537371501266E-2</v>
-      </c>
-      <c r="AS21">
-        <f t="shared" si="55"/>
-        <v>0.1122012801488339</v>
-      </c>
-      <c r="AT21">
-        <f t="shared" si="55"/>
-        <v>0.1741015421641503</v>
-      </c>
-      <c r="AU21">
-        <f t="shared" si="55"/>
-        <v>6.923112335511572E-2</v>
-      </c>
-      <c r="AV21">
-        <f t="shared" si="55"/>
-        <v>0.20146297689511727</v>
-      </c>
-      <c r="AW21">
-        <f t="shared" si="55"/>
-        <v>0.19712898626168429</v>
-      </c>
-      <c r="AX21">
-        <f t="shared" si="55"/>
-        <v>0.14170026452900775</v>
-      </c>
-      <c r="AY21">
-        <f t="shared" ref="AY21:AZ21" si="56">AY3/AX3-1</f>
-        <v>1.8822828060915953E-3</v>
-      </c>
-      <c r="AZ21">
-        <f t="shared" si="56"/>
-        <v>-2.0520208921015359E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN22">
-        <f>AN4/AM4-1</f>
+      <c r="D22" s="7">
+        <f>D4/C4-1</f>
+        <v>0.60722391543998455</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" ref="E22:BD22" si="32">E4/D4-1</f>
+        <v>0.45995561831753085</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.21771452259223389</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="32"/>
+        <v>-0.24442275832330962</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.26440993602258733</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="32"/>
+        <v>5.6846256176358745E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="32"/>
+        <v>-6.6915417294162505E-2</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="32"/>
+        <v>-0.19599152052418589</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.2548837488015343</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="32"/>
+        <v>6.5133825179666927E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="32"/>
+        <v>2.1272780255990886E-2</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="32"/>
+        <v>-0.14563213345039516</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.41739242132305709</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.20698905241789323</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" si="32"/>
+        <v>5.3760211436809202E-2</v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" si="32"/>
+        <v>-0.16449581029470439</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.1780177045489435</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="32"/>
+        <v>3.3909593721947129E-2</v>
+      </c>
+      <c r="V22" s="7">
+        <f t="shared" si="32"/>
+        <v>-0.30079262827694375</v>
+      </c>
+      <c r="W22" s="7">
+        <f t="shared" si="32"/>
+        <v>4.8709167017164212E-2</v>
+      </c>
+      <c r="X22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.24231775558144442</v>
+      </c>
+      <c r="Y22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.11923319343879224</v>
+      </c>
+      <c r="Z22" s="7">
+        <f t="shared" si="32"/>
+        <v>2.1468305748231886E-2</v>
+      </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="32"/>
+        <v>-0.35855475473321874</v>
+      </c>
+      <c r="AB22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.28203676917594267</v>
+      </c>
+      <c r="AC22" s="7">
+        <f t="shared" si="32"/>
+        <v>-9.4837876285625011E-3</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" si="32"/>
+        <v>1.7993627944596913E-3</v>
+      </c>
+      <c r="AE22" s="7">
+        <f t="shared" si="32"/>
+        <v>-0.1487822562040666</v>
+      </c>
+      <c r="AF22" s="7">
+        <f t="shared" si="32"/>
+        <v>2.9773312426195853E-2</v>
+      </c>
+      <c r="AG22" s="7">
+        <f t="shared" si="32"/>
+        <v>-8.5910329918225115E-3</v>
+      </c>
+      <c r="AH22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.2158974553452917</v>
+      </c>
+      <c r="AI22" s="7">
+        <f t="shared" si="32"/>
+        <v>4.1903187574075407E-2</v>
+      </c>
+      <c r="AJ22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.32874826001706303</v>
+      </c>
+      <c r="AK22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.29936355956068694</v>
+      </c>
+      <c r="AL22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.14564243049475101</v>
+      </c>
+      <c r="AM22" s="7">
+        <f t="shared" si="32"/>
+        <v>-5.5096064350629192E-2</v>
+      </c>
+      <c r="AN22" s="7">
+        <f t="shared" si="32"/>
         <v>-0.38214943541282942</v>
       </c>
-      <c r="AO22">
-        <f t="shared" ref="AO22:AX22" si="57">AO4/AN4-1</f>
+      <c r="AO22" s="7">
+        <f t="shared" si="32"/>
         <v>8.2578320436546671E-2</v>
       </c>
-      <c r="AP22">
-        <f t="shared" si="57"/>
+      <c r="AP22" s="7">
+        <f t="shared" si="32"/>
         <v>0.71093843538229451</v>
       </c>
-      <c r="AQ22">
-        <f t="shared" si="57"/>
+      <c r="AQ22" s="7">
+        <f t="shared" si="32"/>
         <v>0.25125086598414281</v>
       </c>
-      <c r="AR22">
-        <f t="shared" si="57"/>
+      <c r="AR22" s="7">
+        <f t="shared" si="32"/>
         <v>5.2856463745420967E-2</v>
       </c>
-      <c r="AS22">
-        <f t="shared" si="57"/>
+      <c r="AS22" s="7">
+        <f t="shared" si="32"/>
         <v>0.12166942886282506</v>
       </c>
-      <c r="AT22">
-        <f t="shared" si="57"/>
+      <c r="AT22" s="7">
+        <f t="shared" si="32"/>
         <v>0.18111298961455957</v>
       </c>
-      <c r="AU22">
-        <f t="shared" si="57"/>
+      <c r="AU22" s="7">
+        <f t="shared" si="32"/>
         <v>5.97983200016039E-2</v>
       </c>
-      <c r="AV22">
-        <f t="shared" si="57"/>
+      <c r="AV22" s="7">
+        <f t="shared" si="32"/>
         <v>0.17733117937038179</v>
       </c>
-      <c r="AW22">
-        <f t="shared" si="57"/>
+      <c r="AW22" s="7">
+        <f t="shared" si="32"/>
         <v>0.17868768698323545</v>
       </c>
-      <c r="AX22">
-        <f t="shared" si="57"/>
+      <c r="AX22" s="7">
+        <f t="shared" si="32"/>
         <v>0.1285561223237921</v>
       </c>
-      <c r="AY22">
-        <f t="shared" ref="AY22:AZ22" si="58">AY4/AX4-1</f>
+      <c r="AY22" s="7">
+        <f t="shared" si="32"/>
         <v>-3.4559645948433637E-2</v>
       </c>
-      <c r="AZ22">
-        <f t="shared" si="58"/>
+      <c r="AZ22" s="7">
+        <f t="shared" si="32"/>
         <v>-2.9698857736240813E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA22" s="7">
+        <f t="shared" si="32"/>
+        <v>-0.25454643918138309</v>
+      </c>
+      <c r="BB22" s="7">
+        <f t="shared" si="32"/>
+        <v>-0.46065472257488704</v>
+      </c>
+      <c r="BC22" s="7">
+        <f t="shared" si="32"/>
+        <v>-5.1806193396105371E-2</v>
+      </c>
+      <c r="BD22" s="7">
+        <f t="shared" si="32"/>
+        <v>0.12487908490100197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AY23"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="7">
+        <f>C13/C12</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" ref="D24:BD24" si="33">D13/D12</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="33"/>
+        <v>6.4235596402806615E-3</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="33"/>
+        <v>1.3441338792949979E-2</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="33"/>
+        <v>1.4811438988264794E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="33"/>
+        <v>4.101116041414541E-2</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="33"/>
+        <v>1.7801251956181537E-2</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="33"/>
+        <v>1.9770408163265304E-2</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="33"/>
+        <v>2.2889610389610394E-2</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="33"/>
+        <v>0.17376775271512188</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="33"/>
+        <v>1.7790109352048316E-2</v>
+      </c>
+      <c r="P24" s="7">
+        <f t="shared" si="33"/>
+        <v>3.9437585733882133E-2</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.13510638297872354</v>
+      </c>
+      <c r="R24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.50795593635251135</v>
+      </c>
+      <c r="S24" s="7">
+        <f t="shared" si="33"/>
+        <v>2.7141231919388956E-2</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" si="33"/>
+        <v>0.59946949602122057</v>
+      </c>
+      <c r="U24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.33262032085561627</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" si="33"/>
+        <v>4.4678316123907914E-2</v>
+      </c>
+      <c r="W24" s="7">
+        <f t="shared" si="33"/>
+        <v>1.2716202381593834E-2</v>
+      </c>
+      <c r="X24" s="7">
+        <f t="shared" si="33"/>
+        <v>2.1002503205323882E-2</v>
+      </c>
+      <c r="Y24" s="7">
+        <f t="shared" si="33"/>
+        <v>7.7369439071566688E-3</v>
+      </c>
+      <c r="Z24" s="7">
+        <f t="shared" si="33"/>
+        <v>6.0384337058776237E-2</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" si="33"/>
+        <v>5.6528868559592637E-3</v>
+      </c>
+      <c r="AB24" s="7">
+        <f t="shared" si="33"/>
+        <v>7.6005695977216056E-2</v>
+      </c>
+      <c r="AC24" s="7">
+        <f t="shared" si="33"/>
+        <v>-2.6143790849673193E-2</v>
+      </c>
+      <c r="AD24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.24402774210120942</v>
+      </c>
+      <c r="AE24" s="7">
+        <f t="shared" si="33"/>
+        <v>4.8027794808910652E-2</v>
+      </c>
+      <c r="AF24" s="7">
+        <f t="shared" si="33"/>
+        <v>9.9735216240070618E-2</v>
+      </c>
+      <c r="AG24" s="7">
+        <f t="shared" si="33"/>
+        <v>7.6970825574177462E-2</v>
+      </c>
+      <c r="AH24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.44824902723735854</v>
+      </c>
+      <c r="AI24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.11178927079987161</v>
+      </c>
+      <c r="AJ24" s="7">
+        <f t="shared" si="33"/>
+        <v>-5.2725488446783882E-2</v>
+      </c>
+      <c r="AK24" s="7">
+        <f t="shared" si="33"/>
+        <v>-8.6704281023875611E-3</v>
+      </c>
+      <c r="AL24" s="7">
+        <f t="shared" si="33"/>
+        <v>1.6263704103914829</v>
+      </c>
+      <c r="AM24" s="7">
+        <f t="shared" si="33"/>
+        <v>0.20796243078432752</v>
+      </c>
+      <c r="AN24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.12182712840033422</v>
+      </c>
+      <c r="AO24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.1222655814472071</v>
+      </c>
+      <c r="AP24" s="7">
+        <f t="shared" si="33"/>
+        <v>2.2970624509474159E-2</v>
+      </c>
+      <c r="AQ24" s="7">
+        <f t="shared" si="33"/>
+        <v>-20.026410564225813</v>
+      </c>
+      <c r="AR24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.15092996159323344</v>
+      </c>
+      <c r="AS24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.15163185124674206</v>
+      </c>
+      <c r="AT24" s="7">
+        <f t="shared" si="33"/>
+        <v>4.0561128588670586E-2</v>
+      </c>
+      <c r="AU24" s="7">
+        <f t="shared" si="33"/>
+        <v>-9.7305206682112025E-2</v>
+      </c>
+      <c r="AV24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.16519174041297924</v>
+      </c>
+      <c r="AW24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.14482142192097136</v>
+      </c>
+      <c r="AX24" s="7">
+        <f t="shared" si="33"/>
+        <v>-8.5772217531425027E-2</v>
+      </c>
+      <c r="AY24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.17935666273683742</v>
+      </c>
+      <c r="AZ24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.14845011213798928</v>
+      </c>
+      <c r="BA24" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.17043972458013046</v>
+      </c>
+      <c r="BB24" s="7">
+        <f t="shared" si="33"/>
+        <v>0.71088574466344789</v>
+      </c>
+      <c r="BC24" s="7">
+        <f t="shared" si="33"/>
+        <v>0.39986085746586703</v>
+      </c>
+      <c r="BD24" s="7">
+        <f t="shared" si="33"/>
+        <v>-3.4147646219686058E-2</v>
+      </c>
+      <c r="BG24" s="7">
+        <f>BG13/BG12</f>
+        <v>0</v>
+      </c>
+      <c r="BH24" s="7">
+        <f t="shared" ref="BH24:BS24" si="34">BH13/BH12</f>
+        <v>1.7329038784039182E-2</v>
+      </c>
+      <c r="BI24" s="7">
+        <f t="shared" si="34"/>
+        <v>3.4451097804391234E-2</v>
+      </c>
+      <c r="BJ24" s="7">
+        <f t="shared" si="34"/>
+        <v>0.10513313203403797</v>
+      </c>
+      <c r="BK24" s="7">
+        <f t="shared" si="34"/>
+        <v>6.6608704052552828E-2</v>
+      </c>
+      <c r="BL24" s="7">
+        <f t="shared" si="34"/>
+        <v>2.2352887689999542E-2</v>
+      </c>
+      <c r="BM24" s="7">
+        <f t="shared" si="34"/>
+        <v>-3.2862089499569947E-3</v>
+      </c>
+      <c r="BN24" s="7">
+        <f t="shared" si="34"/>
+        <v>0.13667025124645588</v>
+      </c>
+      <c r="BO24" s="7">
+        <f t="shared" si="34"/>
+        <v>0.78826819362141354</v>
+      </c>
+      <c r="BP24" s="7">
+        <f t="shared" si="34"/>
+        <v>0.12214219914580025</v>
+      </c>
+      <c r="BQ24" s="7">
+        <f t="shared" si="34"/>
+        <v>0.20277355120402216</v>
+      </c>
+      <c r="BR24" s="7">
+        <f t="shared" si="34"/>
+        <v>-0.12097387888011892</v>
+      </c>
+      <c r="BS24" s="7">
+        <f t="shared" si="34"/>
+        <v>-0.14463422858691055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="AM24">
-        <f>-AM13/AM14</f>
-        <v>-0.22145096283027324</v>
-      </c>
-      <c r="AN24">
-        <f t="shared" ref="AN24:AZ24" si="59">-AN13/AN14</f>
-        <v>-0.52919825778351348</v>
-      </c>
-      <c r="AO24">
-        <f t="shared" si="59"/>
-        <v>0.1392967837000153</v>
-      </c>
-      <c r="AP24">
-        <f t="shared" si="59"/>
-        <v>-2.2454823197380503E-2</v>
-      </c>
-      <c r="AQ24">
-        <f t="shared" si="59"/>
-        <v>-1.0525585210423367</v>
-      </c>
-      <c r="AR24">
-        <f t="shared" si="59"/>
-        <v>0.17775914208025201</v>
-      </c>
-      <c r="AS24">
-        <f t="shared" si="59"/>
-        <v>0.17873355036911354</v>
-      </c>
-      <c r="AT24">
-        <f t="shared" si="59"/>
-        <v>-3.8980053621342062E-2</v>
-      </c>
-      <c r="AU24">
-        <f t="shared" si="59"/>
-        <v>0.10779413751181963</v>
-      </c>
-      <c r="AV24">
-        <f t="shared" si="59"/>
-        <v>0.19787985865724367</v>
-      </c>
-      <c r="AW24">
-        <f t="shared" si="59"/>
-        <v>0.16934640978294963</v>
-      </c>
-      <c r="AX24">
-        <f t="shared" si="59"/>
-        <v>9.3819307590746193E-2</v>
-      </c>
-      <c r="AY24">
-        <f t="shared" si="59"/>
-        <v>0.2185561675733457</v>
-      </c>
-      <c r="AZ24">
-        <f t="shared" si="59"/>
-        <v>-0.17432931910860028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM25">
-        <f>AM5/AM3</f>
+      <c r="C25" s="7">
+        <f>C5/C3</f>
+        <v>0.14654933864630029</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" ref="D25:BD25" si="35">D5/D3</f>
+        <v>0.16244255204109215</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.1909989268467179</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.22877796058389052</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.21847417840375591</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.24419627628058971</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.26842944765099575</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.27890494719288472</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.26770081400706497</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.27995255041518385</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.28100119266350776</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.32056788356000965</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.32398402222994099</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.32720355104629051</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.32812042819811732</v>
+      </c>
+      <c r="R25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.33301016092085128</v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.32340484461011165</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.32349916252828304</v>
+      </c>
+      <c r="U25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.30586931586212257</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.23922351399533762</v>
+      </c>
+      <c r="W25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.18340325322437265</v>
+      </c>
+      <c r="X25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.17851865883690088</v>
+      </c>
+      <c r="Y25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.17905146362365243</v>
+      </c>
+      <c r="Z25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.17917020783435061</v>
+      </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.1287282424065313</v>
+      </c>
+      <c r="AB25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.18137523926807392</v>
+      </c>
+      <c r="AC25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.21367377138554997</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.23828291703276056</v>
+      </c>
+      <c r="AE25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.26174755616532325</v>
+      </c>
+      <c r="AF25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.29910667228839466</v>
+      </c>
+      <c r="AG25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.32388913104792183</v>
+      </c>
+      <c r="AH25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.30518263281647862</v>
+      </c>
+      <c r="AI25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.33289066400399397</v>
+      </c>
+      <c r="AJ25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.33796441302369973</v>
+      </c>
+      <c r="AK25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.35936397918436935</v>
+      </c>
+      <c r="AL25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.37080540108173982</v>
+      </c>
+      <c r="AM25" s="7">
+        <f t="shared" si="35"/>
         <v>0.39249312802549313</v>
       </c>
-      <c r="AN25">
-        <f t="shared" ref="AN25:AZ25" si="60">AN5/AN3</f>
+      <c r="AN25" s="7">
+        <f t="shared" si="35"/>
         <v>0.38543707881278977</v>
       </c>
-      <c r="AO25">
-        <f t="shared" si="60"/>
+      <c r="AO25" s="7">
+        <f t="shared" si="35"/>
         <v>0.53209749976190868</v>
       </c>
-      <c r="AP25">
-        <f t="shared" si="60"/>
+      <c r="AP25" s="7">
+        <f t="shared" si="35"/>
         <v>0.46042312499292021</v>
       </c>
-      <c r="AQ25">
-        <f t="shared" si="60"/>
+      <c r="AQ25" s="7">
+        <f t="shared" si="35"/>
         <v>0.40744778859600866</v>
       </c>
-      <c r="AR25">
-        <f t="shared" si="60"/>
+      <c r="AR25" s="7">
+        <f t="shared" si="35"/>
         <v>0.40436060584008582</v>
       </c>
-      <c r="AS25">
-        <f t="shared" si="60"/>
+      <c r="AS25" s="7">
+        <f t="shared" si="35"/>
         <v>0.39928993880842856</v>
       </c>
-      <c r="AT25">
-        <f t="shared" si="60"/>
+      <c r="AT25" s="7">
+        <f t="shared" si="35"/>
         <v>0.39570264514112508</v>
       </c>
-      <c r="AU25">
-        <f t="shared" si="60"/>
+      <c r="AU25" s="7">
+        <f t="shared" si="35"/>
         <v>0.40103378262012446</v>
       </c>
-      <c r="AV25">
-        <f t="shared" si="60"/>
+      <c r="AV25" s="7">
+        <f t="shared" si="35"/>
         <v>0.41306422530535886</v>
       </c>
-      <c r="AW25">
-        <f t="shared" si="60"/>
+      <c r="AW25" s="7">
+        <f t="shared" si="35"/>
         <v>0.42210573912933869</v>
       </c>
-      <c r="AX25">
-        <f t="shared" si="60"/>
+      <c r="AX25" s="7">
+        <f t="shared" si="35"/>
         <v>0.4287589077239834</v>
       </c>
-      <c r="AY25">
-        <f t="shared" si="60"/>
+      <c r="AY25" s="7">
+        <f t="shared" si="35"/>
         <v>0.44953692480606489</v>
       </c>
-      <c r="AZ25">
-        <f t="shared" si="60"/>
+      <c r="AZ25" s="7">
+        <f t="shared" si="35"/>
         <v>0.45469528263944947</v>
       </c>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.47545192911399753</v>
+      </c>
+      <c r="BB25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.48472089103347987</v>
+      </c>
+      <c r="BC25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.4386285358416338</v>
+      </c>
+      <c r="BD25" s="7">
+        <f t="shared" si="35"/>
+        <v>0.45200983332125044</v>
+      </c>
+      <c r="BG25" s="7">
+        <f>BG5/BG3</f>
+        <v>0.19441156210081389</v>
+      </c>
+      <c r="BH25" s="7">
+        <f t="shared" ref="BH25:BS25" si="36">BH5/BH3</f>
+        <v>0.25516203767802914</v>
+      </c>
+      <c r="BI25" s="7">
+        <f t="shared" si="36"/>
+        <v>0.28953041924705603</v>
+      </c>
+      <c r="BJ25" s="7">
+        <f t="shared" si="36"/>
+        <v>0.32870510374988371</v>
+      </c>
+      <c r="BK25" s="7">
+        <f t="shared" si="36"/>
+        <v>0.30291757289733495</v>
+      </c>
+      <c r="BL25" s="7">
+        <f t="shared" si="36"/>
+        <v>0.17981902780920728</v>
+      </c>
+      <c r="BM25" s="7">
+        <f t="shared" si="36"/>
+        <v>0.19584087557571489</v>
+      </c>
+      <c r="BN25" s="7">
+        <f t="shared" si="36"/>
+        <v>0.29872627380526884</v>
+      </c>
+      <c r="BO25" s="7">
+        <f t="shared" si="36"/>
+        <v>0.35437018386021557</v>
+      </c>
+      <c r="BP25" s="7">
+        <f t="shared" si="36"/>
+        <v>0.44675856280466147</v>
+      </c>
+      <c r="BQ25" s="7">
+        <f t="shared" si="36"/>
+        <v>0.40115943790704961</v>
+      </c>
+      <c r="BR25" s="7">
+        <f t="shared" si="36"/>
+        <v>0.41812804153672495</v>
+      </c>
+      <c r="BS25" s="7">
+        <f t="shared" si="36"/>
+        <v>0.46201958629046969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AY26"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AY27"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AY28"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AY29"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AY30"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AY31"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AY32"/>
     </row>
     <row r="33" spans="51:51" x14ac:dyDescent="0.3">

--- a/ENPHASE.xlsx
+++ b/ENPHASE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr date1904="1" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\models-_-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CC285C-1D3E-4975-A6F1-BC57A29B4592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA3FB55-2044-48A9-BED9-DF12C5AE704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input sheet" sheetId="11" r:id="rId1"/>
@@ -7566,6 +7566,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="100" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7639,24 +7640,6 @@
     <xf numFmtId="0" fontId="76" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7665,6 +7648,12 @@
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7816,29 +7805,17 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="50" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7877,6 +7854,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="82" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8074,7 +8075,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9364,7 +9364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9430,18 +9430,18 @@
       <c r="J4" s="402"/>
     </row>
     <row r="5" spans="1:10" s="192" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="550" t="s">
+      <c r="A5" s="551" t="s">
         <v>905</v>
       </c>
-      <c r="B5" s="551"/>
-      <c r="C5" s="551"/>
-      <c r="D5" s="551"/>
-      <c r="E5" s="551"/>
-      <c r="F5" s="551"/>
-      <c r="G5" s="551"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="551"/>
-      <c r="J5" s="552"/>
+      <c r="B5" s="552"/>
+      <c r="C5" s="552"/>
+      <c r="D5" s="552"/>
+      <c r="E5" s="552"/>
+      <c r="F5" s="552"/>
+      <c r="G5" s="552"/>
+      <c r="H5" s="552"/>
+      <c r="I5" s="552"/>
+      <c r="J5" s="553"/>
     </row>
     <row r="6" spans="1:10" s="192" customFormat="1" ht="16.5" thickBot="1">
       <c r="A6" s="193" t="s">
@@ -9464,12 +9464,12 @@
         <v>327</v>
       </c>
       <c r="C7" s="193"/>
-      <c r="F7" s="564" t="s">
+      <c r="F7" s="565" t="s">
         <v>982</v>
       </c>
-      <c r="G7" s="565"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="567"/>
     </row>
     <row r="8" spans="1:10" s="192" customFormat="1" ht="15.75">
       <c r="A8" s="192" t="s">
@@ -9478,10 +9478,10 @@
       <c r="B8" s="195" t="s">
         <v>629</v>
       </c>
-      <c r="F8" s="567"/>
-      <c r="G8" s="568"/>
-      <c r="H8" s="568"/>
-      <c r="I8" s="569"/>
+      <c r="F8" s="568"/>
+      <c r="G8" s="569"/>
+      <c r="H8" s="569"/>
+      <c r="I8" s="570"/>
     </row>
     <row r="9" spans="1:10" s="192" customFormat="1" ht="15.75">
       <c r="A9" s="192" t="s">
@@ -9492,10 +9492,10 @@
       </c>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="F9" s="567"/>
-      <c r="G9" s="568"/>
-      <c r="H9" s="568"/>
-      <c r="I9" s="569"/>
+      <c r="F9" s="568"/>
+      <c r="G9" s="569"/>
+      <c r="H9" s="569"/>
+      <c r="I9" s="570"/>
     </row>
     <row r="10" spans="1:10" s="192" customFormat="1" ht="15.75">
       <c r="B10" s="348" t="s">
@@ -9507,10 +9507,10 @@
       <c r="D10" s="405" t="s">
         <v>497</v>
       </c>
-      <c r="F10" s="567"/>
-      <c r="G10" s="568"/>
-      <c r="H10" s="568"/>
-      <c r="I10" s="569"/>
+      <c r="F10" s="568"/>
+      <c r="G10" s="569"/>
+      <c r="H10" s="569"/>
+      <c r="I10" s="570"/>
     </row>
     <row r="11" spans="1:10" s="192" customFormat="1" ht="16.5" thickBot="1">
       <c r="A11" s="197" t="s">
@@ -9522,13 +9522,13 @@
       <c r="C11" s="404">
         <v>513983</v>
       </c>
-      <c r="D11" s="563">
+      <c r="D11" s="564">
         <v>1</v>
       </c>
-      <c r="F11" s="570"/>
-      <c r="G11" s="571"/>
-      <c r="H11" s="571"/>
-      <c r="I11" s="572"/>
+      <c r="F11" s="571"/>
+      <c r="G11" s="572"/>
+      <c r="H11" s="572"/>
+      <c r="I11" s="573"/>
     </row>
     <row r="12" spans="1:10" s="192" customFormat="1" ht="15.75">
       <c r="A12" s="197" t="s">
@@ -9540,7 +9540,7 @@
       <c r="C12" s="404">
         <v>12248</v>
       </c>
-      <c r="D12" s="563"/>
+      <c r="D12" s="564"/>
     </row>
     <row r="13" spans="1:10" s="192" customFormat="1" ht="15.75">
       <c r="A13" s="197" t="s">
@@ -9552,7 +9552,7 @@
       <c r="C13" s="404">
         <v>2367</v>
       </c>
-      <c r="D13" s="563"/>
+      <c r="D13" s="564"/>
     </row>
     <row r="14" spans="1:10" s="192" customFormat="1" ht="15.75">
       <c r="A14" s="197" t="s">
@@ -9564,7 +9564,7 @@
       <c r="C14" s="404">
         <v>146043</v>
       </c>
-      <c r="D14" s="563"/>
+      <c r="D14" s="564"/>
     </row>
     <row r="15" spans="1:10" s="192" customFormat="1" ht="15.75">
       <c r="A15" s="197" t="s">
@@ -9576,7 +9576,7 @@
       <c r="C15" s="404">
         <v>169938</v>
       </c>
-      <c r="D15" s="563"/>
+      <c r="D15" s="564"/>
     </row>
     <row r="16" spans="1:10" s="192" customFormat="1" ht="15.75">
       <c r="A16" s="197" t="s">
@@ -9646,18 +9646,18 @@
         <v>10492</v>
       </c>
       <c r="C21" s="199"/>
-      <c r="E21" s="560" t="s">
+      <c r="E21" s="561" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="561"/>
-      <c r="G21" s="561"/>
-      <c r="H21" s="561"/>
-      <c r="I21" s="561"/>
-      <c r="J21" s="561"/>
-      <c r="K21" s="561"/>
-      <c r="L21" s="561"/>
-      <c r="M21" s="561"/>
-      <c r="N21" s="562"/>
+      <c r="F21" s="562"/>
+      <c r="G21" s="562"/>
+      <c r="H21" s="562"/>
+      <c r="I21" s="562"/>
+      <c r="J21" s="562"/>
+      <c r="K21" s="562"/>
+      <c r="L21" s="562"/>
+      <c r="M21" s="562"/>
+      <c r="N21" s="563"/>
     </row>
     <row r="22" spans="1:14" s="192" customFormat="1" ht="15.75">
       <c r="A22" s="197" t="s">
@@ -9687,11 +9687,11 @@
       <c r="K23" s="196" t="s">
         <v>409</v>
       </c>
-      <c r="L23" s="558" t="s">
+      <c r="L23" s="559" t="s">
         <v>830</v>
       </c>
-      <c r="M23" s="558"/>
-      <c r="N23" s="559"/>
+      <c r="M23" s="559"/>
+      <c r="N23" s="560"/>
     </row>
     <row r="24" spans="1:14" s="192" customFormat="1" ht="15.75">
       <c r="A24" s="192" t="s">
@@ -9969,14 +9969,14 @@
       </c>
       <c r="B33" s="213"/>
       <c r="C33" s="199"/>
-      <c r="E33" s="553" t="s">
+      <c r="E33" s="554" t="s">
         <v>485</v>
       </c>
-      <c r="F33" s="554"/>
-      <c r="G33" s="554"/>
-      <c r="H33" s="554"/>
-      <c r="I33" s="554"/>
-      <c r="J33" s="555"/>
+      <c r="F33" s="555"/>
+      <c r="G33" s="555"/>
+      <c r="H33" s="555"/>
+      <c r="I33" s="555"/>
+      <c r="J33" s="556"/>
     </row>
     <row r="34" spans="1:14" s="192" customFormat="1" ht="15.75">
       <c r="A34" s="197" t="s">
@@ -10002,10 +10002,10 @@
         <f>'Cost of capital worksheet'!B13</f>
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C35" s="556" t="s">
+      <c r="C35" s="557" t="s">
         <v>744</v>
       </c>
-      <c r="D35" s="557"/>
+      <c r="D35" s="558"/>
       <c r="E35" s="205" t="s">
         <v>488</v>
       </c>
@@ -10116,10 +10116,10 @@
       <c r="N42" s="192"/>
     </row>
     <row r="43" spans="1:14" s="192" customFormat="1" ht="15.75">
-      <c r="A43" s="549" t="s">
+      <c r="A43" s="550" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="549"/>
+      <c r="B43" s="550"/>
       <c r="C43" s="221"/>
       <c r="D43" s="199"/>
       <c r="N43" s="219"/>
@@ -10548,34 +10548,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="663" t="s">
+      <c r="A1" s="664" t="s">
         <v>772</v>
       </c>
-      <c r="B1" s="664"/>
-      <c r="C1" s="664"/>
-      <c r="D1" s="664"/>
-      <c r="E1" s="664"/>
-      <c r="F1" s="664"/>
-      <c r="G1" s="664"/>
-      <c r="H1" s="664"/>
-      <c r="I1" s="664"/>
-      <c r="J1" s="664"/>
-      <c r="K1" s="664"/>
-      <c r="L1" s="665"/>
+      <c r="B1" s="665"/>
+      <c r="C1" s="665"/>
+      <c r="D1" s="665"/>
+      <c r="E1" s="665"/>
+      <c r="F1" s="665"/>
+      <c r="G1" s="665"/>
+      <c r="H1" s="665"/>
+      <c r="I1" s="665"/>
+      <c r="J1" s="665"/>
+      <c r="K1" s="665"/>
+      <c r="L1" s="666"/>
     </row>
     <row r="2" spans="1:20" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="666"/>
-      <c r="B2" s="667"/>
-      <c r="C2" s="667"/>
-      <c r="D2" s="667"/>
-      <c r="E2" s="667"/>
-      <c r="F2" s="667"/>
-      <c r="G2" s="667"/>
-      <c r="H2" s="667"/>
-      <c r="I2" s="667"/>
-      <c r="J2" s="667"/>
-      <c r="K2" s="667"/>
-      <c r="L2" s="668"/>
+      <c r="A2" s="667"/>
+      <c r="B2" s="668"/>
+      <c r="C2" s="668"/>
+      <c r="D2" s="668"/>
+      <c r="E2" s="668"/>
+      <c r="F2" s="668"/>
+      <c r="G2" s="668"/>
+      <c r="H2" s="668"/>
+      <c r="I2" s="668"/>
+      <c r="J2" s="668"/>
+      <c r="K2" s="668"/>
+      <c r="L2" s="669"/>
     </row>
     <row r="4" spans="1:20" ht="15.75">
       <c r="A4" s="239" t="s">
@@ -10944,19 +10944,19 @@
       <c r="G19" s="191"/>
       <c r="H19" s="191"/>
       <c r="I19" s="191"/>
-      <c r="J19" s="660" t="s">
+      <c r="J19" s="661" t="s">
         <v>620</v>
       </c>
-      <c r="K19" s="661"/>
-      <c r="L19" s="661"/>
-      <c r="M19" s="661"/>
-      <c r="N19" s="661"/>
-      <c r="O19" s="661"/>
-      <c r="P19" s="661"/>
-      <c r="Q19" s="661"/>
-      <c r="R19" s="661"/>
-      <c r="S19" s="661"/>
-      <c r="T19" s="662"/>
+      <c r="K19" s="662"/>
+      <c r="L19" s="662"/>
+      <c r="M19" s="662"/>
+      <c r="N19" s="662"/>
+      <c r="O19" s="662"/>
+      <c r="P19" s="662"/>
+      <c r="Q19" s="662"/>
+      <c r="R19" s="662"/>
+      <c r="S19" s="662"/>
+      <c r="T19" s="663"/>
     </row>
     <row r="20" spans="1:20" s="74" customFormat="1" ht="15.75">
       <c r="A20" s="318" t="s">
@@ -13885,13 +13885,13 @@
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="669" t="s">
+      <c r="H3" s="670" t="s">
         <v>722</v>
       </c>
-      <c r="I3" s="670"/>
-      <c r="J3" s="670"/>
-      <c r="K3" s="670"/>
-      <c r="L3" s="671"/>
+      <c r="I3" s="671"/>
+      <c r="J3" s="671"/>
+      <c r="K3" s="671"/>
+      <c r="L3" s="672"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="12.75">
       <c r="A4" s="6" t="s">
@@ -13900,21 +13900,21 @@
       <c r="E4" s="19">
         <v>295</v>
       </c>
-      <c r="H4" s="672"/>
-      <c r="I4" s="673"/>
-      <c r="J4" s="673"/>
-      <c r="K4" s="673"/>
-      <c r="L4" s="674"/>
+      <c r="H4" s="673"/>
+      <c r="I4" s="674"/>
+      <c r="J4" s="674"/>
+      <c r="K4" s="674"/>
+      <c r="L4" s="675"/>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="12.75">
       <c r="A5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="672"/>
-      <c r="I5" s="673"/>
-      <c r="J5" s="673"/>
-      <c r="K5" s="673"/>
-      <c r="L5" s="674"/>
+      <c r="H5" s="673"/>
+      <c r="I5" s="674"/>
+      <c r="J5" s="674"/>
+      <c r="K5" s="674"/>
+      <c r="L5" s="675"/>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="12.75">
       <c r="A6" s="16" t="s">
@@ -13926,11 +13926,11 @@
       <c r="C6" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="672"/>
-      <c r="I6" s="673"/>
-      <c r="J6" s="673"/>
-      <c r="K6" s="673"/>
-      <c r="L6" s="674"/>
+      <c r="H6" s="673"/>
+      <c r="I6" s="674"/>
+      <c r="J6" s="674"/>
+      <c r="K6" s="674"/>
+      <c r="L6" s="675"/>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="12.75">
       <c r="A7" s="16">
@@ -13939,11 +13939,11 @@
       <c r="B7" s="169">
         <v>287</v>
       </c>
-      <c r="H7" s="672"/>
-      <c r="I7" s="673"/>
-      <c r="J7" s="673"/>
-      <c r="K7" s="673"/>
-      <c r="L7" s="674"/>
+      <c r="H7" s="673"/>
+      <c r="I7" s="674"/>
+      <c r="J7" s="674"/>
+      <c r="K7" s="674"/>
+      <c r="L7" s="675"/>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="12.75">
       <c r="A8" s="16">
@@ -13952,11 +13952,11 @@
       <c r="B8" s="169">
         <v>235</v>
       </c>
-      <c r="H8" s="672"/>
-      <c r="I8" s="673"/>
-      <c r="J8" s="673"/>
-      <c r="K8" s="673"/>
-      <c r="L8" s="674"/>
+      <c r="H8" s="673"/>
+      <c r="I8" s="674"/>
+      <c r="J8" s="674"/>
+      <c r="K8" s="674"/>
+      <c r="L8" s="675"/>
     </row>
     <row r="9" spans="1:12" s="6" customFormat="1" ht="12.75">
       <c r="A9" s="16">
@@ -13965,11 +13965,11 @@
       <c r="B9" s="169">
         <v>194</v>
       </c>
-      <c r="H9" s="672"/>
-      <c r="I9" s="673"/>
-      <c r="J9" s="673"/>
-      <c r="K9" s="673"/>
-      <c r="L9" s="674"/>
+      <c r="H9" s="673"/>
+      <c r="I9" s="674"/>
+      <c r="J9" s="674"/>
+      <c r="K9" s="674"/>
+      <c r="L9" s="675"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="12.75">
       <c r="A10" s="16">
@@ -13978,11 +13978,11 @@
       <c r="B10" s="169">
         <v>151</v>
       </c>
-      <c r="H10" s="672"/>
-      <c r="I10" s="673"/>
-      <c r="J10" s="673"/>
-      <c r="K10" s="673"/>
-      <c r="L10" s="674"/>
+      <c r="H10" s="673"/>
+      <c r="I10" s="674"/>
+      <c r="J10" s="674"/>
+      <c r="K10" s="674"/>
+      <c r="L10" s="675"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="13.5" thickBot="1">
       <c r="A11" s="16">
@@ -13991,11 +13991,11 @@
       <c r="B11" s="169">
         <v>98</v>
       </c>
-      <c r="H11" s="675"/>
-      <c r="I11" s="676"/>
-      <c r="J11" s="676"/>
-      <c r="K11" s="676"/>
-      <c r="L11" s="677"/>
+      <c r="H11" s="676"/>
+      <c r="I11" s="677"/>
+      <c r="J11" s="677"/>
+      <c r="K11" s="677"/>
+      <c r="L11" s="678"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="12.75">
       <c r="A12" s="16" t="s">
@@ -14241,53 +14241,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="691" t="s">
+      <c r="A1" s="692" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="691"/>
-      <c r="C1" s="691"/>
-      <c r="D1" s="691"/>
-      <c r="E1" s="691"/>
-      <c r="F1" s="691"/>
-      <c r="G1" s="691"/>
-      <c r="H1" s="691"/>
-      <c r="I1" s="691"/>
-      <c r="J1" s="691"/>
-      <c r="K1" s="691"/>
+      <c r="B1" s="692"/>
+      <c r="C1" s="692"/>
+      <c r="D1" s="692"/>
+      <c r="E1" s="692"/>
+      <c r="F1" s="692"/>
+      <c r="G1" s="692"/>
+      <c r="H1" s="692"/>
+      <c r="I1" s="692"/>
+      <c r="J1" s="692"/>
+      <c r="K1" s="692"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="691"/>
-      <c r="B2" s="691"/>
-      <c r="C2" s="691"/>
-      <c r="D2" s="691"/>
-      <c r="E2" s="691"/>
-      <c r="F2" s="691"/>
-      <c r="G2" s="691"/>
-      <c r="H2" s="691"/>
-      <c r="I2" s="691"/>
-      <c r="J2" s="691"/>
-      <c r="K2" s="691"/>
+      <c r="A2" s="692"/>
+      <c r="B2" s="692"/>
+      <c r="C2" s="692"/>
+      <c r="D2" s="692"/>
+      <c r="E2" s="692"/>
+      <c r="F2" s="692"/>
+      <c r="G2" s="692"/>
+      <c r="H2" s="692"/>
+      <c r="I2" s="692"/>
+      <c r="J2" s="692"/>
+      <c r="K2" s="692"/>
     </row>
     <row r="3" spans="1:17" s="59" customFormat="1" ht="20.25" thickBot="1">
-      <c r="A3" s="692" t="s">
+      <c r="A3" s="693" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="692"/>
-      <c r="C3" s="692"/>
-      <c r="D3" s="692"/>
-      <c r="E3" s="692"/>
+      <c r="B3" s="693"/>
+      <c r="C3" s="693"/>
+      <c r="D3" s="693"/>
+      <c r="E3" s="693"/>
       <c r="G3" s="72" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="680" t="s">
+      <c r="A4" s="681" t="s">
         <v>861</v>
       </c>
-      <c r="B4" s="681"/>
-      <c r="C4" s="681"/>
-      <c r="D4" s="681"/>
-      <c r="E4" s="682"/>
+      <c r="B4" s="682"/>
+      <c r="C4" s="682"/>
+      <c r="D4" s="682"/>
+      <c r="E4" s="683"/>
       <c r="F4" s="59"/>
       <c r="G4" s="83" t="s">
         <v>332</v>
@@ -14306,11 +14306,11 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="683"/>
-      <c r="B5" s="684"/>
-      <c r="C5" s="684"/>
-      <c r="D5" s="684"/>
-      <c r="E5" s="685"/>
+      <c r="A5" s="684"/>
+      <c r="B5" s="685"/>
+      <c r="C5" s="685"/>
+      <c r="D5" s="685"/>
+      <c r="E5" s="686"/>
       <c r="F5" s="59"/>
       <c r="G5" s="81" t="s">
         <v>327</v>
@@ -14330,20 +14330,20 @@
         <f t="shared" ref="K5:K12" si="1">IF(J5=0,0,I5*J5)</f>
         <v>3.529695437550727E-2</v>
       </c>
-      <c r="M5" s="690" t="s">
+      <c r="M5" s="691" t="s">
         <v>529</v>
       </c>
-      <c r="N5" s="690"/>
-      <c r="O5" s="690"/>
-      <c r="P5" s="690"/>
-      <c r="Q5" s="690"/>
+      <c r="N5" s="691"/>
+      <c r="O5" s="691"/>
+      <c r="P5" s="691"/>
+      <c r="Q5" s="691"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="683"/>
-      <c r="B6" s="684"/>
-      <c r="C6" s="684"/>
-      <c r="D6" s="684"/>
-      <c r="E6" s="685"/>
+      <c r="A6" s="684"/>
+      <c r="B6" s="685"/>
+      <c r="C6" s="685"/>
+      <c r="D6" s="685"/>
+      <c r="E6" s="686"/>
       <c r="F6" s="59"/>
       <c r="G6" s="81" t="s">
         <v>251</v>
@@ -14363,18 +14363,18 @@
         <f t="shared" si="1"/>
         <v>1.1024165920261768E-4</v>
       </c>
-      <c r="M6" s="690"/>
-      <c r="N6" s="690"/>
-      <c r="O6" s="690"/>
-      <c r="P6" s="690"/>
-      <c r="Q6" s="690"/>
+      <c r="M6" s="691"/>
+      <c r="N6" s="691"/>
+      <c r="O6" s="691"/>
+      <c r="P6" s="691"/>
+      <c r="Q6" s="691"/>
     </row>
     <row r="7" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="683"/>
-      <c r="B7" s="684"/>
-      <c r="C7" s="684"/>
-      <c r="D7" s="684"/>
-      <c r="E7" s="685"/>
+      <c r="A7" s="684"/>
+      <c r="B7" s="685"/>
+      <c r="C7" s="685"/>
+      <c r="D7" s="685"/>
+      <c r="E7" s="686"/>
       <c r="F7" s="59"/>
       <c r="G7" s="81"/>
       <c r="H7" s="81"/>
@@ -14390,18 +14390,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="690"/>
-      <c r="N7" s="690"/>
-      <c r="O7" s="690"/>
-      <c r="P7" s="690"/>
-      <c r="Q7" s="690"/>
+      <c r="M7" s="691"/>
+      <c r="N7" s="691"/>
+      <c r="O7" s="691"/>
+      <c r="P7" s="691"/>
+      <c r="Q7" s="691"/>
     </row>
     <row r="8" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="683"/>
-      <c r="B8" s="684"/>
-      <c r="C8" s="684"/>
-      <c r="D8" s="684"/>
-      <c r="E8" s="685"/>
+      <c r="A8" s="684"/>
+      <c r="B8" s="685"/>
+      <c r="C8" s="685"/>
+      <c r="D8" s="685"/>
+      <c r="E8" s="686"/>
       <c r="F8" s="59"/>
       <c r="G8" s="81"/>
       <c r="H8" s="81"/>
@@ -14417,18 +14417,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M8" s="690"/>
-      <c r="N8" s="690"/>
-      <c r="O8" s="690"/>
-      <c r="P8" s="690"/>
-      <c r="Q8" s="690"/>
+      <c r="M8" s="691"/>
+      <c r="N8" s="691"/>
+      <c r="O8" s="691"/>
+      <c r="P8" s="691"/>
+      <c r="Q8" s="691"/>
     </row>
     <row r="9" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="686"/>
-      <c r="B9" s="687"/>
-      <c r="C9" s="687"/>
-      <c r="D9" s="687"/>
-      <c r="E9" s="688"/>
+      <c r="A9" s="687"/>
+      <c r="B9" s="688"/>
+      <c r="C9" s="688"/>
+      <c r="D9" s="688"/>
+      <c r="E9" s="689"/>
       <c r="F9" s="59"/>
       <c r="G9" s="81"/>
       <c r="H9" s="81"/>
@@ -14444,11 +14444,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="690"/>
-      <c r="N9" s="690"/>
-      <c r="O9" s="690"/>
-      <c r="P9" s="690"/>
-      <c r="Q9" s="690"/>
+      <c r="M9" s="691"/>
+      <c r="N9" s="691"/>
+      <c r="O9" s="691"/>
+      <c r="P9" s="691"/>
+      <c r="Q9" s="691"/>
     </row>
     <row r="10" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="185"/>
@@ -14471,11 +14471,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="690"/>
-      <c r="N10" s="690"/>
-      <c r="O10" s="690"/>
-      <c r="P10" s="690"/>
-      <c r="Q10" s="690"/>
+      <c r="M10" s="691"/>
+      <c r="N10" s="691"/>
+      <c r="O10" s="691"/>
+      <c r="P10" s="691"/>
+      <c r="Q10" s="691"/>
     </row>
     <row r="11" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="185" t="s">
@@ -14502,11 +14502,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="690"/>
-      <c r="N11" s="690"/>
-      <c r="O11" s="690"/>
-      <c r="P11" s="690"/>
-      <c r="Q11" s="690"/>
+      <c r="M11" s="691"/>
+      <c r="N11" s="691"/>
+      <c r="O11" s="691"/>
+      <c r="P11" s="691"/>
+      <c r="Q11" s="691"/>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="185" t="s">
@@ -14533,11 +14533,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="690"/>
-      <c r="N12" s="690"/>
-      <c r="O12" s="690"/>
-      <c r="P12" s="690"/>
-      <c r="Q12" s="690"/>
+      <c r="M12" s="691"/>
+      <c r="N12" s="691"/>
+      <c r="O12" s="691"/>
+      <c r="P12" s="691"/>
+      <c r="Q12" s="691"/>
     </row>
     <row r="13" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="185" t="s">
@@ -14565,11 +14565,11 @@
         <f>IF(J13=0,0,I13*J13)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="690"/>
-      <c r="N13" s="690"/>
-      <c r="O13" s="690"/>
-      <c r="P13" s="690"/>
-      <c r="Q13" s="690"/>
+      <c r="M13" s="691"/>
+      <c r="N13" s="691"/>
+      <c r="O13" s="691"/>
+      <c r="P13" s="691"/>
+      <c r="Q13" s="691"/>
     </row>
     <row r="14" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="185"/>
@@ -14592,21 +14592,21 @@
         <f>IF(J14=0,0,I14*J14)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="690"/>
-      <c r="N14" s="690"/>
-      <c r="O14" s="690"/>
-      <c r="P14" s="690"/>
-      <c r="Q14" s="690"/>
+      <c r="M14" s="691"/>
+      <c r="N14" s="691"/>
+      <c r="O14" s="691"/>
+      <c r="P14" s="691"/>
+      <c r="Q14" s="691"/>
     </row>
     <row r="15" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="693" t="s">
+      <c r="A15" s="694" t="s">
         <v>724</v>
       </c>
-      <c r="B15" s="694"/>
-      <c r="C15" s="694"/>
-      <c r="D15" s="694"/>
-      <c r="E15" s="694"/>
-      <c r="F15" s="695"/>
+      <c r="B15" s="695"/>
+      <c r="C15" s="695"/>
+      <c r="D15" s="695"/>
+      <c r="E15" s="695"/>
+      <c r="F15" s="696"/>
       <c r="G15" s="81"/>
       <c r="H15" s="81"/>
       <c r="I15" s="66">
@@ -14621,11 +14621,11 @@
         <f>IF(J15=0,0,I15*J15)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="690"/>
-      <c r="N15" s="690"/>
-      <c r="O15" s="690"/>
-      <c r="P15" s="690"/>
-      <c r="Q15" s="690"/>
+      <c r="M15" s="691"/>
+      <c r="N15" s="691"/>
+      <c r="O15" s="691"/>
+      <c r="P15" s="691"/>
+      <c r="Q15" s="691"/>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="8" t="s">
@@ -14653,11 +14653,11 @@
         <f>IF(J16=0,0,I16*J16)</f>
         <v>8.9083451973868029E-3</v>
       </c>
-      <c r="M16" s="690"/>
-      <c r="N16" s="690"/>
-      <c r="O16" s="690"/>
-      <c r="P16" s="690"/>
-      <c r="Q16" s="690"/>
+      <c r="M16" s="691"/>
+      <c r="N16" s="691"/>
+      <c r="O16" s="691"/>
+      <c r="P16" s="691"/>
+      <c r="Q16" s="691"/>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="11" t="s">
@@ -14675,11 +14675,11 @@
         <f>IF(J17=0,0,I17*J17)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="690"/>
-      <c r="N17" s="690"/>
-      <c r="O17" s="690"/>
-      <c r="P17" s="690"/>
-      <c r="Q17" s="690"/>
+      <c r="M17" s="691"/>
+      <c r="N17" s="691"/>
+      <c r="O17" s="691"/>
+      <c r="P17" s="691"/>
+      <c r="Q17" s="691"/>
     </row>
     <row r="18" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -14705,11 +14705,11 @@
         <f>SUM(K5:K17)</f>
         <v>4.4315541232096689E-2</v>
       </c>
-      <c r="M18" s="690"/>
-      <c r="N18" s="690"/>
-      <c r="O18" s="690"/>
-      <c r="P18" s="690"/>
-      <c r="Q18" s="690"/>
+      <c r="M18" s="691"/>
+      <c r="N18" s="691"/>
+      <c r="O18" s="691"/>
+      <c r="P18" s="691"/>
+      <c r="Q18" s="691"/>
     </row>
     <row r="19" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -14722,11 +14722,11 @@
       <c r="G19" s="72" t="s">
         <v>420</v>
       </c>
-      <c r="M19" s="690"/>
-      <c r="N19" s="690"/>
-      <c r="O19" s="690"/>
-      <c r="P19" s="690"/>
-      <c r="Q19" s="690"/>
+      <c r="M19" s="691"/>
+      <c r="N19" s="691"/>
+      <c r="O19" s="691"/>
+      <c r="P19" s="691"/>
+      <c r="Q19" s="691"/>
     </row>
     <row r="20" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="G20" s="12" t="s">
@@ -15335,11 +15335,11 @@
         <f>IF(I44=0,0,VLOOKUP(G44,'Industry Averages(US)'!$A$2:$S$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M44" s="689" t="s">
+      <c r="M44" s="690" t="s">
         <v>746</v>
       </c>
-      <c r="N44" s="689"/>
-      <c r="O44" s="689"/>
+      <c r="N44" s="690"/>
+      <c r="O44" s="690"/>
     </row>
     <row r="45" spans="1:15" ht="12.75">
       <c r="A45" s="6" t="s">
@@ -15371,9 +15371,9 @@
         <f>IF(I45=0,0,VLOOKUP(G45,'Industry Averages(US)'!$A$2:$S$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M45" s="689"/>
-      <c r="N45" s="689"/>
-      <c r="O45" s="689"/>
+      <c r="M45" s="690"/>
+      <c r="N45" s="690"/>
+      <c r="O45" s="690"/>
     </row>
     <row r="46" spans="1:15" ht="12.75">
       <c r="A46" s="6"/>
@@ -15400,9 +15400,9 @@
         <f>IF(I46=0,0,VLOOKUP(G46,'Industry Averages(US)'!$A$2:$S$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M46" s="689"/>
-      <c r="N46" s="689"/>
-      <c r="O46" s="689"/>
+      <c r="M46" s="690"/>
+      <c r="N46" s="690"/>
+      <c r="O46" s="690"/>
     </row>
     <row r="47" spans="1:15" ht="12.75">
       <c r="A47" s="11" t="s">
@@ -15431,9 +15431,9 @@
         <f>IF(I47=0,0,VLOOKUP(G47,'Industry Averages(US)'!$A$2:$S$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M47" s="689"/>
-      <c r="N47" s="689"/>
-      <c r="O47" s="689"/>
+      <c r="M47" s="690"/>
+      <c r="N47" s="690"/>
+      <c r="O47" s="690"/>
     </row>
     <row r="48" spans="1:15" ht="12.75">
       <c r="A48" s="6" t="s">
@@ -15466,9 +15466,9 @@
         <f>L36*(J36/J48)+L37*J37/J48+L38*J38/J48+L39*J39/J48+L40*J40/J48+L41*J41/J48+L42*J42/J48+L43*J43/J48+L44*J44/J48+L45*J45/J48+L46*J46/J48+L47*J47/J48</f>
         <v>8.6417060489087774E-2</v>
       </c>
-      <c r="M48" s="689"/>
-      <c r="N48" s="689"/>
-      <c r="O48" s="689"/>
+      <c r="M48" s="690"/>
+      <c r="N48" s="690"/>
+      <c r="O48" s="690"/>
     </row>
     <row r="49" spans="1:15" ht="12.75">
       <c r="A49" s="6" t="s">
@@ -15809,11 +15809,11 @@
         <f>IF(I60=0,0,VLOOKUP(G60,'Industry Average Beta (Global)'!$A$2:$M$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M60" s="689" t="s">
+      <c r="M60" s="690" t="s">
         <v>860</v>
       </c>
-      <c r="N60" s="689"/>
-      <c r="O60" s="689"/>
+      <c r="N60" s="690"/>
+      <c r="O60" s="690"/>
     </row>
     <row r="61" spans="1:15" ht="13.5" thickBot="1">
       <c r="A61" s="12" t="s">
@@ -15854,9 +15854,9 @@
         <f>IF(I61=0,0,VLOOKUP(G61,'Industry Average Beta (Global)'!$A$2:$M$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M61" s="689"/>
-      <c r="N61" s="689"/>
-      <c r="O61" s="689"/>
+      <c r="M61" s="690"/>
+      <c r="N61" s="690"/>
+      <c r="O61" s="690"/>
     </row>
     <row r="62" spans="1:15" ht="13.5" thickBot="1">
       <c r="A62" s="12" t="s">
@@ -15897,9 +15897,9 @@
         <f>IF(I62=0,0,VLOOKUP(G62,'Industry Average Beta (Global)'!$A$2:$M$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M62" s="689"/>
-      <c r="N62" s="689"/>
-      <c r="O62" s="689"/>
+      <c r="M62" s="690"/>
+      <c r="N62" s="690"/>
+      <c r="O62" s="690"/>
     </row>
     <row r="63" spans="1:15" ht="12.75">
       <c r="G63" s="81"/>
@@ -15920,9 +15920,9 @@
         <f>IF(I63=0,0,VLOOKUP(G63,'Industry Average Beta (Global)'!$A$2:$M$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M63" s="689"/>
-      <c r="N63" s="689"/>
-      <c r="O63" s="689"/>
+      <c r="M63" s="690"/>
+      <c r="N63" s="690"/>
+      <c r="O63" s="690"/>
     </row>
     <row r="64" spans="1:15" ht="13.5" thickBot="1">
       <c r="G64" s="89" t="s">
@@ -15945,19 +15945,19 @@
         <f>L52*(J52/J64)+L53*J53/J64+L54*J54/J64+L55*J55/J64+L56*J56/J64+L57*J57/J64+L58*J58/J64+L59*J59/J64+L60*J60/J64+L61*J61/J64+L62*J62/J64+L63*J63/J64</f>
         <v>0.10952076242670084</v>
       </c>
-      <c r="M64" s="689"/>
-      <c r="N64" s="689"/>
-      <c r="O64" s="689"/>
+      <c r="M64" s="690"/>
+      <c r="N64" s="690"/>
+      <c r="O64" s="690"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A65" s="696" t="s">
+      <c r="A65" s="697" t="s">
         <v>725</v>
       </c>
-      <c r="B65" s="697"/>
-      <c r="C65" s="697"/>
-      <c r="D65" s="697"/>
-      <c r="E65" s="697"/>
-      <c r="F65" s="698"/>
+      <c r="B65" s="698"/>
+      <c r="C65" s="698"/>
+      <c r="D65" s="698"/>
+      <c r="E65" s="698"/>
+      <c r="F65" s="699"/>
     </row>
     <row r="66" spans="1:6" ht="13.5" thickBot="1">
       <c r="A66" s="6" t="s">
@@ -15978,14 +15978,14 @@
     </row>
     <row r="68" spans="1:6" ht="12.75" thickBot="1"/>
     <row r="69" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A69" s="696" t="s">
+      <c r="A69" s="697" t="s">
         <v>728</v>
       </c>
-      <c r="B69" s="699"/>
-      <c r="C69" s="697"/>
-      <c r="D69" s="697"/>
-      <c r="E69" s="697"/>
-      <c r="F69" s="698"/>
+      <c r="B69" s="700"/>
+      <c r="C69" s="698"/>
+      <c r="D69" s="698"/>
+      <c r="E69" s="698"/>
+      <c r="F69" s="699"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
@@ -16158,22 +16158,22 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="678" t="s">
+      <c r="A80" s="679" t="s">
         <v>740</v>
       </c>
-      <c r="B80" s="679"/>
-      <c r="C80" s="679"/>
-      <c r="D80" s="679"/>
-      <c r="E80" s="679"/>
-      <c r="F80" s="679"/>
+      <c r="B80" s="680"/>
+      <c r="C80" s="680"/>
+      <c r="D80" s="680"/>
+      <c r="E80" s="680"/>
+      <c r="F80" s="680"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="679"/>
-      <c r="B81" s="679"/>
-      <c r="C81" s="679"/>
-      <c r="D81" s="679"/>
-      <c r="E81" s="679"/>
-      <c r="F81" s="679"/>
+      <c r="A81" s="680"/>
+      <c r="B81" s="680"/>
+      <c r="C81" s="680"/>
+      <c r="D81" s="680"/>
+      <c r="E81" s="680"/>
+      <c r="F81" s="680"/>
     </row>
     <row r="84" spans="1:6">
       <c r="B84" s="394"/>
@@ -16336,19 +16336,19 @@
     </row>
     <row r="3" spans="1:11" ht="12.75" thickBot="1"/>
     <row r="4" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A4" s="700" t="s">
+      <c r="A4" s="701" t="s">
         <v>620</v>
       </c>
-      <c r="B4" s="701"/>
-      <c r="C4" s="701"/>
-      <c r="D4" s="701"/>
-      <c r="E4" s="701"/>
-      <c r="F4" s="701"/>
-      <c r="G4" s="701"/>
-      <c r="H4" s="701"/>
-      <c r="I4" s="701"/>
-      <c r="J4" s="701"/>
-      <c r="K4" s="702"/>
+      <c r="B4" s="702"/>
+      <c r="C4" s="702"/>
+      <c r="D4" s="702"/>
+      <c r="E4" s="702"/>
+      <c r="F4" s="702"/>
+      <c r="G4" s="702"/>
+      <c r="H4" s="702"/>
+      <c r="I4" s="702"/>
+      <c r="J4" s="702"/>
+      <c r="K4" s="703"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="158" t="s">
@@ -16641,18 +16641,18 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="O17" s="706" t="s">
+      <c r="O17" s="707" t="s">
         <v>769</v>
       </c>
-      <c r="P17" s="706"/>
-      <c r="Q17" s="706"/>
-      <c r="R17" s="706"/>
-      <c r="S17" s="706"/>
-      <c r="T17" s="706"/>
-      <c r="U17" s="706"/>
-      <c r="V17" s="706"/>
-      <c r="W17" s="706"/>
-      <c r="X17" s="706"/>
+      <c r="P17" s="707"/>
+      <c r="Q17" s="707"/>
+      <c r="R17" s="707"/>
+      <c r="S17" s="707"/>
+      <c r="T17" s="707"/>
+      <c r="U17" s="707"/>
+      <c r="V17" s="707"/>
+      <c r="W17" s="707"/>
+      <c r="X17" s="707"/>
     </row>
     <row r="18" spans="1:24" ht="15.75">
       <c r="A18" s="233"/>
@@ -16719,7 +16719,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="16.149999999999999" customHeight="1">
-      <c r="A19" s="703" t="s">
+      <c r="A19" s="704" t="s">
         <v>762</v>
       </c>
       <c r="B19" s="238">
@@ -16800,7 +16800,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75">
-      <c r="A20" s="704"/>
+      <c r="A20" s="705"/>
       <c r="B20" s="238">
         <v>1</v>
       </c>
@@ -16879,7 +16879,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75">
-      <c r="A21" s="704"/>
+      <c r="A21" s="705"/>
       <c r="B21" s="238">
         <v>2</v>
       </c>
@@ -16958,7 +16958,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75">
-      <c r="A22" s="704"/>
+      <c r="A22" s="705"/>
       <c r="B22" s="238">
         <v>3</v>
       </c>
@@ -17037,7 +17037,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75">
-      <c r="A23" s="704"/>
+      <c r="A23" s="705"/>
       <c r="B23" s="238">
         <v>4</v>
       </c>
@@ -17116,7 +17116,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75">
-      <c r="A24" s="704"/>
+      <c r="A24" s="705"/>
       <c r="B24" s="238">
         <v>5</v>
       </c>
@@ -17195,7 +17195,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75">
-      <c r="A25" s="704"/>
+      <c r="A25" s="705"/>
       <c r="B25" s="238">
         <v>6</v>
       </c>
@@ -17274,7 +17274,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75">
-      <c r="A26" s="704"/>
+      <c r="A26" s="705"/>
       <c r="B26" s="238">
         <v>7</v>
       </c>
@@ -17353,7 +17353,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75">
-      <c r="A27" s="704"/>
+      <c r="A27" s="705"/>
       <c r="B27" s="238">
         <v>8</v>
       </c>
@@ -17432,7 +17432,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75">
-      <c r="A28" s="705"/>
+      <c r="A28" s="706"/>
       <c r="B28" s="238">
         <v>9</v>
       </c>
@@ -38686,34 +38686,34 @@
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15">
       <c r="A1" s="347"/>
       <c r="B1" s="151"/>
-      <c r="C1" s="707" t="s">
+      <c r="C1" s="708" t="s">
         <v>821</v>
       </c>
-      <c r="D1" s="707"/>
-      <c r="E1" s="707"/>
-      <c r="F1" s="707" t="s">
+      <c r="D1" s="708"/>
+      <c r="E1" s="708"/>
+      <c r="F1" s="708" t="s">
         <v>822</v>
       </c>
-      <c r="G1" s="707"/>
-      <c r="H1" s="707"/>
-      <c r="I1" s="708" t="s">
+      <c r="G1" s="708"/>
+      <c r="H1" s="708"/>
+      <c r="I1" s="709" t="s">
         <v>823</v>
       </c>
-      <c r="J1" s="708"/>
-      <c r="K1" s="708"/>
-      <c r="L1" s="707" t="s">
+      <c r="J1" s="709"/>
+      <c r="K1" s="709"/>
+      <c r="L1" s="708" t="s">
         <v>534</v>
       </c>
-      <c r="M1" s="707"/>
-      <c r="N1" s="707"/>
+      <c r="M1" s="708"/>
+      <c r="N1" s="708"/>
       <c r="O1" s="151" t="s">
         <v>447</v>
       </c>
-      <c r="P1" s="707" t="s">
+      <c r="P1" s="708" t="s">
         <v>824</v>
       </c>
-      <c r="Q1" s="707"/>
-      <c r="R1" s="707"/>
+      <c r="Q1" s="708"/>
+      <c r="R1" s="708"/>
     </row>
     <row r="2" spans="1:20" ht="30">
       <c r="A2" s="345" t="s">
@@ -44670,38 +44670,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="711" t="s">
         <v>899</v>
       </c>
-      <c r="B1" s="711"/>
-      <c r="C1" s="711"/>
-      <c r="D1" s="711"/>
-      <c r="E1" s="711"/>
-      <c r="F1" s="712"/>
+      <c r="B1" s="712"/>
+      <c r="C1" s="712"/>
+      <c r="D1" s="712"/>
+      <c r="E1" s="712"/>
+      <c r="F1" s="713"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="713"/>
-      <c r="B2" s="714"/>
-      <c r="C2" s="714"/>
-      <c r="D2" s="714"/>
-      <c r="E2" s="714"/>
-      <c r="F2" s="715"/>
+      <c r="A2" s="714"/>
+      <c r="B2" s="715"/>
+      <c r="C2" s="715"/>
+      <c r="D2" s="715"/>
+      <c r="E2" s="715"/>
+      <c r="F2" s="716"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="713"/>
-      <c r="B3" s="714"/>
-      <c r="C3" s="714"/>
-      <c r="D3" s="714"/>
-      <c r="E3" s="714"/>
-      <c r="F3" s="715"/>
+      <c r="A3" s="714"/>
+      <c r="B3" s="715"/>
+      <c r="C3" s="715"/>
+      <c r="D3" s="715"/>
+      <c r="E3" s="715"/>
+      <c r="F3" s="716"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" thickBot="1">
-      <c r="A4" s="716"/>
-      <c r="B4" s="717"/>
-      <c r="C4" s="717"/>
-      <c r="D4" s="717"/>
-      <c r="E4" s="717"/>
-      <c r="F4" s="718"/>
+      <c r="A4" s="717"/>
+      <c r="B4" s="718"/>
+      <c r="C4" s="718"/>
+      <c r="D4" s="718"/>
+      <c r="E4" s="718"/>
+      <c r="F4" s="719"/>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="80" t="s">
@@ -44937,7 +44937,7 @@
       <c r="B23" s="143">
         <v>139.4</v>
       </c>
-      <c r="C23" s="709" t="s">
+      <c r="C23" s="710" t="s">
         <v>531</v>
       </c>
       <c r="D23" s="99" t="s">
@@ -44952,7 +44952,7 @@
       <c r="B24" s="143">
         <v>145.18</v>
       </c>
-      <c r="C24" s="709"/>
+      <c r="C24" s="710"/>
       <c r="D24" s="99" t="s">
         <v>88</v>
       </c>
@@ -44965,7 +44965,7 @@
       <c r="B25" s="143">
         <v>156.53</v>
       </c>
-      <c r="C25" s="709"/>
+      <c r="C25" s="710"/>
       <c r="D25" s="99" t="s">
         <v>88</v>
       </c>
@@ -44978,7 +44978,7 @@
       <c r="B26" s="143">
         <v>151.19999999999999</v>
       </c>
-      <c r="C26" s="709"/>
+      <c r="C26" s="710"/>
       <c r="D26" s="99" t="s">
         <v>88</v>
       </c>
@@ -44991,7 +44991,7 @@
       <c r="B27" s="142">
         <v>943.63</v>
       </c>
-      <c r="C27" s="709"/>
+      <c r="C27" s="710"/>
       <c r="D27" s="99" t="s">
         <v>88</v>
       </c>
@@ -44999,7 +44999,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="94"/>
-      <c r="C28" s="709"/>
+      <c r="C28" s="710"/>
     </row>
     <row r="30" spans="1:5" ht="12.75">
       <c r="A30" s="35" t="s">
@@ -45914,11 +45914,11 @@
         <f>IF('Input sheet'!B70="YES",'Input sheet'!B18-'Input sheet'!B71*('Input sheet'!B24-'Input sheet'!B72),'Input sheet'!B18)</f>
         <v>86780</v>
       </c>
-      <c r="D27" s="573" t="s">
+      <c r="D27" s="574" t="s">
         <v>980</v>
       </c>
-      <c r="E27" s="573"/>
-      <c r="F27" s="573"/>
+      <c r="E27" s="574"/>
+      <c r="F27" s="574"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="30" t="s">
@@ -45928,9 +45928,9 @@
         <f>'Input sheet'!B19</f>
         <v>2954</v>
       </c>
-      <c r="D28" s="573"/>
-      <c r="E28" s="573"/>
-      <c r="F28" s="573"/>
+      <c r="D28" s="574"/>
+      <c r="E28" s="574"/>
+      <c r="F28" s="574"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="30" t="s">
@@ -45940,9 +45940,9 @@
         <f>B24-B25-B26+B27+B28</f>
         <v>1089012.4842339053</v>
       </c>
-      <c r="D29" s="573"/>
-      <c r="E29" s="573"/>
-      <c r="F29" s="573"/>
+      <c r="D29" s="574"/>
+      <c r="E29" s="574"/>
+      <c r="F29" s="574"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="30" t="s">
@@ -45952,9 +45952,9 @@
         <f>IF('Input sheet'!B37="No",0,'Option value'!B29)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="573"/>
-      <c r="E30" s="573"/>
-      <c r="F30" s="573"/>
+      <c r="D30" s="574"/>
+      <c r="E30" s="574"/>
+      <c r="F30" s="574"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="30" t="s">
@@ -45964,9 +45964,9 @@
         <f>B29-B30</f>
         <v>1089012.4842339053</v>
       </c>
-      <c r="D31" s="573"/>
-      <c r="E31" s="573"/>
-      <c r="F31" s="573"/>
+      <c r="D31" s="574"/>
+      <c r="E31" s="574"/>
+      <c r="F31" s="574"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="30" t="s">
@@ -45976,9 +45976,9 @@
         <f>'Input sheet'!B21</f>
         <v>10492</v>
       </c>
-      <c r="D32" s="573"/>
-      <c r="E32" s="573"/>
-      <c r="F32" s="573"/>
+      <c r="D32" s="574"/>
+      <c r="E32" s="574"/>
+      <c r="F32" s="574"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="30" t="s">
@@ -46417,7 +46417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D4BACB-B9D1-430E-B39D-54174337BC3C}">
   <dimension ref="T2:V8"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -46497,7 +46497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC55BBA8-6BC3-4C41-A1FD-261F94127B44}">
   <dimension ref="A1:HJ1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BV2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M15" sqref="M15"/>
       <selection pane="topRight" activeCell="M15" sqref="M15"/>
@@ -46692,10 +46692,10 @@
       <c r="BD1" s="499" t="s">
         <v>991</v>
       </c>
-      <c r="BE1" s="719" t="s">
+      <c r="BE1" s="549" t="s">
         <v>1216</v>
       </c>
-      <c r="BF1" s="719" t="s">
+      <c r="BF1" s="549" t="s">
         <v>1217</v>
       </c>
       <c r="BJ1" s="499">
@@ -46980,59 +46980,59 @@
       <c r="BH3" s="502"/>
       <c r="BI3" s="502"/>
       <c r="BJ3" s="504">
-        <f>SUM(C3:F3)</f>
+        <f t="shared" ref="BJ3:BJ14" si="1">SUM(C3:F3)</f>
         <v>149.523</v>
       </c>
       <c r="BK3" s="504">
-        <f>SUM(G3:J3)</f>
+        <f t="shared" ref="BK3:BK14" si="2">SUM(G3:J3)</f>
         <v>216.678</v>
       </c>
       <c r="BL3" s="504">
-        <f>SUM(K3:N3)</f>
+        <f t="shared" ref="BL3:BL14" si="3">SUM(K3:N3)</f>
         <v>232.846</v>
       </c>
       <c r="BM3" s="504">
-        <f>SUM(O3:R3)</f>
+        <f t="shared" ref="BM3:BM14" si="4">SUM(O3:R3)</f>
         <v>343.904</v>
       </c>
       <c r="BN3" s="504">
-        <f>SUM(S3:V3)</f>
+        <f t="shared" ref="BN3:BN14" si="5">SUM(S3:V3)</f>
         <v>357.24900000000002</v>
       </c>
       <c r="BO3" s="504">
-        <f>SUM(W3:Z3)</f>
+        <f t="shared" ref="BO3:BO14" si="6">SUM(W3:Z3)</f>
         <v>322.59100000000001</v>
       </c>
       <c r="BP3" s="504">
-        <f>SUM(AA3:AD3)</f>
+        <f t="shared" ref="BP3:BP14" si="7">SUM(AA3:AD3)</f>
         <v>286.166</v>
       </c>
       <c r="BQ3" s="504">
-        <f>SUM(AE3:AH3)</f>
+        <f t="shared" ref="BQ3:BQ14" si="8">SUM(AE3:AH3)</f>
         <v>316.15899999999999</v>
       </c>
       <c r="BR3" s="504">
-        <f>SUM(AI3:AL3)</f>
+        <f t="shared" ref="BR3:BR14" si="9">SUM(AI3:AL3)</f>
         <v>624.33299999999997</v>
       </c>
       <c r="BS3" s="504">
-        <f>SUM(AM3:AP3)</f>
+        <f t="shared" ref="BS3:BS14" si="10">SUM(AM3:AP3)</f>
         <v>774.42499999999995</v>
       </c>
       <c r="BT3" s="504">
-        <f>SUM(AQ3:AT3)</f>
+        <f t="shared" ref="BT3:BT14" si="11">SUM(AQ3:AT3)</f>
         <v>1382.049</v>
       </c>
       <c r="BU3" s="504">
-        <f>SUM(AU3:AX3)</f>
+        <f t="shared" ref="BU3:BU14" si="12">SUM(AU3:AX3)</f>
         <v>2330.8530000000001</v>
       </c>
       <c r="BV3" s="504">
-        <f>SUM(AY3:BB3)</f>
+        <f t="shared" ref="BV3:BV14" si="13">SUM(AY3:BB3)</f>
         <v>2290.7860000000001</v>
       </c>
       <c r="BW3" s="504">
-        <f>SUM(BC3:BF3)</f>
+        <f t="shared" ref="BW3:BW16" si="14">SUM(BC3:BF3)</f>
         <v>1328.5430000000001</v>
       </c>
     </row>
@@ -47222,59 +47222,59 @@
       <c r="BH4" s="502"/>
       <c r="BI4" s="502"/>
       <c r="BJ4" s="504">
-        <f>SUM(C4:F4)</f>
+        <f t="shared" si="1"/>
         <v>120.45399999999999</v>
       </c>
       <c r="BK4" s="504">
-        <f>SUM(G4:J4)</f>
+        <f t="shared" si="2"/>
         <v>161.38999999999999</v>
       </c>
       <c r="BL4" s="504">
-        <f>SUM(K4:N4)</f>
+        <f t="shared" si="3"/>
         <v>165.43</v>
       </c>
       <c r="BM4" s="504">
-        <f>SUM(O4:R4)</f>
+        <f t="shared" si="4"/>
         <v>230.86099999999999</v>
       </c>
       <c r="BN4" s="504">
-        <f>SUM(S4:V4)</f>
+        <f t="shared" si="5"/>
         <v>249.03200000000001</v>
       </c>
       <c r="BO4" s="504">
-        <f>SUM(W4:Z4)</f>
+        <f t="shared" si="6"/>
         <v>264.58300000000003</v>
       </c>
       <c r="BP4" s="504">
-        <f>SUM(AA4:AD4)</f>
+        <f t="shared" si="7"/>
         <v>230.12299999999999</v>
       </c>
       <c r="BQ4" s="504">
-        <f>SUM(AE4:AH4)</f>
+        <f t="shared" si="8"/>
         <v>221.714</v>
       </c>
       <c r="BR4" s="504">
-        <f>SUM(AI4:AL4)</f>
+        <f t="shared" si="9"/>
         <v>403.08800000000002</v>
       </c>
       <c r="BS4" s="504">
-        <f>SUM(AM4:AP4)</f>
+        <f t="shared" si="10"/>
         <v>428.44400000000002</v>
       </c>
       <c r="BT4" s="504">
-        <f>SUM(AQ4:AT4)</f>
+        <f t="shared" si="11"/>
         <v>827.62699999999995</v>
       </c>
       <c r="BU4" s="504">
-        <f>SUM(AU4:AX4)</f>
+        <f t="shared" si="12"/>
         <v>1356.258</v>
       </c>
       <c r="BV4" s="504">
-        <f>SUM(AY4:BB4)</f>
+        <f t="shared" si="13"/>
         <v>1232.3979999999999</v>
       </c>
       <c r="BW4" s="504">
-        <f>SUM(BC4:BF4)</f>
+        <f t="shared" si="14"/>
         <v>719.52700000000004</v>
       </c>
     </row>
@@ -47288,282 +47288,282 @@
         <v>2.6479999999999997</v>
       </c>
       <c r="D5" s="504">
-        <f t="shared" ref="D5:AZ5" si="1">D3-D4</f>
+        <f t="shared" ref="D5:AZ5" si="15">D3-D4</f>
         <v>4.8069999999999986</v>
       </c>
       <c r="E5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>8.5429999999999993</v>
       </c>
       <c r="F5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>13.070999999999998</v>
       </c>
       <c r="G5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>9.3070000000000022</v>
       </c>
       <c r="H5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>13.601000000000006</v>
       </c>
       <c r="I5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>16.324000000000005</v>
       </c>
       <c r="J5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>16.055999999999983</v>
       </c>
       <c r="K5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>12.201000000000001</v>
       </c>
       <c r="L5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>16.283999999999999</v>
       </c>
       <c r="M5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>17.435000000000002</v>
       </c>
       <c r="N5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>21.496000000000009</v>
       </c>
       <c r="O5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>18.655000000000001</v>
       </c>
       <c r="P5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>26.832000000000008</v>
       </c>
       <c r="Q5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>32.521000000000001</v>
       </c>
       <c r="R5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>35.034999999999997</v>
       </c>
       <c r="S5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>28.024000000000008</v>
       </c>
       <c r="T5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>33.027000000000001</v>
       </c>
       <c r="U5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>31.465999999999994</v>
       </c>
       <c r="V5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>15.700000000000017</v>
       </c>
       <c r="W5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>11.759999999999998</v>
       </c>
       <c r="X5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>14.135999999999996</v>
       </c>
       <c r="Y5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>15.878999999999991</v>
       </c>
       <c r="Z5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>16.233000000000004</v>
       </c>
       <c r="AA5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>7.0479999999999947</v>
       </c>
       <c r="AB5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>13.549999999999997</v>
       </c>
       <c r="AC5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>16.460999999999999</v>
       </c>
       <c r="AD5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>18.984000000000037</v>
       </c>
       <c r="AE5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>18.314999999999998</v>
       </c>
       <c r="AF5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>22.701000000000001</v>
       </c>
       <c r="AG5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>25.263999999999996</v>
       </c>
       <c r="AH5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>28.164999999999992</v>
       </c>
       <c r="AI5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>33.338999999999999</v>
       </c>
       <c r="AJ5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>45.318999999999988</v>
       </c>
       <c r="AK5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>64.705999999999989</v>
       </c>
       <c r="AL5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>77.880999999999972</v>
       </c>
       <c r="AM5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>80.674999999999983</v>
       </c>
       <c r="AN5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>48.387</v>
       </c>
       <c r="AO5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>94.98099999999998</v>
       </c>
       <c r="AP5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>121.93799999999999</v>
       </c>
       <c r="AQ5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>122.94900000000001</v>
       </c>
       <c r="AR5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>127.80100000000002</v>
       </c>
       <c r="AS5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>140.358</v>
       </c>
       <c r="AT5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>163.31399999999999</v>
       </c>
       <c r="AU5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>176.97299999999996</v>
       </c>
       <c r="AV5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>219.00500000000005</v>
       </c>
       <c r="AW5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>267.91599999999994</v>
       </c>
       <c r="AX5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>310.70100000000002</v>
       </c>
       <c r="AY5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>326.37099999999998</v>
       </c>
       <c r="AZ5" s="504">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>323.34200000000004</v>
       </c>
       <c r="BA5" s="504">
-        <f>BA3-BA4</f>
+        <f t="shared" ref="BA5:BF5" si="16">BA3-BA4</f>
         <v>262.01299999999998</v>
       </c>
       <c r="BB5" s="504">
-        <f>BB3-BB4</f>
+        <f t="shared" si="16"/>
         <v>146.66200000000001</v>
       </c>
       <c r="BC5" s="504">
-        <f>BC3-BC4</f>
+        <f t="shared" si="16"/>
         <v>115.50800000000001</v>
       </c>
       <c r="BD5" s="504">
-        <f>BD3-BD4</f>
+        <f t="shared" si="16"/>
         <v>137.16600000000003</v>
       </c>
       <c r="BE5" s="504">
-        <f>BE3-BE4</f>
+        <f t="shared" si="16"/>
         <v>178.17099999999999</v>
       </c>
       <c r="BF5" s="504">
-        <f>BF3-BF4</f>
+        <f t="shared" si="16"/>
         <v>178.17099999999999</v>
       </c>
       <c r="BG5" s="504"/>
       <c r="BH5" s="504"/>
       <c r="BI5" s="504"/>
       <c r="BJ5" s="504">
-        <f>SUM(C5:F5)</f>
+        <f t="shared" si="1"/>
         <v>29.068999999999996</v>
       </c>
       <c r="BK5" s="504">
-        <f>SUM(G5:J5)</f>
+        <f t="shared" si="2"/>
         <v>55.287999999999997</v>
       </c>
       <c r="BL5" s="504">
-        <f>SUM(K5:N5)</f>
+        <f t="shared" si="3"/>
         <v>67.416000000000011</v>
       </c>
       <c r="BM5" s="504">
-        <f>SUM(O5:R5)</f>
+        <f t="shared" si="4"/>
         <v>113.04300000000001</v>
       </c>
       <c r="BN5" s="504">
-        <f>SUM(S5:V5)</f>
+        <f t="shared" si="5"/>
         <v>108.21700000000001</v>
       </c>
       <c r="BO5" s="504">
-        <f>SUM(W5:Z5)</f>
+        <f t="shared" si="6"/>
         <v>58.007999999999988</v>
       </c>
       <c r="BP5" s="504">
-        <f>SUM(AA5:AD5)</f>
+        <f t="shared" si="7"/>
         <v>56.043000000000028</v>
       </c>
       <c r="BQ5" s="504">
-        <f>SUM(AE5:AH5)</f>
+        <f t="shared" si="8"/>
         <v>94.444999999999993</v>
       </c>
       <c r="BR5" s="504">
-        <f>SUM(AI5:AL5)</f>
+        <f t="shared" si="9"/>
         <v>221.24499999999995</v>
       </c>
       <c r="BS5" s="504">
-        <f>SUM(AM5:AP5)</f>
+        <f t="shared" si="10"/>
         <v>345.98099999999994</v>
       </c>
       <c r="BT5" s="504">
-        <f>SUM(AQ5:AT5)</f>
+        <f t="shared" si="11"/>
         <v>554.42200000000003</v>
       </c>
       <c r="BU5" s="504">
-        <f>SUM(AU5:AX5)</f>
+        <f t="shared" si="12"/>
         <v>974.59500000000003</v>
       </c>
       <c r="BV5" s="504">
-        <f>SUM(AY5:BB5)</f>
+        <f t="shared" si="13"/>
         <v>1058.3879999999999</v>
       </c>
       <c r="BW5" s="504">
-        <f>SUM(BC5:BF5)</f>
+        <f t="shared" si="14"/>
         <v>609.01600000000008</v>
       </c>
     </row>
@@ -47753,59 +47753,59 @@
       <c r="BH6" s="502"/>
       <c r="BI6" s="502"/>
       <c r="BJ6" s="504">
-        <f>SUM(C6:F6)</f>
+        <f t="shared" si="1"/>
         <v>25.099</v>
       </c>
       <c r="BK6" s="504">
-        <f>SUM(G6:J6)</f>
+        <f t="shared" si="2"/>
         <v>35.600999999999999</v>
       </c>
       <c r="BL6" s="504">
-        <f>SUM(K6:N6)</f>
+        <f t="shared" si="3"/>
         <v>34.524000000000001</v>
       </c>
       <c r="BM6" s="504">
-        <f>SUM(O6:R6)</f>
+        <f t="shared" si="4"/>
         <v>45.386000000000003</v>
       </c>
       <c r="BN6" s="504">
-        <f>SUM(S6:V6)</f>
+        <f t="shared" si="5"/>
         <v>50.819000000000003</v>
       </c>
       <c r="BO6" s="504">
-        <f>SUM(W6:Z6)</f>
+        <f t="shared" si="6"/>
         <v>50.703000000000003</v>
       </c>
       <c r="BP6" s="504">
-        <f>SUM(AA6:AD6)</f>
+        <f t="shared" si="7"/>
         <v>33.156999999999996</v>
       </c>
       <c r="BQ6" s="504">
-        <f>SUM(AE6:AH6)</f>
+        <f t="shared" si="8"/>
         <v>32.587000000000003</v>
       </c>
       <c r="BR6" s="504">
-        <f>SUM(AI6:AL6)</f>
+        <f t="shared" si="9"/>
         <v>40.381</v>
       </c>
       <c r="BS6" s="504">
-        <f>SUM(AM6:AP6)</f>
+        <f t="shared" si="10"/>
         <v>55.920999999999999</v>
       </c>
       <c r="BT6" s="504">
-        <f>SUM(AQ6:AT6)</f>
+        <f t="shared" si="11"/>
         <v>105.526</v>
       </c>
       <c r="BU6" s="504">
-        <f>SUM(AU6:AX6)</f>
+        <f t="shared" si="12"/>
         <v>168.846</v>
       </c>
       <c r="BV6" s="504">
-        <f>SUM(AY6:BB6)</f>
+        <f t="shared" si="13"/>
         <v>227.33599999999998</v>
       </c>
       <c r="BW6" s="504">
-        <f>SUM(BC6:BF6)</f>
+        <f t="shared" si="14"/>
         <v>198.76800000000003</v>
       </c>
     </row>
@@ -47996,59 +47996,59 @@
       <c r="BH7" s="502"/>
       <c r="BI7" s="502"/>
       <c r="BJ7" s="504">
-        <f>SUM(C7:F7)</f>
+        <f t="shared" si="1"/>
         <v>17.454000000000001</v>
       </c>
       <c r="BK7" s="504">
-        <f>SUM(G7:J7)</f>
+        <f t="shared" si="2"/>
         <v>25.972999999999999</v>
       </c>
       <c r="BL7" s="504">
-        <f>SUM(K7:N7)</f>
+        <f t="shared" si="3"/>
         <v>31.08</v>
       </c>
       <c r="BM7" s="504">
-        <f>SUM(O7:R7)</f>
+        <f t="shared" si="4"/>
         <v>41.003</v>
       </c>
       <c r="BN7" s="504">
-        <f>SUM(S7:V7)</f>
+        <f t="shared" si="5"/>
         <v>45.877000000000002</v>
       </c>
       <c r="BO7" s="504">
-        <f>SUM(W7:Z7)</f>
+        <f t="shared" si="6"/>
         <v>38.81</v>
       </c>
       <c r="BP7" s="504">
-        <f>SUM(AA7:AD7)</f>
+        <f t="shared" si="7"/>
         <v>23.126000000000001</v>
       </c>
       <c r="BQ7" s="504">
-        <f>SUM(AE7:AH7)</f>
+        <f t="shared" si="8"/>
         <v>27.047000000000001</v>
       </c>
       <c r="BR7" s="504">
-        <f>SUM(AI7:AL7)</f>
+        <f t="shared" si="9"/>
         <v>36.728000000000002</v>
       </c>
       <c r="BS7" s="504">
-        <f>SUM(AM7:AP7)</f>
+        <f t="shared" si="10"/>
         <v>52.926999999999992</v>
       </c>
       <c r="BT7" s="504">
-        <f>SUM(AQ7:AT7)</f>
+        <f t="shared" si="11"/>
         <v>128.97399999999999</v>
       </c>
       <c r="BU7" s="504">
-        <f>SUM(AU7:AX7)</f>
+        <f t="shared" si="12"/>
         <v>215.10199999999998</v>
       </c>
       <c r="BV7" s="504">
-        <f>SUM(AY7:BB7)</f>
+        <f t="shared" si="13"/>
         <v>231.79199999999997</v>
       </c>
       <c r="BW7" s="504">
-        <f>SUM(BC7:BF7)</f>
+        <f t="shared" si="14"/>
         <v>204.42399999999998</v>
       </c>
     </row>
@@ -48238,59 +48238,59 @@
       <c r="BH8" s="502"/>
       <c r="BI8" s="502"/>
       <c r="BJ8" s="504">
-        <f>SUM(C8:F8)</f>
+        <f t="shared" si="1"/>
         <v>15.228</v>
       </c>
       <c r="BK8" s="504">
-        <f>SUM(G8:J8)</f>
+        <f t="shared" si="2"/>
         <v>24.875</v>
       </c>
       <c r="BL8" s="504">
-        <f>SUM(K8:N8)</f>
+        <f t="shared" si="3"/>
         <v>23.97</v>
       </c>
       <c r="BM8" s="504">
-        <f>SUM(O8:R8)</f>
+        <f t="shared" si="4"/>
         <v>31.082999999999998</v>
       </c>
       <c r="BN8" s="504">
-        <f>SUM(S8:V8)</f>
+        <f t="shared" si="5"/>
         <v>30.83</v>
       </c>
       <c r="BO8" s="504">
-        <f>SUM(W8:Z8)</f>
+        <f t="shared" si="6"/>
         <v>27.417999999999999</v>
       </c>
       <c r="BP8" s="504">
-        <f>SUM(AA8:AD8)</f>
+        <f t="shared" si="7"/>
         <v>22.221</v>
       </c>
       <c r="BQ8" s="504">
-        <f>SUM(AE8:AH8)</f>
+        <f t="shared" si="8"/>
         <v>29.085999999999999</v>
       </c>
       <c r="BR8" s="504">
-        <f>SUM(AI8:AL8)</f>
+        <f t="shared" si="9"/>
         <v>38.808</v>
       </c>
       <c r="BS8" s="504">
-        <f>SUM(AM8:AP8)</f>
+        <f t="shared" si="10"/>
         <v>50.694000000000003</v>
       </c>
       <c r="BT8" s="504">
-        <f>SUM(AQ8:AT8)</f>
+        <f t="shared" si="11"/>
         <v>104.09</v>
       </c>
       <c r="BU8" s="504">
-        <f>SUM(AU8:AX8)</f>
+        <f t="shared" si="12"/>
         <v>140.00199999999998</v>
       </c>
       <c r="BV8" s="504">
-        <f>SUM(AY8:BB8)</f>
+        <f t="shared" si="13"/>
         <v>137.935</v>
       </c>
       <c r="BW8" s="504">
-        <f>SUM(BC8:BF8)</f>
+        <f t="shared" si="14"/>
         <v>129.11600000000001</v>
       </c>
     </row>
@@ -48475,59 +48475,59 @@
       <c r="BH9" s="502"/>
       <c r="BI9" s="502"/>
       <c r="BJ9" s="504">
-        <f>SUM(C9:F9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BK9" s="504">
-        <f>SUM(G9:J9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BL9" s="504">
-        <f>SUM(K9:N9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BM9" s="504">
-        <f>SUM(O9:R9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BN9" s="504">
-        <f>SUM(S9:V9)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BO9" s="504">
-        <f>SUM(W9:Z9)</f>
+        <f t="shared" si="6"/>
         <v>3.7770000000000001</v>
       </c>
       <c r="BP9" s="504">
-        <f>SUM(AA9:AD9)</f>
+        <f t="shared" si="7"/>
         <v>16.917000000000002</v>
       </c>
       <c r="BQ9" s="504">
-        <f>SUM(AE9:AH9)</f>
+        <f t="shared" si="8"/>
         <v>4.1289999999999996</v>
       </c>
       <c r="BR9" s="504">
-        <f>SUM(AI9:AL9)</f>
+        <f t="shared" si="9"/>
         <v>2.5990000000000002</v>
       </c>
       <c r="BS9" s="504">
-        <f>SUM(AM9:AP9)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BT9" s="504">
-        <f>SUM(AQ9:AT9)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BU9" s="504">
-        <f>SUM(AU9:AX9)</f>
+        <f t="shared" si="12"/>
         <v>2.3839999999999999</v>
       </c>
       <c r="BV9" s="504">
-        <f>SUM(AY9:BB9)</f>
+        <f t="shared" si="13"/>
         <v>15.683999999999999</v>
       </c>
       <c r="BW9" s="504">
-        <f>SUM(BC9:BF9)</f>
+        <f t="shared" si="14"/>
         <v>4.4320000000000004</v>
       </c>
     </row>
@@ -48541,35 +48541,35 @@
         <v>-8.9570000000000007</v>
       </c>
       <c r="D10" s="504">
-        <f t="shared" ref="D10:K10" si="2">D5-D6-D7-D8-D9</f>
+        <f t="shared" ref="D10:K10" si="17">D5-D6-D7-D8-D9</f>
         <v>-9.49</v>
       </c>
       <c r="E10" s="504">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>-6.4350000000000005</v>
       </c>
       <c r="F10" s="504">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>-3.8300000000000036</v>
       </c>
       <c r="G10" s="504">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>-9.2799999999999976</v>
       </c>
       <c r="H10" s="504">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>-7.5049999999999937</v>
       </c>
       <c r="I10" s="504">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>-8.1969999999999938</v>
       </c>
       <c r="J10" s="504">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>-6.1790000000000163</v>
       </c>
       <c r="K10" s="504">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>-9.7109999999999985</v>
       </c>
       <c r="L10" s="504">
@@ -48581,27 +48581,27 @@
         <v>-5.344999999999998</v>
       </c>
       <c r="N10" s="504">
-        <f t="shared" ref="N10:S10" si="3">N5-N6-N7-N8-N9</f>
+        <f t="shared" ref="N10:S10" si="18">N5-N6-N7-N8-N9</f>
         <v>-1.61099999999999</v>
       </c>
       <c r="O10" s="504">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>-5.7849999999999984</v>
       </c>
       <c r="P10" s="504">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>-2.4879999999999924</v>
       </c>
       <c r="Q10" s="504">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>1.8929999999999989</v>
       </c>
       <c r="R10" s="504">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>1.950999999999997</v>
       </c>
       <c r="S10" s="504">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>-5.5479999999999912</v>
       </c>
       <c r="T10" s="504">
@@ -48613,210 +48613,210 @@
         <v>1.7789999999999964</v>
       </c>
       <c r="V10" s="504">
-        <f t="shared" ref="V10:AL10" si="4">V5-V6-V7-V8-V9</f>
+        <f t="shared" ref="V10:AL10" si="19">V5-V6-V7-V8-V9</f>
         <v>-15.170999999999985</v>
       </c>
       <c r="W10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-19.088000000000001</v>
       </c>
       <c r="X10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-15.788000000000004</v>
       </c>
       <c r="Y10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-17.731000000000009</v>
       </c>
       <c r="Z10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-10.093000000000002</v>
       </c>
       <c r="AA10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-22.095000000000006</v>
       </c>
       <c r="AB10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-9.2440000000000033</v>
       </c>
       <c r="AC10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-5.9010000000000016</v>
       </c>
       <c r="AD10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-2.1379999999999661</v>
       </c>
       <c r="AE10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-2.4750000000000032</v>
       </c>
       <c r="AF10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.55799999999999983</v>
       </c>
       <c r="AG10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.37400000000000322</v>
       </c>
       <c r="AH10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>5.0029999999999868</v>
       </c>
       <c r="AI10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>7.1339999999999968</v>
       </c>
       <c r="AJ10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>17.446999999999989</v>
       </c>
       <c r="AK10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>33.705999999999982</v>
       </c>
       <c r="AL10" s="504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>44.441999999999965</v>
       </c>
       <c r="AM10" s="504">
-        <f t="shared" ref="AM10:AZ10" si="5">AM5-SUM(AM6:AM9)</f>
+        <f t="shared" ref="AM10:AZ10" si="20">AM5-SUM(AM6:AM9)</f>
         <v>44.711999999999982</v>
       </c>
       <c r="AN10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>10.853999999999999</v>
       </c>
       <c r="AO10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>51.758999999999979</v>
       </c>
       <c r="AP10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>79.11399999999999</v>
       </c>
       <c r="AQ10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>61.38600000000001</v>
       </c>
       <c r="AR10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>59.40000000000002</v>
       </c>
       <c r="AS10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>37.351000000000013</v>
       </c>
       <c r="AT10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>57.694999999999993</v>
       </c>
       <c r="AU10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>61.823999999999955</v>
       </c>
       <c r="AV10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>94.036000000000058</v>
       </c>
       <c r="AW10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>135.44099999999995</v>
       </c>
       <c r="AX10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>156.96000000000004</v>
       </c>
       <c r="AY10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>167.66299999999998</v>
       </c>
       <c r="AZ10" s="504">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>170.32000000000005</v>
       </c>
       <c r="BA10" s="504">
-        <f>BA5-SUM(BA6:BA9)</f>
+        <f t="shared" ref="BA10:BF10" si="21">BA5-SUM(BA6:BA9)</f>
         <v>117.88899999999998</v>
       </c>
       <c r="BB10" s="504">
-        <f>BB5-SUM(BB6:BB9)</f>
+        <f t="shared" si="21"/>
         <v>-10.230999999999966</v>
       </c>
       <c r="BC10" s="504">
-        <f>BC5-SUM(BC6:BC9)</f>
+        <f t="shared" si="21"/>
         <v>-29.09899999999999</v>
       </c>
       <c r="BD10" s="504">
-        <f>BD5-SUM(BD6:BD9)</f>
+        <f t="shared" si="21"/>
         <v>1.799000000000035</v>
       </c>
       <c r="BE10" s="504">
-        <f>BE5-SUM(BE6:BE9)</f>
+        <f t="shared" si="21"/>
         <v>49.787999999999982</v>
       </c>
       <c r="BF10" s="504">
-        <f>BF5-SUM(BF6:BF9)</f>
+        <f t="shared" si="21"/>
         <v>49.787999999999982</v>
       </c>
       <c r="BG10" s="504"/>
       <c r="BH10" s="504"/>
       <c r="BI10" s="504"/>
       <c r="BJ10" s="504">
-        <f>SUM(C10:F10)</f>
+        <f t="shared" si="1"/>
         <v>-28.71200000000001</v>
       </c>
       <c r="BK10" s="504">
-        <f>SUM(G10:J10)</f>
+        <f t="shared" si="2"/>
         <v>-31.161000000000001</v>
       </c>
       <c r="BL10" s="504">
-        <f>SUM(K10:N10)</f>
+        <f t="shared" si="3"/>
         <v>-22.157999999999987</v>
       </c>
       <c r="BM10" s="504">
-        <f>SUM(O10:R10)</f>
+        <f t="shared" si="4"/>
         <v>-4.4289999999999949</v>
       </c>
       <c r="BN10" s="504">
-        <f>SUM(S10:V10)</f>
+        <f t="shared" si="5"/>
         <v>-19.30899999999998</v>
       </c>
       <c r="BO10" s="504">
-        <f>SUM(W10:Z10)</f>
+        <f t="shared" si="6"/>
         <v>-62.700000000000017</v>
       </c>
       <c r="BP10" s="504">
-        <f>SUM(AA10:AD10)</f>
+        <f t="shared" si="7"/>
         <v>-39.377999999999972</v>
       </c>
       <c r="BQ10" s="504">
-        <f>SUM(AE10:AH10)</f>
+        <f t="shared" si="8"/>
         <v>1.5959999999999805</v>
       </c>
       <c r="BR10" s="504">
-        <f>SUM(AI10:AL10)</f>
+        <f t="shared" si="9"/>
         <v>102.72899999999993</v>
       </c>
       <c r="BS10" s="504">
-        <f>SUM(AM10:AP10)</f>
+        <f t="shared" si="10"/>
         <v>186.43899999999996</v>
       </c>
       <c r="BT10" s="504">
-        <f>SUM(AQ10:AT10)</f>
+        <f t="shared" si="11"/>
         <v>215.83200000000005</v>
       </c>
       <c r="BU10" s="504">
-        <f>SUM(AU10:AX10)</f>
+        <f t="shared" si="12"/>
         <v>448.26099999999997</v>
       </c>
       <c r="BV10" s="504">
-        <f>SUM(AY10:BB10)</f>
+        <f t="shared" si="13"/>
         <v>445.64100000000008</v>
       </c>
       <c r="BW10" s="504">
-        <f>SUM(BC10:BF10)</f>
+        <f t="shared" si="14"/>
         <v>72.27600000000001</v>
       </c>
     </row>
@@ -49028,59 +49028,59 @@
       <c r="BH11" s="502"/>
       <c r="BI11" s="502"/>
       <c r="BJ11" s="504">
-        <f>SUM(C11:F11)</f>
+        <f t="shared" si="1"/>
         <v>-3.5779999999999998</v>
       </c>
       <c r="BK11" s="504">
-        <f>SUM(G11:J11)</f>
+        <f t="shared" si="2"/>
         <v>-6.4059999999999997</v>
       </c>
       <c r="BL11" s="504">
-        <f>SUM(K11:N11)</f>
+        <f t="shared" si="3"/>
         <v>-2.8919999999999999</v>
       </c>
       <c r="BM11" s="504">
-        <f>SUM(O11:R11)</f>
+        <f t="shared" si="4"/>
         <v>-2.8570000000000002</v>
       </c>
       <c r="BN11" s="504">
-        <f>SUM(S11:V11)</f>
+        <f t="shared" si="5"/>
         <v>-1.3939999999999999</v>
       </c>
       <c r="BO11" s="504">
-        <f>SUM(W11:Z11)</f>
+        <f t="shared" si="6"/>
         <v>-3.2869999999999999</v>
       </c>
       <c r="BP11" s="504">
-        <f>SUM(AA11:AD11)</f>
+        <f t="shared" si="7"/>
         <v>-5.9630000000000001</v>
       </c>
       <c r="BQ11" s="504">
-        <f>SUM(AE11:AH11)</f>
+        <f t="shared" si="8"/>
         <v>-11.824999999999999</v>
       </c>
       <c r="BR11" s="504">
-        <f>SUM(AI11:AL11)</f>
+        <f t="shared" si="9"/>
         <v>-12.615</v>
       </c>
       <c r="BS11" s="504">
-        <f>SUM(AM11:AP11)</f>
+        <f t="shared" si="10"/>
         <v>-67.028999999999996</v>
       </c>
       <c r="BT11" s="504">
-        <f>SUM(AQ11:AT11)</f>
+        <f t="shared" si="11"/>
         <v>-94.903999999999996</v>
       </c>
       <c r="BU11" s="504">
-        <f>SUM(AU11:AX11)</f>
+        <f t="shared" si="12"/>
         <v>3.7869999999999999</v>
       </c>
       <c r="BV11" s="504">
-        <f>SUM(AY11:BB11)</f>
+        <f t="shared" si="13"/>
         <v>67.397999999999996</v>
       </c>
       <c r="BW11" s="504">
-        <f>SUM(BC11:BF11)</f>
+        <f t="shared" si="14"/>
         <v>28.927000000000007</v>
       </c>
     </row>
@@ -49094,35 +49094,35 @@
         <v>-9.2890000000000015</v>
       </c>
       <c r="D12" s="504">
-        <f t="shared" ref="D12:K12" si="6">D10+D11</f>
+        <f t="shared" ref="D12:K12" si="22">D10+D11</f>
         <v>-10.288</v>
       </c>
       <c r="E12" s="504">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-7.1760000000000002</v>
       </c>
       <c r="F12" s="504">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-5.5370000000000035</v>
       </c>
       <c r="G12" s="504">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-10.118999999999998</v>
       </c>
       <c r="H12" s="504">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-11.233999999999995</v>
       </c>
       <c r="I12" s="504">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-8.7769999999999939</v>
       </c>
       <c r="J12" s="504">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-7.4370000000000154</v>
       </c>
       <c r="K12" s="504">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-10.223999999999998</v>
       </c>
       <c r="L12" s="504">
@@ -49134,242 +49134,242 @@
         <v>-6.1599999999999984</v>
       </c>
       <c r="N12" s="504">
-        <f t="shared" ref="N12:AZ12" si="7">N10+N11</f>
+        <f t="shared" ref="N12:AZ12" si="23">N10+N11</f>
         <v>-2.3939999999999899</v>
       </c>
       <c r="O12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-6.126999999999998</v>
       </c>
       <c r="P12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-2.9159999999999924</v>
       </c>
       <c r="Q12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>0.93999999999999895</v>
       </c>
       <c r="R12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>0.81699999999999662</v>
       </c>
       <c r="S12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-6.1529999999999916</v>
       </c>
       <c r="T12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-0.37699999999999978</v>
       </c>
       <c r="U12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>0.93499999999999639</v>
       </c>
       <c r="V12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-15.107999999999985</v>
       </c>
       <c r="W12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-18.559000000000001</v>
       </c>
       <c r="X12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-16.379000000000005</v>
       </c>
       <c r="Y12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-18.612000000000009</v>
       </c>
       <c r="Z12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-12.437000000000001</v>
       </c>
       <c r="AA12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-23.174000000000007</v>
       </c>
       <c r="AB12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-11.236000000000004</v>
       </c>
       <c r="AC12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-7.038000000000002</v>
       </c>
       <c r="AD12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-3.892999999999966</v>
       </c>
       <c r="AE12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-4.8930000000000033</v>
       </c>
       <c r="AF12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-3.399</v>
       </c>
       <c r="AG12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-3.2220000000000031</v>
       </c>
       <c r="AH12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>1.2849999999999868</v>
       </c>
       <c r="AI12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>3.1129999999999969</v>
       </c>
       <c r="AJ12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>11.208999999999989</v>
       </c>
       <c r="AK12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>31.370999999999981</v>
       </c>
       <c r="AL12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>44.420999999999964</v>
       </c>
       <c r="AM12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>57.067999999999984</v>
       </c>
       <c r="AN12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-53.855000000000004</v>
       </c>
       <c r="AO12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>44.844999999999978</v>
       </c>
       <c r="AP12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>71.35199999999999</v>
       </c>
       <c r="AQ12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-1.6659999999999897</v>
       </c>
       <c r="AR12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>46.346000000000018</v>
       </c>
       <c r="AS12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>25.707000000000015</v>
       </c>
       <c r="AT12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>50.54099999999999</v>
       </c>
       <c r="AU12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>57.406999999999954</v>
       </c>
       <c r="AV12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>92.208000000000055</v>
       </c>
       <c r="AW12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>134.25499999999994</v>
       </c>
       <c r="AX12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>168.17800000000003</v>
       </c>
       <c r="AY12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>178.97299999999998</v>
       </c>
       <c r="AZ12" s="504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>184.59400000000005</v>
       </c>
       <c r="BA12" s="504">
-        <f>BA10+BA11</f>
+        <f t="shared" ref="BA12:BF12" si="24">BA10+BA11</f>
         <v>137.24499999999998</v>
       </c>
       <c r="BB12" s="504">
-        <f>BB10+BB11</f>
+        <f t="shared" si="24"/>
         <v>12.227000000000032</v>
       </c>
       <c r="BC12" s="504">
-        <f>BC10+BC11</f>
+        <f t="shared" si="24"/>
         <v>-11.498999999999988</v>
       </c>
       <c r="BD12" s="504">
-        <f>BD10+BD11</f>
+        <f t="shared" si="24"/>
         <v>11.216000000000035</v>
       </c>
       <c r="BE12" s="504">
-        <f>BE10+BE11</f>
+        <f t="shared" si="24"/>
         <v>50.742999999999981</v>
       </c>
       <c r="BF12" s="504">
-        <f>BF10+BF11</f>
+        <f t="shared" si="24"/>
         <v>50.742999999999981</v>
       </c>
       <c r="BG12" s="504"/>
       <c r="BH12" s="504"/>
       <c r="BI12" s="504"/>
       <c r="BJ12" s="504">
-        <f>SUM(C12:F12)</f>
+        <f t="shared" si="1"/>
         <v>-32.290000000000006</v>
       </c>
       <c r="BK12" s="504">
-        <f>SUM(G12:J12)</f>
+        <f t="shared" si="2"/>
         <v>-37.567000000000007</v>
       </c>
       <c r="BL12" s="504">
-        <f>SUM(K12:N12)</f>
+        <f t="shared" si="3"/>
         <v>-25.04999999999999</v>
       </c>
       <c r="BM12" s="504">
-        <f>SUM(O12:R12)</f>
+        <f t="shared" si="4"/>
         <v>-7.2859999999999943</v>
       </c>
       <c r="BN12" s="504">
-        <f>SUM(S12:V12)</f>
+        <f t="shared" si="5"/>
         <v>-20.702999999999982</v>
       </c>
       <c r="BO12" s="504">
-        <f>SUM(W12:Z12)</f>
+        <f t="shared" si="6"/>
         <v>-65.987000000000009</v>
       </c>
       <c r="BP12" s="504">
-        <f>SUM(AA12:AD12)</f>
+        <f t="shared" si="7"/>
         <v>-45.34099999999998</v>
       </c>
       <c r="BQ12" s="504">
-        <f>SUM(AE12:AH12)</f>
+        <f t="shared" si="8"/>
         <v>-10.229000000000021</v>
       </c>
       <c r="BR12" s="504">
-        <f>SUM(AI12:AL12)</f>
+        <f t="shared" si="9"/>
         <v>90.113999999999933</v>
       </c>
       <c r="BS12" s="504">
-        <f>SUM(AM12:AP12)</f>
+        <f t="shared" si="10"/>
         <v>119.40999999999994</v>
       </c>
       <c r="BT12" s="504">
-        <f>SUM(AQ12:AT12)</f>
+        <f t="shared" si="11"/>
         <v>120.92800000000003</v>
       </c>
       <c r="BU12" s="504">
-        <f>SUM(AU12:AX12)</f>
+        <f t="shared" si="12"/>
         <v>452.048</v>
       </c>
       <c r="BV12" s="504">
-        <f>SUM(AY12:BB12)</f>
+        <f t="shared" si="13"/>
         <v>513.03899999999999</v>
       </c>
       <c r="BW12" s="504">
-        <f>SUM(BC12:BF12)</f>
+        <f t="shared" si="14"/>
         <v>101.203</v>
       </c>
     </row>
@@ -49558,59 +49558,59 @@
       <c r="BH13" s="504"/>
       <c r="BI13" s="504"/>
       <c r="BJ13" s="504">
-        <f>SUM(C13:F13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BK13" s="504">
-        <f>SUM(G13:J13)</f>
+        <f t="shared" si="2"/>
         <v>-0.65100000000000002</v>
       </c>
       <c r="BL13" s="504">
-        <f>SUM(K13:N13)</f>
+        <f t="shared" si="3"/>
         <v>-0.86299999999999999</v>
       </c>
       <c r="BM13" s="504">
-        <f>SUM(O13:R13)</f>
+        <f t="shared" si="4"/>
         <v>-0.76600000000000001</v>
       </c>
       <c r="BN13" s="504">
-        <f>SUM(S13:V13)</f>
+        <f t="shared" si="5"/>
         <v>-1.379</v>
       </c>
       <c r="BO13" s="504">
-        <f>SUM(W13:Z13)</f>
+        <f t="shared" si="6"/>
         <v>-1.4750000000000001</v>
       </c>
       <c r="BP13" s="504">
-        <f>SUM(AA13:AD13)</f>
+        <f t="shared" si="7"/>
         <v>0.14900000000000002</v>
       </c>
       <c r="BQ13" s="504">
-        <f>SUM(AE13:AH13)</f>
+        <f t="shared" si="8"/>
         <v>-1.3979999999999999</v>
       </c>
       <c r="BR13" s="504">
-        <f>SUM(AI13:AL13)</f>
+        <f t="shared" si="9"/>
         <v>71.034000000000006</v>
       </c>
       <c r="BS13" s="504">
-        <f>SUM(AM13:AP13)</f>
+        <f t="shared" si="10"/>
         <v>14.585000000000001</v>
       </c>
       <c r="BT13" s="504">
-        <f>SUM(AQ13:AT13)</f>
+        <f t="shared" si="11"/>
         <v>24.520999999999997</v>
       </c>
       <c r="BU13" s="504">
-        <f>SUM(AU13:AX13)</f>
+        <f t="shared" si="12"/>
         <v>-54.685999999999993</v>
       </c>
       <c r="BV13" s="504">
-        <f>SUM(AY13:BB13)</f>
+        <f t="shared" si="13"/>
         <v>-74.203000000000003</v>
       </c>
       <c r="BW13" s="504">
-        <f>SUM(BC13:BF13)</f>
+        <f t="shared" si="14"/>
         <v>-5.9771999999999998</v>
       </c>
     </row>
@@ -49624,282 +49624,282 @@
         <v>-9.2890000000000015</v>
       </c>
       <c r="D14" s="504">
-        <f t="shared" ref="D14:BE14" si="8">D12+D13</f>
+        <f t="shared" ref="D14:BE14" si="25">D12+D13</f>
         <v>-10.288</v>
       </c>
       <c r="E14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-7.1760000000000002</v>
       </c>
       <c r="F14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-5.5370000000000035</v>
       </c>
       <c r="G14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-10.183999999999997</v>
       </c>
       <c r="H14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-11.384999999999994</v>
       </c>
       <c r="I14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-8.9069999999999947</v>
       </c>
       <c r="J14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-7.7420000000000151</v>
       </c>
       <c r="K14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-10.405999999999999</v>
       </c>
       <c r="L14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-6.3960000000000008</v>
       </c>
       <c r="M14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-6.3009999999999984</v>
       </c>
       <c r="N14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-2.8099999999999898</v>
       </c>
       <c r="O14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-6.235999999999998</v>
       </c>
       <c r="P14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-3.0309999999999926</v>
       </c>
       <c r="Q14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0.81299999999999895</v>
       </c>
       <c r="R14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0.40199999999999658</v>
       </c>
       <c r="S14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-6.3199999999999914</v>
       </c>
       <c r="T14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-0.60299999999999976</v>
       </c>
       <c r="U14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0.62399999999999634</v>
       </c>
       <c r="V14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-15.782999999999985</v>
       </c>
       <c r="W14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-18.795000000000002</v>
       </c>
       <c r="X14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-16.723000000000006</v>
       </c>
       <c r="Y14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-18.756000000000007</v>
       </c>
       <c r="Z14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-13.188000000000001</v>
       </c>
       <c r="AA14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-23.305000000000007</v>
       </c>
       <c r="AB14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-12.090000000000003</v>
       </c>
       <c r="AC14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-6.8540000000000019</v>
       </c>
       <c r="AD14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-2.9429999999999659</v>
       </c>
       <c r="AE14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-5.1280000000000037</v>
       </c>
       <c r="AF14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-3.738</v>
       </c>
       <c r="AG14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-3.4700000000000033</v>
       </c>
       <c r="AH14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0.70899999999998697</v>
       </c>
       <c r="AI14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>2.764999999999997</v>
       </c>
       <c r="AJ14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>10.61799999999999</v>
       </c>
       <c r="AK14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>31.098999999999982</v>
       </c>
       <c r="AL14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>116.66599999999997</v>
       </c>
       <c r="AM14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>68.935999999999979</v>
       </c>
       <c r="AN14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-47.294000000000004</v>
       </c>
       <c r="AO14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>39.361999999999981</v>
       </c>
       <c r="AP14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>72.990999999999985</v>
       </c>
       <c r="AQ14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>31.698000000000008</v>
       </c>
       <c r="AR14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>39.35100000000002</v>
       </c>
       <c r="AS14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>21.809000000000015</v>
       </c>
       <c r="AT14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>52.590999999999987</v>
       </c>
       <c r="AU14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>51.820999999999955</v>
       </c>
       <c r="AV14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>76.976000000000056</v>
       </c>
       <c r="AW14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>114.81199999999994</v>
       </c>
       <c r="AX14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>153.75300000000001</v>
       </c>
       <c r="AY14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>146.87299999999999</v>
       </c>
       <c r="AZ14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>157.19100000000006</v>
       </c>
       <c r="BA14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>113.85299999999998</v>
       </c>
       <c r="BB14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>20.919000000000032</v>
       </c>
       <c r="BC14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>-16.096999999999987</v>
       </c>
       <c r="BD14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>10.833000000000034</v>
       </c>
       <c r="BE14" s="504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>50.24489999999998</v>
       </c>
       <c r="BF14" s="504">
-        <f t="shared" ref="BF14" si="9">BF12+BF13</f>
+        <f t="shared" ref="BF14" si="26">BF12+BF13</f>
         <v>50.24489999999998</v>
       </c>
       <c r="BG14" s="504"/>
       <c r="BH14" s="504"/>
       <c r="BI14" s="504"/>
       <c r="BJ14" s="504">
-        <f>SUM(C14:F14)</f>
+        <f t="shared" si="1"/>
         <v>-32.290000000000006</v>
       </c>
       <c r="BK14" s="504">
-        <f>SUM(G14:J14)</f>
+        <f t="shared" si="2"/>
         <v>-38.218000000000004</v>
       </c>
       <c r="BL14" s="504">
-        <f>SUM(K14:N14)</f>
+        <f t="shared" si="3"/>
         <v>-25.91299999999999</v>
       </c>
       <c r="BM14" s="504">
-        <f>SUM(O14:R14)</f>
+        <f t="shared" si="4"/>
         <v>-8.051999999999996</v>
       </c>
       <c r="BN14" s="504">
-        <f>SUM(S14:V14)</f>
+        <f t="shared" si="5"/>
         <v>-22.081999999999979</v>
       </c>
       <c r="BO14" s="504">
-        <f>SUM(W14:Z14)</f>
+        <f t="shared" si="6"/>
         <v>-67.462000000000018</v>
       </c>
       <c r="BP14" s="504">
-        <f>SUM(AA14:AD14)</f>
+        <f t="shared" si="7"/>
         <v>-45.191999999999979</v>
       </c>
       <c r="BQ14" s="504">
-        <f>SUM(AE14:AH14)</f>
+        <f t="shared" si="8"/>
         <v>-11.627000000000018</v>
       </c>
       <c r="BR14" s="504">
-        <f>SUM(AI14:AL14)</f>
+        <f t="shared" si="9"/>
         <v>161.14799999999994</v>
       </c>
       <c r="BS14" s="504">
-        <f>SUM(AM14:AP14)</f>
+        <f t="shared" si="10"/>
         <v>133.99499999999995</v>
       </c>
       <c r="BT14" s="504">
-        <f>SUM(AQ14:AT14)</f>
+        <f t="shared" si="11"/>
         <v>145.44900000000004</v>
       </c>
       <c r="BU14" s="504">
-        <f>SUM(AU14:AX14)</f>
+        <f t="shared" si="12"/>
         <v>397.36199999999997</v>
       </c>
       <c r="BV14" s="504">
-        <f>SUM(AY14:BB14)</f>
+        <f t="shared" si="13"/>
         <v>438.83600000000007</v>
       </c>
       <c r="BW14" s="504">
-        <f>SUM(BC14:BF14)</f>
+        <f t="shared" si="14"/>
         <v>95.225800000000007</v>
       </c>
       <c r="BX14" s="502"/>
@@ -50151,55 +50151,55 @@
         <v>39.299999999999997</v>
       </c>
       <c r="BK15" s="504">
-        <f t="shared" ref="BK15:BV15" si="10">BK63</f>
+        <f t="shared" ref="BK15:BV15" si="27">BK63</f>
         <v>40.9</v>
       </c>
       <c r="BL15" s="504">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>42.1</v>
       </c>
       <c r="BM15" s="504">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>43.8</v>
       </c>
       <c r="BN15" s="504">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>45.8</v>
       </c>
       <c r="BO15" s="504">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>62.3</v>
       </c>
       <c r="BP15" s="504">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>85.9</v>
       </c>
       <c r="BQ15" s="504">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>107</v>
       </c>
       <c r="BR15" s="504">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>123.1</v>
       </c>
       <c r="BS15" s="504">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>129</v>
       </c>
       <c r="BT15" s="504">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>133.9</v>
       </c>
       <c r="BU15" s="504">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>136.4</v>
       </c>
       <c r="BV15" s="504">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>135.69999999999999</v>
       </c>
       <c r="BW15" s="504">
-        <f>SUM(BC15:BF15)</f>
+        <f t="shared" si="14"/>
         <v>542.44000000000005</v>
       </c>
     </row>
@@ -50208,83 +50208,83 @@
         <v>1059</v>
       </c>
       <c r="AM16" s="508">
-        <f t="shared" ref="AM16:AZ16" si="11">AM14/AM15</f>
+        <f t="shared" ref="AM16:AZ16" si="28">AM14/AM15</f>
         <v>0.49916005329317015</v>
       </c>
       <c r="AN16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>-0.37653559230273165</v>
       </c>
       <c r="AO16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.27754900578197705</v>
       </c>
       <c r="AP16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.49997260086307266</v>
       </c>
       <c r="AQ16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.21645429589871762</v>
       </c>
       <c r="AR16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.27803409805487078</v>
       </c>
       <c r="AS16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.15443279988670172</v>
       </c>
       <c r="AT16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.37172038450664396</v>
       </c>
       <c r="AU16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.35833269947516516</v>
       </c>
       <c r="AV16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.53557836145416637</v>
       </c>
       <c r="AW16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.7865882901029031</v>
       </c>
       <c r="AX16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>1.0508642549090637</v>
       </c>
       <c r="AY16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>1.0060759250887072</v>
       </c>
       <c r="AZ16" s="508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>1.0833436711739655</v>
       </c>
       <c r="BA16" s="508">
-        <f>BA14/BA15</f>
+        <f t="shared" ref="BA16:BF16" si="29">BA14/BA15</f>
         <v>0.79139876132153497</v>
       </c>
       <c r="BB16" s="508">
-        <f>BB14/BB15</f>
+        <f t="shared" si="29"/>
         <v>0.15027477461298108</v>
       </c>
       <c r="BC16" s="508">
-        <f>BC14/BC15</f>
+        <f t="shared" si="29"/>
         <v>-0.11845523250252031</v>
       </c>
       <c r="BD16" s="508">
-        <f>BD14/BD15</f>
+        <f t="shared" si="29"/>
         <v>7.9718303640417945E-2</v>
       </c>
       <c r="BE16" s="508">
-        <f>BE14/BE15</f>
+        <f t="shared" si="29"/>
         <v>0.37127962225391437</v>
       </c>
       <c r="BF16" s="508">
-        <f>BF14/BF15</f>
+        <f t="shared" si="29"/>
         <v>0.37127962225391437</v>
       </c>
       <c r="BG16" s="508"/>
@@ -50295,55 +50295,55 @@
         <v>-0.82162849872773558</v>
       </c>
       <c r="BK16" s="504">
-        <f t="shared" ref="BK16:BV16" si="12">BK14/BK15</f>
+        <f t="shared" ref="BK16:BV16" si="30">BK14/BK15</f>
         <v>-0.93442542787286076</v>
       </c>
       <c r="BL16" s="504">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>-0.61551068883610427</v>
       </c>
       <c r="BM16" s="504">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>-0.18383561643835608</v>
       </c>
       <c r="BN16" s="504">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>-0.48213973799126597</v>
       </c>
       <c r="BO16" s="504">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>-1.0828571428571432</v>
       </c>
       <c r="BP16" s="504">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>-0.5261001164144351</v>
       </c>
       <c r="BQ16" s="504">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>-0.10866355140186933</v>
       </c>
       <c r="BR16" s="504">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1.3090820471161653</v>
       </c>
       <c r="BS16" s="504">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1.0387209302325577</v>
       </c>
       <c r="BT16" s="504">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1.0862509335324873</v>
       </c>
       <c r="BU16" s="504">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>2.9132111436950141</v>
       </c>
       <c r="BV16" s="504">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>3.2338688282977164</v>
       </c>
       <c r="BW16" s="504">
-        <f>SUM(BC16:BF16)</f>
+        <f t="shared" si="14"/>
         <v>0.70382231564572639</v>
       </c>
     </row>
@@ -50359,7 +50359,7 @@
         <v>1.357629088494106</v>
       </c>
       <c r="H18" s="509">
-        <f t="shared" ref="H18:BF19" si="13">H3/D3-1</f>
+        <f t="shared" ref="H18:BF19" si="31">H3/D3-1</f>
         <v>0.88216409840497456</v>
       </c>
       <c r="I18" s="509">
@@ -50367,199 +50367,199 @@
         <v>0.35961813629046691</v>
       </c>
       <c r="J18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>7.5961774074981836E-3</v>
       </c>
       <c r="K18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>6.9882629107981042E-2</v>
       </c>
       <c r="L18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4.4347092302996494E-2</v>
       </c>
       <c r="M18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2.0275270090276631E-2</v>
       </c>
       <c r="N18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.16481378543635405</v>
       </c>
       <c r="O18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.2633565175417425</v>
       </c>
       <c r="P18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.40980280915295619</v>
       </c>
       <c r="Q18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.5974115978467589</v>
       </c>
       <c r="R18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.56894237652111634</v>
       </c>
       <c r="S18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.50491490100729441</v>
       </c>
       <c r="T18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.24497585483634943</v>
       </c>
       <c r="U18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>3.7946586219769207E-2</v>
       </c>
       <c r="V18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.37619169827102739</v>
       </c>
       <c r="W18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.26002561942460167</v>
       </c>
       <c r="X18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.22438365020128703</v>
       </c>
       <c r="Y18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.13793572720026437</v>
       </c>
       <c r="Z18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.38050252175105514</v>
       </c>
       <c r="AA18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.1461299730197595</v>
       </c>
       <c r="AB18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-5.6551114478752385E-2</v>
       </c>
       <c r="AC18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.13132019304496867</v>
       </c>
       <c r="AD18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.12064988245162866</v>
       </c>
       <c r="AE18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.27800405472046164</v>
       </c>
       <c r="AF18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1.5915509925442217E-2</v>
       </c>
       <c r="AG18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1.2513305122147544E-2</v>
       </c>
       <c r="AH18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.15839086230701604</v>
       </c>
       <c r="AI18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.43128680043445966</v>
       </c>
       <c r="AJ18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.76681248023611248</v>
       </c>
       <c r="AK18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1.3083638881054331</v>
       </c>
       <c r="AL18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1.2758075176889987</v>
       </c>
       <c r="AM18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1.0523714428357462</v>
       </c>
       <c r="AN18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-6.3805986845049012E-2</v>
       </c>
       <c r="AO18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-8.6306003099019257E-3</v>
       </c>
       <c r="AP18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.26094595109316687</v>
       </c>
       <c r="AQ18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.46806781969884947</v>
       </c>
       <c r="AR18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1.5176201628192261</v>
       </c>
       <c r="AS18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.96926102082317955</v>
       </c>
       <c r="AT18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.55837697620063498</v>
       </c>
       <c r="AU18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.46242303333178669</v>
       </c>
       <c r="AV18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.67753285008716779</v>
       </c>
       <c r="AW18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.80562928319664073</v>
       </c>
       <c r="AX18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.75579995105628783</v>
       </c>
       <c r="AY18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.64520544220153542</v>
       </c>
       <c r="AZ18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.34123607118876786</v>
       </c>
       <c r="BA18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.13176191444006968</v>
       </c>
       <c r="BB18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.58246165055778509</v>
       </c>
       <c r="BC18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.63728209846614947</v>
       </c>
       <c r="BD18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.57326632148251067</v>
       </c>
       <c r="BE18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.30886329076253627</v>
       </c>
       <c r="BF18" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.25879300657699034</v>
       </c>
       <c r="BG18" s="509"/>
@@ -50568,51 +50568,51 @@
       <c r="BJ18" s="509"/>
       <c r="BK18" s="509"/>
       <c r="BL18" s="509">
-        <f t="shared" ref="BL18:BW18" si="14">BL3/BK3-1</f>
+        <f t="shared" ref="BL18:BW18" si="32">BL3/BK3-1</f>
         <v>7.4617635385226144E-2</v>
       </c>
       <c r="BM18" s="509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.47695902012488944</v>
       </c>
       <c r="BN18" s="509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>3.8804433795477822E-2</v>
       </c>
       <c r="BO18" s="509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>-9.701356756771895E-2</v>
       </c>
       <c r="BP18" s="509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>-0.11291387546459764</v>
       </c>
       <c r="BQ18" s="509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.10480979571297766</v>
       </c>
       <c r="BR18" s="509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.97474372072280091</v>
       </c>
       <c r="BS18" s="509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.24040375889148891</v>
       </c>
       <c r="BT18" s="509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.78461310004196672</v>
       </c>
       <c r="BU18" s="509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.68651979777851579</v>
       </c>
       <c r="BV18" s="509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>-1.7189844232991081E-2</v>
       </c>
       <c r="BW18" s="509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>-0.42004927566346217</v>
       </c>
       <c r="BY18" s="510"/>
@@ -50627,7 +50627,7 @@
         <v>1.1589391090071981</v>
       </c>
       <c r="H19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.69844664111357657</v>
       </c>
       <c r="I19" s="509">
@@ -50635,199 +50635,199 @@
         <v>0.22948735663949127</v>
       </c>
       <c r="J19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-5.7894378503506094E-2</v>
       </c>
       <c r="K19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2.4930165500254287E-3</v>
       </c>
       <c r="L19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-5.0598631698972607E-3</v>
       </c>
       <c r="M19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2.7422508934793477E-3</v>
       </c>
       <c r="N19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>9.7513971863557591E-2</v>
       </c>
       <c r="O19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.1662571907957815</v>
       </c>
       <c r="P19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.31728863739464686</v>
       </c>
       <c r="Q19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.49272600928022237</v>
       </c>
       <c r="R19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.54021071115013153</v>
       </c>
       <c r="S19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.50620423892100197</v>
       </c>
       <c r="T19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.25183063872979061</v>
       </c>
       <c r="U19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>7.2320999519461804E-2</v>
       </c>
       <c r="V19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.28847688536738292</v>
       </c>
       <c r="W19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.10690954988145795</v>
       </c>
       <c r="X19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-5.8161758318130419E-2</v>
       </c>
       <c r="Y19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1.9563634326686064E-2</v>
       </c>
       <c r="Z19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.4894750545775004</v>
       </c>
       <c r="AA19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-8.895933996676908E-2</v>
       </c>
       <c r="AB19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-5.9831819090224392E-2</v>
       </c>
       <c r="AC19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.16795549756198069</v>
       </c>
       <c r="AD19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.1839769793459558</v>
       </c>
       <c r="AE19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>8.2887868687503863E-2</v>
       </c>
       <c r="AF19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.13018951223899144</v>
       </c>
       <c r="AG19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.12940554996120635</v>
       </c>
       <c r="AH19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5.6652275648420014E-2</v>
       </c>
       <c r="AI19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.29335811216292096</v>
       </c>
       <c r="AJ19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.66885985524955371</v>
       </c>
       <c r="AK19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1.1872463878038606</v>
       </c>
       <c r="AL19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1.0608664462603707</v>
       </c>
       <c r="AM19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.86900360719043257</v>
       </c>
       <c r="AN19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.13093776401013812</v>
       </c>
       <c r="AO19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-0.27593172144151323</v>
       </c>
       <c r="AP19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>8.1346338658050188E-2</v>
       </c>
       <c r="AQ19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.43192920637462962</v>
       </c>
       <c r="AR19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1.4400979896566475</v>
       </c>
       <c r="AS19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1.5282081367783338</v>
       </c>
       <c r="AT19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.74529919314770354</v>
       </c>
       <c r="AU19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.47825284527837586</v>
       </c>
       <c r="AV19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.65302035526092106</v>
       </c>
       <c r="AW19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.73704898158277343</v>
       </c>
       <c r="AX19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.65975421503177567</v>
       </c>
       <c r="AY19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.51197984253875028</v>
       </c>
       <c r="AZ19" s="509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.24610287572584055</v>
       </c>
       <c r="BA19" s="509">
-        <f t="shared" ref="BA19" si="15">BA4/AW4-1</f>
+        <f t="shared" ref="BA19" si="33">BA4/AW4-1</f>
         <v>-0.2119101301264732</v>
       </c>
       <c r="BB19" s="509">
-        <f t="shared" ref="BB19" si="16">BB4/AX4-1</f>
+        <f t="shared" ref="BB19" si="34">BB4/AX4-1</f>
         <v>-0.62336605057120287</v>
       </c>
       <c r="BC19" s="509">
-        <f t="shared" ref="BC19" si="17">BC4/AY4-1</f>
+        <f t="shared" ref="BC19" si="35">BC4/AY4-1</f>
         <v>-0.63009420861014154</v>
       </c>
       <c r="BD19" s="509">
-        <f t="shared" ref="BD19" si="18">BD4/AZ4-1</f>
+        <f t="shared" ref="BD19" si="36">BD4/AZ4-1</f>
         <v>-0.57116479617098537</v>
       </c>
       <c r="BE19" s="509">
-        <f t="shared" ref="BE19:BF19" si="19">BE4/BA4-1</f>
+        <f t="shared" ref="BE19:BF19" si="37">BE4/BA4-1</f>
         <v>-0.29877641670327848</v>
       </c>
       <c r="BF19" s="509">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
         <v>0.30013854324345135</v>
       </c>
       <c r="BG19" s="509"/>
@@ -50923,223 +50923,223 @@
         <v>1062</v>
       </c>
       <c r="D21" s="511">
-        <f t="shared" ref="D21:BF22" si="20">D3/C3-1</f>
+        <f t="shared" ref="D21:BF22" si="38">D3/C3-1</f>
         <v>0.6377220654159057</v>
       </c>
       <c r="E21" s="511">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.51148959178156272</v>
       </c>
       <c r="F21" s="511">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.27736540869254123</v>
       </c>
       <c r="G21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.25438442958658569</v>
       </c>
       <c r="H21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.30744131455399071</v>
       </c>
       <c r="I21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>9.1854139361186471E-2</v>
       </c>
       <c r="J21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-5.3360301251377473E-2</v>
       </c>
       <c r="K21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.20829280155642005</v>
       </c>
       <c r="L21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.27623582069903696</v>
       </c>
       <c r="M21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>6.6687296920934447E-2</v>
       </c>
       <c r="N21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>8.0746542887535355E-2</v>
       </c>
       <c r="O21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.14131472202338358</v>
       </c>
       <c r="P21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.42417506078499501</v>
       </c>
       <c r="Q21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.20863616408955643</v>
       </c>
       <c r="R21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>6.148537527872211E-2</v>
       </c>
       <c r="S21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.17635708650565063</v>
       </c>
       <c r="T21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.17818194407579657</v>
       </c>
       <c r="U21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>7.6498878473547638E-3</v>
       </c>
       <c r="V21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.36204483154149714</v>
       </c>
       <c r="W21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-2.2977647076749985E-2</v>
       </c>
       <c r="X21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.23493083389217273</v>
       </c>
       <c r="Y21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.11995958830586595</v>
       </c>
       <c r="Z21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>2.1616075052997452E-2</v>
       </c>
       <c r="AA21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.39569099678811515</v>
       </c>
       <c r="AB21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.36448649339738082</v>
       </c>
       <c r="AC21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>3.1201895404714408E-2</v>
       </c>
       <c r="AD21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>3.4164957553415531E-2</v>
       </c>
       <c r="AE21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.12172712438810118</v>
       </c>
       <c r="AF21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>8.4662436403132757E-2</v>
       </c>
       <c r="AG21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>2.7748497944555695E-2</v>
       </c>
       <c r="AH21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.18316197020589198</v>
       </c>
       <c r="AI21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>8.5178081894917268E-2</v>
       </c>
       <c r="AJ21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.33893160259610577</v>
       </c>
       <c r="AK21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.34276701418407973</v>
       </c>
       <c r="AL21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.16647506067523055</v>
       </c>
       <c r="AM21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-2.1363411289708201E-2</v>
       </c>
       <c r="AN21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.38924323140918049</v>
       </c>
       <c r="AO21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.42190412464751703</v>
       </c>
       <c r="AP21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.48366694117185727</v>
       </c>
       <c r="AQ21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.13938657070899696</v>
       </c>
       <c r="AR21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>4.7399537371501266E-2</v>
       </c>
       <c r="AS21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.1122012801488339</v>
       </c>
       <c r="AT21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.1741015421641503</v>
       </c>
       <c r="AU21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>6.923112335511572E-2</v>
       </c>
       <c r="AV21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.20146297689511727</v>
       </c>
       <c r="AW21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.19712898626168429</v>
       </c>
       <c r="AX21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.14170026452900775</v>
       </c>
       <c r="AY21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>1.8822828060915953E-3</v>
       </c>
       <c r="AZ21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-2.0520208921015359E-2</v>
       </c>
       <c r="BA21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.22504844484319064</v>
       </c>
       <c r="BB21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.4509528527514961</v>
       </c>
       <c r="BC21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.12965925240440224</v>
       </c>
       <c r="BD21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.15234735455059845</v>
       </c>
       <c r="BE21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.2551094385384467</v>
       </c>
       <c r="BF21" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BG21" s="509"/>
@@ -51165,223 +51165,223 @@
         <v>1063</v>
       </c>
       <c r="D22" s="511">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.60722391543998455</v>
       </c>
       <c r="E22" s="511">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.45995561831753085</v>
       </c>
       <c r="F22" s="511">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.21771452259223389</v>
       </c>
       <c r="G22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.24442275832330962</v>
       </c>
       <c r="H22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.26440993602258733</v>
       </c>
       <c r="I22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>5.6846256176358745E-2</v>
       </c>
       <c r="J22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-6.6915417294162505E-2</v>
       </c>
       <c r="K22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.19599152052418589</v>
       </c>
       <c r="L22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.2548837488015343</v>
       </c>
       <c r="M22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>6.5133825179666927E-2</v>
       </c>
       <c r="N22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>2.1272780255990886E-2</v>
       </c>
       <c r="O22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.14563213345039516</v>
       </c>
       <c r="P22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.41739242132305709</v>
       </c>
       <c r="Q22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.20698905241789323</v>
       </c>
       <c r="R22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>5.3760211436809202E-2</v>
       </c>
       <c r="S22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.16449581029470439</v>
       </c>
       <c r="T22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.1780177045489435</v>
       </c>
       <c r="U22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>3.3909593721947129E-2</v>
       </c>
       <c r="V22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.30079262827694375</v>
       </c>
       <c r="W22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>4.8709167017164212E-2</v>
       </c>
       <c r="X22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.24231775558144442</v>
       </c>
       <c r="Y22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.11923319343879224</v>
       </c>
       <c r="Z22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>2.1468305748231886E-2</v>
       </c>
       <c r="AA22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.35855475473321874</v>
       </c>
       <c r="AB22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.28203676917594267</v>
       </c>
       <c r="AC22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-9.4837876285625011E-3</v>
       </c>
       <c r="AD22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>1.7993627944596913E-3</v>
       </c>
       <c r="AE22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.1487822562040666</v>
       </c>
       <c r="AF22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>2.9773312426195853E-2</v>
       </c>
       <c r="AG22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-8.5910329918225115E-3</v>
       </c>
       <c r="AH22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.2158974553452917</v>
       </c>
       <c r="AI22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>4.1903187574075407E-2</v>
       </c>
       <c r="AJ22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.32874826001706303</v>
       </c>
       <c r="AK22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.29936355956068694</v>
       </c>
       <c r="AL22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.14564243049475101</v>
       </c>
       <c r="AM22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-5.5096064350629192E-2</v>
       </c>
       <c r="AN22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.38214943541282942</v>
       </c>
       <c r="AO22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>8.2578320436546671E-2</v>
       </c>
       <c r="AP22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.71093843538229451</v>
       </c>
       <c r="AQ22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.25125086598414281</v>
       </c>
       <c r="AR22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>5.2856463745420967E-2</v>
       </c>
       <c r="AS22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.12166942886282506</v>
       </c>
       <c r="AT22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.18111298961455957</v>
       </c>
       <c r="AU22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>5.97983200016039E-2</v>
       </c>
       <c r="AV22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.17733117937038179</v>
       </c>
       <c r="AW22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.17868768698323545</v>
       </c>
       <c r="AX22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.1285561223237921</v>
       </c>
       <c r="AY22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-3.4559645948433637E-2</v>
       </c>
       <c r="AZ22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-2.9698857736240813E-2</v>
       </c>
       <c r="BA22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.25454643918138309</v>
       </c>
       <c r="BB22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.46065472257488704</v>
       </c>
       <c r="BC22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-5.1806193396105371E-2</v>
       </c>
       <c r="BD22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.12487908490100197</v>
       </c>
       <c r="BE22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.21895220455584141</v>
       </c>
       <c r="BF22" s="509">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BG22" s="509"/>
@@ -51480,223 +51480,223 @@
         <v>0</v>
       </c>
       <c r="D24" s="511">
-        <f t="shared" ref="D24:BD24" si="21">D13/D12</f>
+        <f t="shared" ref="D24:BD24" si="39">D13/D12</f>
         <v>0</v>
       </c>
       <c r="E24" s="511">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F24" s="511">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>6.4235596402806615E-3</v>
       </c>
       <c r="H24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1.3441338792949979E-2</v>
       </c>
       <c r="I24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1.4811438988264794E-2</v>
       </c>
       <c r="J24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>4.101116041414541E-2</v>
       </c>
       <c r="K24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1.7801251956181537E-2</v>
       </c>
       <c r="L24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1.9770408163265304E-2</v>
       </c>
       <c r="M24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>2.2889610389610394E-2</v>
       </c>
       <c r="N24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0.17376775271512188</v>
       </c>
       <c r="O24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1.7790109352048316E-2</v>
       </c>
       <c r="P24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>3.9437585733882133E-2</v>
       </c>
       <c r="Q24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.13510638297872354</v>
       </c>
       <c r="R24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.50795593635251135</v>
       </c>
       <c r="S24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>2.7141231919388956E-2</v>
       </c>
       <c r="T24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0.59946949602122057</v>
       </c>
       <c r="U24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.33262032085561627</v>
       </c>
       <c r="V24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>4.4678316123907914E-2</v>
       </c>
       <c r="W24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1.2716202381593834E-2</v>
       </c>
       <c r="X24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>2.1002503205323882E-2</v>
       </c>
       <c r="Y24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>7.7369439071566688E-3</v>
       </c>
       <c r="Z24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>6.0384337058776237E-2</v>
       </c>
       <c r="AA24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>5.6528868559592637E-3</v>
       </c>
       <c r="AB24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>7.6005695977216056E-2</v>
       </c>
       <c r="AC24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-2.6143790849673193E-2</v>
       </c>
       <c r="AD24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.24402774210120942</v>
       </c>
       <c r="AE24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>4.8027794808910652E-2</v>
       </c>
       <c r="AF24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>9.9735216240070618E-2</v>
       </c>
       <c r="AG24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>7.6970825574177462E-2</v>
       </c>
       <c r="AH24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.44824902723735854</v>
       </c>
       <c r="AI24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.11178927079987161</v>
       </c>
       <c r="AJ24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-5.2725488446783882E-2</v>
       </c>
       <c r="AK24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-8.6704281023875611E-3</v>
       </c>
       <c r="AL24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1.6263704103914829</v>
       </c>
       <c r="AM24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0.20796243078432752</v>
       </c>
       <c r="AN24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.12182712840033422</v>
       </c>
       <c r="AO24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.1222655814472071</v>
       </c>
       <c r="AP24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>2.2970624509474159E-2</v>
       </c>
       <c r="AQ24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-20.026410564225813</v>
       </c>
       <c r="AR24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.15092996159323344</v>
       </c>
       <c r="AS24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.15163185124674206</v>
       </c>
       <c r="AT24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>4.0561128588670586E-2</v>
       </c>
       <c r="AU24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-9.7305206682112025E-2</v>
       </c>
       <c r="AV24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.16519174041297924</v>
       </c>
       <c r="AW24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.14482142192097136</v>
       </c>
       <c r="AX24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-8.5772217531425027E-2</v>
       </c>
       <c r="AY24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.17935666273683742</v>
       </c>
       <c r="AZ24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.14845011213798928</v>
       </c>
       <c r="BA24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-0.17043972458013046</v>
       </c>
       <c r="BB24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0.71088574466344789</v>
       </c>
       <c r="BC24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>0.39986085746586703</v>
       </c>
       <c r="BD24" s="509">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>-3.4147646219686058E-2</v>
       </c>
       <c r="BE24" s="509">
-        <f t="shared" ref="BE24:BG24" si="22">BE13/BE12</f>
+        <f t="shared" ref="BE24" si="40">BE13/BE12</f>
         <v>-9.8161322744023845E-3</v>
       </c>
       <c r="BF24" s="509">
-        <f t="shared" ref="BF24" si="23">BF13/BF12</f>
+        <f t="shared" ref="BF24" si="41">BF13/BF12</f>
         <v>-9.8161322744023845E-3</v>
       </c>
       <c r="BG24" s="509"/>
@@ -51707,55 +51707,55 @@
         <v>0</v>
       </c>
       <c r="BK24" s="509">
-        <f t="shared" ref="BK24:BV24" si="24">BK13/BK12</f>
+        <f t="shared" ref="BK24:BV24" si="42">BK13/BK12</f>
         <v>1.7329038784039182E-2</v>
       </c>
       <c r="BL24" s="509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>3.4451097804391234E-2</v>
       </c>
       <c r="BM24" s="509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>0.10513313203403797</v>
       </c>
       <c r="BN24" s="509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>6.6608704052552828E-2</v>
       </c>
       <c r="BO24" s="509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>2.2352887689999542E-2</v>
       </c>
       <c r="BP24" s="509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>-3.2862089499569947E-3</v>
       </c>
       <c r="BQ24" s="509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>0.13667025124645588</v>
       </c>
       <c r="BR24" s="509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>0.78826819362141354</v>
       </c>
       <c r="BS24" s="509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>0.12214219914580025</v>
       </c>
       <c r="BT24" s="509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>0.20277355120402216</v>
       </c>
       <c r="BU24" s="509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>-0.12097387888011892</v>
       </c>
       <c r="BV24" s="509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>-0.14463422858691055</v>
       </c>
       <c r="BW24" s="509">
-        <f t="shared" ref="BW24" si="25">BW13/BW12</f>
+        <f t="shared" ref="BW24" si="43">BW13/BW12</f>
         <v>-5.9061490272027506E-2</v>
       </c>
     </row>
@@ -51768,223 +51768,223 @@
         <v>0.14654933864630029</v>
       </c>
       <c r="D25" s="511">
-        <f t="shared" ref="D25:BD25" si="26">D5/D3</f>
+        <f t="shared" ref="D25:BD25" si="44">D5/D3</f>
         <v>0.16244255204109215</v>
       </c>
       <c r="E25" s="511">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.1909989268467179</v>
       </c>
       <c r="F25" s="511">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.22877796058389052</v>
       </c>
       <c r="G25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.21847417840375591</v>
       </c>
       <c r="H25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.24419627628058971</v>
       </c>
       <c r="I25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.26842944765099575</v>
       </c>
       <c r="J25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.27890494719288472</v>
       </c>
       <c r="K25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.26770081400706497</v>
       </c>
       <c r="L25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.27995255041518385</v>
       </c>
       <c r="M25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.28100119266350776</v>
       </c>
       <c r="N25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.32056788356000965</v>
       </c>
       <c r="O25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.32398402222994099</v>
       </c>
       <c r="P25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.32720355104629051</v>
       </c>
       <c r="Q25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.32812042819811732</v>
       </c>
       <c r="R25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.33301016092085128</v>
       </c>
       <c r="S25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.32340484461011165</v>
       </c>
       <c r="T25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.32349916252828304</v>
       </c>
       <c r="U25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.30586931586212257</v>
       </c>
       <c r="V25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.23922351399533762</v>
       </c>
       <c r="W25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.18340325322437265</v>
       </c>
       <c r="X25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.17851865883690088</v>
       </c>
       <c r="Y25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.17905146362365243</v>
       </c>
       <c r="Z25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.17917020783435061</v>
       </c>
       <c r="AA25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.1287282424065313</v>
       </c>
       <c r="AB25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.18137523926807392</v>
       </c>
       <c r="AC25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.21367377138554997</v>
       </c>
       <c r="AD25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.23828291703276056</v>
       </c>
       <c r="AE25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.26174755616532325</v>
       </c>
       <c r="AF25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.29910667228839466</v>
       </c>
       <c r="AG25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.32388913104792183</v>
       </c>
       <c r="AH25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.30518263281647862</v>
       </c>
       <c r="AI25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.33289066400399397</v>
       </c>
       <c r="AJ25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.33796441302369973</v>
       </c>
       <c r="AK25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.35936397918436935</v>
       </c>
       <c r="AL25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.37080540108173982</v>
       </c>
       <c r="AM25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.39249312802549313</v>
       </c>
       <c r="AN25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.38543707881278977</v>
       </c>
       <c r="AO25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.53209749976190868</v>
       </c>
       <c r="AP25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.46042312499292021</v>
       </c>
       <c r="AQ25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.40744778859600866</v>
       </c>
       <c r="AR25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.40436060584008582</v>
       </c>
       <c r="AS25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.39928993880842856</v>
       </c>
       <c r="AT25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.39570264514112508</v>
       </c>
       <c r="AU25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.40103378262012446</v>
       </c>
       <c r="AV25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.41306422530535886</v>
       </c>
       <c r="AW25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.42210573912933869</v>
       </c>
       <c r="AX25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.4287589077239834</v>
       </c>
       <c r="AY25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.44953692480606489</v>
       </c>
       <c r="AZ25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.45469528263944947</v>
       </c>
       <c r="BA25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.47545192911399753</v>
       </c>
       <c r="BB25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.48472089103347987</v>
       </c>
       <c r="BC25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.4386285358416338</v>
       </c>
       <c r="BD25" s="509">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.45200983332125044</v>
       </c>
       <c r="BE25" s="509">
-        <f t="shared" ref="BE25:BG25" si="27">BE5/BE3</f>
+        <f t="shared" ref="BE25" si="45">BE5/BE3</f>
         <v>0.46779635206486153</v>
       </c>
       <c r="BF25" s="509">
-        <f t="shared" ref="BF25" si="28">BF5/BF3</f>
+        <f t="shared" ref="BF25" si="46">BF5/BF3</f>
         <v>0.46779635206486153</v>
       </c>
       <c r="BG25" s="509"/>
@@ -51995,55 +51995,55 @@
         <v>0.19441156210081389</v>
       </c>
       <c r="BK25" s="509">
-        <f t="shared" ref="BK25:BV25" si="29">BK5/BK3</f>
+        <f t="shared" ref="BK25:BV25" si="47">BK5/BK3</f>
         <v>0.25516203767802914</v>
       </c>
       <c r="BL25" s="509">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>0.28953041924705603</v>
       </c>
       <c r="BM25" s="509">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>0.32870510374988371</v>
       </c>
       <c r="BN25" s="509">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>0.30291757289733495</v>
       </c>
       <c r="BO25" s="509">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>0.17981902780920728</v>
       </c>
       <c r="BP25" s="509">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>0.19584087557571489</v>
       </c>
       <c r="BQ25" s="509">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>0.29872627380526884</v>
       </c>
       <c r="BR25" s="509">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>0.35437018386021557</v>
       </c>
       <c r="BS25" s="509">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>0.44675856280466147</v>
       </c>
       <c r="BT25" s="509">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>0.40115943790704961</v>
       </c>
       <c r="BU25" s="509">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>0.41812804153672495</v>
       </c>
       <c r="BV25" s="509">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>0.46201958629046969</v>
       </c>
       <c r="BW25" s="509">
-        <f t="shared" ref="BW25" si="30">BW5/BW3</f>
+        <f t="shared" ref="BW25" si="48">BW5/BW3</f>
         <v>0.45840894875062382</v>
       </c>
     </row>
@@ -52056,51 +52056,51 @@
       </c>
       <c r="AY27" s="499"/>
       <c r="BJ27" s="514">
-        <f t="shared" ref="BJ27:BU27" si="31">BJ28+BJ31+BJ32+BJ35</f>
+        <f t="shared" ref="BJ27:BU27" si="49">BJ28+BJ31+BJ32+BJ35</f>
         <v>81.8</v>
       </c>
       <c r="BK27" s="514">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>94.899999999999991</v>
       </c>
       <c r="BL27" s="514">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>90.600000000000009</v>
       </c>
       <c r="BM27" s="514">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>114.89999999999999</v>
       </c>
       <c r="BN27" s="514">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>121.8</v>
       </c>
       <c r="BO27" s="514">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>117.89999999999999</v>
       </c>
       <c r="BP27" s="514">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>130.4</v>
       </c>
       <c r="BQ27" s="514">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>222.30000000000004</v>
       </c>
       <c r="BR27" s="514">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>455.00000000000006</v>
       </c>
       <c r="BS27" s="514">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>933.19999999999982</v>
       </c>
       <c r="BT27" s="514">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>1462.3999999999999</v>
       </c>
       <c r="BU27" s="514">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>2264.1999999999998</v>
       </c>
       <c r="BV27" s="514">
@@ -52167,55 +52167,55 @@
       <c r="BC28" s="504"/>
       <c r="BD28" s="504"/>
       <c r="BJ28" s="516">
-        <f t="shared" ref="BJ28:BV28" si="32">BJ29+BJ30</f>
+        <f t="shared" ref="BJ28:BV28" si="50">BJ29+BJ30</f>
         <v>51.5</v>
       </c>
       <c r="BK28" s="516">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>45.3</v>
       </c>
       <c r="BL28" s="516">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>38.200000000000003</v>
       </c>
       <c r="BM28" s="516">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>42</v>
       </c>
       <c r="BN28" s="516">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>28.5</v>
       </c>
       <c r="BO28" s="516">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>17.8</v>
       </c>
       <c r="BP28" s="516">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>29.1</v>
       </c>
       <c r="BQ28" s="516">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>106.2</v>
       </c>
       <c r="BR28" s="516">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>251.4</v>
       </c>
       <c r="BS28" s="516">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>679.4</v>
       </c>
       <c r="BT28" s="516">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>1016.5999999999999</v>
       </c>
       <c r="BU28" s="516">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>1612.8</v>
       </c>
       <c r="BV28" s="516">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>1695</v>
       </c>
     </row>
@@ -52814,51 +52814,51 @@
         <v>106.211</v>
       </c>
       <c r="BK42" s="514">
-        <f t="shared" ref="BK42:BV42" si="33">BK27+SUM(BK36:BK41)</f>
+        <f t="shared" ref="BK42:BV42" si="51">BK27+SUM(BK36:BK41)</f>
         <v>122.24099999999999</v>
       </c>
       <c r="BL42" s="514">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>116.75300000000001</v>
       </c>
       <c r="BM42" s="514">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>152.12</v>
       </c>
       <c r="BN42" s="514">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>165.52</v>
       </c>
       <c r="BO42" s="514">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>163.63999999999999</v>
       </c>
       <c r="BP42" s="514">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>169.08</v>
       </c>
       <c r="BQ42" s="514">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>339.90000000000003</v>
       </c>
       <c r="BR42" s="514">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>668.55000000000007</v>
       </c>
       <c r="BS42" s="514">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>1200.2699999999998</v>
       </c>
       <c r="BT42" s="514">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>2079.29</v>
       </c>
       <c r="BU42" s="514">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>3084.25</v>
       </c>
       <c r="BV42" s="514">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>3383.0299999999997</v>
       </c>
     </row>
@@ -52888,51 +52888,51 @@
         <v>52.3</v>
       </c>
       <c r="BK44" s="514">
-        <f t="shared" ref="BK44:BV44" si="34">SUM(BK45:BK49)</f>
+        <f t="shared" ref="BK44:BV44" si="52">SUM(BK45:BK49)</f>
         <v>33.9</v>
       </c>
       <c r="BL44" s="514">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>33.400000000000006</v>
       </c>
       <c r="BM44" s="514">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>58.699999999999996</v>
       </c>
       <c r="BN44" s="514">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>72.900000000000006</v>
       </c>
       <c r="BO44" s="514">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>82.699999999999989</v>
       </c>
       <c r="BP44" s="514">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>91.6</v>
       </c>
       <c r="BQ44" s="514">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>147.19999999999999</v>
       </c>
       <c r="BR44" s="514">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>199.4</v>
       </c>
       <c r="BS44" s="514">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>534</v>
       </c>
       <c r="BT44" s="514">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>439.9</v>
       </c>
       <c r="BU44" s="514">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>638.19999999999993</v>
       </c>
       <c r="BV44" s="514">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>532.5</v>
       </c>
     </row>
@@ -53306,51 +53306,51 @@
         <v>39.9</v>
       </c>
       <c r="BK53" s="514">
-        <f t="shared" ref="BK53:BV53" si="35">SUM(BK54:BK55)</f>
+        <f t="shared" ref="BK53:BV53" si="53">SUM(BK54:BK55)</f>
         <v>31.8</v>
       </c>
       <c r="BL53" s="514">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>43.1</v>
       </c>
       <c r="BM53" s="514">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>46.5</v>
       </c>
       <c r="BN53" s="514">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>51.2</v>
       </c>
       <c r="BO53" s="514">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>79.5</v>
       </c>
       <c r="BP53" s="514">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>86.5</v>
       </c>
       <c r="BQ53" s="514">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>185</v>
       </c>
       <c r="BR53" s="514">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>241.7</v>
       </c>
       <c r="BS53" s="514">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>182.1</v>
       </c>
       <c r="BT53" s="514">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>1209.3</v>
       </c>
       <c r="BU53" s="514">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>1620.5</v>
       </c>
       <c r="BV53" s="514">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>1866.9</v>
       </c>
     </row>
@@ -53454,51 +53454,51 @@
         <v>92.199999999999989</v>
       </c>
       <c r="BK56" s="514">
-        <f t="shared" ref="BK56:BV56" si="36">BK53+BK44</f>
+        <f t="shared" ref="BK56:BV56" si="54">BK53+BK44</f>
         <v>65.7</v>
       </c>
       <c r="BL56" s="514">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>76.5</v>
       </c>
       <c r="BM56" s="514">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>105.19999999999999</v>
       </c>
       <c r="BN56" s="514">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>124.10000000000001</v>
       </c>
       <c r="BO56" s="514">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>162.19999999999999</v>
       </c>
       <c r="BP56" s="514">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>178.1</v>
       </c>
       <c r="BQ56" s="514">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>332.2</v>
       </c>
       <c r="BR56" s="514">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>441.1</v>
       </c>
       <c r="BS56" s="514">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>716.1</v>
       </c>
       <c r="BT56" s="514">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>1649.1999999999998</v>
       </c>
       <c r="BU56" s="514">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>2258.6999999999998</v>
       </c>
       <c r="BV56" s="514">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>2399.4</v>
       </c>
     </row>
@@ -53528,51 +53528,51 @@
         <v>13.999999999999991</v>
       </c>
       <c r="BK58" s="514">
-        <f t="shared" ref="BK58:BV58" si="37">SUM(BK59:BK62)</f>
+        <f t="shared" ref="BK58:BV58" si="55">SUM(BK59:BK62)</f>
         <v>56.699999999999996</v>
       </c>
       <c r="BL58" s="514">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>40.200000000000003</v>
       </c>
       <c r="BM58" s="514">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>46.9</v>
       </c>
       <c r="BN58" s="514">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>41.399999999999991</v>
       </c>
       <c r="BO58" s="514">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>1.2999999999999943</v>
       </c>
       <c r="BP58" s="514">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>-9.0999999999999766</v>
       </c>
       <c r="BQ58" s="514">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>7.7</v>
       </c>
       <c r="BR58" s="514">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>272.20000000000005</v>
       </c>
       <c r="BS58" s="514">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>483.90000000000003</v>
       </c>
       <c r="BT58" s="514">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>430.2</v>
       </c>
       <c r="BU58" s="514">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>825.5</v>
       </c>
       <c r="BV58" s="514">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>983.59999999999991</v>
       </c>
     </row>
@@ -53891,51 +53891,51 @@
         <v>-32.290000000000006</v>
       </c>
       <c r="BK67" s="504">
-        <f t="shared" ref="BK67:BV67" si="38">BK14</f>
+        <f t="shared" ref="BK67:BV67" si="56">BK14</f>
         <v>-38.218000000000004</v>
       </c>
       <c r="BL67" s="504">
-        <f t="shared" si="38"/>
+        <f t="shared" si="56"/>
         <v>-25.91299999999999</v>
       </c>
       <c r="BM67" s="504">
-        <f t="shared" si="38"/>
+        <f t="shared" si="56"/>
         <v>-8.051999999999996</v>
       </c>
       <c r="BN67" s="504">
-        <f t="shared" si="38"/>
+        <f t="shared" si="56"/>
         <v>-22.081999999999979</v>
       </c>
       <c r="BO67" s="504">
-        <f t="shared" si="38"/>
+        <f t="shared" si="56"/>
         <v>-67.462000000000018</v>
       </c>
       <c r="BP67" s="504">
-        <f t="shared" si="38"/>
+        <f t="shared" si="56"/>
         <v>-45.191999999999979</v>
       </c>
       <c r="BQ67" s="504">
-        <f t="shared" si="38"/>
+        <f t="shared" si="56"/>
         <v>-11.627000000000018</v>
       </c>
       <c r="BR67" s="504">
-        <f t="shared" si="38"/>
+        <f t="shared" si="56"/>
         <v>161.14799999999994</v>
       </c>
       <c r="BS67" s="504">
-        <f t="shared" si="38"/>
+        <f t="shared" si="56"/>
         <v>133.99499999999995</v>
       </c>
       <c r="BT67" s="504">
-        <f t="shared" si="38"/>
+        <f t="shared" si="56"/>
         <v>145.44900000000004</v>
       </c>
       <c r="BU67" s="504">
-        <f t="shared" si="38"/>
+        <f t="shared" si="56"/>
         <v>397.36199999999997</v>
       </c>
       <c r="BV67" s="504">
-        <f t="shared" si="38"/>
+        <f t="shared" si="56"/>
         <v>438.83600000000007</v>
       </c>
     </row>
@@ -54425,51 +54425,51 @@
         <v>#REF!</v>
       </c>
       <c r="BK78" s="504" t="e">
-        <f t="shared" ref="BK78:BV78" si="39">BK67+SUM(BK68:BK71)</f>
+        <f t="shared" ref="BK78:BV78" si="57">BK67+SUM(BK68:BK71)</f>
         <v>#REF!</v>
       </c>
       <c r="BL78" s="504" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="BM78" s="504" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="BN78" s="504" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="BO78" s="504" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="BP78" s="504" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="BQ78" s="504" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="BR78" s="504" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="BS78" s="504" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="BT78" s="504" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="BU78" s="504" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="BV78" s="504" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -55082,51 +55082,51 @@
         <v>#REF!</v>
       </c>
       <c r="BK90" s="504" t="e">
-        <f t="shared" ref="BK90:BV90" si="40">BK80+BK83</f>
+        <f t="shared" ref="BK90:BV90" si="58">BK80+BK83</f>
         <v>#REF!</v>
       </c>
       <c r="BL90" s="504" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="BM90" s="504" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="BN90" s="504" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="BO90" s="504" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="BP90" s="504" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="BQ90" s="504" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="BR90" s="504" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="BS90" s="504" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="BT90" s="504" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="BU90" s="504" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="BV90" s="504" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -56048,51 +56048,51 @@
         <v>51.5</v>
       </c>
       <c r="BK108" s="519">
-        <f t="shared" ref="BK108:BV108" si="41">BK105+BK107</f>
+        <f t="shared" ref="BK108:BV108" si="59">BK105+BK107</f>
         <v>45.3</v>
       </c>
       <c r="BL108" s="519">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>38.199999999999996</v>
       </c>
       <c r="BM108" s="519">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>42</v>
       </c>
       <c r="BN108" s="519">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>28.4</v>
       </c>
       <c r="BO108" s="519">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>17.8</v>
       </c>
       <c r="BP108" s="519">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>29.200000000000003</v>
       </c>
       <c r="BQ108" s="519">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>106.19999999999999</v>
       </c>
       <c r="BR108" s="519">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>296.10000000000002</v>
       </c>
       <c r="BS108" s="519">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>679.40000000000009</v>
       </c>
       <c r="BT108" s="519">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>119.29999999999995</v>
       </c>
       <c r="BU108" s="519">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>473.2</v>
       </c>
       <c r="BV108" s="519">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>288.7</v>
       </c>
     </row>
@@ -56122,51 +56122,51 @@
         <v>#REF!</v>
       </c>
       <c r="BK110" s="504" t="e">
-        <f t="shared" ref="BK110:BV110" si="42">BK78+BK80</f>
+        <f t="shared" ref="BK110:BV110" si="60">BK78+BK80</f>
         <v>#REF!</v>
       </c>
       <c r="BL110" s="504" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="BM110" s="504" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="BN110" s="504" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="BO110" s="504" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="BP110" s="504" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="BQ110" s="504" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="BR110" s="504" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="BS110" s="504" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="BT110" s="504" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="BU110" s="504" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="BV110" s="504" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -63314,97 +63314,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="580" t="str">
+      <c r="A1" s="575" t="str">
         <f>'Input sheet'!B4</f>
         <v>Amazon</v>
       </c>
-      <c r="B1" s="581"/>
-      <c r="C1" s="581"/>
-      <c r="D1" s="581"/>
-      <c r="E1" s="581"/>
-      <c r="F1" s="582"/>
+      <c r="B1" s="576"/>
+      <c r="C1" s="576"/>
+      <c r="D1" s="576"/>
+      <c r="E1" s="576"/>
+      <c r="F1" s="577"/>
       <c r="G1" s="152">
         <f>'Input sheet'!B3</f>
         <v>43861</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="625" t="s">
+      <c r="A2" s="622" t="s">
         <v>630</v>
       </c>
-      <c r="B2" s="625"/>
-      <c r="C2" s="625"/>
-      <c r="D2" s="625"/>
-      <c r="E2" s="625"/>
-      <c r="F2" s="625"/>
-      <c r="G2" s="625"/>
+      <c r="B2" s="622"/>
+      <c r="C2" s="622"/>
+      <c r="D2" s="622"/>
+      <c r="E2" s="622"/>
+      <c r="F2" s="622"/>
+      <c r="G2" s="622"/>
     </row>
     <row r="3" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A3" s="585" t="s">
+      <c r="A3" s="582" t="s">
         <v>631</v>
       </c>
-      <c r="B3" s="586"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="586"/>
-      <c r="E3" s="586"/>
-      <c r="F3" s="586"/>
-      <c r="G3" s="587"/>
-      <c r="H3" s="594" t="s">
+      <c r="B3" s="583"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="583"/>
+      <c r="E3" s="583"/>
+      <c r="F3" s="583"/>
+      <c r="G3" s="584"/>
+      <c r="H3" s="591" t="s">
         <v>522</v>
       </c>
-      <c r="I3" s="595"/>
-      <c r="J3" s="595"/>
-      <c r="K3" s="596"/>
+      <c r="I3" s="592"/>
+      <c r="J3" s="592"/>
+      <c r="K3" s="593"/>
     </row>
     <row r="4" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A4" s="588"/>
-      <c r="B4" s="589"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="589"/>
-      <c r="E4" s="589"/>
-      <c r="F4" s="589"/>
-      <c r="G4" s="590"/>
-      <c r="H4" s="597"/>
-      <c r="I4" s="598"/>
-      <c r="J4" s="598"/>
-      <c r="K4" s="599"/>
+      <c r="A4" s="585"/>
+      <c r="B4" s="586"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="586"/>
+      <c r="E4" s="586"/>
+      <c r="F4" s="586"/>
+      <c r="G4" s="587"/>
+      <c r="H4" s="594"/>
+      <c r="I4" s="595"/>
+      <c r="J4" s="595"/>
+      <c r="K4" s="596"/>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1">
-      <c r="A5" s="588"/>
-      <c r="B5" s="589"/>
-      <c r="C5" s="589"/>
-      <c r="D5" s="589"/>
-      <c r="E5" s="589"/>
-      <c r="F5" s="589"/>
-      <c r="G5" s="590"/>
-      <c r="H5" s="597"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="598"/>
-      <c r="K5" s="599"/>
+      <c r="A5" s="585"/>
+      <c r="B5" s="586"/>
+      <c r="C5" s="586"/>
+      <c r="D5" s="586"/>
+      <c r="E5" s="586"/>
+      <c r="F5" s="586"/>
+      <c r="G5" s="587"/>
+      <c r="H5" s="594"/>
+      <c r="I5" s="595"/>
+      <c r="J5" s="595"/>
+      <c r="K5" s="596"/>
     </row>
     <row r="6" spans="1:11" ht="16.899999999999999" customHeight="1">
-      <c r="A6" s="591"/>
-      <c r="B6" s="592"/>
-      <c r="C6" s="592"/>
-      <c r="D6" s="592"/>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="600"/>
-      <c r="I6" s="601"/>
-      <c r="J6" s="601"/>
-      <c r="K6" s="602"/>
+      <c r="A6" s="588"/>
+      <c r="B6" s="589"/>
+      <c r="C6" s="589"/>
+      <c r="D6" s="589"/>
+      <c r="E6" s="589"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="598"/>
+      <c r="K6" s="599"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="626" t="s">
+      <c r="A7" s="623" t="s">
         <v>502</v>
       </c>
-      <c r="B7" s="627"/>
-      <c r="C7" s="627"/>
-      <c r="D7" s="627"/>
-      <c r="E7" s="627"/>
-      <c r="F7" s="627"/>
-      <c r="G7" s="628"/>
+      <c r="B7" s="624"/>
+      <c r="C7" s="624"/>
+      <c r="D7" s="624"/>
+      <c r="E7" s="624"/>
+      <c r="F7" s="624"/>
+      <c r="G7" s="625"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="115"/>
@@ -63453,12 +63453,12 @@
       <c r="G9" s="242" t="s">
         <v>632</v>
       </c>
-      <c r="H9" s="603" t="s">
+      <c r="H9" s="600" t="s">
         <v>523</v>
       </c>
-      <c r="I9" s="604"/>
-      <c r="J9" s="604"/>
-      <c r="K9" s="605"/>
+      <c r="I9" s="601"/>
+      <c r="J9" s="601"/>
+      <c r="K9" s="602"/>
     </row>
     <row r="10" spans="1:11" ht="47.25">
       <c r="A10" s="116" t="s">
@@ -63486,10 +63486,10 @@
       <c r="G10" s="243" t="s">
         <v>633</v>
       </c>
-      <c r="H10" s="606"/>
-      <c r="I10" s="607"/>
-      <c r="J10" s="607"/>
-      <c r="K10" s="608"/>
+      <c r="H10" s="603"/>
+      <c r="I10" s="604"/>
+      <c r="J10" s="604"/>
+      <c r="K10" s="605"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="116" t="s">
@@ -63514,10 +63514,10 @@
       <c r="G11" s="244" t="s">
         <v>634</v>
       </c>
-      <c r="H11" s="606"/>
-      <c r="I11" s="607"/>
-      <c r="J11" s="607"/>
-      <c r="K11" s="608"/>
+      <c r="H11" s="603"/>
+      <c r="I11" s="604"/>
+      <c r="J11" s="604"/>
+      <c r="K11" s="605"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="116" t="s">
@@ -63543,10 +63543,10 @@
       <c r="G12" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="H12" s="606"/>
-      <c r="I12" s="607"/>
-      <c r="J12" s="607"/>
-      <c r="K12" s="608"/>
+      <c r="H12" s="603"/>
+      <c r="I12" s="604"/>
+      <c r="J12" s="604"/>
+      <c r="K12" s="605"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="133" t="s">
@@ -63559,11 +63559,11 @@
       <c r="C13" s="117" t="s">
         <v>526</v>
       </c>
-      <c r="D13" s="623">
+      <c r="D13" s="620">
         <f>Diagnostics!C27</f>
         <v>0.17281078177151452</v>
       </c>
-      <c r="E13" s="624"/>
+      <c r="E13" s="621"/>
       <c r="F13" s="134">
         <f>'Valuation output'!M40</f>
         <v>8.1899999999999987E-2</v>
@@ -63571,10 +63571,10 @@
       <c r="G13" s="245" t="s">
         <v>836</v>
       </c>
-      <c r="H13" s="606"/>
-      <c r="I13" s="607"/>
-      <c r="J13" s="607"/>
-      <c r="K13" s="608"/>
+      <c r="H13" s="603"/>
+      <c r="I13" s="604"/>
+      <c r="J13" s="604"/>
+      <c r="K13" s="605"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="120" t="s">
@@ -63594,21 +63594,21 @@
       <c r="G14" s="246" t="s">
         <v>635</v>
       </c>
-      <c r="H14" s="609"/>
-      <c r="I14" s="610"/>
-      <c r="J14" s="610"/>
-      <c r="K14" s="611"/>
+      <c r="H14" s="606"/>
+      <c r="I14" s="607"/>
+      <c r="J14" s="607"/>
+      <c r="K14" s="608"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A15" s="629" t="s">
+      <c r="A15" s="626" t="s">
         <v>506</v>
       </c>
-      <c r="B15" s="629"/>
-      <c r="C15" s="629"/>
-      <c r="D15" s="629"/>
-      <c r="E15" s="629"/>
-      <c r="F15" s="629"/>
-      <c r="G15" s="629"/>
+      <c r="B15" s="626"/>
+      <c r="C15" s="626"/>
+      <c r="D15" s="626"/>
+      <c r="E15" s="626"/>
+      <c r="F15" s="626"/>
+      <c r="G15" s="626"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="111"/>
@@ -63630,12 +63630,12 @@
       <c r="G16" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="612" t="s">
+      <c r="H16" s="609" t="s">
         <v>524</v>
       </c>
-      <c r="I16" s="613"/>
-      <c r="J16" s="613"/>
-      <c r="K16" s="614"/>
+      <c r="I16" s="610"/>
+      <c r="J16" s="610"/>
+      <c r="K16" s="611"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="122">
@@ -63665,10 +63665,10 @@
         <f>E17-F17</f>
         <v>7593.3647999999739</v>
       </c>
-      <c r="H17" s="615"/>
-      <c r="I17" s="616"/>
-      <c r="J17" s="616"/>
-      <c r="K17" s="617"/>
+      <c r="H17" s="612"/>
+      <c r="I17" s="613"/>
+      <c r="J17" s="613"/>
+      <c r="K17" s="614"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="122">
@@ -63698,10 +63698,10 @@
         <f t="shared" ref="G18:G27" si="1">E18-F18</f>
         <v>14735.438807039965</v>
       </c>
-      <c r="H18" s="615"/>
-      <c r="I18" s="616"/>
-      <c r="J18" s="616"/>
-      <c r="K18" s="617"/>
+      <c r="H18" s="612"/>
+      <c r="I18" s="613"/>
+      <c r="J18" s="613"/>
+      <c r="K18" s="614"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="122">
@@ -63731,10 +63731,10 @@
         <f t="shared" si="1"/>
         <v>19992.978793267139</v>
       </c>
-      <c r="H19" s="615"/>
-      <c r="I19" s="616"/>
-      <c r="J19" s="616"/>
-      <c r="K19" s="617"/>
+      <c r="H19" s="612"/>
+      <c r="I19" s="613"/>
+      <c r="J19" s="613"/>
+      <c r="K19" s="614"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="122">
@@ -63764,10 +63764,10 @@
         <f t="shared" si="1"/>
         <v>26300.138057367512</v>
       </c>
-      <c r="H20" s="615"/>
-      <c r="I20" s="616"/>
-      <c r="J20" s="616"/>
-      <c r="K20" s="617"/>
+      <c r="H20" s="612"/>
+      <c r="I20" s="613"/>
+      <c r="J20" s="613"/>
+      <c r="K20" s="614"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="122">
@@ -63797,10 +63797,10 @@
         <f t="shared" si="1"/>
         <v>44530.054130061893</v>
       </c>
-      <c r="H21" s="615"/>
-      <c r="I21" s="616"/>
-      <c r="J21" s="616"/>
-      <c r="K21" s="617"/>
+      <c r="H21" s="612"/>
+      <c r="I21" s="613"/>
+      <c r="J21" s="613"/>
+      <c r="K21" s="614"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="122">
@@ -63830,10 +63830,10 @@
         <f t="shared" si="1"/>
         <v>59100.391569296669</v>
       </c>
-      <c r="H22" s="615"/>
-      <c r="I22" s="616"/>
-      <c r="J22" s="616"/>
-      <c r="K22" s="617"/>
+      <c r="H22" s="612"/>
+      <c r="I22" s="613"/>
+      <c r="J22" s="613"/>
+      <c r="K22" s="614"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="122">
@@ -63863,10 +63863,10 @@
         <f t="shared" si="1"/>
         <v>75129.427077677014</v>
       </c>
-      <c r="H23" s="615"/>
-      <c r="I23" s="616"/>
-      <c r="J23" s="616"/>
-      <c r="K23" s="617"/>
+      <c r="H23" s="612"/>
+      <c r="I23" s="613"/>
+      <c r="J23" s="613"/>
+      <c r="K23" s="614"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="122">
@@ -63896,10 +63896,10 @@
         <f t="shared" si="1"/>
         <v>92167.554138529638</v>
       </c>
-      <c r="H24" s="615"/>
-      <c r="I24" s="616"/>
-      <c r="J24" s="616"/>
-      <c r="K24" s="617"/>
+      <c r="H24" s="612"/>
+      <c r="I24" s="613"/>
+      <c r="J24" s="613"/>
+      <c r="K24" s="614"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="122">
@@ -63929,10 +63929,10 @@
         <f t="shared" si="1"/>
         <v>109637.28373518866</v>
       </c>
-      <c r="H25" s="615"/>
-      <c r="I25" s="616"/>
-      <c r="J25" s="616"/>
-      <c r="K25" s="617"/>
+      <c r="H25" s="612"/>
+      <c r="I25" s="613"/>
+      <c r="J25" s="613"/>
+      <c r="K25" s="614"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="122">
@@ -63962,10 +63962,10 @@
         <f t="shared" si="1"/>
         <v>111698.48674032788</v>
       </c>
-      <c r="H26" s="615"/>
-      <c r="I26" s="616"/>
-      <c r="J26" s="616"/>
-      <c r="K26" s="617"/>
+      <c r="H26" s="612"/>
+      <c r="I26" s="613"/>
+      <c r="J26" s="613"/>
+      <c r="K26" s="614"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickBot="1">
       <c r="A27" s="124" t="s">
@@ -63995,28 +63995,28 @@
         <f t="shared" si="1"/>
         <v>78737.604038504316</v>
       </c>
-      <c r="H27" s="618"/>
-      <c r="I27" s="619"/>
-      <c r="J27" s="619"/>
-      <c r="K27" s="620"/>
+      <c r="H27" s="615"/>
+      <c r="I27" s="616"/>
+      <c r="J27" s="616"/>
+      <c r="K27" s="617"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A28" s="629" t="s">
+      <c r="A28" s="626" t="s">
         <v>508</v>
       </c>
-      <c r="B28" s="629"/>
-      <c r="C28" s="629"/>
-      <c r="D28" s="629"/>
-      <c r="E28" s="629"/>
-      <c r="F28" s="629"/>
-      <c r="G28" s="629"/>
+      <c r="B28" s="626"/>
+      <c r="C28" s="626"/>
+      <c r="D28" s="626"/>
+      <c r="E28" s="626"/>
+      <c r="F28" s="626"/>
+      <c r="G28" s="626"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="583" t="s">
+      <c r="A29" s="580" t="s">
         <v>509</v>
       </c>
-      <c r="B29" s="584"/>
-      <c r="C29" s="584"/>
+      <c r="B29" s="581"/>
+      <c r="C29" s="581"/>
       <c r="D29" s="441">
         <f>'Valuation output'!B18</f>
         <v>1915756.7892580128</v>
@@ -64024,19 +64024,19 @@
       <c r="E29" s="126"/>
       <c r="F29" s="127"/>
       <c r="G29" s="128"/>
-      <c r="H29" s="621" t="s">
+      <c r="H29" s="618" t="s">
         <v>527</v>
       </c>
-      <c r="I29" s="607"/>
-      <c r="J29" s="607"/>
-      <c r="K29" s="607"/>
+      <c r="I29" s="604"/>
+      <c r="J29" s="604"/>
+      <c r="K29" s="604"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="574" t="s">
+      <c r="A30" s="578" t="s">
         <v>510</v>
       </c>
-      <c r="B30" s="575"/>
-      <c r="C30" s="575"/>
+      <c r="B30" s="579"/>
+      <c r="C30" s="579"/>
       <c r="D30" s="441">
         <f>'Valuation output'!B19</f>
         <v>849117.41625439527</v>
@@ -64044,17 +64044,17 @@
       <c r="E30" s="129"/>
       <c r="F30" s="130"/>
       <c r="G30" s="131"/>
-      <c r="H30" s="621"/>
-      <c r="I30" s="607"/>
-      <c r="J30" s="607"/>
-      <c r="K30" s="607"/>
+      <c r="H30" s="618"/>
+      <c r="I30" s="604"/>
+      <c r="J30" s="604"/>
+      <c r="K30" s="604"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="574" t="s">
+      <c r="A31" s="578" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="575"/>
-      <c r="C31" s="575"/>
+      <c r="B31" s="579"/>
+      <c r="C31" s="579"/>
       <c r="D31" s="441">
         <f>'Valuation output'!B20</f>
         <v>311735.06797951012</v>
@@ -64062,17 +64062,17 @@
       <c r="E31" s="129"/>
       <c r="F31" s="130"/>
       <c r="G31" s="131"/>
-      <c r="H31" s="621"/>
-      <c r="I31" s="607"/>
-      <c r="J31" s="607"/>
-      <c r="K31" s="607"/>
+      <c r="H31" s="618"/>
+      <c r="I31" s="604"/>
+      <c r="J31" s="604"/>
+      <c r="K31" s="604"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="574" t="s">
+      <c r="A32" s="578" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="575"/>
-      <c r="C32" s="575"/>
+      <c r="B32" s="579"/>
+      <c r="C32" s="579"/>
       <c r="D32" s="441">
         <f>'Valuation output'!B21</f>
         <v>1160852.4842339053</v>
@@ -64080,40 +64080,40 @@
       <c r="E32" s="129"/>
       <c r="F32" s="130"/>
       <c r="G32" s="131"/>
-      <c r="H32" s="621"/>
-      <c r="I32" s="607"/>
-      <c r="J32" s="607"/>
-      <c r="K32" s="607"/>
+      <c r="H32" s="618"/>
+      <c r="I32" s="604"/>
+      <c r="J32" s="604"/>
+      <c r="K32" s="604"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="574" t="s">
+      <c r="A33" s="578" t="s">
         <v>518</v>
       </c>
-      <c r="B33" s="575"/>
-      <c r="C33" s="575"/>
+      <c r="B33" s="579"/>
+      <c r="C33" s="579"/>
       <c r="D33" s="441">
         <f>D32-'Valuation output'!B24</f>
         <v>0</v>
       </c>
-      <c r="E33" s="622" t="s">
+      <c r="E33" s="619" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="622"/>
+      <c r="F33" s="619"/>
       <c r="G33" s="388">
         <f>'Valuation output'!B22</f>
         <v>0</v>
       </c>
-      <c r="H33" s="607"/>
-      <c r="I33" s="607"/>
-      <c r="J33" s="607"/>
-      <c r="K33" s="607"/>
+      <c r="H33" s="604"/>
+      <c r="I33" s="604"/>
+      <c r="J33" s="604"/>
+      <c r="K33" s="604"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="574" t="s">
+      <c r="A34" s="578" t="s">
         <v>606</v>
       </c>
-      <c r="B34" s="575"/>
-      <c r="C34" s="575"/>
+      <c r="B34" s="579"/>
+      <c r="C34" s="579"/>
       <c r="D34" s="441">
         <f>'Valuation output'!B25+'Valuation output'!B26</f>
         <v>161574</v>
@@ -64121,17 +64121,17 @@
       <c r="E34" s="129"/>
       <c r="F34" s="130"/>
       <c r="G34" s="131"/>
-      <c r="H34" s="621"/>
-      <c r="I34" s="607"/>
-      <c r="J34" s="607"/>
-      <c r="K34" s="607"/>
+      <c r="H34" s="618"/>
+      <c r="I34" s="604"/>
+      <c r="J34" s="604"/>
+      <c r="K34" s="604"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="574" t="s">
+      <c r="A35" s="578" t="s">
         <v>519</v>
       </c>
-      <c r="B35" s="575"/>
-      <c r="C35" s="575"/>
+      <c r="B35" s="579"/>
+      <c r="C35" s="579"/>
       <c r="D35" s="441">
         <f>'Valuation output'!B27+'Valuation output'!B28</f>
         <v>89734</v>
@@ -64139,17 +64139,17 @@
       <c r="E35" s="129"/>
       <c r="F35" s="130"/>
       <c r="G35" s="131"/>
-      <c r="H35" s="621"/>
-      <c r="I35" s="607"/>
-      <c r="J35" s="607"/>
-      <c r="K35" s="607"/>
+      <c r="H35" s="618"/>
+      <c r="I35" s="604"/>
+      <c r="J35" s="604"/>
+      <c r="K35" s="604"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="574" t="s">
+      <c r="A36" s="578" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="575"/>
-      <c r="C36" s="575"/>
+      <c r="B36" s="579"/>
+      <c r="C36" s="579"/>
       <c r="D36" s="441">
         <f>D32-D33-D34+D35</f>
         <v>1089012.4842339053</v>
@@ -64157,17 +64157,17 @@
       <c r="E36" s="129"/>
       <c r="F36" s="130"/>
       <c r="G36" s="131"/>
-      <c r="H36" s="621"/>
-      <c r="I36" s="607"/>
-      <c r="J36" s="607"/>
-      <c r="K36" s="607"/>
+      <c r="H36" s="618"/>
+      <c r="I36" s="604"/>
+      <c r="J36" s="604"/>
+      <c r="K36" s="604"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="574" t="s">
+      <c r="A37" s="578" t="s">
         <v>520</v>
       </c>
-      <c r="B37" s="575"/>
-      <c r="C37" s="575"/>
+      <c r="B37" s="579"/>
+      <c r="C37" s="579"/>
       <c r="D37" s="441">
         <f>'Valuation output'!B30</f>
         <v>0</v>
@@ -64175,49 +64175,49 @@
       <c r="E37" s="129"/>
       <c r="F37" s="130"/>
       <c r="G37" s="131"/>
-      <c r="H37" s="621"/>
-      <c r="I37" s="607"/>
-      <c r="J37" s="607"/>
-      <c r="K37" s="607"/>
+      <c r="H37" s="618"/>
+      <c r="I37" s="604"/>
+      <c r="J37" s="604"/>
+      <c r="K37" s="604"/>
     </row>
     <row r="38" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A38" s="577" t="s">
+      <c r="A38" s="631" t="s">
         <v>516</v>
       </c>
-      <c r="B38" s="578"/>
-      <c r="C38" s="579"/>
+      <c r="B38" s="632"/>
+      <c r="C38" s="633"/>
       <c r="D38" s="442">
         <f>'Valuation output'!B32</f>
         <v>10492</v>
       </c>
       <c r="G38" s="131"/>
-      <c r="H38" s="621"/>
-      <c r="I38" s="607"/>
-      <c r="J38" s="607"/>
-      <c r="K38" s="607"/>
+      <c r="H38" s="618"/>
+      <c r="I38" s="604"/>
+      <c r="J38" s="604"/>
+      <c r="K38" s="604"/>
     </row>
     <row r="39" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A39" s="630" t="s">
+      <c r="A39" s="627" t="s">
         <v>496</v>
       </c>
-      <c r="B39" s="631"/>
-      <c r="C39" s="632"/>
+      <c r="B39" s="628"/>
+      <c r="C39" s="629"/>
       <c r="D39" s="441">
         <f>(D36-D37)/D38</f>
         <v>103.79455625561431</v>
       </c>
-      <c r="E39" s="576" t="s">
+      <c r="E39" s="630" t="s">
         <v>521</v>
       </c>
-      <c r="F39" s="576"/>
+      <c r="F39" s="630"/>
       <c r="G39" s="137">
         <f>'Input sheet'!B22</f>
         <v>169</v>
       </c>
-      <c r="H39" s="621"/>
-      <c r="I39" s="607"/>
-      <c r="J39" s="607"/>
-      <c r="K39" s="607"/>
+      <c r="H39" s="618"/>
+      <c r="I39" s="604"/>
+      <c r="J39" s="604"/>
+      <c r="K39" s="604"/>
       <c r="M39" s="151"/>
     </row>
     <row r="40" spans="1:13">
@@ -64225,6 +64225,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A29:C29"/>
@@ -64241,14 +64249,6 @@
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -64317,51 +64317,51 @@
       <c r="P2" s="299"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A3" s="649" t="str">
+      <c r="A3" s="642" t="str">
         <f>'Input sheet'!B4</f>
         <v>Amazon</v>
       </c>
-      <c r="B3" s="650"/>
-      <c r="C3" s="650"/>
-      <c r="D3" s="650"/>
-      <c r="E3" s="650"/>
-      <c r="F3" s="650"/>
-      <c r="G3" s="650"/>
-      <c r="H3" s="650"/>
-      <c r="I3" s="650"/>
-      <c r="J3" s="650"/>
-      <c r="K3" s="650"/>
-      <c r="L3" s="650"/>
-      <c r="M3" s="650"/>
-      <c r="N3" s="651"/>
-      <c r="O3" s="641">
+      <c r="B3" s="643"/>
+      <c r="C3" s="643"/>
+      <c r="D3" s="643"/>
+      <c r="E3" s="643"/>
+      <c r="F3" s="643"/>
+      <c r="G3" s="643"/>
+      <c r="H3" s="643"/>
+      <c r="I3" s="643"/>
+      <c r="J3" s="643"/>
+      <c r="K3" s="643"/>
+      <c r="L3" s="643"/>
+      <c r="M3" s="643"/>
+      <c r="N3" s="644"/>
+      <c r="O3" s="634">
         <f>'Input sheet'!B3</f>
         <v>43861</v>
       </c>
-      <c r="P3" s="642"/>
+      <c r="P3" s="635"/>
     </row>
     <row r="4" spans="1:16" ht="13.5" thickBot="1">
       <c r="A4" s="444"/>
       <c r="P4" s="445"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A5" s="638" t="s">
+      <c r="A5" s="652" t="s">
         <v>853</v>
       </c>
-      <c r="B5" s="639"/>
-      <c r="C5" s="640"/>
-      <c r="E5" s="633" t="s">
+      <c r="B5" s="653"/>
+      <c r="C5" s="654"/>
+      <c r="E5" s="647" t="s">
         <v>849</v>
       </c>
-      <c r="F5" s="634"/>
-      <c r="H5" s="633" t="s">
+      <c r="F5" s="648"/>
+      <c r="H5" s="647" t="s">
         <v>850</v>
       </c>
-      <c r="I5" s="634"/>
-      <c r="K5" s="633" t="s">
+      <c r="I5" s="648"/>
+      <c r="K5" s="647" t="s">
         <v>851</v>
       </c>
-      <c r="L5" s="634"/>
+      <c r="L5" s="648"/>
       <c r="P5" s="445"/>
     </row>
     <row r="6" spans="1:16" ht="13.9" customHeight="1">
@@ -64372,25 +64372,25 @@
       <c r="C6" s="374" t="s">
         <v>852</v>
       </c>
-      <c r="E6" s="643" t="str">
+      <c r="E6" s="636" t="str">
         <f>'Stories to Numbers'!G9</f>
         <v>Disruption platform in multiple businesses</v>
       </c>
-      <c r="F6" s="644"/>
-      <c r="H6" s="643" t="str">
+      <c r="F6" s="637"/>
+      <c r="H6" s="636" t="str">
         <f>'Stories to Numbers'!G10</f>
         <v>Margins improve, aided by cloud business &amp; continued economies of scale.</v>
       </c>
-      <c r="I6" s="644"/>
-      <c r="K6" s="643" t="str">
+      <c r="I6" s="637"/>
+      <c r="K6" s="636" t="str">
         <f>'Stories to Numbers'!G12</f>
         <v>Maintained at Amazon's current level</v>
       </c>
-      <c r="L6" s="644"/>
-      <c r="O6" s="652" t="s">
+      <c r="L6" s="637"/>
+      <c r="O6" s="645" t="s">
         <v>535</v>
       </c>
-      <c r="P6" s="653"/>
+      <c r="P6" s="646"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="446" t="s">
@@ -64404,12 +64404,12 @@
         <f>'Input sheet'!K25</f>
         <v>9.6226153846153892E-3</v>
       </c>
-      <c r="E7" s="645"/>
-      <c r="F7" s="646"/>
-      <c r="H7" s="645"/>
-      <c r="I7" s="646"/>
-      <c r="K7" s="645"/>
-      <c r="L7" s="646"/>
+      <c r="E7" s="638"/>
+      <c r="F7" s="639"/>
+      <c r="H7" s="638"/>
+      <c r="I7" s="639"/>
+      <c r="K7" s="638"/>
+      <c r="L7" s="639"/>
       <c r="O7" s="358" t="s">
         <v>848</v>
       </c>
@@ -64426,12 +64426,12 @@
         <f>'Valuation output'!B3</f>
         <v>574785</v>
       </c>
-      <c r="E8" s="645"/>
-      <c r="F8" s="646"/>
-      <c r="H8" s="645"/>
-      <c r="I8" s="646"/>
-      <c r="K8" s="645"/>
-      <c r="L8" s="646"/>
+      <c r="E8" s="638"/>
+      <c r="F8" s="639"/>
+      <c r="H8" s="638"/>
+      <c r="I8" s="639"/>
+      <c r="K8" s="638"/>
+      <c r="L8" s="639"/>
       <c r="O8" s="358" t="s">
         <v>135</v>
       </c>
@@ -64452,12 +64452,12 @@
         <f>'Input sheet'!K26</f>
         <v>4.3542241635271928E-2</v>
       </c>
-      <c r="E9" s="645"/>
-      <c r="F9" s="646"/>
-      <c r="H9" s="645"/>
-      <c r="I9" s="646"/>
-      <c r="K9" s="645"/>
-      <c r="L9" s="646"/>
+      <c r="E9" s="638"/>
+      <c r="F9" s="639"/>
+      <c r="H9" s="638"/>
+      <c r="I9" s="639"/>
+      <c r="K9" s="638"/>
+      <c r="L9" s="639"/>
       <c r="O9" s="358" t="s">
         <v>525</v>
       </c>
@@ -64474,12 +64474,12 @@
         <f>'Valuation output'!B5</f>
         <v>65139.000000000007</v>
       </c>
-      <c r="E10" s="645"/>
-      <c r="F10" s="646"/>
-      <c r="H10" s="645"/>
-      <c r="I10" s="646"/>
-      <c r="K10" s="645"/>
-      <c r="L10" s="646"/>
+      <c r="E10" s="638"/>
+      <c r="F10" s="639"/>
+      <c r="H10" s="638"/>
+      <c r="I10" s="639"/>
+      <c r="K10" s="638"/>
+      <c r="L10" s="639"/>
       <c r="O10" s="358" t="s">
         <v>471</v>
       </c>
@@ -64496,22 +64496,22 @@
         <f>'Valuation output'!B7</f>
         <v>52762.590000000011</v>
       </c>
-      <c r="E11" s="645"/>
-      <c r="F11" s="646"/>
-      <c r="H11" s="645"/>
-      <c r="I11" s="646"/>
-      <c r="K11" s="645"/>
-      <c r="L11" s="646"/>
+      <c r="E11" s="638"/>
+      <c r="F11" s="639"/>
+      <c r="H11" s="638"/>
+      <c r="I11" s="639"/>
+      <c r="K11" s="638"/>
+      <c r="L11" s="639"/>
       <c r="P11" s="448"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="444"/>
-      <c r="E12" s="647"/>
-      <c r="F12" s="648"/>
-      <c r="H12" s="647"/>
-      <c r="I12" s="648"/>
-      <c r="K12" s="647"/>
-      <c r="L12" s="648"/>
+      <c r="E12" s="640"/>
+      <c r="F12" s="641"/>
+      <c r="H12" s="640"/>
+      <c r="I12" s="641"/>
+      <c r="K12" s="640"/>
+      <c r="L12" s="641"/>
       <c r="P12" s="448"/>
     </row>
     <row r="13" spans="1:16">
@@ -65251,78 +65251,78 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="444"/>
-      <c r="D32" s="633" t="s">
+      <c r="D32" s="647" t="s">
         <v>858</v>
       </c>
-      <c r="E32" s="634"/>
-      <c r="G32" s="633" t="s">
+      <c r="E32" s="648"/>
+      <c r="G32" s="647" t="s">
         <v>859</v>
       </c>
-      <c r="H32" s="635"/>
-      <c r="I32" s="634"/>
+      <c r="H32" s="649"/>
+      <c r="I32" s="648"/>
       <c r="P32" s="445"/>
     </row>
     <row r="33" spans="1:16" ht="13.9" customHeight="1">
       <c r="A33" s="444"/>
-      <c r="D33" s="636" t="str">
+      <c r="D33" s="650" t="str">
         <f>'Stories to Numbers'!G14</f>
         <v>Cost of capital close to median company</v>
       </c>
-      <c r="E33" s="636"/>
-      <c r="G33" s="636" t="str">
+      <c r="E33" s="650"/>
+      <c r="G33" s="650" t="str">
         <f>'Stories to Numbers'!G13</f>
         <v>Strong competitive edges</v>
       </c>
-      <c r="H33" s="636"/>
-      <c r="I33" s="636"/>
+      <c r="H33" s="650"/>
+      <c r="I33" s="650"/>
       <c r="P33" s="445"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="444"/>
-      <c r="D34" s="636"/>
-      <c r="E34" s="636"/>
-      <c r="G34" s="636"/>
-      <c r="H34" s="636"/>
-      <c r="I34" s="636"/>
+      <c r="D34" s="650"/>
+      <c r="E34" s="650"/>
+      <c r="G34" s="650"/>
+      <c r="H34" s="650"/>
+      <c r="I34" s="650"/>
       <c r="P34" s="445"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="444"/>
-      <c r="D35" s="636"/>
-      <c r="E35" s="636"/>
-      <c r="G35" s="636"/>
-      <c r="H35" s="636"/>
-      <c r="I35" s="636"/>
+      <c r="D35" s="650"/>
+      <c r="E35" s="650"/>
+      <c r="G35" s="650"/>
+      <c r="H35" s="650"/>
+      <c r="I35" s="650"/>
       <c r="P35" s="445"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="444"/>
-      <c r="D36" s="636"/>
-      <c r="E36" s="636"/>
-      <c r="G36" s="636"/>
-      <c r="H36" s="636"/>
-      <c r="I36" s="636"/>
+      <c r="D36" s="650"/>
+      <c r="E36" s="650"/>
+      <c r="G36" s="650"/>
+      <c r="H36" s="650"/>
+      <c r="I36" s="650"/>
       <c r="P36" s="445"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="444"/>
-      <c r="D37" s="636"/>
-      <c r="E37" s="636"/>
-      <c r="G37" s="636"/>
-      <c r="H37" s="636"/>
-      <c r="I37" s="636"/>
+      <c r="D37" s="650"/>
+      <c r="E37" s="650"/>
+      <c r="G37" s="650"/>
+      <c r="H37" s="650"/>
+      <c r="I37" s="650"/>
       <c r="P37" s="445"/>
     </row>
     <row r="38" spans="1:16" ht="13.5" thickBot="1">
       <c r="A38" s="456"/>
       <c r="B38" s="457"/>
       <c r="C38" s="457"/>
-      <c r="D38" s="637"/>
-      <c r="E38" s="637"/>
+      <c r="D38" s="651"/>
+      <c r="E38" s="651"/>
       <c r="F38" s="457"/>
-      <c r="G38" s="637"/>
-      <c r="H38" s="637"/>
-      <c r="I38" s="637"/>
+      <c r="G38" s="651"/>
+      <c r="H38" s="651"/>
+      <c r="I38" s="651"/>
       <c r="J38" s="457"/>
       <c r="K38" s="457"/>
       <c r="L38" s="457"/>
@@ -65333,6 +65333,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D33:E38"/>
+    <mergeCell ref="G33:I38"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="E6:F12"/>
     <mergeCell ref="H6:I12"/>
@@ -65342,11 +65347,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D33:E38"/>
-    <mergeCell ref="G33:I38"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -65378,10 +65378,10 @@
       </c>
       <c r="B1" s="252"/>
       <c r="C1" s="253"/>
-      <c r="D1" s="656" t="s">
+      <c r="D1" s="657" t="s">
         <v>775</v>
       </c>
-      <c r="E1" s="657"/>
+      <c r="E1" s="658"/>
       <c r="G1" s="248" t="s">
         <v>781</v>
       </c>
@@ -65804,11 +65804,11 @@
     </row>
     <row r="37" spans="1:6" s="76" customFormat="1" ht="15.75" thickBot="1">
       <c r="A37" s="78"/>
-      <c r="B37" s="654" t="str">
+      <c r="B37" s="655" t="str">
         <f>IF(B36="NA","Value is negative. See below",IF(B36&gt;2,"Value seems high. See below",IF(B36&lt;0.5,"Value seems low. See below"," ")))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C37" s="655"/>
+      <c r="C37" s="656"/>
       <c r="D37" s="271"/>
       <c r="E37" s="272"/>
       <c r="F37" s="6"/>
@@ -65914,18 +65914,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1">
-      <c r="A1" s="658" t="s">
+      <c r="A1" s="659" t="s">
         <v>820</v>
       </c>
-      <c r="B1" s="659"/>
-      <c r="C1" s="659"/>
-      <c r="D1" s="659"/>
+      <c r="B1" s="660"/>
+      <c r="C1" s="660"/>
+      <c r="D1" s="660"/>
     </row>
     <row r="2" spans="1:7" ht="37.9" customHeight="1">
-      <c r="A2" s="658"/>
-      <c r="B2" s="659"/>
-      <c r="C2" s="659"/>
-      <c r="D2" s="659"/>
+      <c r="A2" s="659"/>
+      <c r="B2" s="660"/>
+      <c r="C2" s="660"/>
+      <c r="D2" s="660"/>
     </row>
     <row r="3" spans="1:7" s="297" customFormat="1" ht="18">
       <c r="A3" s="239" t="s">
